--- a/Erasmus/detailed_budget.xlsx
+++ b/Erasmus/detailed_budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="I and II. Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,8 +32,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'I and II. Overview'!$36:$75</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">'III. Project implementation sup'!$2:$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0" vbProcedure="false">'III. Project implementation sup'!$2:$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'III. Project implementation sup'!$2:$3</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="518">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -65,6 +67,21 @@
     <t xml:space="preserve">P</t>
   </si>
   <si>
+    <t xml:space="preserve">ULEI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1 only </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 only </t>
+  </si>
+  <si>
     <t xml:space="preserve">100 - 1,999 KM</t>
   </si>
   <si>
@@ -107,12 +124,12 @@
     <t xml:space="preserve">x</t>
   </si>
   <si>
+    <t xml:space="preserve">M3</t>
+  </si>
+  <si>
     <t xml:space="preserve">M2</t>
   </si>
   <si>
-    <t xml:space="preserve">M3</t>
-  </si>
-  <si>
     <t xml:space="preserve">M4</t>
   </si>
   <si>
@@ -240,9 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -5131,9 +5145,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1390320</xdr:colOff>
+      <xdr:colOff>1389960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5147,7 +5161,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="38160"/>
-          <a:ext cx="1706400" cy="936360"/>
+          <a:ext cx="1706040" cy="936000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5168,9 +5182,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>847080</xdr:colOff>
+      <xdr:colOff>846720</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5184,7 +5198,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1922040" y="19080"/>
-          <a:ext cx="1956960" cy="410040"/>
+          <a:ext cx="1956600" cy="409680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5233,8 +5247,8 @@
   </sheetPr>
   <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N36" activeCellId="0" sqref="N36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5252,19 +5266,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="1.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="1.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="1.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="1.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="1.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="5.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="1.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="1.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="1.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="10.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="1.29"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1025" min="29" style="1" width="11.52"/>
@@ -5340,7 +5354,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="8" t="str">
         <f aca="false">Translation!A5</f>
-        <v>  Knowledge Alliances</v>
+        <v>Knowledge Alliances</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="9"/>
@@ -5375,7 +5389,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="11" t="str">
         <f aca="false">+Translation!A6</f>
-        <v>  Sector Skills Alliances</v>
+        <v>Sector Skills Alliances</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -5980,7 +5994,7 @@
       <c r="J22" s="46"/>
       <c r="K22" s="47" t="n">
         <f aca="false">SUMIF('III. Project implementation sup'!$E$4:$E$123,"PR",'III. Project implementation sup'!$V$4:$V$123)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
@@ -5995,7 +6009,7 @@
       <c r="S22" s="25"/>
       <c r="T22" s="47" t="n">
         <f aca="false">+IF(AND(K12=24,SUM(K22+P22)&gt;700000),700000,IF(AND(K12=36,SUM(K22+P22)&gt;1000000),1000000,SUM(K22+P22)))</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="U22" s="47"/>
       <c r="V22" s="47"/>
@@ -6265,7 +6279,7 @@
       <c r="J30" s="55"/>
       <c r="K30" s="56" t="n">
         <f aca="false">SUM(K22:N29)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="L30" s="56"/>
       <c r="M30" s="56"/>
@@ -6280,7 +6294,7 @@
       <c r="S30" s="57"/>
       <c r="T30" s="56" t="n">
         <f aca="false">+IF(AND(K12=24,SUM(K30+P30)&gt;700000),700000,IF(AND(K12=36,SUM(K30+P30)&gt;1000000),1000000,SUM(K30+P30)))</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="U30" s="56"/>
       <c r="V30" s="56"/>
@@ -6480,53 +6494,59 @@
       <c r="B36" s="71" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="72"/>
+      <c r="C36" s="72" t="s">
+        <v>5</v>
+      </c>
       <c r="D36" s="73" t="str">
         <f aca="false">IF(C36="P","P",IF(C36="AE","Table2",""))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E36" s="74" t="str">
         <f aca="false">IF(C36="","",CONCATENATE(C36,B36))</f>
-        <v/>
+        <v>P1</v>
       </c>
       <c r="F36" s="74" t="str">
         <f aca="false">IF(C36="","",IF(C36="P",CONCATENATE(C36,B36," only "),CONCATENATE(C36,B36," to ",H36)))</f>
-        <v/>
+        <v>P1 only </v>
       </c>
       <c r="G36" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E36,1)="P",E36,0),0)</f>
-        <v>0</v>
+        <v>P1</v>
       </c>
       <c r="H36" s="76"/>
-      <c r="I36" s="77"/>
+      <c r="I36" s="77" t="s">
+        <v>6</v>
+      </c>
       <c r="J36" s="77"/>
-      <c r="K36" s="78"/>
+      <c r="K36" s="78" t="s">
+        <v>7</v>
+      </c>
       <c r="L36" s="78"/>
       <c r="M36" s="51"/>
-      <c r="N36" s="79" t="str">
+      <c r="N36" s="79" t="n">
         <f aca="false">IF(LEFT(E36,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E36,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O36" s="79"/>
       <c r="P36" s="79"/>
       <c r="Q36" s="51"/>
-      <c r="R36" s="79" t="str">
+      <c r="R36" s="79" t="n">
         <f aca="false">IF(LEFT(E36,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E36,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S36" s="79"/>
       <c r="T36" s="79"/>
       <c r="U36" s="51"/>
-      <c r="V36" s="79" t="str">
+      <c r="V36" s="79" t="n">
         <f aca="false">IF(LEFT(E36,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E36,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W36" s="79"/>
       <c r="X36" s="79"/>
       <c r="Y36" s="51"/>
-      <c r="Z36" s="80" t="str">
+      <c r="Z36" s="80" t="n">
         <f aca="false">IFERROR((V36+R36+N36),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA36" s="80"/>
       <c r="AB36" s="51"/>
@@ -6538,53 +6558,59 @@
       <c r="B37" s="71" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="72"/>
+      <c r="C37" s="72" t="s">
+        <v>5</v>
+      </c>
       <c r="D37" s="73" t="str">
         <f aca="false">IF(C37="P","P",IF(C37="AE","Table2",""))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E37" s="74" t="str">
         <f aca="false">IF(C37="","",CONCATENATE(C37,B37))</f>
-        <v/>
+        <v>P2</v>
       </c>
       <c r="F37" s="74" t="str">
         <f aca="false">IF(C37="","",IF(C37="P",CONCATENATE(C37,B37," only "),CONCATENATE(C37,B37," to ",H37)))</f>
-        <v/>
+        <v>P2 only </v>
       </c>
       <c r="G37" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E37,1)="P",E37,""),0)</f>
-        <v/>
+        <v>P2</v>
       </c>
       <c r="H37" s="76"/>
-      <c r="I37" s="77"/>
+      <c r="I37" s="77" t="s">
+        <v>8</v>
+      </c>
       <c r="J37" s="77"/>
-      <c r="K37" s="78"/>
+      <c r="K37" s="78" t="s">
+        <v>7</v>
+      </c>
       <c r="L37" s="78"/>
       <c r="M37" s="51"/>
-      <c r="N37" s="79" t="str">
+      <c r="N37" s="79" t="n">
         <f aca="false">IF(LEFT(E37,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E37,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v/>
+        <v>128.5</v>
       </c>
       <c r="O37" s="79"/>
       <c r="P37" s="79"/>
       <c r="Q37" s="51"/>
-      <c r="R37" s="79" t="str">
+      <c r="R37" s="79" t="n">
         <f aca="false">IF(LEFT(E37,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E37,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S37" s="79"/>
       <c r="T37" s="79"/>
       <c r="U37" s="51"/>
-      <c r="V37" s="79" t="str">
+      <c r="V37" s="79" t="n">
         <f aca="false">IF(LEFT(E37,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E37,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W37" s="79"/>
       <c r="X37" s="79"/>
       <c r="Y37" s="51"/>
-      <c r="Z37" s="80" t="str">
+      <c r="Z37" s="80" t="n">
         <f aca="false">IFERROR((V37+R37+N37),"")</f>
-        <v/>
+        <v>128.5</v>
       </c>
       <c r="AA37" s="80"/>
       <c r="AB37" s="51"/>
@@ -8812,7 +8838,7 @@
       <c r="M76" s="84"/>
       <c r="N76" s="85" t="n">
         <f aca="false">SUM(N36:P75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="O76" s="85"/>
       <c r="P76" s="85"/>
@@ -8833,7 +8859,7 @@
       <c r="Y76" s="84"/>
       <c r="Z76" s="86" t="n">
         <f aca="false">SUM(Z36:AA75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="AA76" s="86"/>
       <c r="AB76" s="51"/>
@@ -10177,8 +10203,8 @@
   </sheetPr>
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10189,23 +10215,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="41.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="87" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="1.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="1.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="1.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="2.31"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1025" min="24" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -10242,13 +10268,13 @@
       <c r="B2" s="92"/>
       <c r="C2" s="93" t="str">
         <f aca="false">+Translation!A50</f>
-        <v>Partner </v>
+        <v>Partner</v>
       </c>
       <c r="D2" s="93"/>
       <c r="E2" s="94"/>
       <c r="F2" s="95" t="str">
         <f aca="false">+Translation!A53</f>
-        <v>Manager </v>
+        <v>Manager</v>
       </c>
       <c r="G2" s="95"/>
       <c r="H2" s="95"/>
@@ -10269,7 +10295,7 @@
       <c r="Q2" s="96"/>
       <c r="R2" s="95" t="str">
         <f aca="false">+Translation!A56</f>
-        <v>Administrative </v>
+        <v>Administrative</v>
       </c>
       <c r="S2" s="95"/>
       <c r="T2" s="95"/>
@@ -10351,22 +10377,24 @@
       <c r="W3" s="99"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="108"/>
+      <c r="A4" s="108" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="109" t="str">
         <f aca="false">IFERROR(IF(LEFT(A4,1)="P",TRIM(LEFT(A4,3)),TRIM(RIGHT(A4,3))),"")</f>
-        <v/>
+        <v>P1</v>
       </c>
       <c r="C4" s="110" t="str">
         <f aca="false">IFERROR(IF(A4="","",IF(VLOOKUP(A4,'I and II. Overview'!$F$36:$L$75,4,0)="","",VLOOKUP(A4,'I and II. Overview'!$F$36:$L$75,4,0))),"")</f>
-        <v/>
+        <v>ULEI</v>
       </c>
       <c r="D4" s="110" t="str">
         <f aca="false">IFERROR(IF(A4="","",IF(VLOOKUP(A4,'I and II. Overview'!$F$36:$L$75,6,0)="","",VLOOKUP(A4,'I and II. Overview'!$F$36:$L$75,6,0))),"")</f>
-        <v/>
+        <v>Germany</v>
       </c>
       <c r="E4" s="111" t="str">
         <f aca="false">IFERROR(VLOOKUP(D4,'Ceiling - Project impl.'!$A$2:$B$203,2,0),"")</f>
-        <v/>
+        <v>PR</v>
       </c>
       <c r="F4" s="112"/>
       <c r="G4" s="113" t="str">
@@ -10485,47 +10513,55 @@
       <c r="W5" s="118"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="108"/>
+      <c r="A6" s="108" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="109" t="str">
         <f aca="false">IFERROR(IF(LEFT(A6,1)="P",TRIM(LEFT(A6,3)),TRIM(RIGHT(A6,3))),"")</f>
-        <v/>
+        <v>P2</v>
       </c>
       <c r="C6" s="110" t="str">
         <f aca="false">IFERROR(IF(A6="","",IF(VLOOKUP(A6,'I and II. Overview'!$F$36:$L$75,4,0)="","",VLOOKUP(A6,'I and II. Overview'!$F$36:$L$75,4,0))),"")</f>
-        <v/>
+        <v>HSO</v>
       </c>
       <c r="D6" s="110" t="str">
         <f aca="false">IFERROR(IF(A6="","",IF(VLOOKUP(A6,'I and II. Overview'!$F$36:$L$75,6,0)="","",VLOOKUP(A6,'I and II. Overview'!$F$36:$L$75,6,0))),"")</f>
-        <v/>
+        <v>Germany</v>
       </c>
       <c r="E6" s="111" t="str">
         <f aca="false">IFERROR(VLOOKUP(D6,'Ceiling - Project impl.'!$A$2:$B$203,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="113" t="str">
+        <v>PR</v>
+      </c>
+      <c r="F6" s="112" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="113" t="n">
         <f aca="false">IFERROR(IF(F6="","",VLOOKUP(D6,'Ceiling - Project impl.'!$A$1:$F$204,3,0)),"")</f>
-        <v/>
+        <v>336</v>
       </c>
       <c r="H6" s="114" t="n">
         <f aca="false">IF(OR((F6-INT(F6))=0,(F6-INT(F6)=0.5)),IFERROR(ROUND(F6*G6,2),0),0)</f>
         <v>0</v>
       </c>
       <c r="I6" s="115"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="113" t="str">
+      <c r="J6" s="112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="113" t="n">
         <f aca="false">IFERROR(IF(J6=""," ",VLOOKUP(D6,'Ceiling - Project impl.'!$A$1:$F$204,4,0)),"")</f>
-        <v> </v>
+        <v>257</v>
       </c>
       <c r="L6" s="114" t="n">
         <f aca="false">IF(OR((J6-INT(J6))=0,(J6-INT(J6)=0.5)),IFERROR(ROUND(J6*K6,2),0),0)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="M6" s="115"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="113" t="str">
+      <c r="N6" s="112" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O6" s="113" t="n">
         <f aca="false">IFERROR(IF(N6=""," ",VLOOKUP(D6,'Ceiling - Project impl.'!$A$1:$F$204,5,0)),"")</f>
-        <v> </v>
+        <v>194</v>
       </c>
       <c r="P6" s="114" t="n">
         <f aca="false">IF(OR((N6-INT(N6))=0,(N6-INT(N6)=0.5)),IFERROR(ROUND(N6*O6,2),0),0)</f>
@@ -10543,11 +10579,11 @@
       </c>
       <c r="U6" s="116" t="n">
         <f aca="false">+R6+N6+J6+F6</f>
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V6" s="117" t="n">
         <f aca="false">IFERROR(+T6+P6+L6+H6,0)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="W6" s="118"/>
     </row>
@@ -18401,7 +18437,7 @@
       <c r="E124" s="125"/>
       <c r="F124" s="126" t="n">
         <f aca="false">SUM(F4:F123)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G124" s="127"/>
       <c r="H124" s="128" t="n">
@@ -18411,17 +18447,17 @@
       <c r="I124" s="129"/>
       <c r="J124" s="126" t="n">
         <f aca="false">SUM(J4:J123)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K124" s="127"/>
       <c r="L124" s="128" t="n">
         <f aca="false">SUM(L4:L123)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="M124" s="129"/>
       <c r="N124" s="126" t="n">
         <f aca="false">SUM(N4:N123)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O124" s="127"/>
       <c r="P124" s="128" t="n">
@@ -18440,11 +18476,11 @@
       </c>
       <c r="U124" s="131" t="n">
         <f aca="false">SUM(U4:U123)</f>
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V124" s="132" t="n">
         <f aca="false">SUM(V4:V123)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="W124" s="118"/>
     </row>
@@ -18557,7 +18593,7 @@
       <c r="C1" s="135"/>
       <c r="D1" s="136" t="str">
         <f aca="false">+Translation!A64</f>
-        <v>Additional funding for learning mobility activities realised within an Alliance  </v>
+        <v>Additional funding for learning mobility activities realised within an Alliance</v>
       </c>
       <c r="E1" s="136"/>
       <c r="F1" s="136"/>
@@ -18570,7 +18606,7 @@
       <c r="M1" s="136"/>
       <c r="N1" s="137" t="str">
         <f aca="false">+Translation!A65</f>
-        <v> (OPTIONAL)</v>
+        <v>(OPTIONAL)</v>
       </c>
       <c r="O1" s="137"/>
       <c r="P1" s="51"/>
@@ -18657,7 +18693,7 @@
       <c r="A5" s="143"/>
       <c r="B5" s="51"/>
       <c r="C5" s="151" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" s="152"/>
       <c r="E5" s="153"/>
@@ -18686,7 +18722,7 @@
       <c r="A6" s="143"/>
       <c r="B6" s="51"/>
       <c r="C6" s="160" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" s="161"/>
       <c r="E6" s="162"/>
@@ -25408,8 +25444,8 @@
   </sheetPr>
   <dimension ref="A1:AP71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE18" activeCellId="0" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25489,13 +25525,13 @@
       <c r="AI1" s="217"/>
       <c r="AJ1" s="217"/>
       <c r="AK1" s="217" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AL1" s="217"/>
       <c r="AM1" s="217"/>
       <c r="AN1" s="217"/>
       <c r="AO1" s="218" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AP1" s="214"/>
     </row>
@@ -25540,7 +25576,7 @@
       <c r="AI2" s="217"/>
       <c r="AJ2" s="217"/>
       <c r="AK2" s="217" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL2" s="217"/>
       <c r="AM2" s="217"/>
@@ -25551,7 +25587,7 @@
     <row r="3" s="219" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="220" t="str">
         <f aca="false">+Translation!A91</f>
-        <v>The information in this worksheet should be consistent with the information provided in the "Detailed project </v>
+        <v>The information in this worksheet should be consistent with the information provided in the "Detailed project</v>
       </c>
       <c r="B3" s="220"/>
       <c r="C3" s="220"/>
@@ -25592,13 +25628,13 @@
       <c r="AI3" s="217"/>
       <c r="AJ3" s="217"/>
       <c r="AK3" s="217" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AL3" s="217"/>
       <c r="AM3" s="217"/>
       <c r="AN3" s="217"/>
       <c r="AO3" s="218" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP3" s="214"/>
     </row>
@@ -25646,13 +25682,13 @@
       <c r="AI4" s="217"/>
       <c r="AJ4" s="217"/>
       <c r="AK4" s="217" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AL4" s="217"/>
       <c r="AM4" s="217"/>
       <c r="AN4" s="217"/>
       <c r="AO4" s="218" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AP4" s="214"/>
     </row>
@@ -25697,7 +25733,7 @@
       <c r="AI5" s="217"/>
       <c r="AJ5" s="217"/>
       <c r="AK5" s="217" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AL5" s="217"/>
       <c r="AM5" s="217"/>
@@ -25709,7 +25745,7 @@
       <c r="A6" s="222"/>
       <c r="B6" s="223" t="str">
         <f aca="false">+Translation!A99</f>
-        <v>Select an Action </v>
+        <v>Select an Action</v>
       </c>
       <c r="C6" s="223"/>
       <c r="D6" s="223"/>
@@ -25752,13 +25788,13 @@
       <c r="AI6" s="224"/>
       <c r="AJ6" s="224"/>
       <c r="AK6" s="217" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AL6" s="217"/>
       <c r="AM6" s="217"/>
       <c r="AN6" s="217"/>
       <c r="AO6" s="218" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AP6" s="214"/>
     </row>
@@ -26075,68 +26111,48 @@
         <v>1</v>
       </c>
       <c r="B11" s="235" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="236" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="235" t="n">
         <v>8</v>
       </c>
-      <c r="C11" s="236" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="235" t="n">
-        <v>18</v>
-      </c>
       <c r="E11" s="237" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F11" s="237" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G11" s="237" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H11" s="237" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I11" s="237" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J11" s="237" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K11" s="237" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L11" s="237" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="237" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="237" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="237" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="237" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="237" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="237" t="s">
-        <v>19</v>
-      </c>
-      <c r="S11" s="237" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" s="237" t="s">
-        <v>19</v>
-      </c>
-      <c r="U11" s="237" t="s">
-        <v>19</v>
-      </c>
-      <c r="V11" s="237" t="s">
-        <v>19</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="237"/>
+      <c r="P11" s="237"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="237"/>
+      <c r="S11" s="237"/>
+      <c r="T11" s="237"/>
+      <c r="U11" s="237"/>
+      <c r="V11" s="237"/>
       <c r="W11" s="237"/>
       <c r="X11" s="237"/>
       <c r="Y11" s="237"/>
@@ -26165,29 +26181,71 @@
       <c r="A12" s="234" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="235"/>
-      <c r="C12" s="235"/>
-      <c r="D12" s="235"/>
+      <c r="B12" s="235" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="235" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="235" t="n">
+        <v>18</v>
+      </c>
       <c r="E12" s="237"/>
       <c r="F12" s="237"/>
-      <c r="G12" s="237"/>
-      <c r="H12" s="237"/>
-      <c r="I12" s="237"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="237"/>
-      <c r="M12" s="237"/>
-      <c r="N12" s="237"/>
-      <c r="O12" s="237"/>
-      <c r="P12" s="237"/>
-      <c r="Q12" s="237"/>
-      <c r="R12" s="237"/>
-      <c r="S12" s="237"/>
-      <c r="T12" s="237"/>
-      <c r="U12" s="237"/>
-      <c r="V12" s="237"/>
-      <c r="W12" s="237"/>
-      <c r="X12" s="237"/>
+      <c r="G12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="X12" s="237" t="s">
+        <v>24</v>
+      </c>
       <c r="Y12" s="237"/>
       <c r="Z12" s="237"/>
       <c r="AA12" s="237"/>
@@ -26204,9 +26262,9 @@
       <c r="AL12" s="237"/>
       <c r="AM12" s="237"/>
       <c r="AN12" s="237"/>
-      <c r="AO12" s="238" t="str">
+      <c r="AO12" s="238" t="e">
         <f aca="false">IF(D12+C12&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B12="",C12="",D12=""),"",IF(OR(B12="",C12="",D12=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="AP12" s="214"/>
     </row>
@@ -26214,48 +26272,126 @@
       <c r="A13" s="234" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="235"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="237"/>
-      <c r="H13" s="237"/>
-      <c r="I13" s="237"/>
-      <c r="J13" s="237"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="237"/>
-      <c r="M13" s="237"/>
-      <c r="N13" s="237"/>
-      <c r="O13" s="237"/>
-      <c r="P13" s="237"/>
-      <c r="Q13" s="237"/>
-      <c r="R13" s="237"/>
-      <c r="S13" s="237"/>
-      <c r="T13" s="237"/>
-      <c r="U13" s="237"/>
-      <c r="V13" s="237"/>
-      <c r="W13" s="237"/>
-      <c r="X13" s="237"/>
-      <c r="Y13" s="237"/>
-      <c r="Z13" s="237"/>
-      <c r="AA13" s="237"/>
-      <c r="AB13" s="237"/>
-      <c r="AC13" s="237"/>
-      <c r="AD13" s="237"/>
-      <c r="AE13" s="237"/>
-      <c r="AF13" s="237"/>
-      <c r="AG13" s="237"/>
-      <c r="AH13" s="237"/>
-      <c r="AI13" s="237"/>
-      <c r="AJ13" s="237"/>
-      <c r="AK13" s="237"/>
-      <c r="AL13" s="237"/>
-      <c r="AM13" s="237"/>
-      <c r="AN13" s="237"/>
-      <c r="AO13" s="238" t="str">
+      <c r="B13" s="235" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="235" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="235" t="n">
+        <v>36</v>
+      </c>
+      <c r="E13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="V13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="W13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="X13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN13" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO13" s="238" t="e">
         <f aca="false">IF(D13+C13&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B13="",C13="",D13=""),"",IF(OR(B13="",C13="",D13=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="AP13" s="214"/>
     </row>
@@ -26263,48 +26399,126 @@
       <c r="A14" s="234" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="235"/>
-      <c r="C14" s="235"/>
-      <c r="D14" s="235"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="237"/>
-      <c r="G14" s="237"/>
-      <c r="H14" s="237"/>
-      <c r="I14" s="237"/>
-      <c r="J14" s="237"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="237"/>
-      <c r="M14" s="237"/>
-      <c r="N14" s="237"/>
-      <c r="O14" s="237"/>
-      <c r="P14" s="237"/>
-      <c r="Q14" s="237"/>
-      <c r="R14" s="237"/>
-      <c r="S14" s="237"/>
-      <c r="T14" s="237"/>
-      <c r="U14" s="237"/>
-      <c r="V14" s="237"/>
-      <c r="W14" s="237"/>
-      <c r="X14" s="237"/>
-      <c r="Y14" s="237"/>
-      <c r="Z14" s="237"/>
-      <c r="AA14" s="237"/>
-      <c r="AB14" s="237"/>
-      <c r="AC14" s="237"/>
-      <c r="AD14" s="237"/>
-      <c r="AE14" s="237"/>
-      <c r="AF14" s="237"/>
-      <c r="AG14" s="237"/>
-      <c r="AH14" s="237"/>
-      <c r="AI14" s="237"/>
-      <c r="AJ14" s="237"/>
-      <c r="AK14" s="237"/>
-      <c r="AL14" s="237"/>
-      <c r="AM14" s="237"/>
-      <c r="AN14" s="237"/>
-      <c r="AO14" s="238" t="str">
+      <c r="B14" s="235" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="235" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="235" t="n">
+        <v>36</v>
+      </c>
+      <c r="E14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="W14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="X14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN14" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO14" s="238" t="e">
         <f aca="false">IF(D14+C14&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B14="",C14="",D14=""),"",IF(OR(B14="",C14="",D14=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="AP14" s="214"/>
     </row>
@@ -26312,48 +26526,126 @@
       <c r="A15" s="234" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="235"/>
-      <c r="C15" s="235"/>
-      <c r="D15" s="235"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="237"/>
-      <c r="G15" s="237"/>
-      <c r="H15" s="237"/>
-      <c r="I15" s="237"/>
-      <c r="J15" s="237"/>
-      <c r="K15" s="237"/>
-      <c r="L15" s="237"/>
-      <c r="M15" s="237"/>
-      <c r="N15" s="237"/>
-      <c r="O15" s="237"/>
-      <c r="P15" s="237"/>
-      <c r="Q15" s="237"/>
-      <c r="R15" s="237"/>
-      <c r="S15" s="237"/>
-      <c r="T15" s="237"/>
-      <c r="U15" s="237"/>
-      <c r="V15" s="237"/>
-      <c r="W15" s="237"/>
-      <c r="X15" s="237"/>
-      <c r="Y15" s="237"/>
-      <c r="Z15" s="237"/>
-      <c r="AA15" s="237"/>
-      <c r="AB15" s="237"/>
-      <c r="AC15" s="237"/>
-      <c r="AD15" s="237"/>
-      <c r="AE15" s="237"/>
-      <c r="AF15" s="237"/>
-      <c r="AG15" s="237"/>
-      <c r="AH15" s="237"/>
-      <c r="AI15" s="237"/>
-      <c r="AJ15" s="237"/>
-      <c r="AK15" s="237"/>
-      <c r="AL15" s="237"/>
-      <c r="AM15" s="237"/>
-      <c r="AN15" s="237"/>
-      <c r="AO15" s="238" t="str">
+      <c r="B15" s="235" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="235" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="235" t="n">
+        <v>36</v>
+      </c>
+      <c r="E15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="X15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN15" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO15" s="238" t="e">
         <f aca="false">IF(D15+C15&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B15="",C15="",D15=""),"",IF(OR(B15="",C15="",D15=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="AP15" s="214"/>
     </row>
@@ -26361,48 +26653,126 @@
       <c r="A16" s="234" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="235"/>
-      <c r="C16" s="235"/>
-      <c r="D16" s="235"/>
-      <c r="E16" s="237"/>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="237"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="237"/>
-      <c r="M16" s="237"/>
-      <c r="N16" s="237"/>
-      <c r="O16" s="237"/>
-      <c r="P16" s="237"/>
-      <c r="Q16" s="237"/>
-      <c r="R16" s="237"/>
-      <c r="S16" s="237"/>
-      <c r="T16" s="237"/>
-      <c r="U16" s="237"/>
-      <c r="V16" s="237"/>
-      <c r="W16" s="237"/>
-      <c r="X16" s="237"/>
-      <c r="Y16" s="237"/>
-      <c r="Z16" s="237"/>
-      <c r="AA16" s="237"/>
-      <c r="AB16" s="237"/>
-      <c r="AC16" s="237"/>
-      <c r="AD16" s="237"/>
-      <c r="AE16" s="237"/>
-      <c r="AF16" s="237"/>
-      <c r="AG16" s="237"/>
-      <c r="AH16" s="237"/>
-      <c r="AI16" s="237"/>
-      <c r="AJ16" s="237"/>
-      <c r="AK16" s="237"/>
-      <c r="AL16" s="237"/>
-      <c r="AM16" s="237"/>
-      <c r="AN16" s="237"/>
-      <c r="AO16" s="238" t="str">
+      <c r="B16" s="235" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="235" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="235" t="n">
+        <v>36</v>
+      </c>
+      <c r="E16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="W16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="X16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN16" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO16" s="238" t="e">
         <f aca="false">IF(D16+C16&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B16="",C16="",D16=""),"",IF(OR(B16="",C16="",D16=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="AP16" s="214"/>
     </row>
@@ -26410,48 +26780,126 @@
       <c r="A17" s="234" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="235"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="237"/>
-      <c r="F17" s="237"/>
-      <c r="G17" s="237"/>
-      <c r="H17" s="237"/>
-      <c r="I17" s="237"/>
-      <c r="J17" s="237"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="237"/>
-      <c r="M17" s="237"/>
-      <c r="N17" s="237"/>
-      <c r="O17" s="237"/>
-      <c r="P17" s="237"/>
-      <c r="Q17" s="237"/>
-      <c r="R17" s="237"/>
-      <c r="S17" s="237"/>
-      <c r="T17" s="237"/>
-      <c r="U17" s="237"/>
-      <c r="V17" s="237"/>
-      <c r="W17" s="237"/>
-      <c r="X17" s="237"/>
-      <c r="Y17" s="237"/>
-      <c r="Z17" s="237"/>
-      <c r="AA17" s="237"/>
-      <c r="AB17" s="237"/>
-      <c r="AC17" s="237"/>
-      <c r="AD17" s="237"/>
-      <c r="AE17" s="237"/>
-      <c r="AF17" s="237"/>
-      <c r="AG17" s="237"/>
-      <c r="AH17" s="237"/>
-      <c r="AI17" s="237"/>
-      <c r="AJ17" s="237"/>
-      <c r="AK17" s="237"/>
-      <c r="AL17" s="237"/>
-      <c r="AM17" s="237"/>
-      <c r="AN17" s="237"/>
-      <c r="AO17" s="238" t="str">
+      <c r="B17" s="235" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="235" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="235" t="n">
+        <v>36</v>
+      </c>
+      <c r="E17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="W17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="X17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN17" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO17" s="238" t="e">
         <f aca="false">IF(D17+C17&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B17="",C17="",D17=""),"",IF(OR(B17="",C17="",D17=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="AP17" s="214"/>
     </row>
@@ -26459,48 +26907,92 @@
       <c r="A18" s="234" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="235"/>
-      <c r="C18" s="235"/>
-      <c r="D18" s="235"/>
+      <c r="B18" s="235" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="235" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="235" t="n">
+        <v>36</v>
+      </c>
       <c r="E18" s="237"/>
       <c r="F18" s="237"/>
       <c r="G18" s="237"/>
       <c r="H18" s="237"/>
       <c r="I18" s="237"/>
-      <c r="J18" s="237"/>
-      <c r="K18" s="237"/>
-      <c r="L18" s="237"/>
+      <c r="J18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="237" t="s">
+        <v>24</v>
+      </c>
       <c r="M18" s="237"/>
       <c r="N18" s="237"/>
       <c r="O18" s="237"/>
-      <c r="P18" s="237"/>
-      <c r="Q18" s="237"/>
-      <c r="R18" s="237"/>
+      <c r="P18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="237" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="237"/>
       <c r="T18" s="237"/>
       <c r="U18" s="237"/>
-      <c r="V18" s="237"/>
-      <c r="W18" s="237"/>
-      <c r="X18" s="237"/>
+      <c r="V18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="W18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="X18" s="237" t="s">
+        <v>24</v>
+      </c>
       <c r="Y18" s="237"/>
       <c r="Z18" s="237"/>
       <c r="AA18" s="237"/>
-      <c r="AB18" s="237"/>
-      <c r="AC18" s="237"/>
-      <c r="AD18" s="237"/>
+      <c r="AB18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD18" s="237" t="s">
+        <v>24</v>
+      </c>
       <c r="AE18" s="237"/>
       <c r="AF18" s="237"/>
       <c r="AG18" s="237"/>
-      <c r="AH18" s="237"/>
-      <c r="AI18" s="237"/>
-      <c r="AJ18" s="237"/>
-      <c r="AK18" s="237"/>
-      <c r="AL18" s="237"/>
-      <c r="AM18" s="237"/>
-      <c r="AN18" s="237"/>
-      <c r="AO18" s="238" t="str">
+      <c r="AH18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN18" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO18" s="238" t="e">
         <f aca="false">IF(D18+C18&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B18="",C18="",D18=""),"",IF(OR(B18="",C18="",D18=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="AP18" s="214"/>
     </row>
@@ -26508,9 +27000,15 @@
       <c r="A19" s="234" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="235"/>
-      <c r="C19" s="235"/>
-      <c r="D19" s="235"/>
+      <c r="B19" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="235" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="235" t="n">
+        <v>36</v>
+      </c>
       <c r="E19" s="237"/>
       <c r="F19" s="237"/>
       <c r="G19" s="237"/>
@@ -26539,17 +27037,33 @@
       <c r="AD19" s="237"/>
       <c r="AE19" s="237"/>
       <c r="AF19" s="237"/>
-      <c r="AG19" s="237"/>
-      <c r="AH19" s="237"/>
-      <c r="AI19" s="237"/>
-      <c r="AJ19" s="237"/>
-      <c r="AK19" s="237"/>
-      <c r="AL19" s="237"/>
-      <c r="AM19" s="237"/>
-      <c r="AN19" s="237"/>
-      <c r="AO19" s="238" t="str">
+      <c r="AG19" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH19" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI19" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ19" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK19" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL19" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM19" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN19" s="237" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO19" s="238" t="e">
         <f aca="false">IF(D19+C19&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B19="",C19="",D19=""),"",IF(OR(B19="",C19="",D19=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="AP19" s="214"/>
     </row>
@@ -27529,7 +28043,7 @@
     </row>
     <row r="36" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="213" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E36" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D36,IF(E$10&lt;$C36,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -27678,7 +28192,7 @@
     </row>
     <row r="37" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="213" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E37" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D37,IF(E$10&lt;$C37,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -27827,7 +28341,7 @@
     </row>
     <row r="38" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="213" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E38" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D38,IF(E$10&lt;$C38,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -27976,7 +28490,7 @@
     </row>
     <row r="39" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="213" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E39" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D39,IF(E$10&lt;$C39,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -28125,7 +28639,7 @@
     </row>
     <row r="40" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="213" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E40" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D40,IF(E$10&lt;$C40,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -28274,157 +28788,157 @@
     </row>
     <row r="41" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="213" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="213" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="213" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="213" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="213" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="213" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="213" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="213" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="213" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="213" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="213" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="213" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="213" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="213" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="213" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="213" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="213" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="213" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="213" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="213" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="213" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="213" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="213" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="213" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="213" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="213" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="213" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="213" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="213" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="213" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="213" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -28472,7 +28986,7 @@
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:AB16">
+  <conditionalFormatting sqref="E11:AB12 E13:AN19">
     <cfRule type="cellIs" priority="5" operator="notEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>""</formula>
     </cfRule>
@@ -28520,9 +29034,9 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="241" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="241" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="241" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="241" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="241" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="241" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="241" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="241" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="241" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1025" min="8" style="241" width="8.86"/>
@@ -28536,7 +29050,7 @@
       <c r="B1" s="242"/>
       <c r="C1" s="242" t="str">
         <f aca="false">+Translation!A53</f>
-        <v>Manager </v>
+        <v>Manager</v>
       </c>
       <c r="D1" s="242" t="str">
         <f aca="false">+Translation!A54</f>
@@ -28548,16 +29062,16 @@
       </c>
       <c r="F1" s="242" t="str">
         <f aca="false">+Translation!A56</f>
-        <v>Administrative </v>
+        <v>Administrative</v>
       </c>
       <c r="G1" s="243"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="244" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B2" s="245" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C2" s="245" t="n">
         <v>353</v>
@@ -28575,10 +29089,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="244" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B3" s="245" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C3" s="245" t="n">
         <v>353</v>
@@ -28596,10 +29110,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="244" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B4" s="245" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C4" s="245" t="n">
         <v>353</v>
@@ -28617,10 +29131,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="244" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B5" s="245" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C5" s="245" t="n">
         <v>353</v>
@@ -28638,10 +29152,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="244" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B6" s="245" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C6" s="245" t="n">
         <v>353</v>
@@ -28659,10 +29173,10 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="244" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="245" t="s">
         <v>61</v>
-      </c>
-      <c r="B7" s="245" t="s">
-        <v>56</v>
       </c>
       <c r="C7" s="245" t="n">
         <v>353</v>
@@ -28680,10 +29194,10 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="244" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B8" s="245" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C8" s="245" t="n">
         <v>353</v>
@@ -28701,10 +29215,10 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="244" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B9" s="245" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C9" s="245" t="n">
         <v>353</v>
@@ -28722,10 +29236,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="246" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B10" s="247" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C10" s="247" t="n">
         <v>336</v>
@@ -28743,10 +29257,10 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="248" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B11" s="247" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C11" s="247" t="n">
         <v>336</v>
@@ -28764,10 +29278,10 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="248" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B12" s="247" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C12" s="247" t="n">
         <v>336</v>
@@ -28785,10 +29299,10 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="248" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B13" s="247" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C13" s="247" t="n">
         <v>336</v>
@@ -28806,10 +29320,10 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="248" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B14" s="247" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C14" s="247" t="n">
         <v>336</v>
@@ -28827,10 +29341,10 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="248" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B15" s="247" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C15" s="247" t="n">
         <v>336</v>
@@ -28848,10 +29362,10 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="248" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B16" s="247" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C16" s="247" t="n">
         <v>336</v>
@@ -28869,10 +29383,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="249" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B17" s="250" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C17" s="250" t="n">
         <v>197</v>
@@ -28890,10 +29404,10 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="249" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B18" s="250" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C18" s="250" t="n">
         <v>197</v>
@@ -28911,10 +29425,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="249" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B19" s="250" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C19" s="250" t="n">
         <v>197</v>
@@ -28932,10 +29446,10 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="251" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B20" s="250" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C20" s="250" t="n">
         <v>197</v>
@@ -28953,10 +29467,10 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="249" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B21" s="250" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C21" s="250" t="n">
         <v>197</v>
@@ -28974,10 +29488,10 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="249" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B22" s="250" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C22" s="250" t="n">
         <v>197</v>
@@ -28995,10 +29509,10 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="249" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B23" s="250" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C23" s="250" t="n">
         <v>197</v>
@@ -29016,10 +29530,10 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="252" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B24" s="253" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C24" s="253" t="n">
         <v>106</v>
@@ -29037,10 +29551,10 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="254" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B25" s="253" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C25" s="253" t="n">
         <v>106</v>
@@ -29058,10 +29572,10 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="254" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B26" s="253" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C26" s="253" t="n">
         <v>106</v>
@@ -29079,10 +29593,10 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="254" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B27" s="253" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C27" s="253" t="n">
         <v>106</v>
@@ -29100,10 +29614,10 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="254" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B28" s="253" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C28" s="253" t="n">
         <v>106</v>
@@ -29121,10 +29635,10 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="254" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B29" s="253" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C29" s="253" t="n">
         <v>106</v>
@@ -29142,10 +29656,10 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="254" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B30" s="253" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="253" t="n">
         <v>106</v>
@@ -29163,10 +29677,10 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="254" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B31" s="253" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C31" s="253" t="n">
         <v>106</v>
@@ -29184,10 +29698,10 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="254" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B32" s="253" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C32" s="253" t="n">
         <v>106</v>
@@ -29205,10 +29719,10 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="254" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B33" s="253" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C33" s="253" t="n">
         <v>106</v>
@@ -29226,10 +29740,10 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="254" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B34" s="253" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C34" s="253" t="n">
         <v>106</v>
@@ -29247,10 +29761,10 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="254" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B35" s="253" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C35" s="253" t="n">
         <v>106</v>
@@ -29268,10 +29782,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="255" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B36" s="256" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C36" s="256" t="n">
         <v>353</v>
@@ -29289,10 +29803,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="257" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B37" s="256" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C37" s="256" t="n">
         <v>353</v>
@@ -29310,10 +29824,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="257" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B38" s="256" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C38" s="256" t="n">
         <v>353</v>
@@ -29331,10 +29845,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="257" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B39" s="256" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C39" s="256" t="n">
         <v>353</v>
@@ -29352,10 +29866,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="257" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="256" t="s">
         <v>95</v>
-      </c>
-      <c r="B40" s="256" t="s">
-        <v>91</v>
       </c>
       <c r="C40" s="256" t="n">
         <v>353</v>
@@ -29373,10 +29887,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="257" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B41" s="256" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C41" s="256" t="n">
         <v>353</v>
@@ -29394,10 +29908,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="257" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B42" s="256" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C42" s="256" t="n">
         <v>353</v>
@@ -29415,10 +29929,10 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="257" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B43" s="256" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C43" s="256" t="n">
         <v>353</v>
@@ -29436,10 +29950,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="257" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B44" s="256" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C44" s="256" t="n">
         <v>353</v>
@@ -29457,10 +29971,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="258" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B45" s="259" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C45" s="259" t="n">
         <v>336</v>
@@ -29478,10 +29992,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="260" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B46" s="259" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C46" s="259" t="n">
         <v>336</v>
@@ -29499,10 +30013,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="260" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B47" s="259" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C47" s="259" t="n">
         <v>336</v>
@@ -29520,10 +30034,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="260" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B48" s="259" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C48" s="259" t="n">
         <v>336</v>
@@ -29541,10 +30055,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="260" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B49" s="259" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C49" s="259" t="n">
         <v>336</v>
@@ -29562,10 +30076,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="260" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B50" s="259" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C50" s="259" t="n">
         <v>336</v>
@@ -29583,10 +30097,10 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="260" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B51" s="259" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C51" s="259" t="n">
         <v>336</v>
@@ -29604,10 +30118,10 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="261" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B52" s="262" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C52" s="262" t="n">
         <v>197</v>
@@ -29625,10 +30139,10 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="263" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B53" s="262" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C53" s="262" t="n">
         <v>197</v>
@@ -29646,10 +30160,10 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="263" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B54" s="262" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C54" s="262" t="n">
         <v>197</v>
@@ -29667,10 +30181,10 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="263" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B55" s="262" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C55" s="262" t="n">
         <v>197</v>
@@ -29688,10 +30202,10 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="263" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B56" s="262" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C56" s="262" t="n">
         <v>197</v>
@@ -29709,10 +30223,10 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="263" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B57" s="262" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C57" s="262" t="n">
         <v>197</v>
@@ -29730,10 +30244,10 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="263" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B58" s="262" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C58" s="262" t="n">
         <v>197</v>
@@ -29751,10 +30265,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="263" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B59" s="262" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C59" s="262" t="n">
         <v>197</v>
@@ -29772,10 +30286,10 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="263" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B60" s="262" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C60" s="262" t="n">
         <v>197</v>
@@ -29793,10 +30307,10 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="264" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B61" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C61" s="265" t="n">
         <v>106</v>
@@ -29814,10 +30328,10 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="266" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B62" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C62" s="265" t="n">
         <v>106</v>
@@ -29835,10 +30349,10 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="266" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B63" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C63" s="265" t="n">
         <v>106</v>
@@ -29856,10 +30370,10 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="266" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B64" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C64" s="265" t="n">
         <v>106</v>
@@ -29877,10 +30391,10 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="266" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B65" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C65" s="265" t="n">
         <v>106</v>
@@ -29898,10 +30412,10 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="266" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B66" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C66" s="265" t="n">
         <v>106</v>
@@ -29919,10 +30433,10 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="266" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B67" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C67" s="265" t="n">
         <v>106</v>
@@ -29940,10 +30454,10 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="266" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B68" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C68" s="265" t="n">
         <v>106</v>
@@ -29961,10 +30475,10 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="266" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B69" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C69" s="265" t="n">
         <v>106</v>
@@ -29982,10 +30496,10 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="266" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B70" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C70" s="265" t="n">
         <v>106</v>
@@ -30003,10 +30517,10 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="266" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B71" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C71" s="265" t="n">
         <v>106</v>
@@ -30024,10 +30538,10 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="266" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B72" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C72" s="265" t="n">
         <v>106</v>
@@ -30045,10 +30559,10 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="266" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B73" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C73" s="265" t="n">
         <v>106</v>
@@ -30066,10 +30580,10 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="266" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B74" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C74" s="265" t="n">
         <v>106</v>
@@ -30087,10 +30601,10 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="266" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B75" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C75" s="265" t="n">
         <v>106</v>
@@ -30108,10 +30622,10 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="266" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B76" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C76" s="265" t="n">
         <v>106</v>
@@ -30129,10 +30643,10 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="266" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B77" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C77" s="265" t="n">
         <v>106</v>
@@ -30150,10 +30664,10 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="266" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B78" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C78" s="265" t="n">
         <v>106</v>
@@ -30171,10 +30685,10 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="266" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B79" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C79" s="265" t="n">
         <v>106</v>
@@ -30192,10 +30706,10 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="266" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B80" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C80" s="265" t="n">
         <v>106</v>
@@ -30213,10 +30727,10 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="266" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B81" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C81" s="265" t="n">
         <v>106</v>
@@ -30234,10 +30748,10 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="266" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B82" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C82" s="265" t="n">
         <v>106</v>
@@ -30255,10 +30769,10 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="266" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B83" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C83" s="265" t="n">
         <v>106</v>
@@ -30276,10 +30790,10 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="266" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B84" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C84" s="265" t="n">
         <v>106</v>
@@ -30297,10 +30811,10 @@
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="266" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B85" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C85" s="265" t="n">
         <v>106</v>
@@ -30318,10 +30832,10 @@
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="266" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B86" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C86" s="265" t="n">
         <v>106</v>
@@ -30339,10 +30853,10 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="266" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B87" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C87" s="265" t="n">
         <v>106</v>
@@ -30360,10 +30874,10 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="266" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B88" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C88" s="265" t="n">
         <v>106</v>
@@ -30381,10 +30895,10 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="266" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B89" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C89" s="265" t="n">
         <v>106</v>
@@ -30402,10 +30916,10 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="266" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B90" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C90" s="265" t="n">
         <v>106</v>
@@ -30423,10 +30937,10 @@
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="266" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B91" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C91" s="265" t="n">
         <v>106</v>
@@ -30444,10 +30958,10 @@
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="266" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B92" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C92" s="265" t="n">
         <v>106</v>
@@ -30465,10 +30979,10 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="266" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B93" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C93" s="265" t="n">
         <v>106</v>
@@ -30486,10 +31000,10 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="266" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B94" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C94" s="265" t="n">
         <v>106</v>
@@ -30507,10 +31021,10 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="266" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B95" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C95" s="265" t="n">
         <v>106</v>
@@ -30528,10 +31042,10 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="266" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B96" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C96" s="265" t="n">
         <v>106</v>
@@ -30549,10 +31063,10 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="266" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B97" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C97" s="265" t="n">
         <v>106</v>
@@ -30570,10 +31084,10 @@
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="266" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B98" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C98" s="265" t="n">
         <v>106</v>
@@ -30591,10 +31105,10 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="266" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B99" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C99" s="265" t="n">
         <v>106</v>
@@ -30612,10 +31126,10 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="266" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B100" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C100" s="265" t="n">
         <v>106</v>
@@ -30633,10 +31147,10 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="266" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B101" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C101" s="265" t="n">
         <v>106</v>
@@ -30654,10 +31168,10 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="266" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B102" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C102" s="265" t="n">
         <v>106</v>
@@ -30675,10 +31189,10 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="266" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B103" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C103" s="265" t="n">
         <v>106</v>
@@ -30696,10 +31210,10 @@
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="266" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B104" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C104" s="265" t="n">
         <v>106</v>
@@ -30717,10 +31231,10 @@
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="266" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B105" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C105" s="265" t="n">
         <v>106</v>
@@ -30738,10 +31252,10 @@
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="266" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B106" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C106" s="265" t="n">
         <v>106</v>
@@ -30759,10 +31273,10 @@
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="266" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B107" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C107" s="265" t="n">
         <v>106</v>
@@ -30780,10 +31294,10 @@
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="266" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B108" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C108" s="265" t="n">
         <v>106</v>
@@ -30801,10 +31315,10 @@
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="266" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B109" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C109" s="265" t="n">
         <v>106</v>
@@ -30822,10 +31336,10 @@
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="266" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B110" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C110" s="265" t="n">
         <v>106</v>
@@ -30843,10 +31357,10 @@
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="266" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B111" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C111" s="265" t="n">
         <v>106</v>
@@ -30864,10 +31378,10 @@
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="266" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B112" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C112" s="265" t="n">
         <v>106</v>
@@ -30885,10 +31399,10 @@
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="266" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B113" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C113" s="265" t="n">
         <v>106</v>
@@ -30906,10 +31420,10 @@
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="266" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B114" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C114" s="265" t="n">
         <v>106</v>
@@ -30927,10 +31441,10 @@
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="266" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B115" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C115" s="265" t="n">
         <v>106</v>
@@ -30948,10 +31462,10 @@
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="266" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B116" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C116" s="265" t="n">
         <v>106</v>
@@ -30969,10 +31483,10 @@
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="266" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B117" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C117" s="265" t="n">
         <v>106</v>
@@ -30990,10 +31504,10 @@
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="266" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B118" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C118" s="265" t="n">
         <v>106</v>
@@ -31011,10 +31525,10 @@
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="266" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B119" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C119" s="265" t="n">
         <v>106</v>
@@ -31032,10 +31546,10 @@
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="266" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B120" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C120" s="265" t="n">
         <v>106</v>
@@ -31053,10 +31567,10 @@
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="266" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B121" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C121" s="265" t="n">
         <v>106</v>
@@ -31074,10 +31588,10 @@
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="266" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B122" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C122" s="265" t="n">
         <v>106</v>
@@ -31095,10 +31609,10 @@
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="266" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B123" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C123" s="265" t="n">
         <v>106</v>
@@ -31116,10 +31630,10 @@
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="266" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B124" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C124" s="265" t="n">
         <v>106</v>
@@ -31137,10 +31651,10 @@
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="266" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B125" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C125" s="265" t="n">
         <v>106</v>
@@ -31158,10 +31672,10 @@
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="266" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B126" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C126" s="265" t="n">
         <v>106</v>
@@ -31179,10 +31693,10 @@
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="266" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B127" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C127" s="265" t="n">
         <v>106</v>
@@ -31200,10 +31714,10 @@
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="266" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B128" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C128" s="265" t="n">
         <v>106</v>
@@ -31221,10 +31735,10 @@
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="266" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B129" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C129" s="265" t="n">
         <v>106</v>
@@ -31242,10 +31756,10 @@
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="266" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B130" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C130" s="265" t="n">
         <v>106</v>
@@ -31263,10 +31777,10 @@
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="266" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B131" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C131" s="265" t="n">
         <v>106</v>
@@ -31284,10 +31798,10 @@
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="266" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B132" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C132" s="265" t="n">
         <v>106</v>
@@ -31305,10 +31819,10 @@
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="266" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B133" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C133" s="265" t="n">
         <v>106</v>
@@ -31326,10 +31840,10 @@
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="266" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B134" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C134" s="265" t="n">
         <v>106</v>
@@ -31347,10 +31861,10 @@
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="266" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B135" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C135" s="265" t="n">
         <v>106</v>
@@ -31368,10 +31882,10 @@
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="266" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B136" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C136" s="265" t="n">
         <v>106</v>
@@ -31389,10 +31903,10 @@
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="266" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B137" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C137" s="265" t="n">
         <v>106</v>
@@ -31410,10 +31924,10 @@
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="266" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B138" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C138" s="265" t="n">
         <v>106</v>
@@ -31431,10 +31945,10 @@
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="266" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B139" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C139" s="265" t="n">
         <v>106</v>
@@ -31452,10 +31966,10 @@
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="266" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B140" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C140" s="265" t="n">
         <v>106</v>
@@ -31473,10 +31987,10 @@
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="266" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B141" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C141" s="265" t="n">
         <v>106</v>
@@ -31494,10 +32008,10 @@
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="266" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B142" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C142" s="265" t="n">
         <v>106</v>
@@ -31515,10 +32029,10 @@
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="266" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B143" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C143" s="265" t="n">
         <v>106</v>
@@ -31536,10 +32050,10 @@
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="266" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B144" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C144" s="265" t="n">
         <v>106</v>
@@ -31557,10 +32071,10 @@
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="266" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B145" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C145" s="265" t="n">
         <v>106</v>
@@ -31578,10 +32092,10 @@
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="266" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B146" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C146" s="265" t="n">
         <v>106</v>
@@ -31599,10 +32113,10 @@
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="266" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B147" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C147" s="265" t="n">
         <v>106</v>
@@ -31620,10 +32134,10 @@
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="266" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B148" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C148" s="265" t="n">
         <v>106</v>
@@ -31641,10 +32155,10 @@
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="266" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B149" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C149" s="265" t="n">
         <v>106</v>
@@ -31662,10 +32176,10 @@
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="266" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B150" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C150" s="265" t="n">
         <v>106</v>
@@ -31683,10 +32197,10 @@
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="266" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B151" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C151" s="265" t="n">
         <v>106</v>
@@ -31704,10 +32218,10 @@
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="266" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B152" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C152" s="265" t="n">
         <v>106</v>
@@ -31725,10 +32239,10 @@
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="266" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B153" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C153" s="265" t="n">
         <v>106</v>
@@ -31746,10 +32260,10 @@
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="266" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B154" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C154" s="265" t="n">
         <v>106</v>
@@ -31767,10 +32281,10 @@
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="266" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B155" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C155" s="265" t="n">
         <v>106</v>
@@ -31788,10 +32302,10 @@
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="266" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B156" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C156" s="265" t="n">
         <v>106</v>
@@ -31809,10 +32323,10 @@
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="266" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B157" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C157" s="265" t="n">
         <v>106</v>
@@ -31830,10 +32344,10 @@
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="266" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B158" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C158" s="265" t="n">
         <v>106</v>
@@ -31851,10 +32365,10 @@
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="266" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B159" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C159" s="265" t="n">
         <v>106</v>
@@ -31872,10 +32386,10 @@
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="266" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B160" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C160" s="265" t="n">
         <v>106</v>
@@ -31893,10 +32407,10 @@
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="266" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B161" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C161" s="265" t="n">
         <v>106</v>
@@ -31914,10 +32428,10 @@
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="266" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B162" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C162" s="265" t="n">
         <v>106</v>
@@ -31935,10 +32449,10 @@
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="266" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B163" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C163" s="265" t="n">
         <v>106</v>
@@ -31956,10 +32470,10 @@
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="266" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B164" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C164" s="265" t="n">
         <v>106</v>
@@ -31977,10 +32491,10 @@
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="266" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B165" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C165" s="265" t="n">
         <v>106</v>
@@ -31998,10 +32512,10 @@
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="266" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B166" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C166" s="265" t="n">
         <v>106</v>
@@ -32019,10 +32533,10 @@
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="266" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B167" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C167" s="265" t="n">
         <v>106</v>
@@ -32040,10 +32554,10 @@
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="266" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B168" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C168" s="265" t="n">
         <v>106</v>
@@ -32061,10 +32575,10 @@
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="266" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B169" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C169" s="265" t="n">
         <v>106</v>
@@ -32082,10 +32596,10 @@
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="266" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B170" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C170" s="265" t="n">
         <v>106</v>
@@ -32103,10 +32617,10 @@
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="266" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B171" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C171" s="265" t="n">
         <v>106</v>
@@ -32124,10 +32638,10 @@
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="266" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B172" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C172" s="265" t="n">
         <v>106</v>
@@ -32145,10 +32659,10 @@
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="266" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B173" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C173" s="265" t="n">
         <v>106</v>
@@ -32166,10 +32680,10 @@
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="266" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B174" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C174" s="265" t="n">
         <v>106</v>
@@ -32187,10 +32701,10 @@
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="266" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B175" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C175" s="265" t="n">
         <v>106</v>
@@ -32208,10 +32722,10 @@
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="266" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B176" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C176" s="265" t="n">
         <v>106</v>
@@ -32229,10 +32743,10 @@
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="266" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B177" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C177" s="265" t="n">
         <v>106</v>
@@ -32250,10 +32764,10 @@
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="266" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B178" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C178" s="265" t="n">
         <v>106</v>
@@ -32271,10 +32785,10 @@
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="266" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B179" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C179" s="265" t="n">
         <v>106</v>
@@ -32292,10 +32806,10 @@
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="266" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B180" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C180" s="265" t="n">
         <v>106</v>
@@ -32313,10 +32827,10 @@
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="266" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B181" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C181" s="265" t="n">
         <v>106</v>
@@ -32334,10 +32848,10 @@
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="266" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B182" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C182" s="265" t="n">
         <v>106</v>
@@ -32355,10 +32869,10 @@
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="266" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B183" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C183" s="265" t="n">
         <v>106</v>
@@ -32376,10 +32890,10 @@
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="266" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B184" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C184" s="265" t="n">
         <v>106</v>
@@ -32397,10 +32911,10 @@
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="266" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B185" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C185" s="265" t="n">
         <v>106</v>
@@ -32418,10 +32932,10 @@
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="266" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B186" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C186" s="265" t="n">
         <v>106</v>
@@ -32439,10 +32953,10 @@
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="266" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B187" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C187" s="265" t="n">
         <v>106</v>
@@ -32460,10 +32974,10 @@
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="266" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B188" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C188" s="265" t="n">
         <v>106</v>
@@ -32481,10 +32995,10 @@
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="266" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B189" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C189" s="265" t="n">
         <v>106</v>
@@ -32502,10 +33016,10 @@
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="266" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B190" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C190" s="265" t="n">
         <v>106</v>
@@ -32523,10 +33037,10 @@
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="266" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B191" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C191" s="265" t="n">
         <v>106</v>
@@ -32544,10 +33058,10 @@
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="266" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B192" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C192" s="265" t="n">
         <v>106</v>
@@ -32565,10 +33079,10 @@
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="266" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B193" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C193" s="265" t="n">
         <v>106</v>
@@ -32586,10 +33100,10 @@
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="266" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B194" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C194" s="265" t="n">
         <v>106</v>
@@ -32607,10 +33121,10 @@
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="266" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B195" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C195" s="265" t="n">
         <v>106</v>
@@ -32628,10 +33142,10 @@
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="266" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B196" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C196" s="265" t="n">
         <v>106</v>
@@ -32649,10 +33163,10 @@
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="266" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B197" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C197" s="265" t="n">
         <v>106</v>
@@ -32670,10 +33184,10 @@
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="266" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B198" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C198" s="265" t="n">
         <v>106</v>
@@ -32691,10 +33205,10 @@
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="266" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B199" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C199" s="265" t="n">
         <v>106</v>
@@ -32712,10 +33226,10 @@
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="266" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B200" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C200" s="265" t="n">
         <v>106</v>
@@ -32733,10 +33247,10 @@
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="266" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B201" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C201" s="265" t="n">
         <v>106</v>
@@ -32754,10 +33268,10 @@
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="266" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B202" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C202" s="265" t="n">
         <v>106</v>
@@ -32775,10 +33289,10 @@
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="266" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B203" s="265" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C203" s="265" t="n">
         <v>106</v>
@@ -32856,15 +33370,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="269" width="40.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="269" width="40.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="269" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="269" width="0.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="269" width="0.4"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1025" min="6" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="270" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B1" s="271" t="str">
         <f aca="false">+'I and II. Overview'!K10</f>
@@ -32879,50 +33393,50 @@
     <row r="3" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="273" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B4" s="274" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="275" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D4" s="276" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E4" s="277" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="278" t="str">
         <f aca="false">+IF($B$1=$B$4,B5,IF($B$1=$C$4,C5,IF($B$1=$D$4,D5,B5)))</f>
-        <v>  Knowledge Alliances</v>
+        <v>Knowledge Alliances</v>
       </c>
       <c r="B5" s="279" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C5" s="280" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D5" s="281" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E5" s="277"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="278" t="str">
         <f aca="false">+IF($B$1=$B$4,B6,IF($B$1=$C$4,C6,IF($B$1=$D$4,D6,B6)))</f>
-        <v>  Sector Skills Alliances</v>
+        <v>Sector Skills Alliances</v>
       </c>
       <c r="B6" s="279" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C6" s="280" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D6" s="281" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E6" s="277"/>
     </row>
@@ -32932,13 +33446,13 @@
         <v>Before completing this table please read carefully the instructions available on https://ec.europa.eu/programmes/erasmus-plus/resources/programme-guide_en</v>
       </c>
       <c r="B7" s="279" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C7" s="280" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D7" s="281" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32947,13 +33461,13 @@
         <v>Call for proposals 2020 - EAC/A02/2019 - Erasmus+ Programme - (2019/C 373/06)</v>
       </c>
       <c r="B8" s="279" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C8" s="280" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D8" s="281" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32962,13 +33476,13 @@
         <v>Programme guide and instructions for applicants</v>
       </c>
       <c r="B9" s="279" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C9" s="280" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D9" s="281" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32977,13 +33491,13 @@
         <v>Language</v>
       </c>
       <c r="B10" s="279" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C10" s="280" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D10" s="281" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32992,13 +33506,13 @@
         <v>Action</v>
       </c>
       <c r="B11" s="279" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C11" s="280" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D11" s="281" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33013,13 +33527,13 @@
         <v>Action to be selected</v>
       </c>
       <c r="B13" s="283" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C13" s="284" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D13" s="285" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33028,13 +33542,13 @@
         <v>Knowledge alliances</v>
       </c>
       <c r="B14" s="283" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C14" s="284" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D14" s="285" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33043,13 +33557,13 @@
         <v>Sector skills alliances</v>
       </c>
       <c r="B15" s="283" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C15" s="284" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D15" s="285" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33058,13 +33572,13 @@
         <v>Duration number of months</v>
       </c>
       <c r="B16" s="279" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C16" s="280" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D16" s="281" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33073,13 +33587,13 @@
         <v>Duration to be completed</v>
       </c>
       <c r="B17" s="283" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C17" s="284" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D17" s="285" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33094,13 +33608,13 @@
         <v>Duration</v>
       </c>
       <c r="B19" s="283" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C19" s="284" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D19" s="285" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33109,13 +33623,13 @@
         <v>24 months</v>
       </c>
       <c r="B20" s="283" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C20" s="284" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D20" s="285" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33124,13 +33638,13 @@
         <v>36 months</v>
       </c>
       <c r="B21" s="283" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C21" s="284" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D21" s="285" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33139,13 +33653,13 @@
         <v>months</v>
       </c>
       <c r="B22" s="283" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C22" s="284" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D22" s="285" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33154,13 +33668,13 @@
         <v>Project acronym</v>
       </c>
       <c r="B23" s="279" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C23" s="280" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D23" s="281" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33169,13 +33683,13 @@
         <v>Project title</v>
       </c>
       <c r="B24" s="279" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C24" s="280" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D24" s="281" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33184,13 +33698,13 @@
         <v>Part I - Consolidated figures</v>
       </c>
       <c r="B25" s="279" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C25" s="280" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D25" s="281" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33199,13 +33713,13 @@
         <v>EU Grant</v>
       </c>
       <c r="B26" s="279" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C26" s="280" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D26" s="281" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33215,13 +33729,13 @@
 COUNTRIES (PR)</v>
       </c>
       <c r="B27" s="279" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C27" s="280" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D27" s="281" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33230,13 +33744,13 @@
         <v>PARTNER COUNTRIES (PA)</v>
       </c>
       <c r="B28" s="279" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C28" s="280" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D28" s="281" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33245,13 +33759,13 @@
         <v>TOTAL</v>
       </c>
       <c r="B29" s="279" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C29" s="280" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D29" s="281" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33260,13 +33774,13 @@
         <v>Project implementation support</v>
       </c>
       <c r="B30" s="279" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C30" s="280" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D30" s="281" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33275,13 +33789,13 @@
         <v>Project implementation support</v>
       </c>
       <c r="B31" s="279" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C31" s="280" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D31" s="281" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33290,13 +33804,13 @@
         <v>Learning mobility activities (Optional)</v>
       </c>
       <c r="B32" s="279" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C32" s="280" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D32" s="281" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33305,13 +33819,13 @@
         <v>Travel costs</v>
       </c>
       <c r="B33" s="279" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C33" s="280" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D33" s="281" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33320,13 +33834,13 @@
         <v>Subsistence costs</v>
       </c>
       <c r="B34" s="279" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C34" s="280" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D34" s="281" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33335,13 +33849,13 @@
         <v>Total</v>
       </c>
       <c r="B35" s="279" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C35" s="280" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D35" s="281" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33350,13 +33864,13 @@
         <v>Warning messages</v>
       </c>
       <c r="B36" s="279" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C36" s="280" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D36" s="281" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33365,13 +33879,13 @@
         <v>Maximum EU contribution awarded for a 2 years Alliance:        700 000 EUR</v>
       </c>
       <c r="B37" s="283" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C37" s="280" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D37" s="281" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33380,13 +33894,13 @@
         <v>Maximum EU contribution awarded for a 3 years Alliance:           1 000 000 EUR</v>
       </c>
       <c r="B38" s="283" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C38" s="280" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D38" s="281" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33395,13 +33909,13 @@
         <v>OK</v>
       </c>
       <c r="B39" s="283" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C39" s="280" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D39" s="281" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33410,28 +33924,28 @@
         <v>Part II - Distribution of grant by organisation</v>
       </c>
       <c r="B40" s="279" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C40" s="280" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D40" s="281" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="278" t="str">
         <f aca="false">+IF($B$1=$B$4,B41,IF($B$1=$C$4,C41,IF($B$1=$D$4,D41,B41)))</f>
-        <v>Partner </v>
+        <v>Partner</v>
       </c>
       <c r="B41" s="279" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C41" s="280" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D41" s="281" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33440,13 +33954,13 @@
         <v>Name</v>
       </c>
       <c r="B42" s="279" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C42" s="280" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D42" s="281" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33455,13 +33969,13 @@
         <v>Country</v>
       </c>
       <c r="B43" s="279" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C43" s="280" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D43" s="281" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33470,13 +33984,13 @@
         <v>Project implementation support</v>
       </c>
       <c r="B44" s="279" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C44" s="280" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D44" s="281" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33486,13 +34000,13 @@
 Travel costs</v>
       </c>
       <c r="B45" s="279" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C45" s="280" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D45" s="281" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33502,13 +34016,13 @@
 Subsistence costs</v>
       </c>
       <c r="B46" s="279" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C46" s="280" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D46" s="281" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33517,13 +34031,13 @@
         <v>EU grant</v>
       </c>
       <c r="B47" s="279" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C47" s="280" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D47" s="281" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33532,13 +34046,13 @@
         <v>Total</v>
       </c>
       <c r="B48" s="279" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C48" s="280" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D48" s="281" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33547,28 +34061,28 @@
         <v>Part III - Project implementation support</v>
       </c>
       <c r="B49" s="279" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C49" s="280" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D49" s="281" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="278" t="str">
         <f aca="false">+IF($B$1=$B$4,B50,IF($B$1=$C$4,C50,IF($B$1=$D$4,D50,B50)))</f>
-        <v>Partner </v>
+        <v>Partner</v>
       </c>
       <c r="B50" s="279" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C50" s="280" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D50" s="281" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33577,13 +34091,13 @@
         <v>Name</v>
       </c>
       <c r="B51" s="279" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C51" s="280" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D51" s="281" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33592,28 +34106,28 @@
         <v>Country</v>
       </c>
       <c r="B52" s="279" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C52" s="280" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D52" s="281" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="278" t="str">
         <f aca="false">+IF($B$1=$B$4,B53,IF($B$1=$C$4,C53,IF($B$1=$D$4,D53,B53)))</f>
-        <v>Manager </v>
+        <v>Manager</v>
       </c>
       <c r="B53" s="279" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C53" s="280" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D53" s="281" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33622,13 +34136,13 @@
         <v>Teacher/Trainer/Researcher</v>
       </c>
       <c r="B54" s="279" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C54" s="280" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D54" s="281" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33637,28 +34151,28 @@
         <v>Technician</v>
       </c>
       <c r="B55" s="279" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C55" s="280" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D55" s="281" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="278" t="str">
         <f aca="false">+IF($B$1=$B$4,B56,IF($B$1=$C$4,C56,IF($B$1=$D$4,D56,B56)))</f>
-        <v>Administrative </v>
+        <v>Administrative</v>
       </c>
       <c r="B56" s="279" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C56" s="280" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D56" s="281" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33667,13 +34181,13 @@
         <v>Number of days</v>
       </c>
       <c r="B57" s="279" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C57" s="280" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D57" s="281" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33682,13 +34196,13 @@
         <v>Unit cost per day</v>
       </c>
       <c r="B58" s="279" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C58" s="280" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D58" s="281" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33697,13 +34211,13 @@
         <v>Total cost by category</v>
       </c>
       <c r="B59" s="279" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C59" s="280" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D59" s="281" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33712,13 +34226,13 @@
         <v>Total number of days</v>
       </c>
       <c r="B60" s="279" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C60" s="280" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D60" s="281" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33727,13 +34241,13 @@
         <v>Grant requested</v>
       </c>
       <c r="B61" s="279" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C61" s="280" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D61" s="281" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33742,13 +34256,13 @@
         <v>Total Part III</v>
       </c>
       <c r="B62" s="279" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C62" s="280" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D62" s="281" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33757,43 +34271,43 @@
         <v>Part IV -</v>
       </c>
       <c r="B63" s="279" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C63" s="280" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D63" s="281" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="278" t="str">
         <f aca="false">+IF($B$1=$B$4,B64,IF($B$1=$C$4,C64,IF($B$1=$D$4,D64,B64)))</f>
-        <v>Additional funding for learning mobility activities realised within an Alliance  </v>
+        <v>Additional funding for learning mobility activities realised within an Alliance</v>
       </c>
       <c r="B64" s="279" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C64" s="280" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D64" s="281" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="278" t="str">
         <f aca="false">+IF($B$1=$B$4,B65,IF($B$1=$C$4,C65,IF($B$1=$D$4,D65,B65)))</f>
-        <v> (OPTIONAL)</v>
+        <v>(OPTIONAL)</v>
       </c>
       <c r="B65" s="279" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C65" s="280" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D65" s="281" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33802,13 +34316,13 @@
         <v>Learning mobility - Travel costs</v>
       </c>
       <c r="B66" s="279" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C66" s="280" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D66" s="281" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33817,13 +34331,13 @@
         <v>Learning mobility - Subsistence costs</v>
       </c>
       <c r="B67" s="279" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C67" s="280" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D67" s="281" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33832,13 +34346,13 @@
         <v>Distance</v>
       </c>
       <c r="B68" s="279" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C68" s="280" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D68" s="281" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33847,13 +34361,13 @@
         <v>Unit cost per participant</v>
       </c>
       <c r="B69" s="279" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C69" s="280" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D69" s="281" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33862,13 +34376,13 @@
         <v>Activity Type</v>
       </c>
       <c r="B70" s="279" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C70" s="280" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D70" s="281" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33877,13 +34391,13 @@
         <v>Unit cost per participant</v>
       </c>
       <c r="B71" s="279" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C71" s="280" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D71" s="281" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33892,13 +34406,13 @@
         <v>Activities targeting staff up to the 14th day</v>
       </c>
       <c r="B72" s="279" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C72" s="280" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D72" s="281" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33907,13 +34421,13 @@
         <v>Activities targeting staff between the 15th and 60th day</v>
       </c>
       <c r="B73" s="279" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C73" s="280" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D73" s="281" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33922,13 +34436,13 @@
         <v>Activities targeting learners up to the 14th day</v>
       </c>
       <c r="B74" s="279" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C74" s="280" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D74" s="281" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33937,13 +34451,13 @@
         <v>Activities targeting learners between the 15th and 60th day</v>
       </c>
       <c r="B75" s="279" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C75" s="280" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D75" s="281" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33952,13 +34466,13 @@
         <v>Partner</v>
       </c>
       <c r="B76" s="279" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C76" s="280" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D76" s="281" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33967,13 +34481,13 @@
         <v>Name</v>
       </c>
       <c r="B77" s="279" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C77" s="280" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D77" s="281" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33982,13 +34496,13 @@
         <v>Country</v>
       </c>
       <c r="B78" s="279" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C78" s="280" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D78" s="281" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33997,13 +34511,13 @@
         <v>Distance</v>
       </c>
       <c r="B79" s="279" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C79" s="280" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D79" s="281" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34013,13 +34527,13 @@
 (from their place of location to the venue of the activity and return)</v>
       </c>
       <c r="B80" s="279" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C80" s="280" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D80" s="281" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34028,13 +34542,13 @@
         <v>Cost per participant</v>
       </c>
       <c r="B81" s="279" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C81" s="280" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D81" s="281" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34043,13 +34557,13 @@
         <v>Travel costs</v>
       </c>
       <c r="B82" s="279" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C82" s="280" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D82" s="281" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34058,13 +34572,13 @@
         <v>Activity type</v>
       </c>
       <c r="B83" s="279" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C83" s="280" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D83" s="281" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34073,13 +34587,13 @@
         <v>Number of days</v>
       </c>
       <c r="B84" s="279" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C84" s="280" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D84" s="281" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34088,13 +34602,13 @@
         <v>Unit cost per participant</v>
       </c>
       <c r="B85" s="279" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C85" s="280" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D85" s="281" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34103,13 +34617,13 @@
         <v>Subsistence costs</v>
       </c>
       <c r="B86" s="279" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C86" s="280" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D86" s="281" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34118,13 +34632,13 @@
         <v>Work Package Number</v>
       </c>
       <c r="B87" s="279" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C87" s="280" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D87" s="281" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34133,13 +34647,13 @@
         <v>Total Part IV</v>
       </c>
       <c r="B88" s="279" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C88" s="280" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D88" s="281" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34148,13 +34662,13 @@
         <v>Select your country</v>
       </c>
       <c r="B89" s="279" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C89" s="280" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D89" s="281" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34163,28 +34677,28 @@
         <v>Part V. Work packages overview</v>
       </c>
       <c r="B90" s="279" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C90" s="280" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D90" s="281" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="278" t="str">
         <f aca="false">+IF($B$1=$B$4,B91,IF($B$1=$C$4,C91,IF($B$1=$D$4,D91,B91)))</f>
-        <v>The information in this worksheet should be consistent with the information provided in the "Detailed project </v>
+        <v>The information in this worksheet should be consistent with the information provided in the "Detailed project</v>
       </c>
       <c r="B91" s="279" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C91" s="280" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D91" s="281" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34193,13 +34707,13 @@
         <v>description" annexed to your eForm</v>
       </c>
       <c r="B92" s="279" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C92" s="280" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D92" s="281" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34208,13 +34722,13 @@
         <v>Preparation</v>
       </c>
       <c r="B93" s="279" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C93" s="280" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D93" s="281" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34223,13 +34737,13 @@
         <v>Management</v>
       </c>
       <c r="B94" s="279" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C94" s="280" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D94" s="281" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34238,13 +34752,13 @@
         <v>Implementation</v>
       </c>
       <c r="B95" s="279" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C95" s="280" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D95" s="281" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34253,13 +34767,13 @@
         <v>Quality Assurance</v>
       </c>
       <c r="B96" s="279" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C96" s="280" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D96" s="281" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34268,13 +34782,13 @@
         <v>Evaluation</v>
       </c>
       <c r="B97" s="279" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C97" s="280" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D97" s="281" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34283,28 +34797,28 @@
         <v>Dissemination &amp; Exploitation</v>
       </c>
       <c r="B98" s="279" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C98" s="280" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D98" s="281" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="278" t="str">
         <f aca="false">+IF($B$1=$B$4,B99,IF($B$1=$C$4,C99,IF($B$1=$D$4,D99,B99)))</f>
-        <v>Select an Action </v>
+        <v>Select an Action</v>
       </c>
       <c r="B99" s="279" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C99" s="280" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D99" s="281" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34313,13 +34827,13 @@
         <v>Action</v>
       </c>
       <c r="B100" s="279" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C100" s="280" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D100" s="281" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34328,13 +34842,13 @@
         <v>Maximum project duration</v>
       </c>
       <c r="B101" s="279" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C101" s="280" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D101" s="281" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34343,13 +34857,13 @@
         <v>Months</v>
       </c>
       <c r="B102" s="279" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C102" s="280" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D102" s="281" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34358,13 +34872,13 @@
         <v>Work Package Number</v>
       </c>
       <c r="B103" s="279" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C103" s="280" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D103" s="281" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34373,13 +34887,13 @@
         <v>TYPE</v>
       </c>
       <c r="B104" s="279" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C104" s="280" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D104" s="281" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34388,13 +34902,13 @@
         <v>START</v>
       </c>
       <c r="B105" s="279" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C105" s="280" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D105" s="281" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34403,13 +34917,13 @@
         <v>DURATION</v>
       </c>
       <c r="B106" s="279" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C106" s="280" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D106" s="281" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34418,13 +34932,13 @@
         <v>MONTHS</v>
       </c>
       <c r="B107" s="279" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C107" s="280" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D107" s="281" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34433,13 +34947,13 @@
         <v>Please enter information on all Work  packages, Use their reference number as they appear in the "Detailed Project Description" - Colour the corresponding cells</v>
       </c>
       <c r="B108" s="279" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C108" s="280" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D108" s="281" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34448,13 +34962,13 @@
         <v>Part III - Affiliated Entities</v>
       </c>
       <c r="B109" s="279" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C109" s="280" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D109" s="281" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34465,13 +34979,13 @@
 Affiliatied Entity (AE)</v>
       </c>
       <c r="B110" s="279" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C110" s="280" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D110" s="281" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34480,13 +34994,13 @@
         <v>Affiliated Entity Linked to the Partner</v>
       </c>
       <c r="B111" s="279" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C111" s="280" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D111" s="281" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34561,19 +35075,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="287" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D1" s="288" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G1" s="286" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="289" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="I1" s="290" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="J1" s="291"/>
       <c r="K1" s="292"/>
@@ -34581,17 +35095,17 @@
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$G36="",0,'I and II. Overview'!$G36)</f>
-        <v>0</v>
+        <v>P1</v>
       </c>
       <c r="E2" s="289" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G2" s="286" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H2" s="286" t="str">
         <f aca="false">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A1))),"")</f>
-        <v>0</v>
+        <v>P1</v>
       </c>
       <c r="I2" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H2,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H2,'I and II. Overview'!$Z$36:$AA$75)</f>
@@ -34601,17 +35115,17 @@
       <c r="K2" s="292"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="293" t="n">
+      <c r="A3" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$G37="",0,'I and II. Overview'!$G37)</f>
-        <v>0</v>
+        <v>P2</v>
       </c>
       <c r="H3" s="286" t="str">
         <f aca="false" t="array" ref="H3:H3">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A2))),"")</f>
-        <v/>
+        <v>P2</v>
       </c>
       <c r="I3" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H3,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H3,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34625,7 +35139,7 @@
       </c>
       <c r="I4" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H4,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H4,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34639,7 +35153,7 @@
       </c>
       <c r="I5" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H5,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H5,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34653,7 +35167,7 @@
       </c>
       <c r="I6" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H6,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H6,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34667,7 +35181,7 @@
       </c>
       <c r="I7" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H7,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H7,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34681,7 +35195,7 @@
       </c>
       <c r="I8" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H8,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H8,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34695,7 +35209,7 @@
       </c>
       <c r="I9" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H9,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H9,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34709,7 +35223,7 @@
       </c>
       <c r="I10" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H10,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H10,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34723,7 +35237,7 @@
       </c>
       <c r="I11" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H11,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H11,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34737,7 +35251,7 @@
       </c>
       <c r="I12" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H12,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H12,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34751,7 +35265,7 @@
       </c>
       <c r="I13" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H13,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H13,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34765,7 +35279,7 @@
       </c>
       <c r="I14" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H14,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H14,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34779,7 +35293,7 @@
       </c>
       <c r="I15" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H15,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H15,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34793,7 +35307,7 @@
       </c>
       <c r="I16" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H16,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H16,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34807,7 +35321,7 @@
       </c>
       <c r="I17" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H17,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H17,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34821,7 +35335,7 @@
       </c>
       <c r="I18" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H18,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H18,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34835,7 +35349,7 @@
       </c>
       <c r="I19" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H19,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H19,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34849,7 +35363,7 @@
       </c>
       <c r="I20" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H20,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H20,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34863,7 +35377,7 @@
       </c>
       <c r="I21" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H21,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H21,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34877,7 +35391,7 @@
       </c>
       <c r="I22" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H22,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H22,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34891,7 +35405,7 @@
       </c>
       <c r="I23" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H23,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H23,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34905,7 +35419,7 @@
       </c>
       <c r="I24" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H24,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H24,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34919,7 +35433,7 @@
       </c>
       <c r="I25" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H25,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H25,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34933,7 +35447,7 @@
       </c>
       <c r="I26" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H26,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H26,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34947,7 +35461,7 @@
       </c>
       <c r="I27" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H27,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H27,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34961,7 +35475,7 @@
       </c>
       <c r="I28" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H28,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H28,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34975,7 +35489,7 @@
       </c>
       <c r="I29" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H29,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H29,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34989,7 +35503,7 @@
       </c>
       <c r="I30" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H30,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H30,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35003,7 +35517,7 @@
       </c>
       <c r="I31" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H31,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H31,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35017,7 +35531,7 @@
       </c>
       <c r="I32" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H32,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H32,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35031,7 +35545,7 @@
       </c>
       <c r="I33" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H33,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H33,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35045,7 +35559,7 @@
       </c>
       <c r="I34" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H34,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H34,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35059,7 +35573,7 @@
       </c>
       <c r="I35" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H35,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H35,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35073,7 +35587,7 @@
       </c>
       <c r="I36" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H36,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H36,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35087,7 +35601,7 @@
       </c>
       <c r="I37" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H37,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H37,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35101,7 +35615,7 @@
       </c>
       <c r="I38" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H38,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H38,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35115,7 +35629,7 @@
       </c>
       <c r="I39" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H39,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H39,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35129,7 +35643,7 @@
       </c>
       <c r="I40" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H40,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H40,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35143,7 +35657,7 @@
       </c>
       <c r="I41" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H41,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H41,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35365,36 +35879,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="287" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D1" s="288" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H1" s="289" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="293" t="n">
+      <c r="A2" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F36="",0,'I and II. Overview'!$F36)</f>
-        <v>0</v>
+        <v>P1 only </v>
       </c>
       <c r="E2" s="289" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H2" s="286" t="str">
         <f aca="false">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A1))),"")</f>
-        <v/>
+        <v>P1 only </v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="293" t="n">
+      <c r="A3" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F37="",0,'I and II. Overview'!$F37)</f>
-        <v>0</v>
+        <v>P2 only </v>
       </c>
       <c r="H3" s="286" t="str">
         <f aca="false" t="array" ref="H3:H3">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A2))),"")</f>
-        <v/>
+        <v>P2 only </v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Erasmus/detailed_budget.xlsx
+++ b/Erasmus/detailed_budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="I and II. Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,9 +33,13 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">'III. Project implementation sup'!$2:$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0" vbProcedure="false">'III. Project implementation sup'!$2:$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'III. Project implementation sup'!$2:$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">'III. Project implementation sup'!$2:$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">'III. Project implementation sup'!$2:$3</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="528">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -76,6 +80,51 @@
     <t xml:space="preserve">HSO</t>
   </si>
   <si>
+    <t xml:space="preserve">UTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jantschgi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schaeffler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arxia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TehnoPlast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Invention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPK Consult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Territory of Russia as recognised by international law</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM TRIZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">P1 only </t>
   </si>
   <si>
@@ -244,9 +293,6 @@
     <t xml:space="preserve">Netherlands</t>
   </si>
   <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
@@ -265,9 +311,6 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
@@ -316,9 +359,6 @@
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
     <t xml:space="preserve">Slovakia</t>
   </si>
   <si>
@@ -439,9 +479,6 @@
     <t xml:space="preserve">Barbados</t>
   </si>
   <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Belize</t>
   </si>
   <si>
@@ -776,9 +813,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Territory of Russia as recognised by international law</t>
   </si>
   <si>
     <t xml:space="preserve">Territory of Ukraine as recognised by international law</t>
@@ -5145,9 +5179,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1389960</xdr:colOff>
+      <xdr:colOff>1389240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5161,7 +5195,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="38160"/>
-          <a:ext cx="1706040" cy="936000"/>
+          <a:ext cx="1705320" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5182,9 +5216,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>846720</xdr:colOff>
+      <xdr:colOff>846000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5198,7 +5232,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1922040" y="19080"/>
-          <a:ext cx="1956600" cy="409680"/>
+          <a:ext cx="1955880" cy="408960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5247,8 +5281,8 @@
   </sheetPr>
   <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5994,7 +6028,7 @@
       <c r="J22" s="46"/>
       <c r="K22" s="47" t="n">
         <f aca="false">SUMIF('III. Project implementation sup'!$E$4:$E$123,"PR",'III. Project implementation sup'!$V$4:$V$123)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
@@ -6009,7 +6043,7 @@
       <c r="S22" s="25"/>
       <c r="T22" s="47" t="n">
         <f aca="false">+IF(AND(K12=24,SUM(K22+P22)&gt;700000),700000,IF(AND(K12=36,SUM(K22+P22)&gt;1000000),1000000,SUM(K22+P22)))</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="U22" s="47"/>
       <c r="V22" s="47"/>
@@ -6279,7 +6313,7 @@
       <c r="J30" s="55"/>
       <c r="K30" s="56" t="n">
         <f aca="false">SUM(K22:N29)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="L30" s="56"/>
       <c r="M30" s="56"/>
@@ -6294,7 +6328,7 @@
       <c r="S30" s="57"/>
       <c r="T30" s="56" t="n">
         <f aca="false">+IF(AND(K12=24,SUM(K30+P30)&gt;700000),700000,IF(AND(K12=36,SUM(K30+P30)&gt;1000000),1000000,SUM(K30+P30)))</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="U30" s="56"/>
       <c r="V30" s="56"/>
@@ -6507,7 +6541,7 @@
       </c>
       <c r="F36" s="74" t="str">
         <f aca="false">IF(C36="","",IF(C36="P",CONCATENATE(C36,B36," only "),CONCATENATE(C36,B36," to ",H36)))</f>
-        <v>P1 only </v>
+        <v>P1 only</v>
       </c>
       <c r="G36" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E36,1)="P",E36,0),0)</f>
@@ -6571,7 +6605,7 @@
       </c>
       <c r="F37" s="74" t="str">
         <f aca="false">IF(C37="","",IF(C37="P",CONCATENATE(C37,B37," only "),CONCATENATE(C37,B37," to ",H37)))</f>
-        <v>P2 only </v>
+        <v>P2 only</v>
       </c>
       <c r="G37" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E37,1)="P",E37,""),0)</f>
@@ -6589,7 +6623,7 @@
       <c r="M37" s="51"/>
       <c r="N37" s="79" t="n">
         <f aca="false">IF(LEFT(E37,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E37,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="O37" s="79"/>
       <c r="P37" s="79"/>
@@ -6610,7 +6644,7 @@
       <c r="Y37" s="51"/>
       <c r="Z37" s="80" t="n">
         <f aca="false">IFERROR((V37+R37+N37),"")</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="80"/>
       <c r="AB37" s="51"/>
@@ -6622,53 +6656,59 @@
       <c r="B38" s="71" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="72"/>
+      <c r="C38" s="72" t="s">
+        <v>5</v>
+      </c>
       <c r="D38" s="73" t="str">
         <f aca="false">IF(C38="P","P",IF(C38="AE","Table2",""))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E38" s="74" t="str">
         <f aca="false">IF(C38="","",CONCATENATE(C38,B38))</f>
-        <v/>
+        <v>P3</v>
       </c>
       <c r="F38" s="74" t="str">
         <f aca="false">IF(C38="","",IF(C38="P",CONCATENATE(C38,B38," only "),CONCATENATE(C38,B38," to ",H38)))</f>
-        <v/>
+        <v>P3 only</v>
       </c>
       <c r="G38" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E38,1)="P",E38,""),0)</f>
-        <v/>
+        <v>P3</v>
       </c>
       <c r="H38" s="76"/>
-      <c r="I38" s="77"/>
+      <c r="I38" s="77" t="s">
+        <v>9</v>
+      </c>
       <c r="J38" s="77"/>
-      <c r="K38" s="78"/>
+      <c r="K38" s="78" t="s">
+        <v>10</v>
+      </c>
       <c r="L38" s="78"/>
       <c r="M38" s="51"/>
-      <c r="N38" s="79" t="str">
+      <c r="N38" s="79" t="n">
         <f aca="false">IF(LEFT(E38,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E38,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O38" s="79"/>
       <c r="P38" s="79"/>
       <c r="Q38" s="51"/>
-      <c r="R38" s="79" t="str">
+      <c r="R38" s="79" t="n">
         <f aca="false">IF(LEFT(E38,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E38,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S38" s="79"/>
       <c r="T38" s="79"/>
       <c r="U38" s="51"/>
-      <c r="V38" s="79" t="str">
+      <c r="V38" s="79" t="n">
         <f aca="false">IF(LEFT(E38,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E38,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W38" s="79"/>
       <c r="X38" s="79"/>
       <c r="Y38" s="51"/>
-      <c r="Z38" s="80" t="str">
+      <c r="Z38" s="80" t="n">
         <f aca="false">IFERROR((V38+R38+N38),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA38" s="80"/>
       <c r="AB38" s="51"/>
@@ -6680,53 +6720,59 @@
       <c r="B39" s="71" t="n">
         <v>4</v>
       </c>
-      <c r="C39" s="72"/>
+      <c r="C39" s="72" t="s">
+        <v>5</v>
+      </c>
       <c r="D39" s="73" t="str">
         <f aca="false">IF(C39="P","P",IF(C39="AE","Table2",""))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E39" s="74" t="str">
         <f aca="false">IF(C39="","",CONCATENATE(C39,B39))</f>
-        <v/>
+        <v>P4</v>
       </c>
       <c r="F39" s="74" t="str">
         <f aca="false">IF(C39="","",IF(C39="P",CONCATENATE(C39,B39," only "),CONCATENATE(C39,B39," to ",H39)))</f>
-        <v/>
+        <v>P4 only</v>
       </c>
       <c r="G39" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E39,1)="P",E39,""),0)</f>
-        <v/>
+        <v>P4</v>
       </c>
       <c r="H39" s="76"/>
-      <c r="I39" s="77"/>
+      <c r="I39" s="77" t="s">
+        <v>11</v>
+      </c>
       <c r="J39" s="77"/>
-      <c r="K39" s="78"/>
+      <c r="K39" s="78" t="s">
+        <v>12</v>
+      </c>
       <c r="L39" s="78"/>
       <c r="M39" s="51"/>
-      <c r="N39" s="79" t="str">
+      <c r="N39" s="79" t="n">
         <f aca="false">IF(LEFT(E39,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E39,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O39" s="79"/>
       <c r="P39" s="79"/>
       <c r="Q39" s="51"/>
-      <c r="R39" s="79" t="str">
+      <c r="R39" s="79" t="n">
         <f aca="false">IF(LEFT(E39,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E39,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S39" s="79"/>
       <c r="T39" s="79"/>
       <c r="U39" s="51"/>
-      <c r="V39" s="79" t="str">
+      <c r="V39" s="79" t="n">
         <f aca="false">IF(LEFT(E39,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E39,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W39" s="79"/>
       <c r="X39" s="79"/>
       <c r="Y39" s="51"/>
-      <c r="Z39" s="80" t="str">
+      <c r="Z39" s="80" t="n">
         <f aca="false">IFERROR((V39+R39+N39),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA39" s="80"/>
       <c r="AB39" s="51"/>
@@ -6738,53 +6784,59 @@
       <c r="B40" s="71" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="72"/>
+      <c r="C40" s="72" t="s">
+        <v>5</v>
+      </c>
       <c r="D40" s="73" t="str">
         <f aca="false">IF(C40="P","P",IF(C40="AE","Table2",""))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E40" s="74" t="str">
         <f aca="false">IF(C40="","",CONCATENATE(C40,B40))</f>
-        <v/>
+        <v>P5</v>
       </c>
       <c r="F40" s="74" t="str">
         <f aca="false">IF(C40="","",IF(C40="P",CONCATENATE(C40,B40," only "),CONCATENATE(C40,B40," to ",H40)))</f>
-        <v/>
+        <v>P5 only</v>
       </c>
       <c r="G40" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E40,1)="P",E40,""),0)</f>
-        <v/>
+        <v>P5</v>
       </c>
       <c r="H40" s="76"/>
-      <c r="I40" s="77"/>
+      <c r="I40" s="77" t="s">
+        <v>13</v>
+      </c>
       <c r="J40" s="77"/>
-      <c r="K40" s="78"/>
+      <c r="K40" s="78" t="s">
+        <v>14</v>
+      </c>
       <c r="L40" s="78"/>
       <c r="M40" s="51"/>
-      <c r="N40" s="79" t="str">
+      <c r="N40" s="79" t="n">
         <f aca="false">IF(LEFT(E40,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E40,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O40" s="79"/>
       <c r="P40" s="79"/>
       <c r="Q40" s="51"/>
-      <c r="R40" s="79" t="str">
+      <c r="R40" s="79" t="n">
         <f aca="false">IF(LEFT(E40,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E40,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S40" s="79"/>
       <c r="T40" s="79"/>
       <c r="U40" s="51"/>
-      <c r="V40" s="79" t="str">
+      <c r="V40" s="79" t="n">
         <f aca="false">IF(LEFT(E40,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E40,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W40" s="79"/>
       <c r="X40" s="79"/>
       <c r="Y40" s="51"/>
-      <c r="Z40" s="80" t="str">
+      <c r="Z40" s="80" t="n">
         <f aca="false">IFERROR((V40+R40+N40),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA40" s="80"/>
       <c r="AB40" s="51"/>
@@ -6796,53 +6848,59 @@
       <c r="B41" s="71" t="n">
         <v>6</v>
       </c>
-      <c r="C41" s="72"/>
+      <c r="C41" s="72" t="s">
+        <v>5</v>
+      </c>
       <c r="D41" s="73" t="str">
         <f aca="false">IF(C41="P","P",IF(C41="AE","Table2",""))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E41" s="74" t="str">
         <f aca="false">IF(C41="","",CONCATENATE(C41,B41))</f>
-        <v/>
+        <v>P6</v>
       </c>
       <c r="F41" s="74" t="str">
         <f aca="false">IF(C41="","",IF(C41="P",CONCATENATE(C41,B41," only "),CONCATENATE(C41,B41," to ",H41)))</f>
-        <v/>
+        <v>P6 only</v>
       </c>
       <c r="G41" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E41,1)="P",E41,""),0)</f>
-        <v/>
+        <v>P6</v>
       </c>
       <c r="H41" s="76"/>
-      <c r="I41" s="77"/>
+      <c r="I41" s="77" t="s">
+        <v>15</v>
+      </c>
       <c r="J41" s="77"/>
-      <c r="K41" s="78"/>
+      <c r="K41" s="78" t="s">
+        <v>7</v>
+      </c>
       <c r="L41" s="78"/>
       <c r="M41" s="51"/>
-      <c r="N41" s="79" t="str">
+      <c r="N41" s="79" t="n">
         <f aca="false">IF(LEFT(E41,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E41,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O41" s="79"/>
       <c r="P41" s="79"/>
       <c r="Q41" s="51"/>
-      <c r="R41" s="79" t="str">
+      <c r="R41" s="79" t="n">
         <f aca="false">IF(LEFT(E41,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E41,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S41" s="79"/>
       <c r="T41" s="79"/>
       <c r="U41" s="51"/>
-      <c r="V41" s="79" t="str">
+      <c r="V41" s="79" t="n">
         <f aca="false">IF(LEFT(E41,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E41,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W41" s="79"/>
       <c r="X41" s="79"/>
       <c r="Y41" s="51"/>
-      <c r="Z41" s="80" t="str">
+      <c r="Z41" s="80" t="n">
         <f aca="false">IFERROR((V41+R41+N41),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA41" s="80"/>
       <c r="AB41" s="51"/>
@@ -6854,53 +6912,59 @@
       <c r="B42" s="71" t="n">
         <v>7</v>
       </c>
-      <c r="C42" s="72"/>
+      <c r="C42" s="72" t="s">
+        <v>5</v>
+      </c>
       <c r="D42" s="73" t="str">
         <f aca="false">IF(C42="P","P",IF(C42="AE","Table2",""))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E42" s="74" t="str">
         <f aca="false">IF(C42="","",CONCATENATE(C42,B42))</f>
-        <v/>
+        <v>P7</v>
       </c>
       <c r="F42" s="74" t="str">
         <f aca="false">IF(C42="","",IF(C42="P",CONCATENATE(C42,B42," only "),CONCATENATE(C42,B42," to ",H42)))</f>
-        <v/>
+        <v>P7 only</v>
       </c>
       <c r="G42" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E42,1)="P",E42,""),0)</f>
-        <v/>
+        <v>P7</v>
       </c>
       <c r="H42" s="76"/>
-      <c r="I42" s="77"/>
+      <c r="I42" s="77" t="s">
+        <v>16</v>
+      </c>
       <c r="J42" s="77"/>
-      <c r="K42" s="78"/>
+      <c r="K42" s="78" t="s">
+        <v>10</v>
+      </c>
       <c r="L42" s="78"/>
       <c r="M42" s="51"/>
-      <c r="N42" s="79" t="str">
+      <c r="N42" s="79" t="n">
         <f aca="false">IF(LEFT(E42,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E42,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O42" s="79"/>
       <c r="P42" s="79"/>
       <c r="Q42" s="51"/>
-      <c r="R42" s="79" t="str">
+      <c r="R42" s="79" t="n">
         <f aca="false">IF(LEFT(E42,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E42,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S42" s="79"/>
       <c r="T42" s="79"/>
       <c r="U42" s="51"/>
-      <c r="V42" s="79" t="str">
+      <c r="V42" s="79" t="n">
         <f aca="false">IF(LEFT(E42,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E42,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W42" s="79"/>
       <c r="X42" s="79"/>
       <c r="Y42" s="51"/>
-      <c r="Z42" s="80" t="str">
+      <c r="Z42" s="80" t="n">
         <f aca="false">IFERROR((V42+R42+N42),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA42" s="80"/>
       <c r="AB42" s="51"/>
@@ -6912,53 +6976,59 @@
       <c r="B43" s="71" t="n">
         <v>8</v>
       </c>
-      <c r="C43" s="72"/>
+      <c r="C43" s="72" t="s">
+        <v>5</v>
+      </c>
       <c r="D43" s="73" t="str">
         <f aca="false">IF(C43="P","P",IF(C43="AE","Table2",""))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E43" s="74" t="str">
         <f aca="false">IF(C43="","",CONCATENATE(C43,B43))</f>
-        <v/>
+        <v>P8</v>
       </c>
       <c r="F43" s="74" t="str">
         <f aca="false">IF(C43="","",IF(C43="P",CONCATENATE(C43,B43," only "),CONCATENATE(C43,B43," to ",H43)))</f>
-        <v/>
+        <v>P8 only</v>
       </c>
       <c r="G43" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E43,1)="P",E43,""),0)</f>
-        <v/>
+        <v>P8</v>
       </c>
       <c r="H43" s="76"/>
-      <c r="I43" s="77"/>
+      <c r="I43" s="77" t="s">
+        <v>17</v>
+      </c>
       <c r="J43" s="77"/>
-      <c r="K43" s="78"/>
+      <c r="K43" s="78" t="s">
+        <v>10</v>
+      </c>
       <c r="L43" s="78"/>
       <c r="M43" s="51"/>
-      <c r="N43" s="79" t="str">
+      <c r="N43" s="79" t="n">
         <f aca="false">IF(LEFT(E43,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E43,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O43" s="79"/>
       <c r="P43" s="79"/>
       <c r="Q43" s="51"/>
-      <c r="R43" s="79" t="str">
+      <c r="R43" s="79" t="n">
         <f aca="false">IF(LEFT(E43,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E43,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S43" s="79"/>
       <c r="T43" s="79"/>
       <c r="U43" s="51"/>
-      <c r="V43" s="79" t="str">
+      <c r="V43" s="79" t="n">
         <f aca="false">IF(LEFT(E43,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E43,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W43" s="79"/>
       <c r="X43" s="79"/>
       <c r="Y43" s="51"/>
-      <c r="Z43" s="80" t="str">
+      <c r="Z43" s="80" t="n">
         <f aca="false">IFERROR((V43+R43+N43),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA43" s="80"/>
       <c r="AB43" s="51"/>
@@ -6970,53 +7040,59 @@
       <c r="B44" s="71" t="n">
         <v>9</v>
       </c>
-      <c r="C44" s="72"/>
+      <c r="C44" s="72" t="s">
+        <v>5</v>
+      </c>
       <c r="D44" s="73" t="str">
         <f aca="false">IF(C44="P","P",IF(C44="AE","Table2",""))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E44" s="74" t="str">
         <f aca="false">IF(C44="","",CONCATENATE(C44,B44))</f>
-        <v/>
+        <v>P9</v>
       </c>
       <c r="F44" s="74" t="str">
         <f aca="false">IF(C44="","",IF(C44="P",CONCATENATE(C44,B44," only "),CONCATENATE(C44,B44," to ",H44)))</f>
-        <v/>
+        <v>P9 only</v>
       </c>
       <c r="G44" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E44,1)="P",E44,""),0)</f>
-        <v/>
+        <v>P9</v>
       </c>
       <c r="H44" s="76"/>
-      <c r="I44" s="81"/>
+      <c r="I44" s="81" t="s">
+        <v>18</v>
+      </c>
       <c r="J44" s="81"/>
-      <c r="K44" s="78"/>
+      <c r="K44" s="78" t="s">
+        <v>10</v>
+      </c>
       <c r="L44" s="78"/>
       <c r="M44" s="51"/>
-      <c r="N44" s="79" t="str">
+      <c r="N44" s="79" t="n">
         <f aca="false">IF(LEFT(E44,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E44,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O44" s="79"/>
       <c r="P44" s="79"/>
       <c r="Q44" s="51"/>
-      <c r="R44" s="79" t="str">
+      <c r="R44" s="79" t="n">
         <f aca="false">IF(LEFT(E44,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E44,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S44" s="79"/>
       <c r="T44" s="79"/>
       <c r="U44" s="51"/>
-      <c r="V44" s="79" t="str">
+      <c r="V44" s="79" t="n">
         <f aca="false">IF(LEFT(E44,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E44,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W44" s="79"/>
       <c r="X44" s="79"/>
       <c r="Y44" s="51"/>
-      <c r="Z44" s="80" t="str">
+      <c r="Z44" s="80" t="n">
         <f aca="false">IFERROR((V44+R44+N44),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA44" s="80"/>
       <c r="AB44" s="51"/>
@@ -7028,53 +7104,59 @@
       <c r="B45" s="71" t="n">
         <v>10</v>
       </c>
-      <c r="C45" s="72"/>
+      <c r="C45" s="72" t="s">
+        <v>5</v>
+      </c>
       <c r="D45" s="73" t="str">
         <f aca="false">IF(C45="P","P",IF(C45="AE","Table2",""))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E45" s="74" t="str">
         <f aca="false">IF(C45="","",CONCATENATE(C45,B45))</f>
-        <v/>
+        <v>P10</v>
       </c>
       <c r="F45" s="74" t="str">
         <f aca="false">IF(C45="","",IF(C45="P",CONCATENATE(C45,B45," only "),CONCATENATE(C45,B45," to ",H45)))</f>
-        <v/>
+        <v>P10 only</v>
       </c>
       <c r="G45" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E45,1)="P",E45,""),0)</f>
-        <v/>
+        <v>P10</v>
       </c>
       <c r="H45" s="76"/>
-      <c r="I45" s="81"/>
+      <c r="I45" s="81" t="s">
+        <v>19</v>
+      </c>
       <c r="J45" s="81"/>
-      <c r="K45" s="78"/>
+      <c r="K45" s="78" t="s">
+        <v>20</v>
+      </c>
       <c r="L45" s="78"/>
       <c r="M45" s="51"/>
-      <c r="N45" s="79" t="str">
+      <c r="N45" s="79" t="n">
         <f aca="false">IF(LEFT(E45,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E45,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O45" s="79"/>
       <c r="P45" s="79"/>
       <c r="Q45" s="51"/>
-      <c r="R45" s="79" t="str">
+      <c r="R45" s="79" t="n">
         <f aca="false">IF(LEFT(E45,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E45,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S45" s="79"/>
       <c r="T45" s="79"/>
       <c r="U45" s="51"/>
-      <c r="V45" s="79" t="str">
+      <c r="V45" s="79" t="n">
         <f aca="false">IF(LEFT(E45,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E45,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W45" s="79"/>
       <c r="X45" s="79"/>
       <c r="Y45" s="51"/>
-      <c r="Z45" s="80" t="str">
+      <c r="Z45" s="80" t="n">
         <f aca="false">IFERROR((V45+R45+N45),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA45" s="80"/>
       <c r="AB45" s="51"/>
@@ -7086,53 +7168,59 @@
       <c r="B46" s="71" t="n">
         <v>11</v>
       </c>
-      <c r="C46" s="72"/>
+      <c r="C46" s="72" t="s">
+        <v>5</v>
+      </c>
       <c r="D46" s="73" t="str">
         <f aca="false">IF(C46="P","P",IF(C46="AE","Table2",""))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E46" s="74" t="str">
         <f aca="false">IF(C46="","",CONCATENATE(C46,B46))</f>
-        <v/>
+        <v>P11</v>
       </c>
       <c r="F46" s="74" t="str">
         <f aca="false">IF(C46="","",IF(C46="P",CONCATENATE(C46,B46," only "),CONCATENATE(C46,B46," to ",H46)))</f>
-        <v/>
+        <v>P11 only</v>
       </c>
       <c r="G46" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E46,1)="P",E46,""),0)</f>
-        <v/>
+        <v>P11</v>
       </c>
       <c r="H46" s="76"/>
-      <c r="I46" s="81"/>
+      <c r="I46" s="81" t="s">
+        <v>21</v>
+      </c>
       <c r="J46" s="81"/>
-      <c r="K46" s="78"/>
+      <c r="K46" s="78" t="s">
+        <v>22</v>
+      </c>
       <c r="L46" s="78"/>
       <c r="M46" s="51"/>
-      <c r="N46" s="79" t="str">
+      <c r="N46" s="79" t="n">
         <f aca="false">IF(LEFT(E46,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E46,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O46" s="79"/>
       <c r="P46" s="79"/>
       <c r="Q46" s="51"/>
-      <c r="R46" s="79" t="str">
+      <c r="R46" s="79" t="n">
         <f aca="false">IF(LEFT(E46,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E46,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S46" s="79"/>
       <c r="T46" s="79"/>
       <c r="U46" s="51"/>
-      <c r="V46" s="79" t="str">
+      <c r="V46" s="79" t="n">
         <f aca="false">IF(LEFT(E46,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E46,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W46" s="79"/>
       <c r="X46" s="79"/>
       <c r="Y46" s="51"/>
-      <c r="Z46" s="80" t="str">
+      <c r="Z46" s="80" t="n">
         <f aca="false">IFERROR((V46+R46+N46),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA46" s="80"/>
       <c r="AB46" s="51"/>
@@ -7144,53 +7232,59 @@
       <c r="B47" s="71" t="n">
         <v>12</v>
       </c>
-      <c r="C47" s="72"/>
+      <c r="C47" s="72" t="s">
+        <v>5</v>
+      </c>
       <c r="D47" s="73" t="str">
         <f aca="false">IF(C47="P","P",IF(C47="AE","Table2",""))</f>
-        <v/>
+        <v>P</v>
       </c>
       <c r="E47" s="74" t="str">
         <f aca="false">IF(C47="","",CONCATENATE(C47,B47))</f>
-        <v/>
+        <v>P12</v>
       </c>
       <c r="F47" s="74" t="str">
         <f aca="false">IF(C47="","",IF(C47="P",CONCATENATE(C47,B47," only "),CONCATENATE(C47,B47," to ",H47)))</f>
-        <v/>
+        <v>P12 only </v>
       </c>
       <c r="G47" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E47,1)="P",E47,""),0)</f>
-        <v/>
+        <v>P12</v>
       </c>
       <c r="H47" s="76"/>
-      <c r="I47" s="81"/>
+      <c r="I47" s="81" t="s">
+        <v>23</v>
+      </c>
       <c r="J47" s="81"/>
-      <c r="K47" s="78"/>
+      <c r="K47" s="78" t="s">
+        <v>22</v>
+      </c>
       <c r="L47" s="78"/>
       <c r="M47" s="51"/>
-      <c r="N47" s="79" t="str">
+      <c r="N47" s="79" t="n">
         <f aca="false">IF(LEFT(E47,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E47,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O47" s="79"/>
       <c r="P47" s="79"/>
       <c r="Q47" s="51"/>
-      <c r="R47" s="79" t="str">
+      <c r="R47" s="79" t="n">
         <f aca="false">IF(LEFT(E47,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E47,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="S47" s="79"/>
       <c r="T47" s="79"/>
       <c r="U47" s="51"/>
-      <c r="V47" s="79" t="str">
+      <c r="V47" s="79" t="n">
         <f aca="false">IF(LEFT(E47,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E47,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W47" s="79"/>
       <c r="X47" s="79"/>
       <c r="Y47" s="51"/>
-      <c r="Z47" s="80" t="str">
+      <c r="Z47" s="80" t="n">
         <f aca="false">IFERROR((V47+R47+N47),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AA47" s="80"/>
       <c r="AB47" s="51"/>
@@ -8838,7 +8932,7 @@
       <c r="M76" s="84"/>
       <c r="N76" s="85" t="n">
         <f aca="false">SUM(N36:P75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="O76" s="85"/>
       <c r="P76" s="85"/>
@@ -8859,7 +8953,7 @@
       <c r="Y76" s="84"/>
       <c r="Z76" s="86" t="n">
         <f aca="false">SUM(Z36:AA75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="86"/>
       <c r="AB76" s="51"/>
@@ -10203,7 +10297,7 @@
   </sheetPr>
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -10378,7 +10472,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="108" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B4" s="109" t="str">
         <f aca="false">IFERROR(IF(LEFT(A4,1)="P",TRIM(LEFT(A4,3)),TRIM(RIGHT(A4,3))),"")</f>
@@ -10386,15 +10480,15 @@
       </c>
       <c r="C4" s="110" t="str">
         <f aca="false">IFERROR(IF(A4="","",IF(VLOOKUP(A4,'I and II. Overview'!$F$36:$L$75,4,0)="","",VLOOKUP(A4,'I and II. Overview'!$F$36:$L$75,4,0))),"")</f>
-        <v>ULEI</v>
+        <v/>
       </c>
       <c r="D4" s="110" t="str">
         <f aca="false">IFERROR(IF(A4="","",IF(VLOOKUP(A4,'I and II. Overview'!$F$36:$L$75,6,0)="","",VLOOKUP(A4,'I and II. Overview'!$F$36:$L$75,6,0))),"")</f>
-        <v>Germany</v>
+        <v/>
       </c>
       <c r="E4" s="111" t="str">
         <f aca="false">IFERROR(VLOOKUP(D4,'Ceiling - Project impl.'!$A$2:$B$203,2,0),"")</f>
-        <v>PR</v>
+        <v/>
       </c>
       <c r="F4" s="112"/>
       <c r="G4" s="113" t="str">
@@ -10514,7 +10608,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="108" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B6" s="109" t="str">
         <f aca="false">IFERROR(IF(LEFT(A6,1)="P",TRIM(LEFT(A6,3)),TRIM(RIGHT(A6,3))),"")</f>
@@ -10522,22 +10616,22 @@
       </c>
       <c r="C6" s="110" t="str">
         <f aca="false">IFERROR(IF(A6="","",IF(VLOOKUP(A6,'I and II. Overview'!$F$36:$L$75,4,0)="","",VLOOKUP(A6,'I and II. Overview'!$F$36:$L$75,4,0))),"")</f>
-        <v>HSO</v>
+        <v/>
       </c>
       <c r="D6" s="110" t="str">
         <f aca="false">IFERROR(IF(A6="","",IF(VLOOKUP(A6,'I and II. Overview'!$F$36:$L$75,6,0)="","",VLOOKUP(A6,'I and II. Overview'!$F$36:$L$75,6,0))),"")</f>
-        <v>Germany</v>
+        <v/>
       </c>
       <c r="E6" s="111" t="str">
         <f aca="false">IFERROR(VLOOKUP(D6,'Ceiling - Project impl.'!$A$2:$B$203,2,0),"")</f>
-        <v>PR</v>
+        <v/>
       </c>
       <c r="F6" s="112" t="n">
         <v>0.7</v>
       </c>
-      <c r="G6" s="113" t="n">
+      <c r="G6" s="113" t="str">
         <f aca="false">IFERROR(IF(F6="","",VLOOKUP(D6,'Ceiling - Project impl.'!$A$1:$F$204,3,0)),"")</f>
-        <v>336</v>
+        <v/>
       </c>
       <c r="H6" s="114" t="n">
         <f aca="false">IF(OR((F6-INT(F6))=0,(F6-INT(F6)=0.5)),IFERROR(ROUND(F6*G6,2),0),0)</f>
@@ -10547,21 +10641,21 @@
       <c r="J6" s="112" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="113" t="n">
+      <c r="K6" s="113" t="str">
         <f aca="false">IFERROR(IF(J6=""," ",VLOOKUP(D6,'Ceiling - Project impl.'!$A$1:$F$204,4,0)),"")</f>
-        <v>257</v>
+        <v/>
       </c>
       <c r="L6" s="114" t="n">
         <f aca="false">IF(OR((J6-INT(J6))=0,(J6-INT(J6)=0.5)),IFERROR(ROUND(J6*K6,2),0),0)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="115"/>
       <c r="N6" s="112" t="n">
         <v>0.7</v>
       </c>
-      <c r="O6" s="113" t="n">
+      <c r="O6" s="113" t="str">
         <f aca="false">IFERROR(IF(N6=""," ",VLOOKUP(D6,'Ceiling - Project impl.'!$A$1:$F$204,5,0)),"")</f>
-        <v>194</v>
+        <v/>
       </c>
       <c r="P6" s="114" t="n">
         <f aca="false">IF(OR((N6-INT(N6))=0,(N6-INT(N6)=0.5)),IFERROR(ROUND(N6*O6,2),0),0)</f>
@@ -10583,7 +10677,7 @@
       </c>
       <c r="V6" s="117" t="n">
         <f aca="false">IFERROR(+T6+P6+L6+H6,0)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="W6" s="118"/>
     </row>
@@ -18452,7 +18546,7 @@
       <c r="K124" s="127"/>
       <c r="L124" s="128" t="n">
         <f aca="false">SUM(L4:L123)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="M124" s="129"/>
       <c r="N124" s="126" t="n">
@@ -18480,7 +18574,7 @@
       </c>
       <c r="V124" s="132" t="n">
         <f aca="false">SUM(V4:V123)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
       <c r="W124" s="118"/>
     </row>
@@ -18693,7 +18787,7 @@
       <c r="A5" s="143"/>
       <c r="B5" s="51"/>
       <c r="C5" s="151" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D5" s="152"/>
       <c r="E5" s="153"/>
@@ -18722,7 +18816,7 @@
       <c r="A6" s="143"/>
       <c r="B6" s="51"/>
       <c r="C6" s="160" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D6" s="161"/>
       <c r="E6" s="162"/>
@@ -25525,13 +25619,13 @@
       <c r="AI1" s="217"/>
       <c r="AJ1" s="217"/>
       <c r="AK1" s="217" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AL1" s="217"/>
       <c r="AM1" s="217"/>
       <c r="AN1" s="217"/>
       <c r="AO1" s="218" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AP1" s="214"/>
     </row>
@@ -25576,7 +25670,7 @@
       <c r="AI2" s="217"/>
       <c r="AJ2" s="217"/>
       <c r="AK2" s="217" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AL2" s="217"/>
       <c r="AM2" s="217"/>
@@ -25628,13 +25722,13 @@
       <c r="AI3" s="217"/>
       <c r="AJ3" s="217"/>
       <c r="AK3" s="217" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="AL3" s="217"/>
       <c r="AM3" s="217"/>
       <c r="AN3" s="217"/>
       <c r="AO3" s="218" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AP3" s="214"/>
     </row>
@@ -25682,13 +25776,13 @@
       <c r="AI4" s="217"/>
       <c r="AJ4" s="217"/>
       <c r="AK4" s="217" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="AL4" s="217"/>
       <c r="AM4" s="217"/>
       <c r="AN4" s="217"/>
       <c r="AO4" s="218" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AP4" s="214"/>
     </row>
@@ -25733,7 +25827,7 @@
       <c r="AI5" s="217"/>
       <c r="AJ5" s="217"/>
       <c r="AK5" s="217" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AL5" s="217"/>
       <c r="AM5" s="217"/>
@@ -25788,13 +25882,13 @@
       <c r="AI6" s="224"/>
       <c r="AJ6" s="224"/>
       <c r="AK6" s="217" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AL6" s="217"/>
       <c r="AM6" s="217"/>
       <c r="AN6" s="217"/>
       <c r="AO6" s="218" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="AP6" s="214"/>
     </row>
@@ -26111,37 +26205,37 @@
         <v>1</v>
       </c>
       <c r="B11" s="235" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C11" s="236" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D11" s="235" t="n">
         <v>8</v>
       </c>
       <c r="E11" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F11" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G11" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H11" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I11" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J11" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K11" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L11" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M11" s="237"/>
       <c r="N11" s="237"/>
@@ -26182,10 +26276,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="235" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C12" s="235" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D12" s="235" t="n">
         <v>18</v>
@@ -26193,58 +26287,58 @@
       <c r="E12" s="237"/>
       <c r="F12" s="237"/>
       <c r="G12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="O12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="P12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="R12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="S12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="T12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="V12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="W12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="X12" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Y12" s="237"/>
       <c r="Z12" s="237"/>
@@ -26273,121 +26367,121 @@
         <v>3</v>
       </c>
       <c r="B13" s="235" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C13" s="235" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D13" s="235" t="n">
         <v>36</v>
       </c>
       <c r="E13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="O13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="P13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="R13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="S13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="T13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="V13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="W13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="X13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Y13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Z13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AA13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AB13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AC13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AD13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AE13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AF13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AG13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AH13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AI13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AJ13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AK13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AL13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AM13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AN13" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AO13" s="238" t="e">
         <f aca="false">IF(D13+C13&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B13="",C13="",D13=""),"",IF(OR(B13="",C13="",D13=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -26400,121 +26494,121 @@
         <v>4</v>
       </c>
       <c r="B14" s="235" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C14" s="235" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D14" s="235" t="n">
         <v>36</v>
       </c>
       <c r="E14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="O14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="P14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="R14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="S14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="T14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="V14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="W14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="X14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Y14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Z14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AA14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AB14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AC14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AD14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AE14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AF14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AG14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AH14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AI14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AJ14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AK14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AL14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AM14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AN14" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AO14" s="238" t="e">
         <f aca="false">IF(D14+C14&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B14="",C14="",D14=""),"",IF(OR(B14="",C14="",D14=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -26527,121 +26621,121 @@
         <v>5</v>
       </c>
       <c r="B15" s="235" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C15" s="235" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D15" s="235" t="n">
         <v>36</v>
       </c>
       <c r="E15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="O15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="P15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="R15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="S15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="T15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="V15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="W15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="X15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Y15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Z15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AA15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AB15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AC15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AD15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AE15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AF15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AG15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AH15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AI15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AJ15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AK15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AL15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AM15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AN15" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AO15" s="238" t="e">
         <f aca="false">IF(D15+C15&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B15="",C15="",D15=""),"",IF(OR(B15="",C15="",D15=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -26654,121 +26748,121 @@
         <v>6</v>
       </c>
       <c r="B16" s="235" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C16" s="235" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D16" s="235" t="n">
         <v>36</v>
       </c>
       <c r="E16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="O16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="P16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="R16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="S16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="T16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="V16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="W16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="X16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Y16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Z16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AA16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AB16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AC16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AD16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AE16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AF16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AG16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AH16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AI16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AJ16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AK16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AL16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AM16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AN16" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AO16" s="238" t="e">
         <f aca="false">IF(D16+C16&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B16="",C16="",D16=""),"",IF(OR(B16="",C16="",D16=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -26781,121 +26875,121 @@
         <v>7</v>
       </c>
       <c r="B17" s="235" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C17" s="235" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D17" s="235" t="n">
         <v>36</v>
       </c>
       <c r="E17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="O17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="P17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="R17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="S17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="T17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="V17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="W17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="X17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Y17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Z17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AA17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AB17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AC17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AD17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AE17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AF17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AG17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AH17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AI17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AJ17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AK17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AL17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AM17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AN17" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AO17" s="238" t="e">
         <f aca="false">IF(D17+C17&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B17="",C17="",D17=""),"",IF(OR(B17="",C17="",D17=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -26908,10 +27002,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="235" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C18" s="235" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D18" s="235" t="n">
         <v>36</v>
@@ -26922,73 +27016,73 @@
       <c r="H18" s="237"/>
       <c r="I18" s="237"/>
       <c r="J18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M18" s="237"/>
       <c r="N18" s="237"/>
       <c r="O18" s="237"/>
       <c r="P18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="R18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="S18" s="237"/>
       <c r="T18" s="237"/>
       <c r="U18" s="237"/>
       <c r="V18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="W18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="X18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Y18" s="237"/>
       <c r="Z18" s="237"/>
       <c r="AA18" s="237"/>
       <c r="AB18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AC18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AD18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AE18" s="237"/>
       <c r="AF18" s="237"/>
       <c r="AG18" s="237"/>
       <c r="AH18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AI18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AJ18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AK18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AL18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AM18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AN18" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AO18" s="238" t="e">
         <f aca="false">IF(D18+C18&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B18="",C18="",D18=""),"",IF(OR(B18="",C18="",D18=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -27001,10 +27095,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="235" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C19" s="235" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D19" s="235" t="n">
         <v>36</v>
@@ -27038,28 +27132,28 @@
       <c r="AE19" s="237"/>
       <c r="AF19" s="237"/>
       <c r="AG19" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AH19" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AI19" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AJ19" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AK19" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AL19" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AM19" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AN19" s="237" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AO19" s="238" t="e">
         <f aca="false">IF(D19+C19&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B19="",C19="",D19=""),"",IF(OR(B19="",C19="",D19=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -28043,7 +28137,7 @@
     </row>
     <row r="36" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="213" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E36" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D36,IF(E$10&lt;$C36,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -28192,7 +28286,7 @@
     </row>
     <row r="37" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="213" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E37" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D37,IF(E$10&lt;$C37,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -28341,7 +28435,7 @@
     </row>
     <row r="38" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="213" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E38" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D38,IF(E$10&lt;$C38,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -28490,7 +28584,7 @@
     </row>
     <row r="39" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="213" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E39" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D39,IF(E$10&lt;$C39,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -28639,7 +28733,7 @@
     </row>
     <row r="40" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="213" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E40" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D40,IF(E$10&lt;$C40,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -28788,157 +28882,157 @@
     </row>
     <row r="41" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="213" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="213" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="213" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="213" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="213" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="213" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="213" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="213" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="213" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="213" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="213" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="213" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="213" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="213" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="213" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="213" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="213" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="213" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="213" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="213" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="213" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="213" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="213" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="213" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="213" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="213" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="213" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="213" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="213" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="213" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="213" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -29068,10 +29162,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="244" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B2" s="245" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C2" s="245" t="n">
         <v>353</v>
@@ -29089,10 +29183,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="244" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B3" s="245" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C3" s="245" t="n">
         <v>353</v>
@@ -29110,10 +29204,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="244" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B4" s="245" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C4" s="245" t="n">
         <v>353</v>
@@ -29131,10 +29225,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="244" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B5" s="245" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C5" s="245" t="n">
         <v>353</v>
@@ -29152,10 +29246,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="244" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B6" s="245" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C6" s="245" t="n">
         <v>353</v>
@@ -29173,10 +29267,10 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="244" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B7" s="245" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C7" s="245" t="n">
         <v>353</v>
@@ -29194,10 +29288,10 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="244" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B8" s="245" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C8" s="245" t="n">
         <v>353</v>
@@ -29215,10 +29309,10 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="244" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B9" s="245" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C9" s="245" t="n">
         <v>353</v>
@@ -29236,10 +29330,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="246" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B10" s="247" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C10" s="247" t="n">
         <v>336</v>
@@ -29260,7 +29354,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="247" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C11" s="247" t="n">
         <v>336</v>
@@ -29278,10 +29372,10 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="248" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B12" s="247" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C12" s="247" t="n">
         <v>336</v>
@@ -29299,10 +29393,10 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="248" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B13" s="247" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C13" s="247" t="n">
         <v>336</v>
@@ -29320,10 +29414,10 @@
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="248" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B14" s="247" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C14" s="247" t="n">
         <v>336</v>
@@ -29341,10 +29435,10 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="248" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B15" s="247" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C15" s="247" t="n">
         <v>336</v>
@@ -29362,10 +29456,10 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="248" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B16" s="247" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C16" s="247" t="n">
         <v>336</v>
@@ -29383,10 +29477,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="249" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B17" s="250" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C17" s="250" t="n">
         <v>197</v>
@@ -29404,10 +29498,10 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="249" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="250" t="s">
         <v>76</v>
-      </c>
-      <c r="B18" s="250" t="s">
-        <v>61</v>
       </c>
       <c r="C18" s="250" t="n">
         <v>197</v>
@@ -29425,10 +29519,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="249" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B19" s="250" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C19" s="250" t="n">
         <v>197</v>
@@ -29446,10 +29540,10 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="251" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B20" s="250" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C20" s="250" t="n">
         <v>197</v>
@@ -29467,10 +29561,10 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="249" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B21" s="250" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C21" s="250" t="n">
         <v>197</v>
@@ -29488,10 +29582,10 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="249" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B22" s="250" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C22" s="250" t="n">
         <v>197</v>
@@ -29509,10 +29603,10 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="249" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B23" s="250" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C23" s="250" t="n">
         <v>197</v>
@@ -29530,10 +29624,10 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="252" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B24" s="253" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C24" s="253" t="n">
         <v>106</v>
@@ -29551,10 +29645,10 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="254" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B25" s="253" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C25" s="253" t="n">
         <v>106</v>
@@ -29572,10 +29666,10 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="254" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B26" s="253" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C26" s="253" t="n">
         <v>106</v>
@@ -29593,10 +29687,10 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="254" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B27" s="253" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C27" s="253" t="n">
         <v>106</v>
@@ -29614,10 +29708,10 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="254" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B28" s="253" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C28" s="253" t="n">
         <v>106</v>
@@ -29635,10 +29729,10 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="254" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B29" s="253" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C29" s="253" t="n">
         <v>106</v>
@@ -29656,10 +29750,10 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="254" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B30" s="253" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C30" s="253" t="n">
         <v>106</v>
@@ -29677,10 +29771,10 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="254" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B31" s="253" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C31" s="253" t="n">
         <v>106</v>
@@ -29698,10 +29792,10 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="254" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B32" s="253" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C32" s="253" t="n">
         <v>106</v>
@@ -29719,10 +29813,10 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="254" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B33" s="253" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C33" s="253" t="n">
         <v>106</v>
@@ -29740,10 +29834,10 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="254" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B34" s="253" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C34" s="253" t="n">
         <v>106</v>
@@ -29761,10 +29855,10 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="254" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B35" s="253" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C35" s="253" t="n">
         <v>106</v>
@@ -29782,10 +29876,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="255" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B36" s="256" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C36" s="256" t="n">
         <v>353</v>
@@ -29803,10 +29897,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="257" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B37" s="256" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C37" s="256" t="n">
         <v>353</v>
@@ -29824,10 +29918,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="257" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B38" s="256" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C38" s="256" t="n">
         <v>353</v>
@@ -29845,10 +29939,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="257" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B39" s="256" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C39" s="256" t="n">
         <v>353</v>
@@ -29866,10 +29960,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="257" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B40" s="256" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C40" s="256" t="n">
         <v>353</v>
@@ -29887,10 +29981,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="257" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B41" s="256" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C41" s="256" t="n">
         <v>353</v>
@@ -29908,10 +30002,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="257" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B42" s="256" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C42" s="256" t="n">
         <v>353</v>
@@ -29929,10 +30023,10 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="257" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B43" s="256" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C43" s="256" t="n">
         <v>353</v>
@@ -29950,10 +30044,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="257" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B44" s="256" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C44" s="256" t="n">
         <v>353</v>
@@ -29971,10 +30065,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="258" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B45" s="259" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C45" s="259" t="n">
         <v>336</v>
@@ -29992,10 +30086,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="260" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B46" s="259" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C46" s="259" t="n">
         <v>336</v>
@@ -30013,10 +30107,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="260" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B47" s="259" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C47" s="259" t="n">
         <v>336</v>
@@ -30034,10 +30128,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="260" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="259" t="s">
         <v>107</v>
-      </c>
-      <c r="B48" s="259" t="s">
-        <v>95</v>
       </c>
       <c r="C48" s="259" t="n">
         <v>336</v>
@@ -30055,10 +30149,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="260" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B49" s="259" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C49" s="259" t="n">
         <v>336</v>
@@ -30076,10 +30170,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="260" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B50" s="259" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C50" s="259" t="n">
         <v>336</v>
@@ -30097,10 +30191,10 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="260" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B51" s="259" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C51" s="259" t="n">
         <v>336</v>
@@ -30118,10 +30212,10 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="261" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B52" s="262" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C52" s="262" t="n">
         <v>197</v>
@@ -30139,10 +30233,10 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="263" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B53" s="262" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C53" s="262" t="n">
         <v>197</v>
@@ -30160,10 +30254,10 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="263" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B54" s="262" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C54" s="262" t="n">
         <v>197</v>
@@ -30181,10 +30275,10 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="263" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B55" s="262" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C55" s="262" t="n">
         <v>197</v>
@@ -30202,10 +30296,10 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="263" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B56" s="262" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C56" s="262" t="n">
         <v>197</v>
@@ -30223,10 +30317,10 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="263" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B57" s="262" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C57" s="262" t="n">
         <v>197</v>
@@ -30244,10 +30338,10 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="263" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B58" s="262" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C58" s="262" t="n">
         <v>197</v>
@@ -30265,10 +30359,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="263" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B59" s="262" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C59" s="262" t="n">
         <v>197</v>
@@ -30286,10 +30380,10 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="263" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B60" s="262" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C60" s="262" t="n">
         <v>197</v>
@@ -30307,10 +30401,10 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="264" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B61" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C61" s="265" t="n">
         <v>106</v>
@@ -30328,10 +30422,10 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="266" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B62" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C62" s="265" t="n">
         <v>106</v>
@@ -30349,10 +30443,10 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="266" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B63" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C63" s="265" t="n">
         <v>106</v>
@@ -30370,10 +30464,10 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="266" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B64" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C64" s="265" t="n">
         <v>106</v>
@@ -30391,10 +30485,10 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="266" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B65" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C65" s="265" t="n">
         <v>106</v>
@@ -30412,10 +30506,10 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="266" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B66" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C66" s="265" t="n">
         <v>106</v>
@@ -30433,10 +30527,10 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="266" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B67" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C67" s="265" t="n">
         <v>106</v>
@@ -30454,10 +30548,10 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="266" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B68" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C68" s="265" t="n">
         <v>106</v>
@@ -30475,10 +30569,10 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="266" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B69" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C69" s="265" t="n">
         <v>106</v>
@@ -30496,10 +30590,10 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="266" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B70" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C70" s="265" t="n">
         <v>106</v>
@@ -30517,10 +30611,10 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="266" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="B71" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C71" s="265" t="n">
         <v>106</v>
@@ -30538,10 +30632,10 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="266" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B72" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C72" s="265" t="n">
         <v>106</v>
@@ -30559,10 +30653,10 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="266" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B73" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C73" s="265" t="n">
         <v>106</v>
@@ -30580,10 +30674,10 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="266" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B74" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C74" s="265" t="n">
         <v>106</v>
@@ -30601,10 +30695,10 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="266" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B75" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C75" s="265" t="n">
         <v>106</v>
@@ -30622,10 +30716,10 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="266" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B76" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C76" s="265" t="n">
         <v>106</v>
@@ -30643,10 +30737,10 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="266" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B77" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C77" s="265" t="n">
         <v>106</v>
@@ -30664,10 +30758,10 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="266" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B78" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C78" s="265" t="n">
         <v>106</v>
@@ -30685,10 +30779,10 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="266" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B79" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C79" s="265" t="n">
         <v>106</v>
@@ -30706,10 +30800,10 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="266" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B80" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C80" s="265" t="n">
         <v>106</v>
@@ -30727,10 +30821,10 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="266" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B81" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C81" s="265" t="n">
         <v>106</v>
@@ -30748,10 +30842,10 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="266" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B82" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C82" s="265" t="n">
         <v>106</v>
@@ -30769,10 +30863,10 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="266" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B83" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C83" s="265" t="n">
         <v>106</v>
@@ -30790,10 +30884,10 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="266" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B84" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C84" s="265" t="n">
         <v>106</v>
@@ -30811,10 +30905,10 @@
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="266" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B85" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C85" s="265" t="n">
         <v>106</v>
@@ -30832,10 +30926,10 @@
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="266" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B86" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C86" s="265" t="n">
         <v>106</v>
@@ -30853,10 +30947,10 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="266" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B87" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C87" s="265" t="n">
         <v>106</v>
@@ -30874,10 +30968,10 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="266" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B88" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C88" s="265" t="n">
         <v>106</v>
@@ -30895,10 +30989,10 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="266" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B89" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C89" s="265" t="n">
         <v>106</v>
@@ -30916,10 +31010,10 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="266" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B90" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C90" s="265" t="n">
         <v>106</v>
@@ -30937,10 +31031,10 @@
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="266" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B91" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C91" s="265" t="n">
         <v>106</v>
@@ -30958,10 +31052,10 @@
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="266" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B92" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C92" s="265" t="n">
         <v>106</v>
@@ -30979,10 +31073,10 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="266" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B93" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C93" s="265" t="n">
         <v>106</v>
@@ -31000,10 +31094,10 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="266" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B94" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C94" s="265" t="n">
         <v>106</v>
@@ -31021,10 +31115,10 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="266" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B95" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C95" s="265" t="n">
         <v>106</v>
@@ -31042,10 +31136,10 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="266" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B96" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C96" s="265" t="n">
         <v>106</v>
@@ -31063,10 +31157,10 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="266" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B97" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C97" s="265" t="n">
         <v>106</v>
@@ -31084,10 +31178,10 @@
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="266" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B98" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C98" s="265" t="n">
         <v>106</v>
@@ -31105,10 +31199,10 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="266" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B99" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C99" s="265" t="n">
         <v>106</v>
@@ -31126,10 +31220,10 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="266" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B100" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C100" s="265" t="n">
         <v>106</v>
@@ -31147,10 +31241,10 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="266" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B101" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C101" s="265" t="n">
         <v>106</v>
@@ -31168,10 +31262,10 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="266" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B102" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C102" s="265" t="n">
         <v>106</v>
@@ -31189,10 +31283,10 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="266" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B103" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C103" s="265" t="n">
         <v>106</v>
@@ -31210,10 +31304,10 @@
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="266" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B104" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C104" s="265" t="n">
         <v>106</v>
@@ -31231,10 +31325,10 @@
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="266" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B105" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C105" s="265" t="n">
         <v>106</v>
@@ -31252,10 +31346,10 @@
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="266" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B106" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C106" s="265" t="n">
         <v>106</v>
@@ -31273,10 +31367,10 @@
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="266" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B107" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C107" s="265" t="n">
         <v>106</v>
@@ -31294,10 +31388,10 @@
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="266" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B108" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C108" s="265" t="n">
         <v>106</v>
@@ -31315,10 +31409,10 @@
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="266" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B109" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C109" s="265" t="n">
         <v>106</v>
@@ -31336,10 +31430,10 @@
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="266" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B110" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C110" s="265" t="n">
         <v>106</v>
@@ -31357,10 +31451,10 @@
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="266" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B111" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C111" s="265" t="n">
         <v>106</v>
@@ -31378,10 +31472,10 @@
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="266" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B112" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C112" s="265" t="n">
         <v>106</v>
@@ -31399,10 +31493,10 @@
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="266" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B113" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C113" s="265" t="n">
         <v>106</v>
@@ -31420,10 +31514,10 @@
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="266" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B114" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C114" s="265" t="n">
         <v>106</v>
@@ -31441,10 +31535,10 @@
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="266" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B115" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C115" s="265" t="n">
         <v>106</v>
@@ -31462,10 +31556,10 @@
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="266" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B116" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C116" s="265" t="n">
         <v>106</v>
@@ -31483,10 +31577,10 @@
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="266" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B117" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C117" s="265" t="n">
         <v>106</v>
@@ -31504,10 +31598,10 @@
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="266" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B118" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C118" s="265" t="n">
         <v>106</v>
@@ -31525,10 +31619,10 @@
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="266" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B119" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C119" s="265" t="n">
         <v>106</v>
@@ -31546,10 +31640,10 @@
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="266" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B120" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C120" s="265" t="n">
         <v>106</v>
@@ -31567,10 +31661,10 @@
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="266" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B121" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C121" s="265" t="n">
         <v>106</v>
@@ -31588,10 +31682,10 @@
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="266" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B122" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C122" s="265" t="n">
         <v>106</v>
@@ -31609,10 +31703,10 @@
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="266" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B123" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C123" s="265" t="n">
         <v>106</v>
@@ -31630,10 +31724,10 @@
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="266" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B124" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C124" s="265" t="n">
         <v>106</v>
@@ -31651,10 +31745,10 @@
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="266" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B125" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C125" s="265" t="n">
         <v>106</v>
@@ -31672,10 +31766,10 @@
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="266" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B126" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C126" s="265" t="n">
         <v>106</v>
@@ -31693,10 +31787,10 @@
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="266" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B127" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C127" s="265" t="n">
         <v>106</v>
@@ -31714,10 +31808,10 @@
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="266" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B128" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C128" s="265" t="n">
         <v>106</v>
@@ -31735,10 +31829,10 @@
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="266" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B129" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C129" s="265" t="n">
         <v>106</v>
@@ -31756,10 +31850,10 @@
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="266" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B130" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C130" s="265" t="n">
         <v>106</v>
@@ -31777,10 +31871,10 @@
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="266" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B131" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C131" s="265" t="n">
         <v>106</v>
@@ -31798,10 +31892,10 @@
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="266" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B132" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C132" s="265" t="n">
         <v>106</v>
@@ -31819,10 +31913,10 @@
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="266" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B133" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C133" s="265" t="n">
         <v>106</v>
@@ -31840,10 +31934,10 @@
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="266" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="B134" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C134" s="265" t="n">
         <v>106</v>
@@ -31861,10 +31955,10 @@
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="266" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B135" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C135" s="265" t="n">
         <v>106</v>
@@ -31882,10 +31976,10 @@
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="266" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B136" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C136" s="265" t="n">
         <v>106</v>
@@ -31903,10 +31997,10 @@
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="266" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B137" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C137" s="265" t="n">
         <v>106</v>
@@ -31924,10 +32018,10 @@
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="266" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B138" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C138" s="265" t="n">
         <v>106</v>
@@ -31945,10 +32039,10 @@
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="266" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B139" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C139" s="265" t="n">
         <v>106</v>
@@ -31966,10 +32060,10 @@
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="266" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B140" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C140" s="265" t="n">
         <v>106</v>
@@ -31987,10 +32081,10 @@
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="266" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B141" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C141" s="265" t="n">
         <v>106</v>
@@ -32008,10 +32102,10 @@
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="266" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B142" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C142" s="265" t="n">
         <v>106</v>
@@ -32029,10 +32123,10 @@
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="266" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B143" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C143" s="265" t="n">
         <v>106</v>
@@ -32050,10 +32144,10 @@
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="266" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B144" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C144" s="265" t="n">
         <v>106</v>
@@ -32071,10 +32165,10 @@
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="266" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B145" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C145" s="265" t="n">
         <v>106</v>
@@ -32092,10 +32186,10 @@
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="266" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B146" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C146" s="265" t="n">
         <v>106</v>
@@ -32113,10 +32207,10 @@
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="266" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B147" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C147" s="265" t="n">
         <v>106</v>
@@ -32134,10 +32228,10 @@
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="266" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B148" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C148" s="265" t="n">
         <v>106</v>
@@ -32155,10 +32249,10 @@
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="266" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B149" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C149" s="265" t="n">
         <v>106</v>
@@ -32176,10 +32270,10 @@
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="266" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B150" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C150" s="265" t="n">
         <v>106</v>
@@ -32197,10 +32291,10 @@
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="266" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B151" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C151" s="265" t="n">
         <v>106</v>
@@ -32218,10 +32312,10 @@
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="266" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B152" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C152" s="265" t="n">
         <v>106</v>
@@ -32239,10 +32333,10 @@
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="266" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B153" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C153" s="265" t="n">
         <v>106</v>
@@ -32260,10 +32354,10 @@
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="266" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B154" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C154" s="265" t="n">
         <v>106</v>
@@ -32281,10 +32375,10 @@
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="266" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B155" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C155" s="265" t="n">
         <v>106</v>
@@ -32302,10 +32396,10 @@
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="266" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B156" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C156" s="265" t="n">
         <v>106</v>
@@ -32323,10 +32417,10 @@
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="266" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B157" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C157" s="265" t="n">
         <v>106</v>
@@ -32344,10 +32438,10 @@
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="266" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B158" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C158" s="265" t="n">
         <v>106</v>
@@ -32365,10 +32459,10 @@
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="266" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B159" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C159" s="265" t="n">
         <v>106</v>
@@ -32386,10 +32480,10 @@
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="266" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B160" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C160" s="265" t="n">
         <v>106</v>
@@ -32407,10 +32501,10 @@
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="266" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B161" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C161" s="265" t="n">
         <v>106</v>
@@ -32428,10 +32522,10 @@
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="266" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B162" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C162" s="265" t="n">
         <v>106</v>
@@ -32449,10 +32543,10 @@
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="266" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B163" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C163" s="265" t="n">
         <v>106</v>
@@ -32470,10 +32564,10 @@
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="266" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B164" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C164" s="265" t="n">
         <v>106</v>
@@ -32491,10 +32585,10 @@
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="266" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B165" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C165" s="265" t="n">
         <v>106</v>
@@ -32512,10 +32606,10 @@
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="266" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B166" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C166" s="265" t="n">
         <v>106</v>
@@ -32533,10 +32627,10 @@
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="266" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B167" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C167" s="265" t="n">
         <v>106</v>
@@ -32554,10 +32648,10 @@
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="266" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B168" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C168" s="265" t="n">
         <v>106</v>
@@ -32575,10 +32669,10 @@
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="266" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B169" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C169" s="265" t="n">
         <v>106</v>
@@ -32596,10 +32690,10 @@
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="266" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B170" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C170" s="265" t="n">
         <v>106</v>
@@ -32617,10 +32711,10 @@
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="266" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B171" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C171" s="265" t="n">
         <v>106</v>
@@ -32638,10 +32732,10 @@
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="266" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B172" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C172" s="265" t="n">
         <v>106</v>
@@ -32659,10 +32753,10 @@
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="266" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B173" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C173" s="265" t="n">
         <v>106</v>
@@ -32680,10 +32774,10 @@
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="266" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B174" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C174" s="265" t="n">
         <v>106</v>
@@ -32701,10 +32795,10 @@
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="266" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B175" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C175" s="265" t="n">
         <v>106</v>
@@ -32722,10 +32816,10 @@
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="266" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B176" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C176" s="265" t="n">
         <v>106</v>
@@ -32743,10 +32837,10 @@
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="266" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B177" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C177" s="265" t="n">
         <v>106</v>
@@ -32764,10 +32858,10 @@
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="266" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B178" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C178" s="265" t="n">
         <v>106</v>
@@ -32785,10 +32879,10 @@
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="266" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B179" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C179" s="265" t="n">
         <v>106</v>
@@ -32806,10 +32900,10 @@
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="266" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B180" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C180" s="265" t="n">
         <v>106</v>
@@ -32827,10 +32921,10 @@
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="266" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B181" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C181" s="265" t="n">
         <v>106</v>
@@ -32848,10 +32942,10 @@
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="266" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B182" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C182" s="265" t="n">
         <v>106</v>
@@ -32869,10 +32963,10 @@
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="266" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B183" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C183" s="265" t="n">
         <v>106</v>
@@ -32890,10 +32984,10 @@
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="266" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B184" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C184" s="265" t="n">
         <v>106</v>
@@ -32911,10 +33005,10 @@
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="266" t="s">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="B185" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C185" s="265" t="n">
         <v>106</v>
@@ -32932,10 +33026,10 @@
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="266" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B186" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C186" s="265" t="n">
         <v>106</v>
@@ -32953,10 +33047,10 @@
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="266" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B187" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C187" s="265" t="n">
         <v>106</v>
@@ -32974,10 +33068,10 @@
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="266" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B188" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C188" s="265" t="n">
         <v>106</v>
@@ -32995,10 +33089,10 @@
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="266" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B189" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C189" s="265" t="n">
         <v>106</v>
@@ -33016,10 +33110,10 @@
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="266" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B190" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C190" s="265" t="n">
         <v>106</v>
@@ -33037,10 +33131,10 @@
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="266" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B191" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C191" s="265" t="n">
         <v>106</v>
@@ -33058,10 +33152,10 @@
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="266" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B192" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C192" s="265" t="n">
         <v>106</v>
@@ -33079,10 +33173,10 @@
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="266" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B193" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C193" s="265" t="n">
         <v>106</v>
@@ -33100,10 +33194,10 @@
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="266" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B194" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C194" s="265" t="n">
         <v>106</v>
@@ -33121,10 +33215,10 @@
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="266" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B195" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C195" s="265" t="n">
         <v>106</v>
@@ -33142,10 +33236,10 @@
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="266" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B196" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C196" s="265" t="n">
         <v>106</v>
@@ -33163,10 +33257,10 @@
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="266" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B197" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C197" s="265" t="n">
         <v>106</v>
@@ -33184,10 +33278,10 @@
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="266" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B198" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C198" s="265" t="n">
         <v>106</v>
@@ -33205,10 +33299,10 @@
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="266" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B199" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C199" s="265" t="n">
         <v>106</v>
@@ -33226,10 +33320,10 @@
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="266" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B200" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C200" s="265" t="n">
         <v>106</v>
@@ -33247,10 +33341,10 @@
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="266" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B201" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C201" s="265" t="n">
         <v>106</v>
@@ -33268,10 +33362,10 @@
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="266" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B202" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C202" s="265" t="n">
         <v>106</v>
@@ -33289,10 +33383,10 @@
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="266" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B203" s="265" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C203" s="265" t="n">
         <v>106</v>
@@ -33378,7 +33472,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="270" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B1" s="271" t="str">
         <f aca="false">+'I and II. Overview'!K10</f>
@@ -33393,19 +33487,19 @@
     <row r="3" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="273" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B4" s="274" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="275" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D4" s="276" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E4" s="277" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33414,13 +33508,13 @@
         <v>Knowledge Alliances</v>
       </c>
       <c r="B5" s="279" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C5" s="280" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D5" s="281" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E5" s="277"/>
     </row>
@@ -33430,13 +33524,13 @@
         <v>Sector Skills Alliances</v>
       </c>
       <c r="B6" s="279" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C6" s="280" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D6" s="281" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E6" s="277"/>
     </row>
@@ -33446,13 +33540,13 @@
         <v>Before completing this table please read carefully the instructions available on https://ec.europa.eu/programmes/erasmus-plus/resources/programme-guide_en</v>
       </c>
       <c r="B7" s="279" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C7" s="280" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D7" s="281" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33461,13 +33555,13 @@
         <v>Call for proposals 2020 - EAC/A02/2019 - Erasmus+ Programme - (2019/C 373/06)</v>
       </c>
       <c r="B8" s="279" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C8" s="280" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D8" s="281" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33476,13 +33570,13 @@
         <v>Programme guide and instructions for applicants</v>
       </c>
       <c r="B9" s="279" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C9" s="280" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D9" s="281" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33491,13 +33585,13 @@
         <v>Language</v>
       </c>
       <c r="B10" s="279" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C10" s="280" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D10" s="281" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33506,13 +33600,13 @@
         <v>Action</v>
       </c>
       <c r="B11" s="279" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C11" s="280" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D11" s="281" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33527,13 +33621,13 @@
         <v>Action to be selected</v>
       </c>
       <c r="B13" s="283" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C13" s="284" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D13" s="285" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33542,13 +33636,13 @@
         <v>Knowledge alliances</v>
       </c>
       <c r="B14" s="283" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C14" s="284" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D14" s="285" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33557,13 +33651,13 @@
         <v>Sector skills alliances</v>
       </c>
       <c r="B15" s="283" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C15" s="284" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D15" s="285" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33572,13 +33666,13 @@
         <v>Duration number of months</v>
       </c>
       <c r="B16" s="279" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C16" s="280" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D16" s="281" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33587,13 +33681,13 @@
         <v>Duration to be completed</v>
       </c>
       <c r="B17" s="283" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C17" s="284" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D17" s="285" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33608,13 +33702,13 @@
         <v>Duration</v>
       </c>
       <c r="B19" s="283" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C19" s="284" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="D19" s="285" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33623,13 +33717,13 @@
         <v>24 months</v>
       </c>
       <c r="B20" s="283" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C20" s="284" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D20" s="285" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33638,13 +33732,13 @@
         <v>36 months</v>
       </c>
       <c r="B21" s="283" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C21" s="284" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D21" s="285" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33653,13 +33747,13 @@
         <v>months</v>
       </c>
       <c r="B22" s="283" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C22" s="284" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D22" s="285" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33668,13 +33762,13 @@
         <v>Project acronym</v>
       </c>
       <c r="B23" s="279" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C23" s="280" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D23" s="281" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33683,13 +33777,13 @@
         <v>Project title</v>
       </c>
       <c r="B24" s="279" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C24" s="280" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D24" s="281" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33698,13 +33792,13 @@
         <v>Part I - Consolidated figures</v>
       </c>
       <c r="B25" s="279" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C25" s="280" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="D25" s="281" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33713,13 +33807,13 @@
         <v>EU Grant</v>
       </c>
       <c r="B26" s="279" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C26" s="280" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="D26" s="281" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33729,13 +33823,13 @@
 COUNTRIES (PR)</v>
       </c>
       <c r="B27" s="279" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C27" s="280" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D27" s="281" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33744,13 +33838,13 @@
         <v>PARTNER COUNTRIES (PA)</v>
       </c>
       <c r="B28" s="279" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C28" s="280" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D28" s="281" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33759,13 +33853,13 @@
         <v>TOTAL</v>
       </c>
       <c r="B29" s="279" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C29" s="280" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D29" s="281" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33774,13 +33868,13 @@
         <v>Project implementation support</v>
       </c>
       <c r="B30" s="279" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C30" s="280" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D30" s="281" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33789,13 +33883,13 @@
         <v>Project implementation support</v>
       </c>
       <c r="B31" s="279" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C31" s="280" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D31" s="281" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33804,13 +33898,13 @@
         <v>Learning mobility activities (Optional)</v>
       </c>
       <c r="B32" s="279" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C32" s="280" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D32" s="281" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33819,13 +33913,13 @@
         <v>Travel costs</v>
       </c>
       <c r="B33" s="279" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C33" s="280" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D33" s="281" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33834,13 +33928,13 @@
         <v>Subsistence costs</v>
       </c>
       <c r="B34" s="279" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C34" s="280" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D34" s="281" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33849,13 +33943,13 @@
         <v>Total</v>
       </c>
       <c r="B35" s="279" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C35" s="280" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D35" s="281" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33864,13 +33958,13 @@
         <v>Warning messages</v>
       </c>
       <c r="B36" s="279" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C36" s="280" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="D36" s="281" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33879,13 +33973,13 @@
         <v>Maximum EU contribution awarded for a 2 years Alliance:        700 000 EUR</v>
       </c>
       <c r="B37" s="283" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C37" s="280" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D37" s="281" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33894,13 +33988,13 @@
         <v>Maximum EU contribution awarded for a 3 years Alliance:           1 000 000 EUR</v>
       </c>
       <c r="B38" s="283" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C38" s="280" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="D38" s="281" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33909,13 +34003,13 @@
         <v>OK</v>
       </c>
       <c r="B39" s="283" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C39" s="280" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D39" s="281" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33924,13 +34018,13 @@
         <v>Part II - Distribution of grant by organisation</v>
       </c>
       <c r="B40" s="279" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C40" s="280" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D40" s="281" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33939,13 +34033,13 @@
         <v>Partner</v>
       </c>
       <c r="B41" s="279" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C41" s="280" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D41" s="281" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33954,13 +34048,13 @@
         <v>Name</v>
       </c>
       <c r="B42" s="279" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C42" s="280" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D42" s="281" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33969,13 +34063,13 @@
         <v>Country</v>
       </c>
       <c r="B43" s="279" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C43" s="280" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D43" s="281" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33984,13 +34078,13 @@
         <v>Project implementation support</v>
       </c>
       <c r="B44" s="279" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C44" s="280" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D44" s="281" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34000,13 +34094,13 @@
 Travel costs</v>
       </c>
       <c r="B45" s="279" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C45" s="280" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D45" s="281" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34016,13 +34110,13 @@
 Subsistence costs</v>
       </c>
       <c r="B46" s="279" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C46" s="280" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D46" s="281" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34031,13 +34125,13 @@
         <v>EU grant</v>
       </c>
       <c r="B47" s="279" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C47" s="280" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="D47" s="281" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34046,13 +34140,13 @@
         <v>Total</v>
       </c>
       <c r="B48" s="279" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C48" s="280" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D48" s="281" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34061,13 +34155,13 @@
         <v>Part III - Project implementation support</v>
       </c>
       <c r="B49" s="279" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C49" s="280" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D49" s="281" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34076,13 +34170,13 @@
         <v>Partner</v>
       </c>
       <c r="B50" s="279" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C50" s="280" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D50" s="281" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34091,13 +34185,13 @@
         <v>Name</v>
       </c>
       <c r="B51" s="279" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C51" s="280" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D51" s="281" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34106,13 +34200,13 @@
         <v>Country</v>
       </c>
       <c r="B52" s="279" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C52" s="280" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D52" s="281" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34121,13 +34215,13 @@
         <v>Manager</v>
       </c>
       <c r="B53" s="279" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C53" s="280" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D53" s="281" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34136,13 +34230,13 @@
         <v>Teacher/Trainer/Researcher</v>
       </c>
       <c r="B54" s="279" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C54" s="280" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D54" s="281" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34151,13 +34245,13 @@
         <v>Technician</v>
       </c>
       <c r="B55" s="279" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C55" s="280" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D55" s="281" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34166,13 +34260,13 @@
         <v>Administrative</v>
       </c>
       <c r="B56" s="279" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C56" s="280" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D56" s="281" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34181,13 +34275,13 @@
         <v>Number of days</v>
       </c>
       <c r="B57" s="279" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C57" s="280" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D57" s="281" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34196,13 +34290,13 @@
         <v>Unit cost per day</v>
       </c>
       <c r="B58" s="279" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C58" s="280" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D58" s="281" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34211,13 +34305,13 @@
         <v>Total cost by category</v>
       </c>
       <c r="B59" s="279" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C59" s="280" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D59" s="281" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34226,13 +34320,13 @@
         <v>Total number of days</v>
       </c>
       <c r="B60" s="279" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C60" s="280" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D60" s="281" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34241,13 +34335,13 @@
         <v>Grant requested</v>
       </c>
       <c r="B61" s="279" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C61" s="280" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D61" s="281" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34256,13 +34350,13 @@
         <v>Total Part III</v>
       </c>
       <c r="B62" s="279" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C62" s="280" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D62" s="281" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34271,13 +34365,13 @@
         <v>Part IV -</v>
       </c>
       <c r="B63" s="279" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C63" s="280" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D63" s="281" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34286,13 +34380,13 @@
         <v>Additional funding for learning mobility activities realised within an Alliance</v>
       </c>
       <c r="B64" s="279" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C64" s="280" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="D64" s="281" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34301,13 +34395,13 @@
         <v>(OPTIONAL)</v>
       </c>
       <c r="B65" s="279" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C65" s="280" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D65" s="281" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34316,13 +34410,13 @@
         <v>Learning mobility - Travel costs</v>
       </c>
       <c r="B66" s="279" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C66" s="280" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D66" s="281" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34331,13 +34425,13 @@
         <v>Learning mobility - Subsistence costs</v>
       </c>
       <c r="B67" s="279" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C67" s="280" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D67" s="281" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34346,13 +34440,13 @@
         <v>Distance</v>
       </c>
       <c r="B68" s="279" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C68" s="280" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D68" s="281" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34361,13 +34455,13 @@
         <v>Unit cost per participant</v>
       </c>
       <c r="B69" s="279" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C69" s="280" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D69" s="281" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34376,13 +34470,13 @@
         <v>Activity Type</v>
       </c>
       <c r="B70" s="279" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C70" s="280" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D70" s="281" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34391,13 +34485,13 @@
         <v>Unit cost per participant</v>
       </c>
       <c r="B71" s="279" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C71" s="280" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D71" s="281" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34406,13 +34500,13 @@
         <v>Activities targeting staff up to the 14th day</v>
       </c>
       <c r="B72" s="279" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C72" s="280" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="D72" s="281" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34421,13 +34515,13 @@
         <v>Activities targeting staff between the 15th and 60th day</v>
       </c>
       <c r="B73" s="279" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C73" s="280" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D73" s="281" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34436,13 +34530,13 @@
         <v>Activities targeting learners up to the 14th day</v>
       </c>
       <c r="B74" s="279" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C74" s="280" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="D74" s="281" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34451,13 +34545,13 @@
         <v>Activities targeting learners between the 15th and 60th day</v>
       </c>
       <c r="B75" s="279" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C75" s="280" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="D75" s="281" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34466,13 +34560,13 @@
         <v>Partner</v>
       </c>
       <c r="B76" s="279" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C76" s="280" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D76" s="281" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34481,13 +34575,13 @@
         <v>Name</v>
       </c>
       <c r="B77" s="279" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C77" s="280" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D77" s="281" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34496,13 +34590,13 @@
         <v>Country</v>
       </c>
       <c r="B78" s="279" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C78" s="280" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D78" s="281" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34511,13 +34605,13 @@
         <v>Distance</v>
       </c>
       <c r="B79" s="279" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C79" s="280" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D79" s="281" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34527,13 +34621,13 @@
 (from their place of location to the venue of the activity and return)</v>
       </c>
       <c r="B80" s="279" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C80" s="280" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="D80" s="281" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34542,13 +34636,13 @@
         <v>Cost per participant</v>
       </c>
       <c r="B81" s="279" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C81" s="280" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="D81" s="281" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34557,13 +34651,13 @@
         <v>Travel costs</v>
       </c>
       <c r="B82" s="279" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C82" s="280" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D82" s="281" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34572,13 +34666,13 @@
         <v>Activity type</v>
       </c>
       <c r="B83" s="279" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C83" s="280" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D83" s="281" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34587,13 +34681,13 @@
         <v>Number of days</v>
       </c>
       <c r="B84" s="279" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C84" s="280" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D84" s="281" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34602,13 +34696,13 @@
         <v>Unit cost per participant</v>
       </c>
       <c r="B85" s="279" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C85" s="280" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="D85" s="281" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34617,13 +34711,13 @@
         <v>Subsistence costs</v>
       </c>
       <c r="B86" s="279" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C86" s="280" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D86" s="281" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34632,13 +34726,13 @@
         <v>Work Package Number</v>
       </c>
       <c r="B87" s="279" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C87" s="280" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="D87" s="281" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34647,13 +34741,13 @@
         <v>Total Part IV</v>
       </c>
       <c r="B88" s="279" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C88" s="280" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="D88" s="281" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34662,13 +34756,13 @@
         <v>Select your country</v>
       </c>
       <c r="B89" s="279" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C89" s="280" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D89" s="281" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34677,13 +34771,13 @@
         <v>Part V. Work packages overview</v>
       </c>
       <c r="B90" s="279" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C90" s="280" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="D90" s="281" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34692,13 +34786,13 @@
         <v>The information in this worksheet should be consistent with the information provided in the "Detailed project</v>
       </c>
       <c r="B91" s="279" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C91" s="280" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="D91" s="281" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34707,13 +34801,13 @@
         <v>description" annexed to your eForm</v>
       </c>
       <c r="B92" s="279" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C92" s="280" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D92" s="281" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34722,13 +34816,13 @@
         <v>Preparation</v>
       </c>
       <c r="B93" s="279" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C93" s="280" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D93" s="281" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34737,13 +34831,13 @@
         <v>Management</v>
       </c>
       <c r="B94" s="279" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C94" s="280" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="D94" s="281" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34752,13 +34846,13 @@
         <v>Implementation</v>
       </c>
       <c r="B95" s="279" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C95" s="280" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="D95" s="281" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34767,13 +34861,13 @@
         <v>Quality Assurance</v>
       </c>
       <c r="B96" s="279" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C96" s="280" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="D96" s="281" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34782,13 +34876,13 @@
         <v>Evaluation</v>
       </c>
       <c r="B97" s="279" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C97" s="280" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D97" s="281" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34797,13 +34891,13 @@
         <v>Dissemination &amp; Exploitation</v>
       </c>
       <c r="B98" s="279" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="C98" s="280" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D98" s="281" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34812,13 +34906,13 @@
         <v>Select an Action</v>
       </c>
       <c r="B99" s="279" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C99" s="280" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D99" s="281" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34827,13 +34921,13 @@
         <v>Action</v>
       </c>
       <c r="B100" s="279" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C100" s="280" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D100" s="281" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34842,13 +34936,13 @@
         <v>Maximum project duration</v>
       </c>
       <c r="B101" s="279" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C101" s="280" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D101" s="281" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34857,13 +34951,13 @@
         <v>Months</v>
       </c>
       <c r="B102" s="279" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C102" s="280" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D102" s="281" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34872,13 +34966,13 @@
         <v>Work Package Number</v>
       </c>
       <c r="B103" s="279" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C103" s="280" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="D103" s="281" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34887,13 +34981,13 @@
         <v>TYPE</v>
       </c>
       <c r="B104" s="279" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C104" s="280" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="D104" s="281" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34902,13 +34996,13 @@
         <v>START</v>
       </c>
       <c r="B105" s="279" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C105" s="280" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D105" s="281" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34917,13 +35011,13 @@
         <v>DURATION</v>
       </c>
       <c r="B106" s="279" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C106" s="280" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D106" s="281" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34932,13 +35026,13 @@
         <v>MONTHS</v>
       </c>
       <c r="B107" s="279" t="s">
+        <v>510</v>
+      </c>
+      <c r="C107" s="280" t="s">
+        <v>511</v>
+      </c>
+      <c r="D107" s="281" t="s">
         <v>500</v>
-      </c>
-      <c r="C107" s="280" t="s">
-        <v>501</v>
-      </c>
-      <c r="D107" s="281" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34947,13 +35041,13 @@
         <v>Please enter information on all Work  packages, Use their reference number as they appear in the "Detailed Project Description" - Colour the corresponding cells</v>
       </c>
       <c r="B108" s="279" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C108" s="280" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="D108" s="281" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34962,13 +35056,13 @@
         <v>Part III - Affiliated Entities</v>
       </c>
       <c r="B109" s="279" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C109" s="280" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="D109" s="281" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34979,13 +35073,13 @@
 Affiliatied Entity (AE)</v>
       </c>
       <c r="B110" s="279" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="C110" s="280" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="D110" s="281" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34994,13 +35088,13 @@
         <v>Affiliated Entity Linked to the Partner</v>
       </c>
       <c r="B111" s="279" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C111" s="280" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="D111" s="281" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35075,19 +35169,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="287" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="D1" s="288" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="G1" s="286" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="289" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="I1" s="290" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="J1" s="291"/>
       <c r="K1" s="292"/>
@@ -35098,10 +35192,10 @@
         <v>P1</v>
       </c>
       <c r="E2" s="289" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G2" s="286" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="H2" s="286" t="str">
         <f aca="false">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A1))),"")</f>
@@ -35125,147 +35219,147 @@
       </c>
       <c r="I3" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H3,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H3,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="293" t="n">
+      <c r="A4" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$G38="",0,'I and II. Overview'!$G38)</f>
-        <v>0</v>
+        <v>P3</v>
       </c>
       <c r="H4" s="286" t="str">
         <f aca="false" t="array" ref="H4:H4">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A3))),"")</f>
-        <v/>
+        <v>P3</v>
       </c>
       <c r="I4" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H4,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H4,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="293" t="n">
+      <c r="A5" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$G39="",0,'I and II. Overview'!$G39)</f>
-        <v>0</v>
+        <v>P4</v>
       </c>
       <c r="H5" s="286" t="str">
         <f aca="false" t="array" ref="H5:H5">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A4))),"")</f>
-        <v/>
+        <v>P4</v>
       </c>
       <c r="I5" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H5,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H5,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="293" t="n">
+      <c r="A6" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$G40="",0,'I and II. Overview'!$G40)</f>
-        <v>0</v>
+        <v>P5</v>
       </c>
       <c r="H6" s="286" t="str">
         <f aca="false" t="array" ref="H6:H6">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A5))),"")</f>
-        <v/>
+        <v>P5</v>
       </c>
       <c r="I6" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H6,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H6,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="293" t="n">
+      <c r="A7" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$G41="",0,'I and II. Overview'!$G41)</f>
-        <v>0</v>
+        <v>P6</v>
       </c>
       <c r="H7" s="286" t="str">
         <f aca="false" t="array" ref="H7:H7">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A6))),"")</f>
-        <v/>
+        <v>P6</v>
       </c>
       <c r="I7" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H7,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H7,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="293" t="n">
+      <c r="A8" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$G42="",0,'I and II. Overview'!$G42)</f>
-        <v>0</v>
+        <v>P7</v>
       </c>
       <c r="H8" s="286" t="str">
         <f aca="false" t="array" ref="H8:H8">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A7))),"")</f>
-        <v/>
+        <v>P7</v>
       </c>
       <c r="I8" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H8,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H8,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="293" t="n">
+      <c r="A9" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$G43="",0,'I and II. Overview'!$G43)</f>
-        <v>0</v>
+        <v>P8</v>
       </c>
       <c r="H9" s="286" t="str">
         <f aca="false" t="array" ref="H9:H9">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A8))),"")</f>
-        <v/>
+        <v>P8</v>
       </c>
       <c r="I9" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H9,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H9,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="293" t="n">
+      <c r="A10" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$G44="",0,'I and II. Overview'!$G44)</f>
-        <v>0</v>
+        <v>P9</v>
       </c>
       <c r="H10" s="286" t="str">
         <f aca="false" t="array" ref="H10:H10">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A9))),"")</f>
-        <v/>
+        <v>P9</v>
       </c>
       <c r="I10" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H10,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H10,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="293" t="n">
+      <c r="A11" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$G45="",0,'I and II. Overview'!$G45)</f>
-        <v>0</v>
+        <v>P10</v>
       </c>
       <c r="H11" s="286" t="str">
         <f aca="false" t="array" ref="H11:H11">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A10))),"")</f>
-        <v/>
+        <v>P10</v>
       </c>
       <c r="I11" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H11,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H11,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="293" t="n">
+      <c r="A12" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$G46="",0,'I and II. Overview'!$G46)</f>
-        <v>0</v>
+        <v>P11</v>
       </c>
       <c r="H12" s="286" t="str">
         <f aca="false" t="array" ref="H12:H12">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A11))),"")</f>
-        <v/>
+        <v>P11</v>
       </c>
       <c r="I12" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H12,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H12,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="293" t="n">
+      <c r="A13" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$G47="",0,'I and II. Overview'!$G47)</f>
-        <v>0</v>
+        <v>P12</v>
       </c>
       <c r="H13" s="286" t="str">
         <f aca="false" t="array" ref="H13:H13">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A12))),"")</f>
-        <v/>
+        <v>P12</v>
       </c>
       <c r="I13" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H13,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H13,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35279,7 +35373,7 @@
       </c>
       <c r="I14" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H14,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H14,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35293,7 +35387,7 @@
       </c>
       <c r="I15" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H15,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H15,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35307,7 +35401,7 @@
       </c>
       <c r="I16" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H16,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H16,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35321,7 +35415,7 @@
       </c>
       <c r="I17" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H17,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H17,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35335,7 +35429,7 @@
       </c>
       <c r="I18" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H18,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H18,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35349,7 +35443,7 @@
       </c>
       <c r="I19" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H19,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H19,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35363,7 +35457,7 @@
       </c>
       <c r="I20" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H20,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H20,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35377,7 +35471,7 @@
       </c>
       <c r="I21" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H21,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H21,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35391,7 +35485,7 @@
       </c>
       <c r="I22" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H22,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H22,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35405,7 +35499,7 @@
       </c>
       <c r="I23" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H23,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H23,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35419,7 +35513,7 @@
       </c>
       <c r="I24" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H24,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H24,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35433,7 +35527,7 @@
       </c>
       <c r="I25" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H25,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H25,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35447,7 +35541,7 @@
       </c>
       <c r="I26" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H26,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H26,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35461,7 +35555,7 @@
       </c>
       <c r="I27" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H27,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H27,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35475,7 +35569,7 @@
       </c>
       <c r="I28" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H28,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H28,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35489,7 +35583,7 @@
       </c>
       <c r="I29" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H29,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H29,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35503,7 +35597,7 @@
       </c>
       <c r="I30" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H30,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H30,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35517,7 +35611,7 @@
       </c>
       <c r="I31" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H31,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H31,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35531,7 +35625,7 @@
       </c>
       <c r="I32" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H32,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H32,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35545,7 +35639,7 @@
       </c>
       <c r="I33" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H33,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H33,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35559,7 +35653,7 @@
       </c>
       <c r="I34" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H34,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H34,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35573,7 +35667,7 @@
       </c>
       <c r="I35" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H35,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H35,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35587,7 +35681,7 @@
       </c>
       <c r="I36" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H36,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H36,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35601,7 +35695,7 @@
       </c>
       <c r="I37" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H37,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H37,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35615,7 +35709,7 @@
       </c>
       <c r="I38" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H38,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H38,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35629,7 +35723,7 @@
       </c>
       <c r="I39" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H39,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H39,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35643,7 +35737,7 @@
       </c>
       <c r="I40" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H40,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H40,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35657,7 +35751,7 @@
       </c>
       <c r="I41" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H41,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H41,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>128.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35879,136 +35973,136 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="287" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="D1" s="288" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="H1" s="289" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F36="",0,'I and II. Overview'!$F36)</f>
-        <v>P1 only </v>
+        <v>P1 only</v>
       </c>
       <c r="E2" s="289" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="H2" s="286" t="str">
         <f aca="false">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A1))),"")</f>
-        <v>P1 only </v>
+        <v>P1 only</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F37="",0,'I and II. Overview'!$F37)</f>
-        <v>P2 only </v>
+        <v>P2 only</v>
       </c>
       <c r="H3" s="286" t="str">
         <f aca="false" t="array" ref="H3:H3">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A2))),"")</f>
-        <v>P2 only </v>
+        <v>P2 only</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="293" t="n">
+      <c r="A4" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F38="",0,'I and II. Overview'!$F38)</f>
-        <v>0</v>
+        <v>P3 only</v>
       </c>
       <c r="H4" s="286" t="str">
         <f aca="false" t="array" ref="H4:H4">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A3))),"")</f>
-        <v/>
+        <v>P3 only</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="293" t="n">
+      <c r="A5" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F39="",0,'I and II. Overview'!$F39)</f>
-        <v>0</v>
+        <v>P4 only</v>
       </c>
       <c r="H5" s="286" t="str">
         <f aca="false" t="array" ref="H5:H5">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A4))),"")</f>
-        <v/>
+        <v>P4 only</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="293" t="n">
+      <c r="A6" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F40="",0,'I and II. Overview'!$F40)</f>
-        <v>0</v>
+        <v>P5 only</v>
       </c>
       <c r="H6" s="286" t="str">
         <f aca="false" t="array" ref="H6:H6">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A5))),"")</f>
-        <v/>
+        <v>P5 only</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="293" t="n">
+      <c r="A7" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F41="",0,'I and II. Overview'!$F41)</f>
-        <v>0</v>
+        <v>P6 only</v>
       </c>
       <c r="H7" s="286" t="str">
         <f aca="false" t="array" ref="H7:H7">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A6))),"")</f>
-        <v/>
+        <v>P6 only</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="293" t="n">
+      <c r="A8" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F42="",0,'I and II. Overview'!$F42)</f>
-        <v>0</v>
+        <v>P7 only</v>
       </c>
       <c r="H8" s="286" t="str">
         <f aca="false" t="array" ref="H8:H8">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A7))),"")</f>
-        <v/>
+        <v>P7 only</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="293" t="n">
+      <c r="A9" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F43="",0,'I and II. Overview'!$F43)</f>
-        <v>0</v>
+        <v>P8 only</v>
       </c>
       <c r="H9" s="286" t="str">
         <f aca="false" t="array" ref="H9:H9">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A8))),"")</f>
-        <v/>
+        <v>P8 only</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="293" t="n">
+      <c r="A10" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F44="",0,'I and II. Overview'!$F44)</f>
-        <v>0</v>
+        <v>P9 only</v>
       </c>
       <c r="H10" s="286" t="str">
         <f aca="false" t="array" ref="H10:H10">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A9))),"")</f>
-        <v/>
+        <v>P9 only</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="293" t="n">
+      <c r="A11" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F45="",0,'I and II. Overview'!$F45)</f>
-        <v>0</v>
+        <v>P10 only</v>
       </c>
       <c r="H11" s="286" t="str">
         <f aca="false" t="array" ref="H11:H11">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A10))),"")</f>
-        <v/>
+        <v>P10 only</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="293" t="n">
+      <c r="A12" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F46="",0,'I and II. Overview'!$F46)</f>
-        <v>0</v>
+        <v>P11 only</v>
       </c>
       <c r="H12" s="286" t="str">
         <f aca="false" t="array" ref="H12:H12">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A11))),"")</f>
-        <v/>
+        <v>P11 only</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="293" t="n">
+      <c r="A13" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F47="",0,'I and II. Overview'!$F47)</f>
-        <v>0</v>
+        <v>P12 only </v>
       </c>
       <c r="H13" s="286" t="str">
         <f aca="false" t="array" ref="H13:H13">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A12))),"")</f>
-        <v/>
+        <v>P12 only </v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Erasmus/detailed_budget.xlsx
+++ b/Erasmus/detailed_budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="I and II. Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,11 +35,13 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'III. Project implementation sup'!$2:$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">'III. Project implementation sup'!$2:$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">'III. Project implementation sup'!$2:$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">'III. Project implementation sup'!$2:$3</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">'IV. Learning mobility-optional'!$10:$11</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="529">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -125,10 +127,13 @@
     <t xml:space="preserve">BM TRIZ</t>
   </si>
   <si>
-    <t xml:space="preserve">P1 only </t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2 only </t>
+    <t xml:space="preserve">P1 only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P10 only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 only</t>
   </si>
   <si>
     <t xml:space="preserve">100 - 1,999 KM</t>
@@ -5179,9 +5184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1389240</xdr:colOff>
+      <xdr:colOff>1388880</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5195,7 +5200,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="38160"/>
-          <a:ext cx="1705320" cy="935280"/>
+          <a:ext cx="1704960" cy="934920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5216,9 +5221,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>846000</xdr:colOff>
+      <xdr:colOff>845640</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5232,7 +5237,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1922040" y="19080"/>
-          <a:ext cx="1955880" cy="408960"/>
+          <a:ext cx="1955520" cy="408600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5281,7 +5286,7 @@
   </sheetPr>
   <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
     </sheetView>
   </sheetViews>
@@ -6028,7 +6033,7 @@
       <c r="J22" s="46"/>
       <c r="K22" s="47" t="n">
         <f aca="false">SUMIF('III. Project implementation sup'!$E$4:$E$123,"PR",'III. Project implementation sup'!$V$4:$V$123)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
@@ -6043,7 +6048,7 @@
       <c r="S22" s="25"/>
       <c r="T22" s="47" t="n">
         <f aca="false">+IF(AND(K12=24,SUM(K22+P22)&gt;700000),700000,IF(AND(K12=36,SUM(K22+P22)&gt;1000000),1000000,SUM(K22+P22)))</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="U22" s="47"/>
       <c r="V22" s="47"/>
@@ -6313,7 +6318,7 @@
       <c r="J30" s="55"/>
       <c r="K30" s="56" t="n">
         <f aca="false">SUM(K22:N29)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="L30" s="56"/>
       <c r="M30" s="56"/>
@@ -6328,7 +6333,7 @@
       <c r="S30" s="57"/>
       <c r="T30" s="56" t="n">
         <f aca="false">+IF(AND(K12=24,SUM(K30+P30)&gt;700000),700000,IF(AND(K12=36,SUM(K30+P30)&gt;1000000),1000000,SUM(K30+P30)))</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="U30" s="56"/>
       <c r="V30" s="56"/>
@@ -6623,7 +6628,7 @@
       <c r="M37" s="51"/>
       <c r="N37" s="79" t="n">
         <f aca="false">IF(LEFT(E37,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E37,'III. Project implementation sup'!$V$4:$V$123),"")</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="O37" s="79"/>
       <c r="P37" s="79"/>
@@ -6644,7 +6649,7 @@
       <c r="Y37" s="51"/>
       <c r="Z37" s="80" t="n">
         <f aca="false">IFERROR((V37+R37+N37),"")</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="AA37" s="80"/>
       <c r="AB37" s="51"/>
@@ -7245,7 +7250,7 @@
       </c>
       <c r="F47" s="74" t="str">
         <f aca="false">IF(C47="","",IF(C47="P",CONCATENATE(C47,B47," only "),CONCATENATE(C47,B47," to ",H47)))</f>
-        <v>P12 only </v>
+        <v>P12 only</v>
       </c>
       <c r="G47" s="75" t="str">
         <f aca="false">TEXT(IF(LEFT(E47,1)="P",E47,""),0)</f>
@@ -8932,7 +8937,7 @@
       <c r="M76" s="84"/>
       <c r="N76" s="85" t="n">
         <f aca="false">SUM(N36:P75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="O76" s="85"/>
       <c r="P76" s="85"/>
@@ -8953,7 +8958,7 @@
       <c r="Y76" s="84"/>
       <c r="Z76" s="86" t="n">
         <f aca="false">SUM(Z36:AA75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="AA76" s="86"/>
       <c r="AB76" s="51"/>
@@ -10297,8 +10302,8 @@
   </sheetPr>
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10480,20 +10485,22 @@
       </c>
       <c r="C4" s="110" t="str">
         <f aca="false">IFERROR(IF(A4="","",IF(VLOOKUP(A4,'I and II. Overview'!$F$36:$L$75,4,0)="","",VLOOKUP(A4,'I and II. Overview'!$F$36:$L$75,4,0))),"")</f>
-        <v/>
+        <v>ULEI</v>
       </c>
       <c r="D4" s="110" t="str">
         <f aca="false">IFERROR(IF(A4="","",IF(VLOOKUP(A4,'I and II. Overview'!$F$36:$L$75,6,0)="","",VLOOKUP(A4,'I and II. Overview'!$F$36:$L$75,6,0))),"")</f>
-        <v/>
+        <v>Germany</v>
       </c>
       <c r="E4" s="111" t="str">
         <f aca="false">IFERROR(VLOOKUP(D4,'Ceiling - Project impl.'!$A$2:$B$203,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113" t="str">
+        <v>PR</v>
+      </c>
+      <c r="F4" s="112" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="113" t="n">
         <f aca="false">IFERROR(IF(F4="","",VLOOKUP(D4,'Ceiling - Project impl.'!$A$1:$F$204,3,0)),"")</f>
-        <v/>
+        <v>336</v>
       </c>
       <c r="H4" s="114" t="n">
         <f aca="false">IF(OR((F4-INT(F4))=0,(F4-INT(F4)=0.5)),IFERROR(ROUND(F4*G4,2),0),0)</f>
@@ -10531,7 +10538,7 @@
       </c>
       <c r="U4" s="116" t="n">
         <f aca="false">+R4+N4+J4+F4</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="V4" s="117" t="n">
         <f aca="false">IFERROR(+T4+P4+L4+H4,0)</f>
@@ -10540,27 +10547,31 @@
       <c r="W4" s="118"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="108"/>
+      <c r="A5" s="108" t="s">
+        <v>25</v>
+      </c>
       <c r="B5" s="109" t="str">
         <f aca="false">IFERROR(IF(LEFT(A5,1)="P",TRIM(LEFT(A5,3)),TRIM(RIGHT(A5,3))),"")</f>
-        <v/>
+        <v>P10</v>
       </c>
       <c r="C5" s="110" t="str">
         <f aca="false">IFERROR(IF(A5="","",IF(VLOOKUP(A5,'I and II. Overview'!$F$36:$L$75,4,0)="","",VLOOKUP(A5,'I and II. Overview'!$F$36:$L$75,4,0))),"")</f>
-        <v/>
+        <v>Target Invention</v>
       </c>
       <c r="D5" s="110" t="str">
         <f aca="false">IFERROR(IF(A5="","",IF(VLOOKUP(A5,'I and II. Overview'!$F$36:$L$75,6,0)="","",VLOOKUP(A5,'I and II. Overview'!$F$36:$L$75,6,0))),"")</f>
-        <v/>
+        <v>Belarus</v>
       </c>
       <c r="E5" s="111" t="str">
         <f aca="false">IFERROR(VLOOKUP(D5,'Ceiling - Project impl.'!$A$2:$B$203,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="F5" s="112"/>
-      <c r="G5" s="113" t="str">
+        <v>PA</v>
+      </c>
+      <c r="F5" s="112" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="113" t="n">
         <f aca="false">IFERROR(IF(F5="","",VLOOKUP(D5,'Ceiling - Project impl.'!$A$1:$F$204,3,0)),"")</f>
-        <v/>
+        <v>106</v>
       </c>
       <c r="H5" s="114" t="n">
         <f aca="false">IF(OR((F5-INT(F5))=0,(F5-INT(F5)=0.5)),IFERROR(ROUND(F5*G5,2),0),0)</f>
@@ -10598,7 +10609,7 @@
       </c>
       <c r="U5" s="116" t="n">
         <f aca="false">+R5+N5+J5+F5</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V5" s="117" t="n">
         <f aca="false">IFERROR(+T5+P5+L5+H5,0)</f>
@@ -10608,7 +10619,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="108" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="109" t="str">
         <f aca="false">IFERROR(IF(LEFT(A6,1)="P",TRIM(LEFT(A6,3)),TRIM(RIGHT(A6,3))),"")</f>
@@ -10616,22 +10627,22 @@
       </c>
       <c r="C6" s="110" t="str">
         <f aca="false">IFERROR(IF(A6="","",IF(VLOOKUP(A6,'I and II. Overview'!$F$36:$L$75,4,0)="","",VLOOKUP(A6,'I and II. Overview'!$F$36:$L$75,4,0))),"")</f>
-        <v/>
+        <v>HSO</v>
       </c>
       <c r="D6" s="110" t="str">
         <f aca="false">IFERROR(IF(A6="","",IF(VLOOKUP(A6,'I and II. Overview'!$F$36:$L$75,6,0)="","",VLOOKUP(A6,'I and II. Overview'!$F$36:$L$75,6,0))),"")</f>
-        <v/>
+        <v>Germany</v>
       </c>
       <c r="E6" s="111" t="str">
         <f aca="false">IFERROR(VLOOKUP(D6,'Ceiling - Project impl.'!$A$2:$B$203,2,0),"")</f>
-        <v/>
+        <v>PR</v>
       </c>
       <c r="F6" s="112" t="n">
         <v>0.7</v>
       </c>
-      <c r="G6" s="113" t="str">
+      <c r="G6" s="113" t="n">
         <f aca="false">IFERROR(IF(F6="","",VLOOKUP(D6,'Ceiling - Project impl.'!$A$1:$F$204,3,0)),"")</f>
-        <v/>
+        <v>336</v>
       </c>
       <c r="H6" s="114" t="n">
         <f aca="false">IF(OR((F6-INT(F6))=0,(F6-INT(F6)=0.5)),IFERROR(ROUND(F6*G6,2),0),0)</f>
@@ -10641,21 +10652,21 @@
       <c r="J6" s="112" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="113" t="str">
+      <c r="K6" s="113" t="n">
         <f aca="false">IFERROR(IF(J6=""," ",VLOOKUP(D6,'Ceiling - Project impl.'!$A$1:$F$204,4,0)),"")</f>
-        <v/>
+        <v>257</v>
       </c>
       <c r="L6" s="114" t="n">
         <f aca="false">IF(OR((J6-INT(J6))=0,(J6-INT(J6)=0.5)),IFERROR(ROUND(J6*K6,2),0),0)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="M6" s="115"/>
       <c r="N6" s="112" t="n">
         <v>0.7</v>
       </c>
-      <c r="O6" s="113" t="str">
+      <c r="O6" s="113" t="n">
         <f aca="false">IFERROR(IF(N6=""," ",VLOOKUP(D6,'Ceiling - Project impl.'!$A$1:$F$204,5,0)),"")</f>
-        <v/>
+        <v>194</v>
       </c>
       <c r="P6" s="114" t="n">
         <f aca="false">IF(OR((N6-INT(N6))=0,(N6-INT(N6)=0.5)),IFERROR(ROUND(N6*O6,2),0),0)</f>
@@ -10677,7 +10688,7 @@
       </c>
       <c r="V6" s="117" t="n">
         <f aca="false">IFERROR(+T6+P6+L6+H6,0)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="W6" s="118"/>
     </row>
@@ -18531,7 +18542,7 @@
       <c r="E124" s="125"/>
       <c r="F124" s="126" t="n">
         <f aca="false">SUM(F4:F123)</f>
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="G124" s="127"/>
       <c r="H124" s="128" t="n">
@@ -18546,7 +18557,7 @@
       <c r="K124" s="127"/>
       <c r="L124" s="128" t="n">
         <f aca="false">SUM(L4:L123)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="M124" s="129"/>
       <c r="N124" s="126" t="n">
@@ -18570,11 +18581,11 @@
       </c>
       <c r="U124" s="131" t="n">
         <f aca="false">SUM(U4:U123)</f>
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="V124" s="132" t="n">
         <f aca="false">SUM(V4:V123)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
       <c r="W124" s="118"/>
     </row>
@@ -18787,7 +18798,7 @@
       <c r="A5" s="143"/>
       <c r="B5" s="51"/>
       <c r="C5" s="151" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="152"/>
       <c r="E5" s="153"/>
@@ -18816,7 +18827,7 @@
       <c r="A6" s="143"/>
       <c r="B6" s="51"/>
       <c r="C6" s="160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="161"/>
       <c r="E6" s="162"/>
@@ -25619,13 +25630,13 @@
       <c r="AI1" s="217"/>
       <c r="AJ1" s="217"/>
       <c r="AK1" s="217" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL1" s="217"/>
       <c r="AM1" s="217"/>
       <c r="AN1" s="217"/>
       <c r="AO1" s="218" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP1" s="214"/>
     </row>
@@ -25670,7 +25681,7 @@
       <c r="AI2" s="217"/>
       <c r="AJ2" s="217"/>
       <c r="AK2" s="217" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL2" s="217"/>
       <c r="AM2" s="217"/>
@@ -25722,13 +25733,13 @@
       <c r="AI3" s="217"/>
       <c r="AJ3" s="217"/>
       <c r="AK3" s="217" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AL3" s="217"/>
       <c r="AM3" s="217"/>
       <c r="AN3" s="217"/>
       <c r="AO3" s="218" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AP3" s="214"/>
     </row>
@@ -25776,13 +25787,13 @@
       <c r="AI4" s="217"/>
       <c r="AJ4" s="217"/>
       <c r="AK4" s="217" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AL4" s="217"/>
       <c r="AM4" s="217"/>
       <c r="AN4" s="217"/>
       <c r="AO4" s="218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AP4" s="214"/>
     </row>
@@ -25827,7 +25838,7 @@
       <c r="AI5" s="217"/>
       <c r="AJ5" s="217"/>
       <c r="AK5" s="217" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL5" s="217"/>
       <c r="AM5" s="217"/>
@@ -25882,13 +25893,13 @@
       <c r="AI6" s="224"/>
       <c r="AJ6" s="224"/>
       <c r="AK6" s="217" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AL6" s="217"/>
       <c r="AM6" s="217"/>
       <c r="AN6" s="217"/>
       <c r="AO6" s="218" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AP6" s="214"/>
     </row>
@@ -26205,37 +26216,37 @@
         <v>1</v>
       </c>
       <c r="B11" s="235" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="236" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="235" t="n">
         <v>8</v>
       </c>
       <c r="E11" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="237"/>
       <c r="N11" s="237"/>
@@ -26276,10 +26287,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="235" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="235" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="235" t="n">
         <v>18</v>
@@ -26287,58 +26298,58 @@
       <c r="E12" s="237"/>
       <c r="F12" s="237"/>
       <c r="G12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X12" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y12" s="237"/>
       <c r="Z12" s="237"/>
@@ -26367,121 +26378,121 @@
         <v>3</v>
       </c>
       <c r="B13" s="235" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="235" t="n">
         <v>36</v>
       </c>
       <c r="E13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AE13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AM13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN13" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AO13" s="238" t="e">
         <f aca="false">IF(D13+C13&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B13="",C13="",D13=""),"",IF(OR(B13="",C13="",D13=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -26494,121 +26505,121 @@
         <v>4</v>
       </c>
       <c r="B14" s="235" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="235" t="n">
         <v>36</v>
       </c>
       <c r="E14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AE14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AM14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN14" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AO14" s="238" t="e">
         <f aca="false">IF(D14+C14&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B14="",C14="",D14=""),"",IF(OR(B14="",C14="",D14=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -26621,121 +26632,121 @@
         <v>5</v>
       </c>
       <c r="B15" s="235" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="235" t="n">
         <v>36</v>
       </c>
       <c r="E15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AE15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AM15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN15" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AO15" s="238" t="e">
         <f aca="false">IF(D15+C15&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B15="",C15="",D15=""),"",IF(OR(B15="",C15="",D15=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -26748,121 +26759,121 @@
         <v>6</v>
       </c>
       <c r="B16" s="235" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="235" t="n">
         <v>36</v>
       </c>
       <c r="E16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AE16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AM16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN16" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AO16" s="238" t="e">
         <f aca="false">IF(D16+C16&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B16="",C16="",D16=""),"",IF(OR(B16="",C16="",D16=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -26875,121 +26886,121 @@
         <v>7</v>
       </c>
       <c r="B17" s="235" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="235" t="n">
         <v>36</v>
       </c>
       <c r="E17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AE17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AM17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN17" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AO17" s="238" t="e">
         <f aca="false">IF(D17+C17&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B17="",C17="",D17=""),"",IF(OR(B17="",C17="",D17=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -27002,10 +27013,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="235" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="235" t="n">
         <v>36</v>
@@ -27016,73 +27027,73 @@
       <c r="H18" s="237"/>
       <c r="I18" s="237"/>
       <c r="J18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M18" s="237"/>
       <c r="N18" s="237"/>
       <c r="O18" s="237"/>
       <c r="P18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S18" s="237"/>
       <c r="T18" s="237"/>
       <c r="U18" s="237"/>
       <c r="V18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y18" s="237"/>
       <c r="Z18" s="237"/>
       <c r="AA18" s="237"/>
       <c r="AB18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AE18" s="237"/>
       <c r="AF18" s="237"/>
       <c r="AG18" s="237"/>
       <c r="AH18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AM18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN18" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AO18" s="238" t="e">
         <f aca="false">IF(D18+C18&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B18="",C18="",D18=""),"",IF(OR(B18="",C18="",D18=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -27095,10 +27106,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="235" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="235" t="n">
         <v>36</v>
@@ -27132,28 +27143,28 @@
       <c r="AE19" s="237"/>
       <c r="AF19" s="237"/>
       <c r="AG19" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH19" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI19" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ19" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK19" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL19" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AM19" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN19" s="237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AO19" s="238" t="e">
         <f aca="false">IF(D19+C19&gt;$O$7+1,"ERROR: you have exceeded the maximum project duration",IF(AND(B19="",C19="",D19=""),"",IF(OR(B19="",C19="",D19=""),"ERROR : Type, Start and Duration are mandatory","")))</f>
@@ -28137,7 +28148,7 @@
     </row>
     <row r="36" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="213" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D36,IF(E$10&lt;$C36,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -28286,7 +28297,7 @@
     </row>
     <row r="37" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="213" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E37" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D37,IF(E$10&lt;$C37,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -28435,7 +28446,7 @@
     </row>
     <row r="38" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="213" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D38,IF(E$10&lt;$C38,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -28584,7 +28595,7 @@
     </row>
     <row r="39" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D39,IF(E$10&lt;$C39,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -28733,7 +28744,7 @@
     </row>
     <row r="40" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="213" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" s="239" t="str">
         <f aca="false">IF(E$10&lt;=$D40,IF(E$10&lt;$C40,"",VLOOKUP($B11,$AJ$1:$AN$7,5,0)),"")</f>
@@ -28882,157 +28893,157 @@
     </row>
     <row r="41" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="213" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="213" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="213" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="213" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="213" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="213" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="213" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="213" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="213" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="213" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="213" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="213" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="213" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="213" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="213" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="213" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="213" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="213" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="213" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="213" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="213" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="213" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="213" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="213" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="213" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="213" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="11.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="213" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -29162,10 +29173,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="244" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="245" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="245" t="n">
         <v>353</v>
@@ -29183,10 +29194,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="244" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="245" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" s="245" t="s">
-        <v>76</v>
       </c>
       <c r="C3" s="245" t="n">
         <v>353</v>
@@ -29204,10 +29215,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="244" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="245" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="245" t="n">
         <v>353</v>
@@ -29225,10 +29236,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="244" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="245" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="245" t="n">
         <v>353</v>
@@ -29249,7 +29260,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="245" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="245" t="n">
         <v>353</v>
@@ -29267,10 +29278,10 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="244" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="245" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="245" t="n">
         <v>353</v>
@@ -29288,10 +29299,10 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="244" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="245" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" s="245" t="n">
         <v>353</v>
@@ -29309,10 +29320,10 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="244" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="245" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="245" t="n">
         <v>353</v>
@@ -29330,10 +29341,10 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="246" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" s="247" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="247" t="n">
         <v>336</v>
@@ -29354,7 +29365,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="247" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="247" t="n">
         <v>336</v>
@@ -29372,10 +29383,10 @@
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="248" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" s="247" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="247" t="n">
         <v>336</v>
@@ -29393,10 +29404,10 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="248" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="247" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="247" t="n">
         <v>336</v>
@@ -29417,7 +29428,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="247" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="247" t="n">
         <v>336</v>
@@ -29435,10 +29446,10 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="248" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B15" s="247" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="247" t="n">
         <v>336</v>
@@ -29456,10 +29467,10 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="248" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" s="247" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="247" t="n">
         <v>336</v>
@@ -29477,10 +29488,10 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="249" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B17" s="250" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="250" t="n">
         <v>197</v>
@@ -29498,10 +29509,10 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="249" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" s="250" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="250" t="n">
         <v>197</v>
@@ -29519,10 +29530,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="249" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="250" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" s="250" t="n">
         <v>197</v>
@@ -29540,10 +29551,10 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="251" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="250" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="250" t="n">
         <v>197</v>
@@ -29561,10 +29572,10 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="249" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" s="250" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="250" t="n">
         <v>197</v>
@@ -29582,10 +29593,10 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="249" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B22" s="250" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" s="250" t="n">
         <v>197</v>
@@ -29603,10 +29614,10 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="249" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="250" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="250" t="n">
         <v>197</v>
@@ -29624,10 +29635,10 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="252" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="253" t="n">
         <v>106</v>
@@ -29645,10 +29656,10 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="254" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B25" s="253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" s="253" t="n">
         <v>106</v>
@@ -29666,10 +29677,10 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="254" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" s="253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="253" t="n">
         <v>106</v>
@@ -29687,10 +29698,10 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="254" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B27" s="253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" s="253" t="n">
         <v>106</v>
@@ -29708,10 +29719,10 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="254" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28" s="253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="253" t="n">
         <v>106</v>
@@ -29729,10 +29740,10 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="254" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" s="253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="253" t="n">
         <v>106</v>
@@ -29750,10 +29761,10 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="254" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B30" s="253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="253" t="n">
         <v>106</v>
@@ -29774,7 +29785,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="253" t="n">
         <v>106</v>
@@ -29792,10 +29803,10 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="254" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" s="253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="253" t="n">
         <v>106</v>
@@ -29813,10 +29824,10 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="254" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" s="253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="253" t="n">
         <v>106</v>
@@ -29834,10 +29845,10 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="254" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34" s="253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="253" t="n">
         <v>106</v>
@@ -29855,10 +29866,10 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="254" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B35" s="253" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="253" t="n">
         <v>106</v>
@@ -29876,10 +29887,10 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="255" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" s="256" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" s="256" t="n">
         <v>353</v>
@@ -29897,10 +29908,10 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="257" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="256" t="s">
         <v>108</v>
-      </c>
-      <c r="B37" s="256" t="s">
-        <v>107</v>
       </c>
       <c r="C37" s="256" t="n">
         <v>353</v>
@@ -29918,10 +29929,10 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="257" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B38" s="256" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="256" t="n">
         <v>353</v>
@@ -29939,10 +29950,10 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="257" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B39" s="256" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C39" s="256" t="n">
         <v>353</v>
@@ -29960,10 +29971,10 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="257" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B40" s="256" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C40" s="256" t="n">
         <v>353</v>
@@ -29981,10 +29992,10 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="257" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B41" s="256" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" s="256" t="n">
         <v>353</v>
@@ -30002,10 +30013,10 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="257" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B42" s="256" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C42" s="256" t="n">
         <v>353</v>
@@ -30023,10 +30034,10 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="257" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B43" s="256" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" s="256" t="n">
         <v>353</v>
@@ -30044,10 +30055,10 @@
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="257" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B44" s="256" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C44" s="256" t="n">
         <v>353</v>
@@ -30065,10 +30076,10 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="258" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B45" s="259" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" s="259" t="n">
         <v>336</v>
@@ -30086,10 +30097,10 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="260" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B46" s="259" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" s="259" t="n">
         <v>336</v>
@@ -30107,10 +30118,10 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="260" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B47" s="259" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="259" t="n">
         <v>336</v>
@@ -30128,10 +30139,10 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="260" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B48" s="259" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="259" t="n">
         <v>336</v>
@@ -30149,10 +30160,10 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="260" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B49" s="259" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="259" t="n">
         <v>336</v>
@@ -30170,10 +30181,10 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="260" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B50" s="259" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="259" t="n">
         <v>336</v>
@@ -30191,10 +30202,10 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="260" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B51" s="259" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51" s="259" t="n">
         <v>336</v>
@@ -30212,10 +30223,10 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="261" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B52" s="262" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="262" t="n">
         <v>197</v>
@@ -30233,10 +30244,10 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="263" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B53" s="262" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C53" s="262" t="n">
         <v>197</v>
@@ -30254,10 +30265,10 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="263" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B54" s="262" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="262" t="n">
         <v>197</v>
@@ -30275,10 +30286,10 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="263" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B55" s="262" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" s="262" t="n">
         <v>197</v>
@@ -30296,10 +30307,10 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="263" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B56" s="262" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" s="262" t="n">
         <v>197</v>
@@ -30317,10 +30328,10 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="263" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B57" s="262" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C57" s="262" t="n">
         <v>197</v>
@@ -30338,10 +30349,10 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="263" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B58" s="262" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" s="262" t="n">
         <v>197</v>
@@ -30359,10 +30370,10 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="263" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B59" s="262" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" s="262" t="n">
         <v>197</v>
@@ -30380,10 +30391,10 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="263" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B60" s="262" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C60" s="262" t="n">
         <v>197</v>
@@ -30401,10 +30412,10 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="264" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B61" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C61" s="265" t="n">
         <v>106</v>
@@ -30422,10 +30433,10 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="266" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B62" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C62" s="265" t="n">
         <v>106</v>
@@ -30443,10 +30454,10 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="266" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B63" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C63" s="265" t="n">
         <v>106</v>
@@ -30464,10 +30475,10 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="266" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B64" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C64" s="265" t="n">
         <v>106</v>
@@ -30485,10 +30496,10 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="266" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B65" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C65" s="265" t="n">
         <v>106</v>
@@ -30506,10 +30517,10 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="266" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B66" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C66" s="265" t="n">
         <v>106</v>
@@ -30527,10 +30538,10 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="266" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B67" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C67" s="265" t="n">
         <v>106</v>
@@ -30548,10 +30559,10 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="266" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B68" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C68" s="265" t="n">
         <v>106</v>
@@ -30569,10 +30580,10 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="266" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B69" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C69" s="265" t="n">
         <v>106</v>
@@ -30590,10 +30601,10 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="266" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B70" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C70" s="265" t="n">
         <v>106</v>
@@ -30614,7 +30625,7 @@
         <v>20</v>
       </c>
       <c r="B71" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C71" s="265" t="n">
         <v>106</v>
@@ -30632,10 +30643,10 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="266" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B72" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C72" s="265" t="n">
         <v>106</v>
@@ -30653,10 +30664,10 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="266" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B73" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C73" s="265" t="n">
         <v>106</v>
@@ -30674,10 +30685,10 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="266" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B74" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C74" s="265" t="n">
         <v>106</v>
@@ -30695,10 +30706,10 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="266" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B75" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C75" s="265" t="n">
         <v>106</v>
@@ -30716,10 +30727,10 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="266" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B76" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" s="265" t="n">
         <v>106</v>
@@ -30737,10 +30748,10 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="266" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B77" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C77" s="265" t="n">
         <v>106</v>
@@ -30758,10 +30769,10 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="266" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B78" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C78" s="265" t="n">
         <v>106</v>
@@ -30779,10 +30790,10 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="266" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B79" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C79" s="265" t="n">
         <v>106</v>
@@ -30800,10 +30811,10 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="266" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B80" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="265" t="n">
         <v>106</v>
@@ -30821,10 +30832,10 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="266" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B81" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C81" s="265" t="n">
         <v>106</v>
@@ -30842,10 +30853,10 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="266" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B82" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" s="265" t="n">
         <v>106</v>
@@ -30863,10 +30874,10 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="266" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B83" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C83" s="265" t="n">
         <v>106</v>
@@ -30884,10 +30895,10 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="266" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B84" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C84" s="265" t="n">
         <v>106</v>
@@ -30905,10 +30916,10 @@
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="266" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B85" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C85" s="265" t="n">
         <v>106</v>
@@ -30926,10 +30937,10 @@
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="266" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B86" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C86" s="265" t="n">
         <v>106</v>
@@ -30947,10 +30958,10 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="266" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B87" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C87" s="265" t="n">
         <v>106</v>
@@ -30968,10 +30979,10 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="266" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B88" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C88" s="265" t="n">
         <v>106</v>
@@ -30989,10 +31000,10 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="266" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B89" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C89" s="265" t="n">
         <v>106</v>
@@ -31010,10 +31021,10 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="266" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B90" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C90" s="265" t="n">
         <v>106</v>
@@ -31031,10 +31042,10 @@
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="266" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B91" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C91" s="265" t="n">
         <v>106</v>
@@ -31052,10 +31063,10 @@
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="266" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B92" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C92" s="265" t="n">
         <v>106</v>
@@ -31073,10 +31084,10 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="266" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B93" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C93" s="265" t="n">
         <v>106</v>
@@ -31094,10 +31105,10 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="266" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B94" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C94" s="265" t="n">
         <v>106</v>
@@ -31115,10 +31126,10 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="266" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B95" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C95" s="265" t="n">
         <v>106</v>
@@ -31136,10 +31147,10 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="266" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B96" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C96" s="265" t="n">
         <v>106</v>
@@ -31157,10 +31168,10 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="266" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B97" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C97" s="265" t="n">
         <v>106</v>
@@ -31178,10 +31189,10 @@
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="266" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B98" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C98" s="265" t="n">
         <v>106</v>
@@ -31199,10 +31210,10 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="266" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B99" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C99" s="265" t="n">
         <v>106</v>
@@ -31220,10 +31231,10 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="266" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B100" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C100" s="265" t="n">
         <v>106</v>
@@ -31241,10 +31252,10 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="266" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B101" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C101" s="265" t="n">
         <v>106</v>
@@ -31262,10 +31273,10 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="266" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B102" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C102" s="265" t="n">
         <v>106</v>
@@ -31283,10 +31294,10 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="266" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B103" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C103" s="265" t="n">
         <v>106</v>
@@ -31304,10 +31315,10 @@
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="266" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B104" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C104" s="265" t="n">
         <v>106</v>
@@ -31325,10 +31336,10 @@
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="266" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B105" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" s="265" t="n">
         <v>106</v>
@@ -31346,10 +31357,10 @@
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="266" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B106" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106" s="265" t="n">
         <v>106</v>
@@ -31367,10 +31378,10 @@
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="266" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B107" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C107" s="265" t="n">
         <v>106</v>
@@ -31388,10 +31399,10 @@
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="266" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B108" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" s="265" t="n">
         <v>106</v>
@@ -31409,10 +31420,10 @@
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="266" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B109" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" s="265" t="n">
         <v>106</v>
@@ -31430,10 +31441,10 @@
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="266" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B110" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="265" t="n">
         <v>106</v>
@@ -31451,10 +31462,10 @@
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="266" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B111" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C111" s="265" t="n">
         <v>106</v>
@@ -31472,10 +31483,10 @@
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="266" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B112" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C112" s="265" t="n">
         <v>106</v>
@@ -31493,10 +31504,10 @@
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="266" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B113" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C113" s="265" t="n">
         <v>106</v>
@@ -31514,10 +31525,10 @@
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="266" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B114" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C114" s="265" t="n">
         <v>106</v>
@@ -31535,10 +31546,10 @@
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="266" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B115" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C115" s="265" t="n">
         <v>106</v>
@@ -31556,10 +31567,10 @@
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="266" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B116" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C116" s="265" t="n">
         <v>106</v>
@@ -31577,10 +31588,10 @@
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="266" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B117" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C117" s="265" t="n">
         <v>106</v>
@@ -31598,10 +31609,10 @@
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="266" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B118" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C118" s="265" t="n">
         <v>106</v>
@@ -31619,10 +31630,10 @@
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="266" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B119" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C119" s="265" t="n">
         <v>106</v>
@@ -31640,10 +31651,10 @@
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="266" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B120" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C120" s="265" t="n">
         <v>106</v>
@@ -31661,10 +31672,10 @@
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="266" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B121" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C121" s="265" t="n">
         <v>106</v>
@@ -31682,10 +31693,10 @@
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="266" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B122" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C122" s="265" t="n">
         <v>106</v>
@@ -31703,10 +31714,10 @@
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="266" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B123" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C123" s="265" t="n">
         <v>106</v>
@@ -31724,10 +31735,10 @@
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="266" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B124" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C124" s="265" t="n">
         <v>106</v>
@@ -31745,10 +31756,10 @@
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="266" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B125" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C125" s="265" t="n">
         <v>106</v>
@@ -31766,10 +31777,10 @@
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="266" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B126" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C126" s="265" t="n">
         <v>106</v>
@@ -31787,10 +31798,10 @@
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="266" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B127" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C127" s="265" t="n">
         <v>106</v>
@@ -31808,10 +31819,10 @@
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="266" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B128" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C128" s="265" t="n">
         <v>106</v>
@@ -31829,10 +31840,10 @@
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="266" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B129" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C129" s="265" t="n">
         <v>106</v>
@@ -31850,10 +31861,10 @@
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="266" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B130" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C130" s="265" t="n">
         <v>106</v>
@@ -31871,10 +31882,10 @@
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="266" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B131" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C131" s="265" t="n">
         <v>106</v>
@@ -31892,10 +31903,10 @@
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="266" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B132" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C132" s="265" t="n">
         <v>106</v>
@@ -31913,10 +31924,10 @@
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="266" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B133" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C133" s="265" t="n">
         <v>106</v>
@@ -31934,10 +31945,10 @@
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="266" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B134" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C134" s="265" t="n">
         <v>106</v>
@@ -31955,10 +31966,10 @@
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="266" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B135" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C135" s="265" t="n">
         <v>106</v>
@@ -31976,10 +31987,10 @@
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="266" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B136" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C136" s="265" t="n">
         <v>106</v>
@@ -31997,10 +32008,10 @@
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="266" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B137" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C137" s="265" t="n">
         <v>106</v>
@@ -32018,10 +32029,10 @@
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="266" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B138" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C138" s="265" t="n">
         <v>106</v>
@@ -32039,10 +32050,10 @@
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="266" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B139" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C139" s="265" t="n">
         <v>106</v>
@@ -32060,10 +32071,10 @@
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="266" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B140" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C140" s="265" t="n">
         <v>106</v>
@@ -32081,10 +32092,10 @@
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="266" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B141" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C141" s="265" t="n">
         <v>106</v>
@@ -32102,10 +32113,10 @@
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="266" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B142" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C142" s="265" t="n">
         <v>106</v>
@@ -32123,10 +32134,10 @@
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="266" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B143" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C143" s="265" t="n">
         <v>106</v>
@@ -32144,10 +32155,10 @@
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="266" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B144" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C144" s="265" t="n">
         <v>106</v>
@@ -32165,10 +32176,10 @@
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="266" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B145" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C145" s="265" t="n">
         <v>106</v>
@@ -32186,10 +32197,10 @@
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="266" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B146" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C146" s="265" t="n">
         <v>106</v>
@@ -32207,10 +32218,10 @@
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="266" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B147" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C147" s="265" t="n">
         <v>106</v>
@@ -32228,10 +32239,10 @@
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="266" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B148" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C148" s="265" t="n">
         <v>106</v>
@@ -32249,10 +32260,10 @@
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="266" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B149" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C149" s="265" t="n">
         <v>106</v>
@@ -32270,10 +32281,10 @@
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="266" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B150" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C150" s="265" t="n">
         <v>106</v>
@@ -32291,10 +32302,10 @@
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="266" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B151" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C151" s="265" t="n">
         <v>106</v>
@@ -32312,10 +32323,10 @@
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="266" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B152" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C152" s="265" t="n">
         <v>106</v>
@@ -32333,10 +32344,10 @@
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="266" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B153" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C153" s="265" t="n">
         <v>106</v>
@@ -32354,10 +32365,10 @@
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="266" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B154" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C154" s="265" t="n">
         <v>106</v>
@@ -32375,10 +32386,10 @@
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="266" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B155" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C155" s="265" t="n">
         <v>106</v>
@@ -32396,10 +32407,10 @@
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="266" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B156" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C156" s="265" t="n">
         <v>106</v>
@@ -32417,10 +32428,10 @@
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="266" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B157" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C157" s="265" t="n">
         <v>106</v>
@@ -32438,10 +32449,10 @@
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="266" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B158" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C158" s="265" t="n">
         <v>106</v>
@@ -32459,10 +32470,10 @@
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="266" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B159" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C159" s="265" t="n">
         <v>106</v>
@@ -32480,10 +32491,10 @@
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="266" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B160" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C160" s="265" t="n">
         <v>106</v>
@@ -32501,10 +32512,10 @@
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="266" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B161" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C161" s="265" t="n">
         <v>106</v>
@@ -32522,10 +32533,10 @@
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="266" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B162" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C162" s="265" t="n">
         <v>106</v>
@@ -32543,10 +32554,10 @@
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="266" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B163" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C163" s="265" t="n">
         <v>106</v>
@@ -32564,10 +32575,10 @@
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="266" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B164" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C164" s="265" t="n">
         <v>106</v>
@@ -32585,10 +32596,10 @@
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="266" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B165" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C165" s="265" t="n">
         <v>106</v>
@@ -32606,10 +32617,10 @@
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="266" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B166" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C166" s="265" t="n">
         <v>106</v>
@@ -32627,10 +32638,10 @@
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="266" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B167" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C167" s="265" t="n">
         <v>106</v>
@@ -32648,10 +32659,10 @@
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="266" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B168" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C168" s="265" t="n">
         <v>106</v>
@@ -32669,10 +32680,10 @@
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="266" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B169" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C169" s="265" t="n">
         <v>106</v>
@@ -32690,10 +32701,10 @@
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="266" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B170" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C170" s="265" t="n">
         <v>106</v>
@@ -32711,10 +32722,10 @@
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="266" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B171" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C171" s="265" t="n">
         <v>106</v>
@@ -32732,10 +32743,10 @@
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="266" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B172" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C172" s="265" t="n">
         <v>106</v>
@@ -32753,10 +32764,10 @@
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="266" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B173" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C173" s="265" t="n">
         <v>106</v>
@@ -32774,10 +32785,10 @@
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="266" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B174" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C174" s="265" t="n">
         <v>106</v>
@@ -32795,10 +32806,10 @@
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="266" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B175" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C175" s="265" t="n">
         <v>106</v>
@@ -32816,10 +32827,10 @@
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="266" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B176" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C176" s="265" t="n">
         <v>106</v>
@@ -32837,10 +32848,10 @@
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="266" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B177" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C177" s="265" t="n">
         <v>106</v>
@@ -32858,10 +32869,10 @@
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="266" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B178" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C178" s="265" t="n">
         <v>106</v>
@@ -32879,10 +32890,10 @@
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="266" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B179" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C179" s="265" t="n">
         <v>106</v>
@@ -32900,10 +32911,10 @@
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="266" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B180" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C180" s="265" t="n">
         <v>106</v>
@@ -32921,10 +32932,10 @@
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="266" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B181" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C181" s="265" t="n">
         <v>106</v>
@@ -32942,10 +32953,10 @@
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="266" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B182" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C182" s="265" t="n">
         <v>106</v>
@@ -32963,10 +32974,10 @@
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="266" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B183" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C183" s="265" t="n">
         <v>106</v>
@@ -32984,10 +32995,10 @@
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="266" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B184" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C184" s="265" t="n">
         <v>106</v>
@@ -33008,7 +33019,7 @@
         <v>22</v>
       </c>
       <c r="B185" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C185" s="265" t="n">
         <v>106</v>
@@ -33026,10 +33037,10 @@
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="266" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B186" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C186" s="265" t="n">
         <v>106</v>
@@ -33047,10 +33058,10 @@
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="266" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B187" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C187" s="265" t="n">
         <v>106</v>
@@ -33068,10 +33079,10 @@
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="266" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B188" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C188" s="265" t="n">
         <v>106</v>
@@ -33089,10 +33100,10 @@
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="266" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B189" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C189" s="265" t="n">
         <v>106</v>
@@ -33110,10 +33121,10 @@
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="266" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B190" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C190" s="265" t="n">
         <v>106</v>
@@ -33131,10 +33142,10 @@
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="266" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B191" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C191" s="265" t="n">
         <v>106</v>
@@ -33152,10 +33163,10 @@
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="266" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B192" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C192" s="265" t="n">
         <v>106</v>
@@ -33173,10 +33184,10 @@
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="266" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B193" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C193" s="265" t="n">
         <v>106</v>
@@ -33194,10 +33205,10 @@
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="266" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B194" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C194" s="265" t="n">
         <v>106</v>
@@ -33215,10 +33226,10 @@
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="266" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B195" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C195" s="265" t="n">
         <v>106</v>
@@ -33236,10 +33247,10 @@
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="266" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B196" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C196" s="265" t="n">
         <v>106</v>
@@ -33257,10 +33268,10 @@
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="266" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B197" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C197" s="265" t="n">
         <v>106</v>
@@ -33278,10 +33289,10 @@
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="266" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B198" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C198" s="265" t="n">
         <v>106</v>
@@ -33299,10 +33310,10 @@
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="266" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B199" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C199" s="265" t="n">
         <v>106</v>
@@ -33320,10 +33331,10 @@
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="266" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B200" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C200" s="265" t="n">
         <v>106</v>
@@ -33341,10 +33352,10 @@
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="266" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B201" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C201" s="265" t="n">
         <v>106</v>
@@ -33362,10 +33373,10 @@
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="266" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B202" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C202" s="265" t="n">
         <v>106</v>
@@ -33383,10 +33394,10 @@
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="266" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B203" s="265" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C203" s="265" t="n">
         <v>106</v>
@@ -33472,7 +33483,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="270" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B1" s="271" t="str">
         <f aca="false">+'I and II. Overview'!K10</f>
@@ -33487,19 +33498,19 @@
     <row r="3" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="273" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B4" s="274" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="275" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D4" s="276" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E4" s="277" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33508,13 +33519,13 @@
         <v>Knowledge Alliances</v>
       </c>
       <c r="B5" s="279" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C5" s="280" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D5" s="281" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E5" s="277"/>
     </row>
@@ -33524,13 +33535,13 @@
         <v>Sector Skills Alliances</v>
       </c>
       <c r="B6" s="279" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C6" s="280" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D6" s="281" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E6" s="277"/>
     </row>
@@ -33540,13 +33551,13 @@
         <v>Before completing this table please read carefully the instructions available on https://ec.europa.eu/programmes/erasmus-plus/resources/programme-guide_en</v>
       </c>
       <c r="B7" s="279" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C7" s="280" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D7" s="281" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33555,13 +33566,13 @@
         <v>Call for proposals 2020 - EAC/A02/2019 - Erasmus+ Programme - (2019/C 373/06)</v>
       </c>
       <c r="B8" s="279" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C8" s="280" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D8" s="281" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33570,13 +33581,13 @@
         <v>Programme guide and instructions for applicants</v>
       </c>
       <c r="B9" s="279" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C9" s="280" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D9" s="281" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33585,13 +33596,13 @@
         <v>Language</v>
       </c>
       <c r="B10" s="279" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C10" s="280" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D10" s="281" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33600,13 +33611,13 @@
         <v>Action</v>
       </c>
       <c r="B11" s="279" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C11" s="280" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D11" s="281" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33621,13 +33632,13 @@
         <v>Action to be selected</v>
       </c>
       <c r="B13" s="283" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C13" s="284" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D13" s="285" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33636,13 +33647,13 @@
         <v>Knowledge alliances</v>
       </c>
       <c r="B14" s="283" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C14" s="284" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D14" s="285" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33651,13 +33662,13 @@
         <v>Sector skills alliances</v>
       </c>
       <c r="B15" s="283" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C15" s="284" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D15" s="285" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33666,13 +33677,13 @@
         <v>Duration number of months</v>
       </c>
       <c r="B16" s="279" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C16" s="280" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D16" s="281" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33681,13 +33692,13 @@
         <v>Duration to be completed</v>
       </c>
       <c r="B17" s="283" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C17" s="284" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D17" s="285" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33702,13 +33713,13 @@
         <v>Duration</v>
       </c>
       <c r="B19" s="283" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C19" s="284" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D19" s="285" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33717,13 +33728,13 @@
         <v>24 months</v>
       </c>
       <c r="B20" s="283" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C20" s="284" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D20" s="285" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33732,13 +33743,13 @@
         <v>36 months</v>
       </c>
       <c r="B21" s="283" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C21" s="284" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D21" s="285" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33747,13 +33758,13 @@
         <v>months</v>
       </c>
       <c r="B22" s="283" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C22" s="284" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D22" s="285" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33762,13 +33773,13 @@
         <v>Project acronym</v>
       </c>
       <c r="B23" s="279" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C23" s="280" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D23" s="281" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33777,13 +33788,13 @@
         <v>Project title</v>
       </c>
       <c r="B24" s="279" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C24" s="280" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D24" s="281" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33792,13 +33803,13 @@
         <v>Part I - Consolidated figures</v>
       </c>
       <c r="B25" s="279" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C25" s="280" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D25" s="281" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33807,13 +33818,13 @@
         <v>EU Grant</v>
       </c>
       <c r="B26" s="279" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C26" s="280" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D26" s="281" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33823,13 +33834,13 @@
 COUNTRIES (PR)</v>
       </c>
       <c r="B27" s="279" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C27" s="280" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D27" s="281" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33838,13 +33849,13 @@
         <v>PARTNER COUNTRIES (PA)</v>
       </c>
       <c r="B28" s="279" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C28" s="280" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D28" s="281" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33853,13 +33864,13 @@
         <v>TOTAL</v>
       </c>
       <c r="B29" s="279" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C29" s="280" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D29" s="281" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33868,13 +33879,13 @@
         <v>Project implementation support</v>
       </c>
       <c r="B30" s="279" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C30" s="280" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D30" s="281" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33883,13 +33894,13 @@
         <v>Project implementation support</v>
       </c>
       <c r="B31" s="279" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C31" s="280" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D31" s="281" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33898,13 +33909,13 @@
         <v>Learning mobility activities (Optional)</v>
       </c>
       <c r="B32" s="279" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C32" s="280" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D32" s="281" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33913,13 +33924,13 @@
         <v>Travel costs</v>
       </c>
       <c r="B33" s="279" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C33" s="280" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D33" s="281" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33928,13 +33939,13 @@
         <v>Subsistence costs</v>
       </c>
       <c r="B34" s="279" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C34" s="280" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D34" s="281" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33943,13 +33954,13 @@
         <v>Total</v>
       </c>
       <c r="B35" s="279" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C35" s="280" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D35" s="281" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33958,13 +33969,13 @@
         <v>Warning messages</v>
       </c>
       <c r="B36" s="279" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C36" s="280" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D36" s="281" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33973,13 +33984,13 @@
         <v>Maximum EU contribution awarded for a 2 years Alliance:        700 000 EUR</v>
       </c>
       <c r="B37" s="283" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C37" s="280" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D37" s="281" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33988,13 +33999,13 @@
         <v>Maximum EU contribution awarded for a 3 years Alliance:           1 000 000 EUR</v>
       </c>
       <c r="B38" s="283" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C38" s="280" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D38" s="281" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34003,13 +34014,13 @@
         <v>OK</v>
       </c>
       <c r="B39" s="283" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C39" s="280" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D39" s="281" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34018,13 +34029,13 @@
         <v>Part II - Distribution of grant by organisation</v>
       </c>
       <c r="B40" s="279" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="280" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D40" s="281" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34033,13 +34044,13 @@
         <v>Partner</v>
       </c>
       <c r="B41" s="279" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C41" s="280" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D41" s="281" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34048,13 +34059,13 @@
         <v>Name</v>
       </c>
       <c r="B42" s="279" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C42" s="280" t="s">
+        <v>373</v>
+      </c>
+      <c r="D42" s="281" t="s">
         <v>372</v>
-      </c>
-      <c r="D42" s="281" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34063,13 +34074,13 @@
         <v>Country</v>
       </c>
       <c r="B43" s="279" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C43" s="280" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D43" s="281" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34078,13 +34089,13 @@
         <v>Project implementation support</v>
       </c>
       <c r="B44" s="279" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C44" s="280" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D44" s="281" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34094,13 +34105,13 @@
 Travel costs</v>
       </c>
       <c r="B45" s="279" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C45" s="280" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D45" s="281" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34110,13 +34121,13 @@
 Subsistence costs</v>
       </c>
       <c r="B46" s="279" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C46" s="280" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D46" s="281" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34125,13 +34136,13 @@
         <v>EU grant</v>
       </c>
       <c r="B47" s="279" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C47" s="280" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D47" s="281" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34140,13 +34151,13 @@
         <v>Total</v>
       </c>
       <c r="B48" s="279" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C48" s="280" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D48" s="281" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34155,13 +34166,13 @@
         <v>Part III - Project implementation support</v>
       </c>
       <c r="B49" s="279" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C49" s="280" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D49" s="281" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34170,13 +34181,13 @@
         <v>Partner</v>
       </c>
       <c r="B50" s="279" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C50" s="280" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D50" s="281" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34185,13 +34196,13 @@
         <v>Name</v>
       </c>
       <c r="B51" s="279" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C51" s="280" t="s">
+        <v>373</v>
+      </c>
+      <c r="D51" s="281" t="s">
         <v>372</v>
-      </c>
-      <c r="D51" s="281" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34200,13 +34211,13 @@
         <v>Country</v>
       </c>
       <c r="B52" s="279" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C52" s="280" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D52" s="281" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34215,13 +34226,13 @@
         <v>Manager</v>
       </c>
       <c r="B53" s="279" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C53" s="280" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D53" s="281" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34230,13 +34241,13 @@
         <v>Teacher/Trainer/Researcher</v>
       </c>
       <c r="B54" s="279" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C54" s="280" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D54" s="281" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34245,13 +34256,13 @@
         <v>Technician</v>
       </c>
       <c r="B55" s="279" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C55" s="280" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D55" s="281" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34260,13 +34271,13 @@
         <v>Administrative</v>
       </c>
       <c r="B56" s="279" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C56" s="280" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D56" s="281" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34275,13 +34286,13 @@
         <v>Number of days</v>
       </c>
       <c r="B57" s="279" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C57" s="280" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D57" s="281" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34290,13 +34301,13 @@
         <v>Unit cost per day</v>
       </c>
       <c r="B58" s="279" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C58" s="280" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D58" s="281" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34305,13 +34316,13 @@
         <v>Total cost by category</v>
       </c>
       <c r="B59" s="279" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C59" s="280" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D59" s="281" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34320,13 +34331,13 @@
         <v>Total number of days</v>
       </c>
       <c r="B60" s="279" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C60" s="280" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D60" s="281" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34335,13 +34346,13 @@
         <v>Grant requested</v>
       </c>
       <c r="B61" s="279" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C61" s="280" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D61" s="281" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34350,13 +34361,13 @@
         <v>Total Part III</v>
       </c>
       <c r="B62" s="279" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C62" s="280" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D62" s="281" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34365,13 +34376,13 @@
         <v>Part IV -</v>
       </c>
       <c r="B63" s="279" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C63" s="280" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D63" s="281" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34380,13 +34391,13 @@
         <v>Additional funding for learning mobility activities realised within an Alliance</v>
       </c>
       <c r="B64" s="279" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C64" s="280" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D64" s="281" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34395,13 +34406,13 @@
         <v>(OPTIONAL)</v>
       </c>
       <c r="B65" s="279" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C65" s="280" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D65" s="281" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34410,13 +34421,13 @@
         <v>Learning mobility - Travel costs</v>
       </c>
       <c r="B66" s="279" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C66" s="280" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D66" s="281" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34425,13 +34436,13 @@
         <v>Learning mobility - Subsistence costs</v>
       </c>
       <c r="B67" s="279" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C67" s="280" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D67" s="281" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34440,13 +34451,13 @@
         <v>Distance</v>
       </c>
       <c r="B68" s="279" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C68" s="280" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D68" s="281" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34455,13 +34466,13 @@
         <v>Unit cost per participant</v>
       </c>
       <c r="B69" s="279" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C69" s="280" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D69" s="281" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34470,13 +34481,13 @@
         <v>Activity Type</v>
       </c>
       <c r="B70" s="279" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C70" s="280" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D70" s="281" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34485,13 +34496,13 @@
         <v>Unit cost per participant</v>
       </c>
       <c r="B71" s="279" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C71" s="280" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D71" s="281" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34500,13 +34511,13 @@
         <v>Activities targeting staff up to the 14th day</v>
       </c>
       <c r="B72" s="279" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C72" s="280" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D72" s="281" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34515,13 +34526,13 @@
         <v>Activities targeting staff between the 15th and 60th day</v>
       </c>
       <c r="B73" s="279" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C73" s="280" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D73" s="281" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34530,13 +34541,13 @@
         <v>Activities targeting learners up to the 14th day</v>
       </c>
       <c r="B74" s="279" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C74" s="280" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D74" s="281" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34545,13 +34556,13 @@
         <v>Activities targeting learners between the 15th and 60th day</v>
       </c>
       <c r="B75" s="279" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C75" s="280" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D75" s="281" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34560,13 +34571,13 @@
         <v>Partner</v>
       </c>
       <c r="B76" s="279" t="s">
+        <v>371</v>
+      </c>
+      <c r="C76" s="280" t="s">
         <v>370</v>
       </c>
-      <c r="C76" s="280" t="s">
-        <v>369</v>
-      </c>
       <c r="D76" s="281" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34575,13 +34586,13 @@
         <v>Name</v>
       </c>
       <c r="B77" s="279" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C77" s="280" t="s">
+        <v>373</v>
+      </c>
+      <c r="D77" s="281" t="s">
         <v>372</v>
-      </c>
-      <c r="D77" s="281" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34590,13 +34601,13 @@
         <v>Country</v>
       </c>
       <c r="B78" s="279" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C78" s="280" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D78" s="281" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34605,13 +34616,13 @@
         <v>Distance</v>
       </c>
       <c r="B79" s="279" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C79" s="280" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D79" s="281" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34621,13 +34632,13 @@
 (from their place of location to the venue of the activity and return)</v>
       </c>
       <c r="B80" s="279" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C80" s="280" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D80" s="281" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34636,13 +34647,13 @@
         <v>Cost per participant</v>
       </c>
       <c r="B81" s="279" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C81" s="280" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D81" s="281" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34651,13 +34662,13 @@
         <v>Travel costs</v>
       </c>
       <c r="B82" s="279" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C82" s="280" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D82" s="281" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34666,13 +34677,13 @@
         <v>Activity type</v>
       </c>
       <c r="B83" s="279" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C83" s="280" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D83" s="281" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34681,13 +34692,13 @@
         <v>Number of days</v>
       </c>
       <c r="B84" s="279" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C84" s="280" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D84" s="281" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34696,13 +34707,13 @@
         <v>Unit cost per participant</v>
       </c>
       <c r="B85" s="279" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C85" s="280" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D85" s="281" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34711,13 +34722,13 @@
         <v>Subsistence costs</v>
       </c>
       <c r="B86" s="279" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C86" s="280" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D86" s="281" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34726,13 +34737,13 @@
         <v>Work Package Number</v>
       </c>
       <c r="B87" s="279" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C87" s="280" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D87" s="281" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34741,13 +34752,13 @@
         <v>Total Part IV</v>
       </c>
       <c r="B88" s="279" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C88" s="280" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D88" s="281" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34756,13 +34767,13 @@
         <v>Select your country</v>
       </c>
       <c r="B89" s="279" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C89" s="280" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D89" s="281" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34771,13 +34782,13 @@
         <v>Part V. Work packages overview</v>
       </c>
       <c r="B90" s="279" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C90" s="280" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D90" s="281" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34786,13 +34797,13 @@
         <v>The information in this worksheet should be consistent with the information provided in the "Detailed project</v>
       </c>
       <c r="B91" s="279" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C91" s="280" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D91" s="281" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34801,13 +34812,13 @@
         <v>description" annexed to your eForm</v>
       </c>
       <c r="B92" s="279" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C92" s="280" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D92" s="281" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34816,13 +34827,13 @@
         <v>Preparation</v>
       </c>
       <c r="B93" s="279" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C93" s="280" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D93" s="281" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34831,13 +34842,13 @@
         <v>Management</v>
       </c>
       <c r="B94" s="279" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C94" s="280" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D94" s="281" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34846,13 +34857,13 @@
         <v>Implementation</v>
       </c>
       <c r="B95" s="279" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C95" s="280" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D95" s="281" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34861,13 +34872,13 @@
         <v>Quality Assurance</v>
       </c>
       <c r="B96" s="279" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C96" s="280" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D96" s="281" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34876,13 +34887,13 @@
         <v>Evaluation</v>
       </c>
       <c r="B97" s="279" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C97" s="280" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D97" s="281" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34891,13 +34902,13 @@
         <v>Dissemination &amp; Exploitation</v>
       </c>
       <c r="B98" s="279" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C98" s="280" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D98" s="281" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34906,13 +34917,13 @@
         <v>Select an Action</v>
       </c>
       <c r="B99" s="279" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C99" s="280" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D99" s="281" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34921,13 +34932,13 @@
         <v>Action</v>
       </c>
       <c r="B100" s="279" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C100" s="280" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D100" s="281" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34936,13 +34947,13 @@
         <v>Maximum project duration</v>
       </c>
       <c r="B101" s="279" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C101" s="280" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D101" s="281" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34951,13 +34962,13 @@
         <v>Months</v>
       </c>
       <c r="B102" s="279" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C102" s="280" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D102" s="281" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34966,13 +34977,13 @@
         <v>Work Package Number</v>
       </c>
       <c r="B103" s="279" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C103" s="280" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D103" s="281" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34981,13 +34992,13 @@
         <v>TYPE</v>
       </c>
       <c r="B104" s="279" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C104" s="280" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D104" s="281" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34996,13 +35007,13 @@
         <v>START</v>
       </c>
       <c r="B105" s="279" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C105" s="280" t="s">
+        <v>507</v>
+      </c>
+      <c r="D105" s="281" t="s">
         <v>506</v>
-      </c>
-      <c r="D105" s="281" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35011,13 +35022,13 @@
         <v>DURATION</v>
       </c>
       <c r="B106" s="279" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C106" s="280" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D106" s="281" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35026,13 +35037,13 @@
         <v>MONTHS</v>
       </c>
       <c r="B107" s="279" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C107" s="280" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D107" s="281" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35041,13 +35052,13 @@
         <v>Please enter information on all Work  packages, Use their reference number as they appear in the "Detailed Project Description" - Colour the corresponding cells</v>
       </c>
       <c r="B108" s="279" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C108" s="280" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D108" s="281" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35056,13 +35067,13 @@
         <v>Part III - Affiliated Entities</v>
       </c>
       <c r="B109" s="279" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C109" s="280" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D109" s="281" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35073,13 +35084,13 @@
 Affiliatied Entity (AE)</v>
       </c>
       <c r="B110" s="279" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C110" s="280" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D110" s="281" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35088,13 +35099,13 @@
         <v>Affiliated Entity Linked to the Partner</v>
       </c>
       <c r="B111" s="279" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C111" s="280" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D111" s="281" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35169,19 +35180,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="287" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D1" s="288" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G1" s="286" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="289" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I1" s="290" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J1" s="291"/>
       <c r="K1" s="292"/>
@@ -35192,10 +35203,10 @@
         <v>P1</v>
       </c>
       <c r="E2" s="289" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G2" s="286" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H2" s="286" t="str">
         <f aca="false">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A1))),"")</f>
@@ -35219,7 +35230,7 @@
       </c>
       <c r="I3" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H3,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H3,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35373,7 +35384,7 @@
       </c>
       <c r="I14" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H14,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H14,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35387,7 +35398,7 @@
       </c>
       <c r="I15" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H15,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H15,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35401,7 +35412,7 @@
       </c>
       <c r="I16" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H16,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H16,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35415,7 +35426,7 @@
       </c>
       <c r="I17" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H17,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H17,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35429,7 +35440,7 @@
       </c>
       <c r="I18" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H18,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H18,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35443,7 +35454,7 @@
       </c>
       <c r="I19" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H19,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H19,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35457,7 +35468,7 @@
       </c>
       <c r="I20" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H20,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H20,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35471,7 +35482,7 @@
       </c>
       <c r="I21" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H21,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H21,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35485,7 +35496,7 @@
       </c>
       <c r="I22" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H22,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H22,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35499,7 +35510,7 @@
       </c>
       <c r="I23" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H23,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H23,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35513,7 +35524,7 @@
       </c>
       <c r="I24" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H24,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H24,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35527,7 +35538,7 @@
       </c>
       <c r="I25" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H25,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H25,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35541,7 +35552,7 @@
       </c>
       <c r="I26" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H26,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H26,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35555,7 +35566,7 @@
       </c>
       <c r="I27" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H27,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H27,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35569,7 +35580,7 @@
       </c>
       <c r="I28" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H28,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H28,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35583,7 +35594,7 @@
       </c>
       <c r="I29" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H29,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H29,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35597,7 +35608,7 @@
       </c>
       <c r="I30" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H30,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H30,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35611,7 +35622,7 @@
       </c>
       <c r="I31" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H31,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H31,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35625,7 +35636,7 @@
       </c>
       <c r="I32" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H32,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H32,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35639,7 +35650,7 @@
       </c>
       <c r="I33" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H33,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H33,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35653,7 +35664,7 @@
       </c>
       <c r="I34" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H34,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H34,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35667,7 +35678,7 @@
       </c>
       <c r="I35" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H35,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H35,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35681,7 +35692,7 @@
       </c>
       <c r="I36" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H36,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H36,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35695,7 +35706,7 @@
       </c>
       <c r="I37" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H37,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H37,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35709,7 +35720,7 @@
       </c>
       <c r="I38" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H38,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H38,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35723,7 +35734,7 @@
       </c>
       <c r="I39" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H39,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H39,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35737,7 +35748,7 @@
       </c>
       <c r="I40" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H40,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H40,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35751,7 +35762,7 @@
       </c>
       <c r="I41" s="294" t="n">
         <f aca="false">SUMIF('I and II. Overview'!$G$36:$G$75,H41,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H41,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>0</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35973,13 +35984,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="287" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D1" s="288" t="s">
+        <v>526</v>
+      </c>
+      <c r="H1" s="289" t="s">
         <v>525</v>
-      </c>
-      <c r="H1" s="289" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35988,7 +35999,7 @@
         <v>P1 only</v>
       </c>
       <c r="E2" s="289" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H2" s="286" t="str">
         <f aca="false">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A1))),"")</f>
@@ -36098,11 +36109,11 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="293" t="str">
         <f aca="false">IF('I and II. Overview'!$F47="",0,'I and II. Overview'!$F47)</f>
-        <v>P12 only </v>
+        <v>P12 only</v>
       </c>
       <c r="H13" s="286" t="str">
         <f aca="false" t="array" ref="H13:H13">IFERROR(INDEX($A$2:$A$100,SMALL(IF(ISTEXT($A$2:$A$100),ROW($A$1:$A$99),""), ROW(A12))),"")</f>
-        <v>P12 only </v>
+        <v>P12 only</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Erasmus/detailed_budget.xlsx
+++ b/Erasmus/detailed_budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graebe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249C2EA6-3C2E-4917-BF77-5DF31B7ECA49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08F0F51-1BA1-4E11-92AC-41B5BAE6E9FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3570,91 +3570,31 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3681,31 +3621,91 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3735,30 +3735,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -3808,6 +3784,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3816,25 +3835,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5631,102 +5631,102 @@
       <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="1:28" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="260" t="str">
+      <c r="A6" s="232" t="str">
         <f>+Translation!A7</f>
         <v>Before completing this table please read carefully the instructions available on https://ec.europa.eu/programmes/erasmus-plus/resources/programme-guide_en</v>
       </c>
-      <c r="B6" s="260"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="260"/>
-      <c r="H6" s="260"/>
-      <c r="I6" s="260"/>
-      <c r="J6" s="260"/>
-      <c r="K6" s="260"/>
-      <c r="L6" s="260"/>
-      <c r="M6" s="260"/>
-      <c r="N6" s="260"/>
-      <c r="O6" s="260"/>
-      <c r="P6" s="260"/>
-      <c r="Q6" s="260"/>
-      <c r="R6" s="260"/>
-      <c r="S6" s="260"/>
-      <c r="T6" s="260"/>
-      <c r="U6" s="260"/>
-      <c r="V6" s="260"/>
-      <c r="W6" s="260"/>
-      <c r="X6" s="260"/>
-      <c r="Y6" s="260"/>
-      <c r="Z6" s="260"/>
-      <c r="AA6" s="260"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="232"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="232"/>
+      <c r="G6" s="232"/>
+      <c r="H6" s="232"/>
+      <c r="I6" s="232"/>
+      <c r="J6" s="232"/>
+      <c r="K6" s="232"/>
+      <c r="L6" s="232"/>
+      <c r="M6" s="232"/>
+      <c r="N6" s="232"/>
+      <c r="O6" s="232"/>
+      <c r="P6" s="232"/>
+      <c r="Q6" s="232"/>
+      <c r="R6" s="232"/>
+      <c r="S6" s="232"/>
+      <c r="T6" s="232"/>
+      <c r="U6" s="232"/>
+      <c r="V6" s="232"/>
+      <c r="W6" s="232"/>
+      <c r="X6" s="232"/>
+      <c r="Y6" s="232"/>
+      <c r="Z6" s="232"/>
+      <c r="AA6" s="232"/>
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:28" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="261" t="str">
+      <c r="A7" s="233" t="str">
         <f>+Translation!A8</f>
         <v>Call for proposals 2020 - EAC/A02/2019 - Erasmus+ Programme - (2019/C 373/06)</v>
       </c>
-      <c r="B7" s="261"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="261"/>
-      <c r="H7" s="261"/>
-      <c r="I7" s="261"/>
-      <c r="J7" s="261"/>
-      <c r="K7" s="261"/>
-      <c r="L7" s="261"/>
-      <c r="M7" s="261"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="261"/>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="261"/>
-      <c r="S7" s="261"/>
-      <c r="T7" s="261"/>
-      <c r="U7" s="261"/>
-      <c r="V7" s="261"/>
-      <c r="W7" s="261"/>
-      <c r="X7" s="261"/>
-      <c r="Y7" s="261"/>
-      <c r="Z7" s="261"/>
-      <c r="AA7" s="261"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="233"/>
+      <c r="I7" s="233"/>
+      <c r="J7" s="233"/>
+      <c r="K7" s="233"/>
+      <c r="L7" s="233"/>
+      <c r="M7" s="233"/>
+      <c r="N7" s="233"/>
+      <c r="O7" s="233"/>
+      <c r="P7" s="233"/>
+      <c r="Q7" s="233"/>
+      <c r="R7" s="233"/>
+      <c r="S7" s="233"/>
+      <c r="T7" s="233"/>
+      <c r="U7" s="233"/>
+      <c r="V7" s="233"/>
+      <c r="W7" s="233"/>
+      <c r="X7" s="233"/>
+      <c r="Y7" s="233"/>
+      <c r="Z7" s="233"/>
+      <c r="AA7" s="233"/>
       <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="1:28" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="262" t="str">
+      <c r="A8" s="234" t="str">
         <f>+Translation!A9</f>
         <v>Programme guide and instructions for applicants</v>
       </c>
-      <c r="B8" s="262"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="262"/>
-      <c r="K8" s="262"/>
-      <c r="L8" s="262"/>
-      <c r="M8" s="262"/>
-      <c r="N8" s="262"/>
-      <c r="O8" s="262"/>
-      <c r="P8" s="262"/>
-      <c r="Q8" s="262"/>
-      <c r="R8" s="262"/>
-      <c r="S8" s="262"/>
-      <c r="T8" s="262"/>
-      <c r="U8" s="262"/>
-      <c r="V8" s="262"/>
-      <c r="W8" s="262"/>
-      <c r="X8" s="262"/>
-      <c r="Y8" s="262"/>
-      <c r="Z8" s="262"/>
-      <c r="AA8" s="262"/>
+      <c r="B8" s="234"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="234"/>
+      <c r="N8" s="234"/>
+      <c r="O8" s="234"/>
+      <c r="P8" s="234"/>
+      <c r="Q8" s="234"/>
+      <c r="R8" s="234"/>
+      <c r="S8" s="234"/>
+      <c r="T8" s="234"/>
+      <c r="U8" s="234"/>
+      <c r="V8" s="234"/>
+      <c r="W8" s="234"/>
+      <c r="X8" s="234"/>
+      <c r="Y8" s="234"/>
+      <c r="Z8" s="234"/>
+      <c r="AA8" s="234"/>
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:28" s="6" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5772,25 +5772,25 @@
       <c r="H10" s="15"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="263" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="263"/>
-      <c r="M10" s="264"/>
-      <c r="N10" s="264"/>
-      <c r="O10" s="264"/>
-      <c r="P10" s="264"/>
-      <c r="Q10" s="264"/>
-      <c r="R10" s="264"/>
-      <c r="S10" s="264"/>
-      <c r="T10" s="264"/>
-      <c r="U10" s="264"/>
-      <c r="V10" s="264"/>
-      <c r="W10" s="264"/>
-      <c r="X10" s="264"/>
-      <c r="Y10" s="264"/>
-      <c r="Z10" s="264"/>
-      <c r="AA10" s="264"/>
+      <c r="K10" s="235" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="235"/>
+      <c r="M10" s="236"/>
+      <c r="N10" s="236"/>
+      <c r="O10" s="236"/>
+      <c r="P10" s="236"/>
+      <c r="Q10" s="236"/>
+      <c r="R10" s="236"/>
+      <c r="S10" s="236"/>
+      <c r="T10" s="236"/>
+      <c r="U10" s="236"/>
+      <c r="V10" s="236"/>
+      <c r="W10" s="236"/>
+      <c r="X10" s="236"/>
+      <c r="Y10" s="236"/>
+      <c r="Z10" s="236"/>
+      <c r="AA10" s="236"/>
       <c r="AB10" s="5"/>
     </row>
     <row r="11" spans="1:28" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5807,28 +5807,28 @@
       <c r="H11" s="19"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="265" t="s">
+      <c r="K11" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="265"/>
-      <c r="M11" s="266" t="str">
+      <c r="L11" s="237"/>
+      <c r="M11" s="238" t="str">
         <f>+IF(K11="",CONCATENATE(Translation!A13,": KA - ",Translation!A14,"  SSA - ",Translation!A15),IF(K11="KA",Translation!A14,IF(K11="SSA",Translation!A15,"")))</f>
         <v>Knowledge alliances</v>
       </c>
-      <c r="N11" s="266"/>
-      <c r="O11" s="266"/>
-      <c r="P11" s="266"/>
-      <c r="Q11" s="266"/>
-      <c r="R11" s="266"/>
-      <c r="S11" s="266"/>
-      <c r="T11" s="266"/>
-      <c r="U11" s="266"/>
-      <c r="V11" s="266"/>
-      <c r="W11" s="266"/>
-      <c r="X11" s="266"/>
-      <c r="Y11" s="266"/>
-      <c r="Z11" s="266"/>
-      <c r="AA11" s="266"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="238"/>
+      <c r="Q11" s="238"/>
+      <c r="R11" s="238"/>
+      <c r="S11" s="238"/>
+      <c r="T11" s="238"/>
+      <c r="U11" s="238"/>
+      <c r="V11" s="238"/>
+      <c r="W11" s="238"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
       <c r="AB11" s="5"/>
     </row>
     <row r="12" spans="1:28" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5845,28 +5845,28 @@
       <c r="H12" s="19"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="254">
+      <c r="K12" s="239">
         <v>36</v>
       </c>
-      <c r="L12" s="254"/>
-      <c r="M12" s="255" t="str">
+      <c r="L12" s="239"/>
+      <c r="M12" s="240" t="str">
         <f>+IF(K12="",Translation!A17,Translation!A22)</f>
         <v>months</v>
       </c>
-      <c r="N12" s="255"/>
-      <c r="O12" s="255"/>
-      <c r="P12" s="255"/>
-      <c r="Q12" s="255"/>
-      <c r="R12" s="255"/>
-      <c r="S12" s="255"/>
-      <c r="T12" s="255"/>
-      <c r="U12" s="255"/>
-      <c r="V12" s="255"/>
-      <c r="W12" s="255"/>
-      <c r="X12" s="255"/>
-      <c r="Y12" s="255"/>
-      <c r="Z12" s="255"/>
-      <c r="AA12" s="255"/>
+      <c r="N12" s="240"/>
+      <c r="O12" s="240"/>
+      <c r="P12" s="240"/>
+      <c r="Q12" s="240"/>
+      <c r="R12" s="240"/>
+      <c r="S12" s="240"/>
+      <c r="T12" s="240"/>
+      <c r="U12" s="240"/>
+      <c r="V12" s="240"/>
+      <c r="W12" s="240"/>
+      <c r="X12" s="240"/>
+      <c r="Y12" s="240"/>
+      <c r="Z12" s="240"/>
+      <c r="AA12" s="240"/>
       <c r="AB12" s="5"/>
     </row>
     <row r="13" spans="1:28" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5883,25 +5883,25 @@
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="254" t="s">
+      <c r="K13" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="254"/>
-      <c r="M13" s="255"/>
-      <c r="N13" s="255"/>
-      <c r="O13" s="255"/>
-      <c r="P13" s="255"/>
-      <c r="Q13" s="255"/>
-      <c r="R13" s="255"/>
-      <c r="S13" s="255"/>
-      <c r="T13" s="255"/>
-      <c r="U13" s="255"/>
-      <c r="V13" s="255"/>
-      <c r="W13" s="255"/>
-      <c r="X13" s="255"/>
-      <c r="Y13" s="255"/>
-      <c r="Z13" s="255"/>
-      <c r="AA13" s="255"/>
+      <c r="L13" s="239"/>
+      <c r="M13" s="240"/>
+      <c r="N13" s="240"/>
+      <c r="O13" s="240"/>
+      <c r="P13" s="240"/>
+      <c r="Q13" s="240"/>
+      <c r="R13" s="240"/>
+      <c r="S13" s="240"/>
+      <c r="T13" s="240"/>
+      <c r="U13" s="240"/>
+      <c r="V13" s="240"/>
+      <c r="W13" s="240"/>
+      <c r="X13" s="240"/>
+      <c r="Y13" s="240"/>
+      <c r="Z13" s="240"/>
+      <c r="AA13" s="240"/>
       <c r="AB13" s="5"/>
     </row>
     <row r="14" spans="1:28" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5918,25 +5918,25 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="256" t="s">
+      <c r="K14" s="241" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="256"/>
-      <c r="R14" s="256"/>
-      <c r="S14" s="256"/>
-      <c r="T14" s="256"/>
-      <c r="U14" s="256"/>
-      <c r="V14" s="256"/>
-      <c r="W14" s="256"/>
-      <c r="X14" s="256"/>
-      <c r="Y14" s="256"/>
-      <c r="Z14" s="256"/>
-      <c r="AA14" s="256"/>
+      <c r="L14" s="241"/>
+      <c r="M14" s="241"/>
+      <c r="N14" s="241"/>
+      <c r="O14" s="241"/>
+      <c r="P14" s="241"/>
+      <c r="Q14" s="241"/>
+      <c r="R14" s="241"/>
+      <c r="S14" s="241"/>
+      <c r="T14" s="241"/>
+      <c r="U14" s="241"/>
+      <c r="V14" s="241"/>
+      <c r="W14" s="241"/>
+      <c r="X14" s="241"/>
+      <c r="Y14" s="241"/>
+      <c r="Z14" s="241"/>
+      <c r="AA14" s="241"/>
       <c r="AB14" s="5"/>
     </row>
     <row r="15" spans="1:28" s="6" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.3">
@@ -6000,36 +6000,36 @@
       <c r="AB16" s="5"/>
     </row>
     <row r="17" spans="1:28" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="257" t="str">
+      <c r="A17" s="242" t="str">
         <f>+Translation!A25</f>
         <v>Part I - Consolidated figures</v>
       </c>
-      <c r="B17" s="257"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="257"/>
-      <c r="E17" s="257"/>
-      <c r="F17" s="257"/>
-      <c r="G17" s="257"/>
-      <c r="H17" s="257"/>
-      <c r="I17" s="257"/>
-      <c r="J17" s="257"/>
-      <c r="K17" s="257"/>
-      <c r="L17" s="257"/>
-      <c r="M17" s="257"/>
-      <c r="N17" s="257"/>
-      <c r="O17" s="257"/>
-      <c r="P17" s="257"/>
-      <c r="Q17" s="257"/>
-      <c r="R17" s="257"/>
-      <c r="S17" s="257"/>
-      <c r="T17" s="257"/>
-      <c r="U17" s="257"/>
-      <c r="V17" s="257"/>
-      <c r="W17" s="257"/>
-      <c r="X17" s="257"/>
-      <c r="Y17" s="257"/>
-      <c r="Z17" s="257"/>
-      <c r="AA17" s="257"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="242"/>
+      <c r="K17" s="242"/>
+      <c r="L17" s="242"/>
+      <c r="M17" s="242"/>
+      <c r="N17" s="242"/>
+      <c r="O17" s="242"/>
+      <c r="P17" s="242"/>
+      <c r="Q17" s="242"/>
+      <c r="R17" s="242"/>
+      <c r="S17" s="242"/>
+      <c r="T17" s="242"/>
+      <c r="U17" s="242"/>
+      <c r="V17" s="242"/>
+      <c r="W17" s="242"/>
+      <c r="X17" s="242"/>
+      <c r="Y17" s="242"/>
+      <c r="Z17" s="242"/>
+      <c r="AA17" s="242"/>
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:28" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6043,21 +6043,21 @@
       <c r="H18" s="20"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
-      <c r="K18" s="258" t="str">
+      <c r="K18" s="243" t="str">
         <f>+Translation!A26</f>
         <v>EU Grant</v>
       </c>
-      <c r="L18" s="258"/>
-      <c r="M18" s="258"/>
-      <c r="N18" s="258"/>
-      <c r="O18" s="258"/>
-      <c r="P18" s="258"/>
-      <c r="Q18" s="258"/>
-      <c r="R18" s="258"/>
-      <c r="S18" s="258"/>
-      <c r="T18" s="258"/>
-      <c r="U18" s="258"/>
-      <c r="V18" s="258"/>
+      <c r="L18" s="243"/>
+      <c r="M18" s="243"/>
+      <c r="N18" s="243"/>
+      <c r="O18" s="243"/>
+      <c r="P18" s="243"/>
+      <c r="Q18" s="243"/>
+      <c r="R18" s="243"/>
+      <c r="S18" s="243"/>
+      <c r="T18" s="243"/>
+      <c r="U18" s="243"/>
+      <c r="V18" s="243"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
@@ -6076,28 +6076,28 @@
       <c r="H19" s="20"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="259" t="str">
+      <c r="K19" s="244" t="str">
         <f>+Translation!A27</f>
         <v>PROGRAMME 
 COUNTRIES (PR)</v>
       </c>
-      <c r="L19" s="259"/>
-      <c r="M19" s="259"/>
-      <c r="N19" s="259"/>
+      <c r="L19" s="244"/>
+      <c r="M19" s="244"/>
+      <c r="N19" s="244"/>
       <c r="O19" s="29"/>
-      <c r="P19" s="259" t="str">
+      <c r="P19" s="244" t="str">
         <f>+Translation!A28</f>
         <v>PARTNER COUNTRIES (PA)</v>
       </c>
-      <c r="Q19" s="259"/>
-      <c r="R19" s="259"/>
+      <c r="Q19" s="244"/>
+      <c r="R19" s="244"/>
       <c r="S19" s="29"/>
-      <c r="T19" s="259" t="str">
+      <c r="T19" s="244" t="str">
         <f>+Translation!A29</f>
         <v>TOTAL</v>
       </c>
-      <c r="U19" s="259"/>
-      <c r="V19" s="259"/>
+      <c r="U19" s="244"/>
+      <c r="V19" s="244"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
@@ -6106,103 +6106,103 @@
       <c r="AB19" s="5"/>
     </row>
     <row r="20" spans="1:28" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="252"/>
-      <c r="B20" s="252"/>
-      <c r="C20" s="252"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="252"/>
-      <c r="G20" s="252"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="252"/>
-      <c r="J20" s="252"/>
-      <c r="K20" s="252"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="252"/>
-      <c r="N20" s="252"/>
-      <c r="O20" s="252"/>
-      <c r="P20" s="252"/>
-      <c r="Q20" s="252"/>
-      <c r="R20" s="252"/>
-      <c r="S20" s="252"/>
-      <c r="T20" s="252"/>
-      <c r="U20" s="252"/>
-      <c r="V20" s="252"/>
-      <c r="W20" s="252"/>
-      <c r="X20" s="252"/>
-      <c r="Y20" s="252"/>
-      <c r="Z20" s="252"/>
-      <c r="AA20" s="252"/>
+      <c r="A20" s="245"/>
+      <c r="B20" s="245"/>
+      <c r="C20" s="245"/>
+      <c r="D20" s="245"/>
+      <c r="E20" s="245"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="245"/>
+      <c r="H20" s="245"/>
+      <c r="I20" s="245"/>
+      <c r="J20" s="245"/>
+      <c r="K20" s="245"/>
+      <c r="L20" s="245"/>
+      <c r="M20" s="245"/>
+      <c r="N20" s="245"/>
+      <c r="O20" s="245"/>
+      <c r="P20" s="245"/>
+      <c r="Q20" s="245"/>
+      <c r="R20" s="245"/>
+      <c r="S20" s="245"/>
+      <c r="T20" s="245"/>
+      <c r="U20" s="245"/>
+      <c r="V20" s="245"/>
+      <c r="W20" s="245"/>
+      <c r="X20" s="245"/>
+      <c r="Y20" s="245"/>
+      <c r="Z20" s="245"/>
+      <c r="AA20" s="245"/>
       <c r="AB20" s="5"/>
     </row>
     <row r="21" spans="1:28" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="250" t="str">
+      <c r="A21" s="246" t="str">
         <f>+Translation!A30</f>
         <v>Project implementation support</v>
       </c>
-      <c r="B21" s="250"/>
-      <c r="C21" s="250"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="250"/>
-      <c r="H21" s="250"/>
-      <c r="I21" s="250"/>
-      <c r="J21" s="250"/>
-      <c r="K21" s="250"/>
-      <c r="L21" s="250"/>
-      <c r="M21" s="250"/>
-      <c r="N21" s="250"/>
-      <c r="O21" s="250"/>
-      <c r="P21" s="250"/>
-      <c r="Q21" s="250"/>
-      <c r="R21" s="250"/>
-      <c r="S21" s="250"/>
-      <c r="T21" s="250"/>
-      <c r="U21" s="250"/>
-      <c r="V21" s="250"/>
-      <c r="W21" s="250"/>
-      <c r="X21" s="250"/>
-      <c r="Y21" s="250"/>
-      <c r="Z21" s="250"/>
-      <c r="AA21" s="250"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="246"/>
+      <c r="D21" s="246"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="246"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="246"/>
+      <c r="I21" s="246"/>
+      <c r="J21" s="246"/>
+      <c r="K21" s="246"/>
+      <c r="L21" s="246"/>
+      <c r="M21" s="246"/>
+      <c r="N21" s="246"/>
+      <c r="O21" s="246"/>
+      <c r="P21" s="246"/>
+      <c r="Q21" s="246"/>
+      <c r="R21" s="246"/>
+      <c r="S21" s="246"/>
+      <c r="T21" s="246"/>
+      <c r="U21" s="246"/>
+      <c r="V21" s="246"/>
+      <c r="W21" s="246"/>
+      <c r="X21" s="246"/>
+      <c r="Y21" s="246"/>
+      <c r="Z21" s="246"/>
+      <c r="AA21" s="246"/>
       <c r="AB21" s="5"/>
     </row>
     <row r="22" spans="1:28" s="6" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="245" t="str">
+      <c r="A22" s="247" t="str">
         <f>+Translation!A31</f>
         <v>Project implementation support</v>
       </c>
-      <c r="B22" s="245"/>
-      <c r="C22" s="245"/>
-      <c r="D22" s="245"/>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="245"/>
-      <c r="H22" s="245"/>
-      <c r="I22" s="245"/>
-      <c r="J22" s="245"/>
-      <c r="K22" s="251">
+      <c r="B22" s="247"/>
+      <c r="C22" s="247"/>
+      <c r="D22" s="247"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="247"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="247"/>
+      <c r="I22" s="247"/>
+      <c r="J22" s="247"/>
+      <c r="K22" s="248">
         <f>SUMIF('III. Project implementation sup'!$E$4:$E$123,"PR",'III. Project implementation sup'!$V$4:$V$123)</f>
         <v>875710</v>
       </c>
-      <c r="L22" s="251"/>
-      <c r="M22" s="251"/>
-      <c r="N22" s="251"/>
+      <c r="L22" s="248"/>
+      <c r="M22" s="248"/>
+      <c r="N22" s="248"/>
       <c r="O22" s="31"/>
-      <c r="P22" s="251">
+      <c r="P22" s="248">
         <f>+SUMIF('III. Project implementation sup'!E4:E123,"PA",'III. Project implementation sup'!V4:V123)</f>
         <v>60580</v>
       </c>
-      <c r="Q22" s="251"/>
-      <c r="R22" s="251"/>
+      <c r="Q22" s="248"/>
+      <c r="R22" s="248"/>
       <c r="S22" s="20"/>
-      <c r="T22" s="251">
+      <c r="T22" s="248">
         <f>+IF(AND(K12=24,SUM(K22+P22)&gt;700000),700000,IF(AND(K12=36,SUM(K22+P22)&gt;1000000),1000000,SUM(K22+P22)))</f>
         <v>936290</v>
       </c>
-      <c r="U22" s="251"/>
-      <c r="V22" s="251"/>
+      <c r="U22" s="248"/>
+      <c r="V22" s="248"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="32"/>
@@ -6211,28 +6211,28 @@
       <c r="AB22" s="5"/>
     </row>
     <row r="23" spans="1:28" s="6" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="245"/>
-      <c r="B23" s="245"/>
-      <c r="C23" s="245"/>
-      <c r="D23" s="245"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="245"/>
-      <c r="H23" s="245"/>
-      <c r="I23" s="245"/>
-      <c r="J23" s="245"/>
-      <c r="K23" s="251"/>
-      <c r="L23" s="251"/>
-      <c r="M23" s="251"/>
-      <c r="N23" s="251"/>
+      <c r="A23" s="247"/>
+      <c r="B23" s="247"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="247"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="247"/>
+      <c r="I23" s="247"/>
+      <c r="J23" s="247"/>
+      <c r="K23" s="248"/>
+      <c r="L23" s="248"/>
+      <c r="M23" s="248"/>
+      <c r="N23" s="248"/>
       <c r="O23" s="34"/>
-      <c r="P23" s="251"/>
-      <c r="Q23" s="251"/>
-      <c r="R23" s="251"/>
+      <c r="P23" s="248"/>
+      <c r="Q23" s="248"/>
+      <c r="R23" s="248"/>
       <c r="S23" s="34"/>
-      <c r="T23" s="251"/>
-      <c r="U23" s="251"/>
-      <c r="V23" s="251"/>
+      <c r="T23" s="248"/>
+      <c r="U23" s="248"/>
+      <c r="V23" s="248"/>
       <c r="W23" s="20"/>
       <c r="X23" s="32"/>
       <c r="Y23" s="32"/>
@@ -6241,258 +6241,258 @@
       <c r="AB23" s="5"/>
     </row>
     <row r="24" spans="1:28" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="252"/>
-      <c r="B24" s="252"/>
-      <c r="C24" s="252"/>
-      <c r="D24" s="252"/>
-      <c r="E24" s="252"/>
-      <c r="F24" s="252"/>
-      <c r="G24" s="252"/>
-      <c r="H24" s="252"/>
-      <c r="I24" s="252"/>
-      <c r="J24" s="252"/>
-      <c r="K24" s="252"/>
-      <c r="L24" s="252"/>
-      <c r="M24" s="252"/>
-      <c r="N24" s="252"/>
-      <c r="O24" s="252"/>
-      <c r="P24" s="252"/>
-      <c r="Q24" s="252"/>
-      <c r="R24" s="252"/>
-      <c r="S24" s="252"/>
-      <c r="T24" s="252"/>
-      <c r="U24" s="252"/>
-      <c r="V24" s="252"/>
-      <c r="W24" s="252"/>
-      <c r="X24" s="252"/>
-      <c r="Y24" s="252"/>
-      <c r="Z24" s="252"/>
-      <c r="AA24" s="252"/>
+      <c r="A24" s="245"/>
+      <c r="B24" s="245"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="245"/>
+      <c r="E24" s="245"/>
+      <c r="F24" s="245"/>
+      <c r="G24" s="245"/>
+      <c r="H24" s="245"/>
+      <c r="I24" s="245"/>
+      <c r="J24" s="245"/>
+      <c r="K24" s="245"/>
+      <c r="L24" s="245"/>
+      <c r="M24" s="245"/>
+      <c r="N24" s="245"/>
+      <c r="O24" s="245"/>
+      <c r="P24" s="245"/>
+      <c r="Q24" s="245"/>
+      <c r="R24" s="245"/>
+      <c r="S24" s="245"/>
+      <c r="T24" s="245"/>
+      <c r="U24" s="245"/>
+      <c r="V24" s="245"/>
+      <c r="W24" s="245"/>
+      <c r="X24" s="245"/>
+      <c r="Y24" s="245"/>
+      <c r="Z24" s="245"/>
+      <c r="AA24" s="245"/>
       <c r="AB24" s="5"/>
     </row>
     <row r="25" spans="1:28" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="250" t="str">
+      <c r="A25" s="246" t="str">
         <f>+Translation!A32</f>
         <v>Learning mobility activities (Optional)</v>
       </c>
-      <c r="B25" s="250"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="250"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="250"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="250"/>
-      <c r="I25" s="250"/>
-      <c r="J25" s="250"/>
-      <c r="K25" s="250"/>
-      <c r="L25" s="250"/>
-      <c r="M25" s="250"/>
-      <c r="N25" s="250"/>
-      <c r="O25" s="250"/>
-      <c r="P25" s="250"/>
-      <c r="Q25" s="250"/>
-      <c r="R25" s="250"/>
-      <c r="S25" s="250"/>
-      <c r="T25" s="250"/>
-      <c r="U25" s="250"/>
-      <c r="V25" s="250"/>
-      <c r="W25" s="250"/>
-      <c r="X25" s="250"/>
-      <c r="Y25" s="250"/>
-      <c r="Z25" s="250"/>
-      <c r="AA25" s="250"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="246"/>
+      <c r="F25" s="246"/>
+      <c r="G25" s="246"/>
+      <c r="H25" s="246"/>
+      <c r="I25" s="246"/>
+      <c r="J25" s="246"/>
+      <c r="K25" s="246"/>
+      <c r="L25" s="246"/>
+      <c r="M25" s="246"/>
+      <c r="N25" s="246"/>
+      <c r="O25" s="246"/>
+      <c r="P25" s="246"/>
+      <c r="Q25" s="246"/>
+      <c r="R25" s="246"/>
+      <c r="S25" s="246"/>
+      <c r="T25" s="246"/>
+      <c r="U25" s="246"/>
+      <c r="V25" s="246"/>
+      <c r="W25" s="246"/>
+      <c r="X25" s="246"/>
+      <c r="Y25" s="246"/>
+      <c r="Z25" s="246"/>
+      <c r="AA25" s="246"/>
       <c r="AB25" s="5"/>
     </row>
     <row r="26" spans="1:28" s="6" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="245" t="str">
+      <c r="A26" s="247" t="str">
         <f>+Translation!A33</f>
         <v>Travel costs</v>
       </c>
-      <c r="B26" s="245"/>
-      <c r="C26" s="245"/>
-      <c r="D26" s="245"/>
-      <c r="E26" s="245"/>
-      <c r="F26" s="245"/>
-      <c r="G26" s="245"/>
-      <c r="H26" s="245"/>
-      <c r="I26" s="245"/>
-      <c r="J26" s="245"/>
-      <c r="K26" s="251">
+      <c r="B26" s="247"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="247"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="247"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="247"/>
+      <c r="K26" s="248">
         <f ca="1">+SUMIF('IV. Learning mobility-optional'!$E$12:$M$161,"PR",'IV. Learning mobility-optional'!$I$12:$I$161)</f>
-        <v>25850</v>
-      </c>
-      <c r="L26" s="251"/>
-      <c r="M26" s="251"/>
-      <c r="N26" s="251"/>
+        <v>25300</v>
+      </c>
+      <c r="L26" s="248"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="248"/>
       <c r="O26" s="31"/>
-      <c r="P26" s="251">
+      <c r="P26" s="248">
         <f ca="1">+SUMIF('IV. Learning mobility-optional'!$E$12:$M$161,"PA",'IV. Learning mobility-optional'!$I$12:$I$161)</f>
-        <v>4400</v>
-      </c>
-      <c r="Q26" s="251"/>
-      <c r="R26" s="251"/>
+        <v>4950</v>
+      </c>
+      <c r="Q26" s="248"/>
+      <c r="R26" s="248"/>
       <c r="S26" s="20"/>
-      <c r="T26" s="251">
+      <c r="T26" s="248">
         <f ca="1">+K26+P26</f>
         <v>30250</v>
       </c>
-      <c r="U26" s="251"/>
-      <c r="V26" s="251"/>
+      <c r="U26" s="248"/>
+      <c r="V26" s="248"/>
       <c r="W26" s="20"/>
-      <c r="X26" s="253" t="str">
+      <c r="X26" s="249" t="str">
         <f>+Translation!A36</f>
         <v>Warning messages</v>
       </c>
-      <c r="Y26" s="253"/>
-      <c r="Z26" s="253"/>
-      <c r="AA26" s="253"/>
+      <c r="Y26" s="249"/>
+      <c r="Z26" s="249"/>
+      <c r="AA26" s="249"/>
       <c r="AB26" s="5"/>
     </row>
     <row r="27" spans="1:28" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="245"/>
-      <c r="B27" s="245"/>
-      <c r="C27" s="245"/>
-      <c r="D27" s="245"/>
-      <c r="E27" s="245"/>
-      <c r="F27" s="245"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="245"/>
-      <c r="I27" s="245"/>
-      <c r="J27" s="245"/>
-      <c r="K27" s="251"/>
-      <c r="L27" s="251"/>
-      <c r="M27" s="251"/>
-      <c r="N27" s="251"/>
+      <c r="A27" s="247"/>
+      <c r="B27" s="247"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="247"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="247"/>
+      <c r="J27" s="247"/>
+      <c r="K27" s="248"/>
+      <c r="L27" s="248"/>
+      <c r="M27" s="248"/>
+      <c r="N27" s="248"/>
       <c r="O27" s="34"/>
-      <c r="P27" s="251"/>
-      <c r="Q27" s="251"/>
-      <c r="R27" s="251"/>
+      <c r="P27" s="248"/>
+      <c r="Q27" s="248"/>
+      <c r="R27" s="248"/>
       <c r="S27" s="34"/>
-      <c r="T27" s="251"/>
-      <c r="U27" s="251"/>
-      <c r="V27" s="251"/>
+      <c r="T27" s="248"/>
+      <c r="U27" s="248"/>
+      <c r="V27" s="248"/>
       <c r="W27" s="20"/>
-      <c r="X27" s="253"/>
-      <c r="Y27" s="253"/>
-      <c r="Z27" s="253"/>
-      <c r="AA27" s="253"/>
+      <c r="X27" s="249"/>
+      <c r="Y27" s="249"/>
+      <c r="Z27" s="249"/>
+      <c r="AA27" s="249"/>
       <c r="AB27" s="5"/>
     </row>
     <row r="28" spans="1:28" s="6" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="245" t="str">
+      <c r="A28" s="247" t="str">
         <f>+Translation!A34</f>
         <v>Subsistence costs</v>
       </c>
-      <c r="B28" s="245"/>
-      <c r="C28" s="245"/>
-      <c r="D28" s="245"/>
-      <c r="E28" s="245"/>
-      <c r="F28" s="245"/>
-      <c r="G28" s="245"/>
-      <c r="H28" s="245"/>
-      <c r="I28" s="245"/>
-      <c r="J28" s="245"/>
-      <c r="K28" s="246">
+      <c r="B28" s="247"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="247"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="247"/>
+      <c r="G28" s="247"/>
+      <c r="H28" s="247"/>
+      <c r="I28" s="247"/>
+      <c r="J28" s="247"/>
+      <c r="K28" s="250">
         <f ca="1">+SUMIF('IV. Learning mobility-optional'!$E$12:$M$161,"PR",'IV. Learning mobility-optional'!$M$12:$M$161)</f>
-        <v>28200</v>
-      </c>
-      <c r="L28" s="246"/>
-      <c r="M28" s="246"/>
-      <c r="N28" s="246"/>
+        <v>27600</v>
+      </c>
+      <c r="L28" s="250"/>
+      <c r="M28" s="250"/>
+      <c r="N28" s="250"/>
       <c r="O28" s="31"/>
-      <c r="P28" s="246">
+      <c r="P28" s="250">
         <f ca="1">+SUMIF('IV. Learning mobility-optional'!$E$12:$M$161,"PA",'IV. Learning mobility-optional'!$M$12:$M$161)</f>
-        <v>4800</v>
-      </c>
-      <c r="Q28" s="246"/>
-      <c r="R28" s="246"/>
+        <v>5400</v>
+      </c>
+      <c r="Q28" s="250"/>
+      <c r="R28" s="250"/>
       <c r="S28" s="31"/>
-      <c r="T28" s="246">
+      <c r="T28" s="250">
         <f ca="1">+K28+P28</f>
         <v>33000</v>
       </c>
-      <c r="U28" s="246"/>
-      <c r="V28" s="246"/>
+      <c r="U28" s="250"/>
+      <c r="V28" s="250"/>
       <c r="W28" s="20"/>
-      <c r="X28" s="247" t="str">
+      <c r="X28" s="251" t="str">
         <f ca="1">+IF(AND(K12=24,(K30+P30)&gt;700000),Translation!A37,IF(AND(K12=36,(K30+P30)&gt;1000000),Translation!A38,Translation!A39))</f>
         <v>OK</v>
       </c>
-      <c r="Y28" s="247"/>
-      <c r="Z28" s="247"/>
-      <c r="AA28" s="247"/>
+      <c r="Y28" s="251"/>
+      <c r="Z28" s="251"/>
+      <c r="AA28" s="251"/>
       <c r="AB28" s="5"/>
     </row>
     <row r="29" spans="1:28" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="245"/>
-      <c r="B29" s="245"/>
-      <c r="C29" s="245"/>
-      <c r="D29" s="245"/>
-      <c r="E29" s="245"/>
-      <c r="F29" s="245"/>
-      <c r="G29" s="245"/>
-      <c r="H29" s="245"/>
-      <c r="I29" s="245"/>
-      <c r="J29" s="245"/>
-      <c r="K29" s="246"/>
-      <c r="L29" s="246"/>
-      <c r="M29" s="246"/>
-      <c r="N29" s="246"/>
+      <c r="A29" s="247"/>
+      <c r="B29" s="247"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="247"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="247"/>
+      <c r="G29" s="247"/>
+      <c r="H29" s="247"/>
+      <c r="I29" s="247"/>
+      <c r="J29" s="247"/>
+      <c r="K29" s="250"/>
+      <c r="L29" s="250"/>
+      <c r="M29" s="250"/>
+      <c r="N29" s="250"/>
       <c r="O29" s="34"/>
-      <c r="P29" s="246"/>
-      <c r="Q29" s="246"/>
-      <c r="R29" s="246"/>
+      <c r="P29" s="250"/>
+      <c r="Q29" s="250"/>
+      <c r="R29" s="250"/>
       <c r="S29" s="34"/>
-      <c r="T29" s="246"/>
-      <c r="U29" s="246"/>
-      <c r="V29" s="246"/>
+      <c r="T29" s="250"/>
+      <c r="U29" s="250"/>
+      <c r="V29" s="250"/>
       <c r="W29" s="20"/>
-      <c r="X29" s="247"/>
-      <c r="Y29" s="247"/>
-      <c r="Z29" s="247"/>
-      <c r="AA29" s="247"/>
+      <c r="X29" s="251"/>
+      <c r="Y29" s="251"/>
+      <c r="Z29" s="251"/>
+      <c r="AA29" s="251"/>
       <c r="AB29" s="5"/>
     </row>
     <row r="30" spans="1:28" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="248" t="str">
+      <c r="A30" s="252" t="str">
         <f>+Translation!A35</f>
         <v>Total</v>
       </c>
-      <c r="B30" s="248"/>
-      <c r="C30" s="248"/>
-      <c r="D30" s="248"/>
-      <c r="E30" s="248"/>
-      <c r="F30" s="248"/>
-      <c r="G30" s="248"/>
-      <c r="H30" s="248"/>
-      <c r="I30" s="248"/>
-      <c r="J30" s="248"/>
-      <c r="K30" s="249">
+      <c r="B30" s="252"/>
+      <c r="C30" s="252"/>
+      <c r="D30" s="252"/>
+      <c r="E30" s="252"/>
+      <c r="F30" s="252"/>
+      <c r="G30" s="252"/>
+      <c r="H30" s="252"/>
+      <c r="I30" s="252"/>
+      <c r="J30" s="252"/>
+      <c r="K30" s="253">
         <f ca="1">SUM(K22:N29)</f>
-        <v>929760</v>
-      </c>
-      <c r="L30" s="249"/>
-      <c r="M30" s="249"/>
-      <c r="N30" s="249"/>
+        <v>928610</v>
+      </c>
+      <c r="L30" s="253"/>
+      <c r="M30" s="253"/>
+      <c r="N30" s="253"/>
       <c r="O30" s="24"/>
-      <c r="P30" s="249">
+      <c r="P30" s="253">
         <f ca="1">SUM(P22:R29)</f>
-        <v>69780</v>
-      </c>
-      <c r="Q30" s="249"/>
-      <c r="R30" s="249"/>
+        <v>70930</v>
+      </c>
+      <c r="Q30" s="253"/>
+      <c r="R30" s="253"/>
       <c r="S30" s="35"/>
-      <c r="T30" s="249">
+      <c r="T30" s="253">
         <f ca="1">+IF(AND(K12=24,SUM(K30+P30)&gt;700000),700000,IF(AND(K12=36,SUM(K30+P30)&gt;1000000),1000000,SUM(K30+P30)))</f>
         <v>999540</v>
       </c>
-      <c r="U30" s="249"/>
-      <c r="V30" s="249"/>
+      <c r="U30" s="253"/>
+      <c r="V30" s="253"/>
       <c r="W30" s="24"/>
-      <c r="X30" s="247"/>
-      <c r="Y30" s="247"/>
-      <c r="Z30" s="247"/>
-      <c r="AA30" s="247"/>
+      <c r="X30" s="251"/>
+      <c r="Y30" s="251"/>
+      <c r="Z30" s="251"/>
+      <c r="AA30" s="251"/>
       <c r="AB30" s="5"/>
     </row>
     <row r="31" spans="1:28" s="6" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6525,36 +6525,36 @@
       <c r="AB31" s="5"/>
     </row>
     <row r="32" spans="1:28" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="240" t="str">
+      <c r="A32" s="254" t="str">
         <f>+Translation!A40</f>
         <v>Part II - Distribution of grant by organisation</v>
       </c>
-      <c r="B32" s="240"/>
-      <c r="C32" s="240"/>
-      <c r="D32" s="240"/>
-      <c r="E32" s="240"/>
-      <c r="F32" s="240"/>
-      <c r="G32" s="240"/>
-      <c r="H32" s="240"/>
-      <c r="I32" s="240"/>
-      <c r="J32" s="240"/>
-      <c r="K32" s="240"/>
-      <c r="L32" s="240"/>
-      <c r="M32" s="240"/>
-      <c r="N32" s="240"/>
-      <c r="O32" s="240"/>
-      <c r="P32" s="240"/>
-      <c r="Q32" s="240"/>
-      <c r="R32" s="240"/>
-      <c r="S32" s="240"/>
-      <c r="T32" s="240"/>
-      <c r="U32" s="240"/>
-      <c r="V32" s="240"/>
-      <c r="W32" s="240"/>
-      <c r="X32" s="240"/>
-      <c r="Y32" s="240"/>
-      <c r="Z32" s="240"/>
-      <c r="AA32" s="240"/>
+      <c r="B32" s="254"/>
+      <c r="C32" s="254"/>
+      <c r="D32" s="254"/>
+      <c r="E32" s="254"/>
+      <c r="F32" s="254"/>
+      <c r="G32" s="254"/>
+      <c r="H32" s="254"/>
+      <c r="I32" s="254"/>
+      <c r="J32" s="254"/>
+      <c r="K32" s="254"/>
+      <c r="L32" s="254"/>
+      <c r="M32" s="254"/>
+      <c r="N32" s="254"/>
+      <c r="O32" s="254"/>
+      <c r="P32" s="254"/>
+      <c r="Q32" s="254"/>
+      <c r="R32" s="254"/>
+      <c r="S32" s="254"/>
+      <c r="T32" s="254"/>
+      <c r="U32" s="254"/>
+      <c r="V32" s="254"/>
+      <c r="W32" s="254"/>
+      <c r="X32" s="254"/>
+      <c r="Y32" s="254"/>
+      <c r="Z32" s="254"/>
+      <c r="AA32" s="254"/>
       <c r="AB32" s="5"/>
     </row>
     <row r="33" spans="1:28" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -6590,7 +6590,7 @@
     <row r="34" spans="1:28" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="37"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="241" t="str">
+      <c r="C34" s="255" t="str">
         <f>Translation!A110</f>
         <v>Partner (P)
 or
@@ -6600,81 +6600,81 @@
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="241" t="str">
+      <c r="H34" s="255" t="str">
         <f>Translation!A111</f>
         <v>Affiliated Entity Linked to the Partner</v>
       </c>
-      <c r="I34" s="241" t="str">
+      <c r="I34" s="255" t="str">
         <f>+Translation!A42</f>
         <v>Name</v>
       </c>
-      <c r="J34" s="241"/>
-      <c r="K34" s="242" t="str">
+      <c r="J34" s="255"/>
+      <c r="K34" s="256" t="str">
         <f>+Translation!A43</f>
         <v>Country</v>
       </c>
-      <c r="L34" s="242"/>
+      <c r="L34" s="256"/>
       <c r="M34" s="20"/>
-      <c r="N34" s="243" t="str">
+      <c r="N34" s="257" t="str">
         <f>+Translation!A44</f>
         <v>Project implementation support</v>
       </c>
-      <c r="O34" s="243"/>
-      <c r="P34" s="243"/>
+      <c r="O34" s="257"/>
+      <c r="P34" s="257"/>
       <c r="Q34" s="20"/>
-      <c r="R34" s="243" t="str">
+      <c r="R34" s="257" t="str">
         <f>+Translation!A45</f>
         <v>Learning mobility
 Travel costs</v>
       </c>
-      <c r="S34" s="243"/>
-      <c r="T34" s="243"/>
+      <c r="S34" s="257"/>
+      <c r="T34" s="257"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="243" t="str">
+      <c r="V34" s="257" t="str">
         <f>+Translation!A46</f>
         <v>Learning mobility
 Subsistence costs</v>
       </c>
-      <c r="W34" s="243"/>
-      <c r="X34" s="243"/>
+      <c r="W34" s="257"/>
+      <c r="X34" s="257"/>
       <c r="Y34" s="20"/>
-      <c r="Z34" s="244" t="str">
+      <c r="Z34" s="258" t="str">
         <f>+Translation!A47</f>
         <v>EU grant</v>
       </c>
-      <c r="AA34" s="244"/>
+      <c r="AA34" s="258"/>
       <c r="AB34" s="5"/>
     </row>
     <row r="35" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
-      <c r="C35" s="241"/>
+      <c r="C35" s="255"/>
       <c r="D35" s="41"/>
       <c r="E35" s="42"/>
       <c r="F35" s="34"/>
       <c r="G35" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="241"/>
-      <c r="I35" s="241"/>
-      <c r="J35" s="241"/>
-      <c r="K35" s="242"/>
-      <c r="L35" s="242"/>
+      <c r="H35" s="255"/>
+      <c r="I35" s="255"/>
+      <c r="J35" s="255"/>
+      <c r="K35" s="256"/>
+      <c r="L35" s="256"/>
       <c r="M35" s="34"/>
-      <c r="N35" s="243"/>
-      <c r="O35" s="243"/>
-      <c r="P35" s="243"/>
+      <c r="N35" s="257"/>
+      <c r="O35" s="257"/>
+      <c r="P35" s="257"/>
       <c r="Q35" s="34"/>
-      <c r="R35" s="243"/>
-      <c r="S35" s="243"/>
-      <c r="T35" s="243"/>
+      <c r="R35" s="257"/>
+      <c r="S35" s="257"/>
+      <c r="T35" s="257"/>
       <c r="U35" s="34"/>
-      <c r="V35" s="243"/>
-      <c r="W35" s="243"/>
-      <c r="X35" s="243"/>
+      <c r="V35" s="257"/>
+      <c r="W35" s="257"/>
+      <c r="X35" s="257"/>
       <c r="Y35" s="34"/>
-      <c r="Z35" s="244"/>
-      <c r="AA35" s="244"/>
+      <c r="Z35" s="258"/>
+      <c r="AA35" s="258"/>
       <c r="AB35" s="34"/>
     </row>
     <row r="36" spans="1:28" ht="16.5" x14ac:dyDescent="0.3">
@@ -6704,41 +6704,41 @@
         <v>P1</v>
       </c>
       <c r="H36" s="49"/>
-      <c r="I36" s="239" t="s">
+      <c r="I36" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="239"/>
-      <c r="K36" s="236" t="s">
+      <c r="J36" s="259"/>
+      <c r="K36" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="L36" s="236"/>
+      <c r="L36" s="260"/>
       <c r="M36" s="34"/>
-      <c r="N36" s="237">
+      <c r="N36" s="261">
         <f>IF(LEFT(E36,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E36,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v>201762</v>
       </c>
-      <c r="O36" s="237"/>
-      <c r="P36" s="237"/>
+      <c r="O36" s="261"/>
+      <c r="P36" s="261"/>
       <c r="Q36" s="34"/>
-      <c r="R36" s="237">
+      <c r="R36" s="261">
         <f>IF(LEFT(E36,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E36,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v>3300</v>
       </c>
-      <c r="S36" s="237"/>
-      <c r="T36" s="237"/>
+      <c r="S36" s="261"/>
+      <c r="T36" s="261"/>
       <c r="U36" s="34"/>
-      <c r="V36" s="237">
+      <c r="V36" s="261">
         <f>IF(LEFT(E36,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E36,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v>3600</v>
       </c>
-      <c r="W36" s="237"/>
-      <c r="X36" s="237"/>
+      <c r="W36" s="261"/>
+      <c r="X36" s="261"/>
       <c r="Y36" s="34"/>
-      <c r="Z36" s="238">
+      <c r="Z36" s="262">
         <f t="shared" ref="Z36:Z75" si="3">IFERROR((V36+R36+N36),"")</f>
         <v>208662</v>
       </c>
-      <c r="AA36" s="238"/>
+      <c r="AA36" s="262"/>
       <c r="AB36" s="34"/>
     </row>
     <row r="37" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6768,41 +6768,41 @@
         <v>P2</v>
       </c>
       <c r="H37" s="49"/>
-      <c r="I37" s="239" t="s">
+      <c r="I37" s="259" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="239"/>
-      <c r="K37" s="236" t="s">
+      <c r="J37" s="259"/>
+      <c r="K37" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="L37" s="236"/>
+      <c r="L37" s="260"/>
       <c r="M37" s="34"/>
-      <c r="N37" s="237">
+      <c r="N37" s="261">
         <f>IF(LEFT(E37,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E37,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v>168804</v>
       </c>
-      <c r="O37" s="237"/>
-      <c r="P37" s="237"/>
+      <c r="O37" s="261"/>
+      <c r="P37" s="261"/>
       <c r="Q37" s="34"/>
-      <c r="R37" s="237">
+      <c r="R37" s="261">
         <f>IF(LEFT(E37,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E37,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v>3300</v>
       </c>
-      <c r="S37" s="237"/>
-      <c r="T37" s="237"/>
+      <c r="S37" s="261"/>
+      <c r="T37" s="261"/>
       <c r="U37" s="34"/>
-      <c r="V37" s="237">
+      <c r="V37" s="261">
         <f>IF(LEFT(E37,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E37,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v>3600</v>
       </c>
-      <c r="W37" s="237"/>
-      <c r="X37" s="237"/>
+      <c r="W37" s="261"/>
+      <c r="X37" s="261"/>
       <c r="Y37" s="34"/>
-      <c r="Z37" s="238">
+      <c r="Z37" s="262">
         <f t="shared" si="3"/>
         <v>175704</v>
       </c>
-      <c r="AA37" s="238"/>
+      <c r="AA37" s="262"/>
       <c r="AB37" s="34"/>
     </row>
     <row r="38" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6832,41 +6832,41 @@
         <v>P3</v>
       </c>
       <c r="H38" s="49"/>
-      <c r="I38" s="239" t="s">
+      <c r="I38" s="259" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="239"/>
-      <c r="K38" s="236" t="s">
+      <c r="J38" s="259"/>
+      <c r="K38" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="L38" s="236"/>
+      <c r="L38" s="260"/>
       <c r="M38" s="34"/>
-      <c r="N38" s="237">
+      <c r="N38" s="261">
         <f>IF(LEFT(E38,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E38,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v>128542</v>
       </c>
-      <c r="O38" s="237"/>
-      <c r="P38" s="237"/>
+      <c r="O38" s="261"/>
+      <c r="P38" s="261"/>
       <c r="Q38" s="34"/>
-      <c r="R38" s="237">
+      <c r="R38" s="261">
         <f>IF(LEFT(E38,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E38,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v>3300</v>
       </c>
-      <c r="S38" s="237"/>
-      <c r="T38" s="237"/>
+      <c r="S38" s="261"/>
+      <c r="T38" s="261"/>
       <c r="U38" s="34"/>
-      <c r="V38" s="237">
+      <c r="V38" s="261">
         <f>IF(LEFT(E38,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E38,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v>3600</v>
       </c>
-      <c r="W38" s="237"/>
-      <c r="X38" s="237"/>
+      <c r="W38" s="261"/>
+      <c r="X38" s="261"/>
       <c r="Y38" s="34"/>
-      <c r="Z38" s="238">
+      <c r="Z38" s="262">
         <f t="shared" si="3"/>
         <v>135442</v>
       </c>
-      <c r="AA38" s="238"/>
+      <c r="AA38" s="262"/>
       <c r="AB38" s="34"/>
     </row>
     <row r="39" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6896,41 +6896,41 @@
         <v>P4</v>
       </c>
       <c r="H39" s="49"/>
-      <c r="I39" s="239" t="s">
+      <c r="I39" s="259" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="239"/>
-      <c r="K39" s="236" t="s">
+      <c r="J39" s="259"/>
+      <c r="K39" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="236"/>
+      <c r="L39" s="260"/>
       <c r="M39" s="34"/>
-      <c r="N39" s="237">
+      <c r="N39" s="261">
         <f>IF(LEFT(E39,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E39,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v>49528</v>
       </c>
-      <c r="O39" s="237"/>
-      <c r="P39" s="237"/>
+      <c r="O39" s="261"/>
+      <c r="P39" s="261"/>
       <c r="Q39" s="34"/>
-      <c r="R39" s="237">
+      <c r="R39" s="261">
         <f>IF(LEFT(E39,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E39,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v>4400</v>
-      </c>
-      <c r="S39" s="237"/>
-      <c r="T39" s="237"/>
+        <v>4125</v>
+      </c>
+      <c r="S39" s="261"/>
+      <c r="T39" s="261"/>
       <c r="U39" s="34"/>
-      <c r="V39" s="237">
+      <c r="V39" s="261">
         <f>IF(LEFT(E39,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E39,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v>4800</v>
-      </c>
-      <c r="W39" s="237"/>
-      <c r="X39" s="237"/>
+        <v>4500</v>
+      </c>
+      <c r="W39" s="261"/>
+      <c r="X39" s="261"/>
       <c r="Y39" s="34"/>
-      <c r="Z39" s="238">
+      <c r="Z39" s="262">
         <f t="shared" si="3"/>
-        <v>58728</v>
-      </c>
-      <c r="AA39" s="238"/>
+        <v>58153</v>
+      </c>
+      <c r="AA39" s="262"/>
       <c r="AB39" s="34"/>
     </row>
     <row r="40" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6960,41 +6960,41 @@
         <v>P5</v>
       </c>
       <c r="H40" s="49"/>
-      <c r="I40" s="239" t="s">
+      <c r="I40" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="239"/>
-      <c r="K40" s="236" t="s">
+      <c r="J40" s="259"/>
+      <c r="K40" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="L40" s="236"/>
+      <c r="L40" s="260"/>
       <c r="M40" s="34"/>
-      <c r="N40" s="237">
+      <c r="N40" s="261">
         <f>IF(LEFT(E40,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E40,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v>138859</v>
       </c>
-      <c r="O40" s="237"/>
-      <c r="P40" s="237"/>
+      <c r="O40" s="261"/>
+      <c r="P40" s="261"/>
       <c r="Q40" s="34"/>
-      <c r="R40" s="237">
+      <c r="R40" s="261">
         <f>IF(LEFT(E40,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E40,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v>3300</v>
       </c>
-      <c r="S40" s="237"/>
-      <c r="T40" s="237"/>
+      <c r="S40" s="261"/>
+      <c r="T40" s="261"/>
       <c r="U40" s="34"/>
-      <c r="V40" s="237">
+      <c r="V40" s="261">
         <f>IF(LEFT(E40,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E40,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v>3600</v>
       </c>
-      <c r="W40" s="237"/>
-      <c r="X40" s="237"/>
+      <c r="W40" s="261"/>
+      <c r="X40" s="261"/>
       <c r="Y40" s="34"/>
-      <c r="Z40" s="238">
+      <c r="Z40" s="262">
         <f t="shared" si="3"/>
         <v>145759</v>
       </c>
-      <c r="AA40" s="238"/>
+      <c r="AA40" s="262"/>
       <c r="AB40" s="34"/>
     </row>
     <row r="41" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7024,41 +7024,41 @@
         <v>P6</v>
       </c>
       <c r="H41" s="49"/>
-      <c r="I41" s="239" t="s">
+      <c r="I41" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="239"/>
-      <c r="K41" s="236" t="s">
+      <c r="J41" s="259"/>
+      <c r="K41" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="L41" s="236"/>
+      <c r="L41" s="260"/>
       <c r="M41" s="34"/>
-      <c r="N41" s="237">
+      <c r="N41" s="261">
         <f>IF(LEFT(E41,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E41,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v>22173</v>
       </c>
-      <c r="O41" s="237"/>
-      <c r="P41" s="237"/>
+      <c r="O41" s="261"/>
+      <c r="P41" s="261"/>
       <c r="Q41" s="34"/>
-      <c r="R41" s="237">
+      <c r="R41" s="261">
         <f>IF(LEFT(E41,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E41,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v>1100</v>
       </c>
-      <c r="S41" s="237"/>
-      <c r="T41" s="237"/>
+      <c r="S41" s="261"/>
+      <c r="T41" s="261"/>
       <c r="U41" s="34"/>
-      <c r="V41" s="237">
+      <c r="V41" s="261">
         <f>IF(LEFT(E41,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E41,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v>1200</v>
       </c>
-      <c r="W41" s="237"/>
-      <c r="X41" s="237"/>
+      <c r="W41" s="261"/>
+      <c r="X41" s="261"/>
       <c r="Y41" s="34"/>
-      <c r="Z41" s="238">
+      <c r="Z41" s="262">
         <f t="shared" si="3"/>
         <v>24473</v>
       </c>
-      <c r="AA41" s="238"/>
+      <c r="AA41" s="262"/>
       <c r="AB41" s="34"/>
     </row>
     <row r="42" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7088,41 +7088,41 @@
         <v>P7</v>
       </c>
       <c r="H42" s="49"/>
-      <c r="I42" s="239" t="s">
+      <c r="I42" s="259" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="239"/>
-      <c r="K42" s="236" t="s">
+      <c r="J42" s="259"/>
+      <c r="K42" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="236"/>
+      <c r="L42" s="260"/>
       <c r="M42" s="34"/>
-      <c r="N42" s="237">
+      <c r="N42" s="261">
         <f>IF(LEFT(E42,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E42,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v>23644</v>
       </c>
-      <c r="O42" s="237"/>
-      <c r="P42" s="237"/>
+      <c r="O42" s="261"/>
+      <c r="P42" s="261"/>
       <c r="Q42" s="34"/>
-      <c r="R42" s="237">
+      <c r="R42" s="261">
         <f>IF(LEFT(E42,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E42,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v>1650</v>
-      </c>
-      <c r="S42" s="237"/>
-      <c r="T42" s="237"/>
+        <v>1375</v>
+      </c>
+      <c r="S42" s="261"/>
+      <c r="T42" s="261"/>
       <c r="U42" s="34"/>
-      <c r="V42" s="237">
+      <c r="V42" s="261">
         <f>IF(LEFT(E42,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E42,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v>1800</v>
-      </c>
-      <c r="W42" s="237"/>
-      <c r="X42" s="237"/>
+        <v>1500</v>
+      </c>
+      <c r="W42" s="261"/>
+      <c r="X42" s="261"/>
       <c r="Y42" s="34"/>
-      <c r="Z42" s="238">
+      <c r="Z42" s="262">
         <f t="shared" si="3"/>
-        <v>27094</v>
-      </c>
-      <c r="AA42" s="238"/>
+        <v>26519</v>
+      </c>
+      <c r="AA42" s="262"/>
       <c r="AB42" s="34"/>
     </row>
     <row r="43" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7152,41 +7152,41 @@
         <v>P8</v>
       </c>
       <c r="H43" s="49"/>
-      <c r="I43" s="239" t="s">
+      <c r="I43" s="259" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="239"/>
-      <c r="K43" s="236" t="s">
+      <c r="J43" s="259"/>
+      <c r="K43" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="L43" s="236"/>
+      <c r="L43" s="260"/>
       <c r="M43" s="34"/>
-      <c r="N43" s="237">
+      <c r="N43" s="261">
         <f>IF(LEFT(E43,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E43,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v>23644</v>
       </c>
-      <c r="O43" s="237"/>
-      <c r="P43" s="237"/>
+      <c r="O43" s="261"/>
+      <c r="P43" s="261"/>
       <c r="Q43" s="34"/>
-      <c r="R43" s="237">
+      <c r="R43" s="261">
         <f>IF(LEFT(E43,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E43,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v>1650</v>
-      </c>
-      <c r="S43" s="237"/>
-      <c r="T43" s="237"/>
+        <v>1375</v>
+      </c>
+      <c r="S43" s="261"/>
+      <c r="T43" s="261"/>
       <c r="U43" s="34"/>
-      <c r="V43" s="237">
+      <c r="V43" s="261">
         <f>IF(LEFT(E43,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E43,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v>1800</v>
-      </c>
-      <c r="W43" s="237"/>
-      <c r="X43" s="237"/>
+        <v>1500</v>
+      </c>
+      <c r="W43" s="261"/>
+      <c r="X43" s="261"/>
       <c r="Y43" s="34"/>
-      <c r="Z43" s="238">
+      <c r="Z43" s="262">
         <f t="shared" si="3"/>
-        <v>27094</v>
-      </c>
-      <c r="AA43" s="238"/>
+        <v>26519</v>
+      </c>
+      <c r="AA43" s="262"/>
       <c r="AB43" s="34"/>
     </row>
     <row r="44" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7216,41 +7216,41 @@
         <v>P9</v>
       </c>
       <c r="H44" s="49"/>
-      <c r="I44" s="235" t="s">
+      <c r="I44" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="235"/>
-      <c r="K44" s="236" t="s">
+      <c r="J44" s="263"/>
+      <c r="K44" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="L44" s="236"/>
+      <c r="L44" s="260"/>
       <c r="M44" s="34"/>
-      <c r="N44" s="237">
+      <c r="N44" s="261">
         <f>IF(LEFT(E44,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E44,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v>118754</v>
       </c>
-      <c r="O44" s="237"/>
-      <c r="P44" s="237"/>
+      <c r="O44" s="261"/>
+      <c r="P44" s="261"/>
       <c r="Q44" s="34"/>
-      <c r="R44" s="237">
+      <c r="R44" s="261">
         <f>IF(LEFT(E44,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E44,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v>3850</v>
-      </c>
-      <c r="S44" s="237"/>
-      <c r="T44" s="237"/>
+        <v>4125</v>
+      </c>
+      <c r="S44" s="261"/>
+      <c r="T44" s="261"/>
       <c r="U44" s="34"/>
-      <c r="V44" s="237">
+      <c r="V44" s="261">
         <f>IF(LEFT(E44,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E44,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v>4200</v>
-      </c>
-      <c r="W44" s="237"/>
-      <c r="X44" s="237"/>
+        <v>4500</v>
+      </c>
+      <c r="W44" s="261"/>
+      <c r="X44" s="261"/>
       <c r="Y44" s="34"/>
-      <c r="Z44" s="238">
+      <c r="Z44" s="262">
         <f t="shared" si="3"/>
-        <v>126804</v>
-      </c>
-      <c r="AA44" s="238"/>
+        <v>127379</v>
+      </c>
+      <c r="AA44" s="262"/>
       <c r="AB44" s="34"/>
     </row>
     <row r="45" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7280,41 +7280,41 @@
         <v>P10</v>
       </c>
       <c r="H45" s="49"/>
-      <c r="I45" s="235" t="s">
+      <c r="I45" s="263" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="235"/>
-      <c r="K45" s="236" t="s">
+      <c r="J45" s="263"/>
+      <c r="K45" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="L45" s="236"/>
+      <c r="L45" s="260"/>
       <c r="M45" s="34"/>
-      <c r="N45" s="237">
+      <c r="N45" s="261">
         <f>IF(LEFT(E45,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E45,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v>60580</v>
       </c>
-      <c r="O45" s="237"/>
-      <c r="P45" s="237"/>
+      <c r="O45" s="261"/>
+      <c r="P45" s="261"/>
       <c r="Q45" s="34"/>
-      <c r="R45" s="237">
+      <c r="R45" s="261">
         <f>IF(LEFT(E45,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E45,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
-        <v>4400</v>
-      </c>
-      <c r="S45" s="237"/>
-      <c r="T45" s="237"/>
+        <v>4950</v>
+      </c>
+      <c r="S45" s="261"/>
+      <c r="T45" s="261"/>
       <c r="U45" s="34"/>
-      <c r="V45" s="237">
+      <c r="V45" s="261">
         <f>IF(LEFT(E45,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E45,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
-        <v>4800</v>
-      </c>
-      <c r="W45" s="237"/>
-      <c r="X45" s="237"/>
+        <v>5400</v>
+      </c>
+      <c r="W45" s="261"/>
+      <c r="X45" s="261"/>
       <c r="Y45" s="34"/>
-      <c r="Z45" s="238">
+      <c r="Z45" s="262">
         <f t="shared" si="3"/>
-        <v>69780</v>
-      </c>
-      <c r="AA45" s="238"/>
+        <v>70930</v>
+      </c>
+      <c r="AA45" s="262"/>
       <c r="AB45" s="34"/>
     </row>
     <row r="46" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7342,37 +7342,37 @@
         <v/>
       </c>
       <c r="H46" s="49"/>
-      <c r="I46" s="235"/>
-      <c r="J46" s="235"/>
-      <c r="K46" s="236"/>
-      <c r="L46" s="236"/>
+      <c r="I46" s="263"/>
+      <c r="J46" s="263"/>
+      <c r="K46" s="260"/>
+      <c r="L46" s="260"/>
       <c r="M46" s="34"/>
-      <c r="N46" s="237" t="str">
+      <c r="N46" s="261" t="str">
         <f>IF(LEFT(E46,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E46,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O46" s="237"/>
-      <c r="P46" s="237"/>
+      <c r="O46" s="261"/>
+      <c r="P46" s="261"/>
       <c r="Q46" s="34"/>
-      <c r="R46" s="237" t="str">
+      <c r="R46" s="261" t="str">
         <f>IF(LEFT(E46,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E46,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S46" s="237"/>
-      <c r="T46" s="237"/>
+      <c r="S46" s="261"/>
+      <c r="T46" s="261"/>
       <c r="U46" s="34"/>
-      <c r="V46" s="237" t="str">
+      <c r="V46" s="261" t="str">
         <f>IF(LEFT(E46,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E46,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W46" s="237"/>
-      <c r="X46" s="237"/>
+      <c r="W46" s="261"/>
+      <c r="X46" s="261"/>
       <c r="Y46" s="34"/>
-      <c r="Z46" s="238" t="str">
+      <c r="Z46" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA46" s="238"/>
+      <c r="AA46" s="262"/>
       <c r="AB46" s="34"/>
     </row>
     <row r="47" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7400,37 +7400,37 @@
         <v/>
       </c>
       <c r="H47" s="49"/>
-      <c r="I47" s="235"/>
-      <c r="J47" s="235"/>
-      <c r="K47" s="236"/>
-      <c r="L47" s="236"/>
+      <c r="I47" s="263"/>
+      <c r="J47" s="263"/>
+      <c r="K47" s="260"/>
+      <c r="L47" s="260"/>
       <c r="M47" s="34"/>
-      <c r="N47" s="237" t="str">
+      <c r="N47" s="261" t="str">
         <f>IF(LEFT(E47,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E47,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O47" s="237"/>
-      <c r="P47" s="237"/>
+      <c r="O47" s="261"/>
+      <c r="P47" s="261"/>
       <c r="Q47" s="34"/>
-      <c r="R47" s="237" t="str">
+      <c r="R47" s="261" t="str">
         <f>IF(LEFT(E47,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E47,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S47" s="237"/>
-      <c r="T47" s="237"/>
+      <c r="S47" s="261"/>
+      <c r="T47" s="261"/>
       <c r="U47" s="34"/>
-      <c r="V47" s="237" t="str">
+      <c r="V47" s="261" t="str">
         <f>IF(LEFT(E47,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E47,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W47" s="237"/>
-      <c r="X47" s="237"/>
+      <c r="W47" s="261"/>
+      <c r="X47" s="261"/>
       <c r="Y47" s="34"/>
-      <c r="Z47" s="238" t="str">
+      <c r="Z47" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA47" s="238"/>
+      <c r="AA47" s="262"/>
       <c r="AB47" s="34"/>
     </row>
     <row r="48" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7458,37 +7458,37 @@
         <v/>
       </c>
       <c r="H48" s="49"/>
-      <c r="I48" s="235"/>
-      <c r="J48" s="235"/>
-      <c r="K48" s="236"/>
-      <c r="L48" s="236"/>
+      <c r="I48" s="263"/>
+      <c r="J48" s="263"/>
+      <c r="K48" s="260"/>
+      <c r="L48" s="260"/>
       <c r="M48" s="34"/>
-      <c r="N48" s="237" t="str">
+      <c r="N48" s="261" t="str">
         <f>IF(LEFT(E48,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E48,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O48" s="237"/>
-      <c r="P48" s="237"/>
+      <c r="O48" s="261"/>
+      <c r="P48" s="261"/>
       <c r="Q48" s="34"/>
-      <c r="R48" s="237" t="str">
+      <c r="R48" s="261" t="str">
         <f>IF(LEFT(E48,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E48,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S48" s="237"/>
-      <c r="T48" s="237"/>
+      <c r="S48" s="261"/>
+      <c r="T48" s="261"/>
       <c r="U48" s="34"/>
-      <c r="V48" s="237" t="str">
+      <c r="V48" s="261" t="str">
         <f>IF(LEFT(E48,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E48,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W48" s="237"/>
-      <c r="X48" s="237"/>
+      <c r="W48" s="261"/>
+      <c r="X48" s="261"/>
       <c r="Y48" s="34"/>
-      <c r="Z48" s="238" t="str">
+      <c r="Z48" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA48" s="238"/>
+      <c r="AA48" s="262"/>
       <c r="AB48" s="34"/>
     </row>
     <row r="49" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7516,37 +7516,37 @@
         <v/>
       </c>
       <c r="H49" s="49"/>
-      <c r="I49" s="235"/>
-      <c r="J49" s="235"/>
-      <c r="K49" s="236"/>
-      <c r="L49" s="236"/>
+      <c r="I49" s="263"/>
+      <c r="J49" s="263"/>
+      <c r="K49" s="260"/>
+      <c r="L49" s="260"/>
       <c r="M49" s="34"/>
-      <c r="N49" s="237" t="str">
+      <c r="N49" s="261" t="str">
         <f>IF(LEFT(E49,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E49,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O49" s="237"/>
-      <c r="P49" s="237"/>
+      <c r="O49" s="261"/>
+      <c r="P49" s="261"/>
       <c r="Q49" s="34"/>
-      <c r="R49" s="237" t="str">
+      <c r="R49" s="261" t="str">
         <f>IF(LEFT(E49,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E49,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S49" s="237"/>
-      <c r="T49" s="237"/>
+      <c r="S49" s="261"/>
+      <c r="T49" s="261"/>
       <c r="U49" s="34"/>
-      <c r="V49" s="237" t="str">
+      <c r="V49" s="261" t="str">
         <f>IF(LEFT(E49,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E49,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W49" s="237"/>
-      <c r="X49" s="237"/>
+      <c r="W49" s="261"/>
+      <c r="X49" s="261"/>
       <c r="Y49" s="34"/>
-      <c r="Z49" s="238" t="str">
+      <c r="Z49" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA49" s="238"/>
+      <c r="AA49" s="262"/>
       <c r="AB49" s="34"/>
     </row>
     <row r="50" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7574,37 +7574,37 @@
         <v/>
       </c>
       <c r="H50" s="49"/>
-      <c r="I50" s="235"/>
-      <c r="J50" s="235"/>
-      <c r="K50" s="236"/>
-      <c r="L50" s="236"/>
+      <c r="I50" s="263"/>
+      <c r="J50" s="263"/>
+      <c r="K50" s="260"/>
+      <c r="L50" s="260"/>
       <c r="M50" s="34"/>
-      <c r="N50" s="237" t="str">
+      <c r="N50" s="261" t="str">
         <f>IF(LEFT(E50,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E50,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O50" s="237"/>
-      <c r="P50" s="237"/>
+      <c r="O50" s="261"/>
+      <c r="P50" s="261"/>
       <c r="Q50" s="34"/>
-      <c r="R50" s="237" t="str">
+      <c r="R50" s="261" t="str">
         <f>IF(LEFT(E50,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E50,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S50" s="237"/>
-      <c r="T50" s="237"/>
+      <c r="S50" s="261"/>
+      <c r="T50" s="261"/>
       <c r="U50" s="34"/>
-      <c r="V50" s="237" t="str">
+      <c r="V50" s="261" t="str">
         <f>IF(LEFT(E50,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E50,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W50" s="237"/>
-      <c r="X50" s="237"/>
+      <c r="W50" s="261"/>
+      <c r="X50" s="261"/>
       <c r="Y50" s="34"/>
-      <c r="Z50" s="238" t="str">
+      <c r="Z50" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA50" s="238"/>
+      <c r="AA50" s="262"/>
       <c r="AB50" s="34"/>
     </row>
     <row r="51" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7632,37 +7632,37 @@
         <v/>
       </c>
       <c r="H51" s="49"/>
-      <c r="I51" s="235"/>
-      <c r="J51" s="235"/>
-      <c r="K51" s="236"/>
-      <c r="L51" s="236"/>
+      <c r="I51" s="263"/>
+      <c r="J51" s="263"/>
+      <c r="K51" s="260"/>
+      <c r="L51" s="260"/>
       <c r="M51" s="34"/>
-      <c r="N51" s="237" t="str">
+      <c r="N51" s="261" t="str">
         <f>IF(LEFT(E51,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E51,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O51" s="237"/>
-      <c r="P51" s="237"/>
+      <c r="O51" s="261"/>
+      <c r="P51" s="261"/>
       <c r="Q51" s="34"/>
-      <c r="R51" s="237" t="str">
+      <c r="R51" s="261" t="str">
         <f>IF(LEFT(E51,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E51,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S51" s="237"/>
-      <c r="T51" s="237"/>
+      <c r="S51" s="261"/>
+      <c r="T51" s="261"/>
       <c r="U51" s="34"/>
-      <c r="V51" s="237" t="str">
+      <c r="V51" s="261" t="str">
         <f>IF(LEFT(E51,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E51,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W51" s="237"/>
-      <c r="X51" s="237"/>
+      <c r="W51" s="261"/>
+      <c r="X51" s="261"/>
       <c r="Y51" s="34"/>
-      <c r="Z51" s="238" t="str">
+      <c r="Z51" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA51" s="238"/>
+      <c r="AA51" s="262"/>
       <c r="AB51" s="34"/>
     </row>
     <row r="52" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7690,37 +7690,37 @@
         <v/>
       </c>
       <c r="H52" s="49"/>
-      <c r="I52" s="235"/>
-      <c r="J52" s="235"/>
-      <c r="K52" s="236"/>
-      <c r="L52" s="236"/>
+      <c r="I52" s="263"/>
+      <c r="J52" s="263"/>
+      <c r="K52" s="260"/>
+      <c r="L52" s="260"/>
       <c r="M52" s="34"/>
-      <c r="N52" s="237" t="str">
+      <c r="N52" s="261" t="str">
         <f>IF(LEFT(E52,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E52,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O52" s="237"/>
-      <c r="P52" s="237"/>
+      <c r="O52" s="261"/>
+      <c r="P52" s="261"/>
       <c r="Q52" s="34"/>
-      <c r="R52" s="237" t="str">
+      <c r="R52" s="261" t="str">
         <f>IF(LEFT(E52,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E52,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S52" s="237"/>
-      <c r="T52" s="237"/>
+      <c r="S52" s="261"/>
+      <c r="T52" s="261"/>
       <c r="U52" s="34"/>
-      <c r="V52" s="237" t="str">
+      <c r="V52" s="261" t="str">
         <f>IF(LEFT(E52,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E52,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W52" s="237"/>
-      <c r="X52" s="237"/>
+      <c r="W52" s="261"/>
+      <c r="X52" s="261"/>
       <c r="Y52" s="34"/>
-      <c r="Z52" s="238" t="str">
+      <c r="Z52" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA52" s="238"/>
+      <c r="AA52" s="262"/>
       <c r="AB52" s="34"/>
     </row>
     <row r="53" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7748,37 +7748,37 @@
         <v/>
       </c>
       <c r="H53" s="49"/>
-      <c r="I53" s="235"/>
-      <c r="J53" s="235"/>
-      <c r="K53" s="236"/>
-      <c r="L53" s="236"/>
+      <c r="I53" s="263"/>
+      <c r="J53" s="263"/>
+      <c r="K53" s="260"/>
+      <c r="L53" s="260"/>
       <c r="M53" s="34"/>
-      <c r="N53" s="237" t="str">
+      <c r="N53" s="261" t="str">
         <f>IF(LEFT(E53,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E53,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O53" s="237"/>
-      <c r="P53" s="237"/>
+      <c r="O53" s="261"/>
+      <c r="P53" s="261"/>
       <c r="Q53" s="34"/>
-      <c r="R53" s="237" t="str">
+      <c r="R53" s="261" t="str">
         <f>IF(LEFT(E53,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E53,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S53" s="237"/>
-      <c r="T53" s="237"/>
+      <c r="S53" s="261"/>
+      <c r="T53" s="261"/>
       <c r="U53" s="34"/>
-      <c r="V53" s="237" t="str">
+      <c r="V53" s="261" t="str">
         <f>IF(LEFT(E53,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E53,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W53" s="237"/>
-      <c r="X53" s="237"/>
+      <c r="W53" s="261"/>
+      <c r="X53" s="261"/>
       <c r="Y53" s="34"/>
-      <c r="Z53" s="238" t="str">
+      <c r="Z53" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA53" s="238"/>
+      <c r="AA53" s="262"/>
       <c r="AB53" s="34"/>
     </row>
     <row r="54" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7806,37 +7806,37 @@
         <v/>
       </c>
       <c r="H54" s="49"/>
-      <c r="I54" s="235"/>
-      <c r="J54" s="235"/>
-      <c r="K54" s="236"/>
-      <c r="L54" s="236"/>
+      <c r="I54" s="263"/>
+      <c r="J54" s="263"/>
+      <c r="K54" s="260"/>
+      <c r="L54" s="260"/>
       <c r="M54" s="34"/>
-      <c r="N54" s="237" t="str">
+      <c r="N54" s="261" t="str">
         <f>IF(LEFT(E54,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E54,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O54" s="237"/>
-      <c r="P54" s="237"/>
+      <c r="O54" s="261"/>
+      <c r="P54" s="261"/>
       <c r="Q54" s="34"/>
-      <c r="R54" s="237" t="str">
+      <c r="R54" s="261" t="str">
         <f>IF(LEFT(E54,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E54,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S54" s="237"/>
-      <c r="T54" s="237"/>
+      <c r="S54" s="261"/>
+      <c r="T54" s="261"/>
       <c r="U54" s="34"/>
-      <c r="V54" s="237" t="str">
+      <c r="V54" s="261" t="str">
         <f>IF(LEFT(E54,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E54,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W54" s="237"/>
-      <c r="X54" s="237"/>
+      <c r="W54" s="261"/>
+      <c r="X54" s="261"/>
       <c r="Y54" s="34"/>
-      <c r="Z54" s="238" t="str">
+      <c r="Z54" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA54" s="238"/>
+      <c r="AA54" s="262"/>
       <c r="AB54" s="34"/>
     </row>
     <row r="55" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7864,37 +7864,37 @@
         <v/>
       </c>
       <c r="H55" s="49"/>
-      <c r="I55" s="235"/>
-      <c r="J55" s="235"/>
-      <c r="K55" s="236"/>
-      <c r="L55" s="236"/>
+      <c r="I55" s="263"/>
+      <c r="J55" s="263"/>
+      <c r="K55" s="260"/>
+      <c r="L55" s="260"/>
       <c r="M55" s="34"/>
-      <c r="N55" s="237" t="str">
+      <c r="N55" s="261" t="str">
         <f>IF(LEFT(E55,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E55,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O55" s="237"/>
-      <c r="P55" s="237"/>
+      <c r="O55" s="261"/>
+      <c r="P55" s="261"/>
       <c r="Q55" s="34"/>
-      <c r="R55" s="237" t="str">
+      <c r="R55" s="261" t="str">
         <f>IF(LEFT(E55,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E55,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S55" s="237"/>
-      <c r="T55" s="237"/>
+      <c r="S55" s="261"/>
+      <c r="T55" s="261"/>
       <c r="U55" s="34"/>
-      <c r="V55" s="237" t="str">
+      <c r="V55" s="261" t="str">
         <f>IF(LEFT(E55,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E55,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W55" s="237"/>
-      <c r="X55" s="237"/>
+      <c r="W55" s="261"/>
+      <c r="X55" s="261"/>
       <c r="Y55" s="34"/>
-      <c r="Z55" s="238" t="str">
+      <c r="Z55" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA55" s="238"/>
+      <c r="AA55" s="262"/>
       <c r="AB55" s="34"/>
     </row>
     <row r="56" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7922,37 +7922,37 @@
         <v/>
       </c>
       <c r="H56" s="49"/>
-      <c r="I56" s="235"/>
-      <c r="J56" s="235"/>
-      <c r="K56" s="236"/>
-      <c r="L56" s="236"/>
+      <c r="I56" s="263"/>
+      <c r="J56" s="263"/>
+      <c r="K56" s="260"/>
+      <c r="L56" s="260"/>
       <c r="M56" s="34"/>
-      <c r="N56" s="237" t="str">
+      <c r="N56" s="261" t="str">
         <f>IF(LEFT(E56,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E56,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O56" s="237"/>
-      <c r="P56" s="237"/>
+      <c r="O56" s="261"/>
+      <c r="P56" s="261"/>
       <c r="Q56" s="34"/>
-      <c r="R56" s="237" t="str">
+      <c r="R56" s="261" t="str">
         <f>IF(LEFT(E56,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E56,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S56" s="237"/>
-      <c r="T56" s="237"/>
+      <c r="S56" s="261"/>
+      <c r="T56" s="261"/>
       <c r="U56" s="34"/>
-      <c r="V56" s="237" t="str">
+      <c r="V56" s="261" t="str">
         <f>IF(LEFT(E56,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E56,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W56" s="237"/>
-      <c r="X56" s="237"/>
+      <c r="W56" s="261"/>
+      <c r="X56" s="261"/>
       <c r="Y56" s="34"/>
-      <c r="Z56" s="238" t="str">
+      <c r="Z56" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA56" s="238"/>
+      <c r="AA56" s="262"/>
       <c r="AB56" s="34"/>
     </row>
     <row r="57" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7980,37 +7980,37 @@
         <v/>
       </c>
       <c r="H57" s="49"/>
-      <c r="I57" s="235"/>
-      <c r="J57" s="235"/>
-      <c r="K57" s="236"/>
-      <c r="L57" s="236"/>
+      <c r="I57" s="263"/>
+      <c r="J57" s="263"/>
+      <c r="K57" s="260"/>
+      <c r="L57" s="260"/>
       <c r="M57" s="34"/>
-      <c r="N57" s="237" t="str">
+      <c r="N57" s="261" t="str">
         <f>IF(LEFT(E57,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E57,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O57" s="237"/>
-      <c r="P57" s="237"/>
+      <c r="O57" s="261"/>
+      <c r="P57" s="261"/>
       <c r="Q57" s="34"/>
-      <c r="R57" s="237" t="str">
+      <c r="R57" s="261" t="str">
         <f>IF(LEFT(E57,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E57,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S57" s="237"/>
-      <c r="T57" s="237"/>
+      <c r="S57" s="261"/>
+      <c r="T57" s="261"/>
       <c r="U57" s="34"/>
-      <c r="V57" s="237" t="str">
+      <c r="V57" s="261" t="str">
         <f>IF(LEFT(E57,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E57,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W57" s="237"/>
-      <c r="X57" s="237"/>
+      <c r="W57" s="261"/>
+      <c r="X57" s="261"/>
       <c r="Y57" s="34"/>
-      <c r="Z57" s="238" t="str">
+      <c r="Z57" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA57" s="238"/>
+      <c r="AA57" s="262"/>
       <c r="AB57" s="34"/>
     </row>
     <row r="58" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8038,37 +8038,37 @@
         <v/>
       </c>
       <c r="H58" s="49"/>
-      <c r="I58" s="235"/>
-      <c r="J58" s="235"/>
-      <c r="K58" s="236"/>
-      <c r="L58" s="236"/>
+      <c r="I58" s="263"/>
+      <c r="J58" s="263"/>
+      <c r="K58" s="260"/>
+      <c r="L58" s="260"/>
       <c r="M58" s="34"/>
-      <c r="N58" s="237" t="str">
+      <c r="N58" s="261" t="str">
         <f>IF(LEFT(E58,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E58,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O58" s="237"/>
-      <c r="P58" s="237"/>
+      <c r="O58" s="261"/>
+      <c r="P58" s="261"/>
       <c r="Q58" s="34"/>
-      <c r="R58" s="237" t="str">
+      <c r="R58" s="261" t="str">
         <f>IF(LEFT(E58,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E58,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S58" s="237"/>
-      <c r="T58" s="237"/>
+      <c r="S58" s="261"/>
+      <c r="T58" s="261"/>
       <c r="U58" s="34"/>
-      <c r="V58" s="237" t="str">
+      <c r="V58" s="261" t="str">
         <f>IF(LEFT(E58,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E58,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W58" s="237"/>
-      <c r="X58" s="237"/>
+      <c r="W58" s="261"/>
+      <c r="X58" s="261"/>
       <c r="Y58" s="34"/>
-      <c r="Z58" s="238" t="str">
+      <c r="Z58" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA58" s="238"/>
+      <c r="AA58" s="262"/>
       <c r="AB58" s="34"/>
     </row>
     <row r="59" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8096,37 +8096,37 @@
         <v/>
       </c>
       <c r="H59" s="49"/>
-      <c r="I59" s="235"/>
-      <c r="J59" s="235"/>
-      <c r="K59" s="236"/>
-      <c r="L59" s="236"/>
+      <c r="I59" s="263"/>
+      <c r="J59" s="263"/>
+      <c r="K59" s="260"/>
+      <c r="L59" s="260"/>
       <c r="M59" s="34"/>
-      <c r="N59" s="237" t="str">
+      <c r="N59" s="261" t="str">
         <f>IF(LEFT(E59,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E59,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O59" s="237"/>
-      <c r="P59" s="237"/>
+      <c r="O59" s="261"/>
+      <c r="P59" s="261"/>
       <c r="Q59" s="34"/>
-      <c r="R59" s="237" t="str">
+      <c r="R59" s="261" t="str">
         <f>IF(LEFT(E59,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E59,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S59" s="237"/>
-      <c r="T59" s="237"/>
+      <c r="S59" s="261"/>
+      <c r="T59" s="261"/>
       <c r="U59" s="34"/>
-      <c r="V59" s="237" t="str">
+      <c r="V59" s="261" t="str">
         <f>IF(LEFT(E59,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E59,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W59" s="237"/>
-      <c r="X59" s="237"/>
+      <c r="W59" s="261"/>
+      <c r="X59" s="261"/>
       <c r="Y59" s="34"/>
-      <c r="Z59" s="238" t="str">
+      <c r="Z59" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA59" s="238"/>
+      <c r="AA59" s="262"/>
       <c r="AB59" s="34"/>
     </row>
     <row r="60" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8154,37 +8154,37 @@
         <v/>
       </c>
       <c r="H60" s="49"/>
-      <c r="I60" s="235"/>
-      <c r="J60" s="235"/>
-      <c r="K60" s="236"/>
-      <c r="L60" s="236"/>
+      <c r="I60" s="263"/>
+      <c r="J60" s="263"/>
+      <c r="K60" s="260"/>
+      <c r="L60" s="260"/>
       <c r="M60" s="34"/>
-      <c r="N60" s="237" t="str">
+      <c r="N60" s="261" t="str">
         <f>IF(LEFT(E60,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E60,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O60" s="237"/>
-      <c r="P60" s="237"/>
+      <c r="O60" s="261"/>
+      <c r="P60" s="261"/>
       <c r="Q60" s="34"/>
-      <c r="R60" s="237" t="str">
+      <c r="R60" s="261" t="str">
         <f>IF(LEFT(E60,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E60,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S60" s="237"/>
-      <c r="T60" s="237"/>
+      <c r="S60" s="261"/>
+      <c r="T60" s="261"/>
       <c r="U60" s="34"/>
-      <c r="V60" s="237" t="str">
+      <c r="V60" s="261" t="str">
         <f>IF(LEFT(E60,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E60,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W60" s="237"/>
-      <c r="X60" s="237"/>
+      <c r="W60" s="261"/>
+      <c r="X60" s="261"/>
       <c r="Y60" s="34"/>
-      <c r="Z60" s="238" t="str">
+      <c r="Z60" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA60" s="238"/>
+      <c r="AA60" s="262"/>
       <c r="AB60" s="34"/>
     </row>
     <row r="61" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8212,37 +8212,37 @@
         <v/>
       </c>
       <c r="H61" s="49"/>
-      <c r="I61" s="235"/>
-      <c r="J61" s="235"/>
-      <c r="K61" s="236"/>
-      <c r="L61" s="236"/>
+      <c r="I61" s="263"/>
+      <c r="J61" s="263"/>
+      <c r="K61" s="260"/>
+      <c r="L61" s="260"/>
       <c r="M61" s="34"/>
-      <c r="N61" s="237" t="str">
+      <c r="N61" s="261" t="str">
         <f>IF(LEFT(E61,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E61,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O61" s="237"/>
-      <c r="P61" s="237"/>
+      <c r="O61" s="261"/>
+      <c r="P61" s="261"/>
       <c r="Q61" s="34"/>
-      <c r="R61" s="237" t="str">
+      <c r="R61" s="261" t="str">
         <f>IF(LEFT(E61,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E61,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S61" s="237"/>
-      <c r="T61" s="237"/>
+      <c r="S61" s="261"/>
+      <c r="T61" s="261"/>
       <c r="U61" s="34"/>
-      <c r="V61" s="237" t="str">
+      <c r="V61" s="261" t="str">
         <f>IF(LEFT(E61,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E61,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W61" s="237"/>
-      <c r="X61" s="237"/>
+      <c r="W61" s="261"/>
+      <c r="X61" s="261"/>
       <c r="Y61" s="34"/>
-      <c r="Z61" s="238" t="str">
+      <c r="Z61" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA61" s="238"/>
+      <c r="AA61" s="262"/>
       <c r="AB61" s="34"/>
     </row>
     <row r="62" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8270,37 +8270,37 @@
         <v/>
       </c>
       <c r="H62" s="49"/>
-      <c r="I62" s="235"/>
-      <c r="J62" s="235"/>
-      <c r="K62" s="236"/>
-      <c r="L62" s="236"/>
+      <c r="I62" s="263"/>
+      <c r="J62" s="263"/>
+      <c r="K62" s="260"/>
+      <c r="L62" s="260"/>
       <c r="M62" s="34"/>
-      <c r="N62" s="237" t="str">
+      <c r="N62" s="261" t="str">
         <f>IF(LEFT(E62,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E62,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O62" s="237"/>
-      <c r="P62" s="237"/>
+      <c r="O62" s="261"/>
+      <c r="P62" s="261"/>
       <c r="Q62" s="34"/>
-      <c r="R62" s="237" t="str">
+      <c r="R62" s="261" t="str">
         <f>IF(LEFT(E62,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E62,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S62" s="237"/>
-      <c r="T62" s="237"/>
+      <c r="S62" s="261"/>
+      <c r="T62" s="261"/>
       <c r="U62" s="34"/>
-      <c r="V62" s="237" t="str">
+      <c r="V62" s="261" t="str">
         <f>IF(LEFT(E62,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E62,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W62" s="237"/>
-      <c r="X62" s="237"/>
+      <c r="W62" s="261"/>
+      <c r="X62" s="261"/>
       <c r="Y62" s="34"/>
-      <c r="Z62" s="238" t="str">
+      <c r="Z62" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA62" s="238"/>
+      <c r="AA62" s="262"/>
       <c r="AB62" s="34"/>
     </row>
     <row r="63" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8328,37 +8328,37 @@
         <v/>
       </c>
       <c r="H63" s="49"/>
-      <c r="I63" s="235"/>
-      <c r="J63" s="235"/>
-      <c r="K63" s="236"/>
-      <c r="L63" s="236"/>
+      <c r="I63" s="263"/>
+      <c r="J63" s="263"/>
+      <c r="K63" s="260"/>
+      <c r="L63" s="260"/>
       <c r="M63" s="34"/>
-      <c r="N63" s="237" t="str">
+      <c r="N63" s="261" t="str">
         <f>IF(LEFT(E63,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E63,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O63" s="237"/>
-      <c r="P63" s="237"/>
+      <c r="O63" s="261"/>
+      <c r="P63" s="261"/>
       <c r="Q63" s="34"/>
-      <c r="R63" s="237" t="str">
+      <c r="R63" s="261" t="str">
         <f>IF(LEFT(E63,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E63,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S63" s="237"/>
-      <c r="T63" s="237"/>
+      <c r="S63" s="261"/>
+      <c r="T63" s="261"/>
       <c r="U63" s="34"/>
-      <c r="V63" s="237" t="str">
+      <c r="V63" s="261" t="str">
         <f>IF(LEFT(E63,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E63,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W63" s="237"/>
-      <c r="X63" s="237"/>
+      <c r="W63" s="261"/>
+      <c r="X63" s="261"/>
       <c r="Y63" s="34"/>
-      <c r="Z63" s="238" t="str">
+      <c r="Z63" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA63" s="238"/>
+      <c r="AA63" s="262"/>
       <c r="AB63" s="34"/>
     </row>
     <row r="64" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8386,37 +8386,37 @@
         <v/>
       </c>
       <c r="H64" s="49"/>
-      <c r="I64" s="235"/>
-      <c r="J64" s="235"/>
-      <c r="K64" s="236"/>
-      <c r="L64" s="236"/>
+      <c r="I64" s="263"/>
+      <c r="J64" s="263"/>
+      <c r="K64" s="260"/>
+      <c r="L64" s="260"/>
       <c r="M64" s="34"/>
-      <c r="N64" s="237" t="str">
+      <c r="N64" s="261" t="str">
         <f>IF(LEFT(E64,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E64,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O64" s="237"/>
-      <c r="P64" s="237"/>
+      <c r="O64" s="261"/>
+      <c r="P64" s="261"/>
       <c r="Q64" s="34"/>
-      <c r="R64" s="237" t="str">
+      <c r="R64" s="261" t="str">
         <f>IF(LEFT(E64,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E64,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S64" s="237"/>
-      <c r="T64" s="237"/>
+      <c r="S64" s="261"/>
+      <c r="T64" s="261"/>
       <c r="U64" s="34"/>
-      <c r="V64" s="237" t="str">
+      <c r="V64" s="261" t="str">
         <f>IF(LEFT(E64,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E64,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W64" s="237"/>
-      <c r="X64" s="237"/>
+      <c r="W64" s="261"/>
+      <c r="X64" s="261"/>
       <c r="Y64" s="34"/>
-      <c r="Z64" s="238" t="str">
+      <c r="Z64" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA64" s="238"/>
+      <c r="AA64" s="262"/>
       <c r="AB64" s="34"/>
     </row>
     <row r="65" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8444,37 +8444,37 @@
         <v/>
       </c>
       <c r="H65" s="49"/>
-      <c r="I65" s="235"/>
-      <c r="J65" s="235"/>
-      <c r="K65" s="236"/>
-      <c r="L65" s="236"/>
+      <c r="I65" s="263"/>
+      <c r="J65" s="263"/>
+      <c r="K65" s="260"/>
+      <c r="L65" s="260"/>
       <c r="M65" s="34"/>
-      <c r="N65" s="237" t="str">
+      <c r="N65" s="261" t="str">
         <f>IF(LEFT(E65,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E65,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O65" s="237"/>
-      <c r="P65" s="237"/>
+      <c r="O65" s="261"/>
+      <c r="P65" s="261"/>
       <c r="Q65" s="34"/>
-      <c r="R65" s="237" t="str">
+      <c r="R65" s="261" t="str">
         <f>IF(LEFT(E65,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E65,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S65" s="237"/>
-      <c r="T65" s="237"/>
+      <c r="S65" s="261"/>
+      <c r="T65" s="261"/>
       <c r="U65" s="34"/>
-      <c r="V65" s="237" t="str">
+      <c r="V65" s="261" t="str">
         <f>IF(LEFT(E65,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E65,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W65" s="237"/>
-      <c r="X65" s="237"/>
+      <c r="W65" s="261"/>
+      <c r="X65" s="261"/>
       <c r="Y65" s="34"/>
-      <c r="Z65" s="238" t="str">
+      <c r="Z65" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA65" s="238"/>
+      <c r="AA65" s="262"/>
       <c r="AB65" s="34"/>
     </row>
     <row r="66" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8502,37 +8502,37 @@
         <v/>
       </c>
       <c r="H66" s="49"/>
-      <c r="I66" s="235"/>
-      <c r="J66" s="235"/>
-      <c r="K66" s="236"/>
-      <c r="L66" s="236"/>
+      <c r="I66" s="263"/>
+      <c r="J66" s="263"/>
+      <c r="K66" s="260"/>
+      <c r="L66" s="260"/>
       <c r="M66" s="34"/>
-      <c r="N66" s="237" t="str">
+      <c r="N66" s="261" t="str">
         <f>IF(LEFT(E66,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E66,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O66" s="237"/>
-      <c r="P66" s="237"/>
+      <c r="O66" s="261"/>
+      <c r="P66" s="261"/>
       <c r="Q66" s="34"/>
-      <c r="R66" s="237" t="str">
+      <c r="R66" s="261" t="str">
         <f>IF(LEFT(E66,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E66,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S66" s="237"/>
-      <c r="T66" s="237"/>
+      <c r="S66" s="261"/>
+      <c r="T66" s="261"/>
       <c r="U66" s="34"/>
-      <c r="V66" s="237" t="str">
+      <c r="V66" s="261" t="str">
         <f>IF(LEFT(E66,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E66,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W66" s="237"/>
-      <c r="X66" s="237"/>
+      <c r="W66" s="261"/>
+      <c r="X66" s="261"/>
       <c r="Y66" s="34"/>
-      <c r="Z66" s="238" t="str">
+      <c r="Z66" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA66" s="238"/>
+      <c r="AA66" s="262"/>
       <c r="AB66" s="34"/>
     </row>
     <row r="67" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8560,37 +8560,37 @@
         <v/>
       </c>
       <c r="H67" s="49"/>
-      <c r="I67" s="235"/>
-      <c r="J67" s="235"/>
-      <c r="K67" s="236"/>
-      <c r="L67" s="236"/>
+      <c r="I67" s="263"/>
+      <c r="J67" s="263"/>
+      <c r="K67" s="260"/>
+      <c r="L67" s="260"/>
       <c r="M67" s="34"/>
-      <c r="N67" s="237" t="str">
+      <c r="N67" s="261" t="str">
         <f>IF(LEFT(E67,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E67,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O67" s="237"/>
-      <c r="P67" s="237"/>
+      <c r="O67" s="261"/>
+      <c r="P67" s="261"/>
       <c r="Q67" s="34"/>
-      <c r="R67" s="237" t="str">
+      <c r="R67" s="261" t="str">
         <f>IF(LEFT(E67,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E67,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S67" s="237"/>
-      <c r="T67" s="237"/>
+      <c r="S67" s="261"/>
+      <c r="T67" s="261"/>
       <c r="U67" s="34"/>
-      <c r="V67" s="237" t="str">
+      <c r="V67" s="261" t="str">
         <f>IF(LEFT(E67,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E67,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W67" s="237"/>
-      <c r="X67" s="237"/>
+      <c r="W67" s="261"/>
+      <c r="X67" s="261"/>
       <c r="Y67" s="34"/>
-      <c r="Z67" s="238" t="str">
+      <c r="Z67" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA67" s="238"/>
+      <c r="AA67" s="262"/>
       <c r="AB67" s="34"/>
     </row>
     <row r="68" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8618,37 +8618,37 @@
         <v/>
       </c>
       <c r="H68" s="49"/>
-      <c r="I68" s="235"/>
-      <c r="J68" s="235"/>
-      <c r="K68" s="236"/>
-      <c r="L68" s="236"/>
+      <c r="I68" s="263"/>
+      <c r="J68" s="263"/>
+      <c r="K68" s="260"/>
+      <c r="L68" s="260"/>
       <c r="M68" s="34"/>
-      <c r="N68" s="237" t="str">
+      <c r="N68" s="261" t="str">
         <f>IF(LEFT(E68,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E68,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O68" s="237"/>
-      <c r="P68" s="237"/>
+      <c r="O68" s="261"/>
+      <c r="P68" s="261"/>
       <c r="Q68" s="34"/>
-      <c r="R68" s="237" t="str">
+      <c r="R68" s="261" t="str">
         <f>IF(LEFT(E68,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E68,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S68" s="237"/>
-      <c r="T68" s="237"/>
+      <c r="S68" s="261"/>
+      <c r="T68" s="261"/>
       <c r="U68" s="34"/>
-      <c r="V68" s="237" t="str">
+      <c r="V68" s="261" t="str">
         <f>IF(LEFT(E68,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E68,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W68" s="237"/>
-      <c r="X68" s="237"/>
+      <c r="W68" s="261"/>
+      <c r="X68" s="261"/>
       <c r="Y68" s="34"/>
-      <c r="Z68" s="238" t="str">
+      <c r="Z68" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA68" s="238"/>
+      <c r="AA68" s="262"/>
       <c r="AB68" s="34"/>
     </row>
     <row r="69" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8676,37 +8676,37 @@
         <v/>
       </c>
       <c r="H69" s="49"/>
-      <c r="I69" s="235"/>
-      <c r="J69" s="235"/>
-      <c r="K69" s="236"/>
-      <c r="L69" s="236"/>
+      <c r="I69" s="263"/>
+      <c r="J69" s="263"/>
+      <c r="K69" s="260"/>
+      <c r="L69" s="260"/>
       <c r="M69" s="34"/>
-      <c r="N69" s="237" t="str">
+      <c r="N69" s="261" t="str">
         <f>IF(LEFT(E69,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E69,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O69" s="237"/>
-      <c r="P69" s="237"/>
+      <c r="O69" s="261"/>
+      <c r="P69" s="261"/>
       <c r="Q69" s="34"/>
-      <c r="R69" s="237" t="str">
+      <c r="R69" s="261" t="str">
         <f>IF(LEFT(E69,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E69,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S69" s="237"/>
-      <c r="T69" s="237"/>
+      <c r="S69" s="261"/>
+      <c r="T69" s="261"/>
       <c r="U69" s="34"/>
-      <c r="V69" s="237" t="str">
+      <c r="V69" s="261" t="str">
         <f>IF(LEFT(E69,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E69,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W69" s="237"/>
-      <c r="X69" s="237"/>
+      <c r="W69" s="261"/>
+      <c r="X69" s="261"/>
       <c r="Y69" s="34"/>
-      <c r="Z69" s="238" t="str">
+      <c r="Z69" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA69" s="238"/>
+      <c r="AA69" s="262"/>
       <c r="AB69" s="34"/>
     </row>
     <row r="70" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8734,37 +8734,37 @@
         <v/>
       </c>
       <c r="H70" s="49"/>
-      <c r="I70" s="235"/>
-      <c r="J70" s="235"/>
-      <c r="K70" s="236"/>
-      <c r="L70" s="236"/>
+      <c r="I70" s="263"/>
+      <c r="J70" s="263"/>
+      <c r="K70" s="260"/>
+      <c r="L70" s="260"/>
       <c r="M70" s="34"/>
-      <c r="N70" s="237" t="str">
+      <c r="N70" s="261" t="str">
         <f>IF(LEFT(E70,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E70,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O70" s="237"/>
-      <c r="P70" s="237"/>
+      <c r="O70" s="261"/>
+      <c r="P70" s="261"/>
       <c r="Q70" s="34"/>
-      <c r="R70" s="237" t="str">
+      <c r="R70" s="261" t="str">
         <f>IF(LEFT(E70,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E70,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S70" s="237"/>
-      <c r="T70" s="237"/>
+      <c r="S70" s="261"/>
+      <c r="T70" s="261"/>
       <c r="U70" s="34"/>
-      <c r="V70" s="237" t="str">
+      <c r="V70" s="261" t="str">
         <f>IF(LEFT(E70,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E70,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W70" s="237"/>
-      <c r="X70" s="237"/>
+      <c r="W70" s="261"/>
+      <c r="X70" s="261"/>
       <c r="Y70" s="34"/>
-      <c r="Z70" s="238" t="str">
+      <c r="Z70" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA70" s="238"/>
+      <c r="AA70" s="262"/>
       <c r="AB70" s="34"/>
     </row>
     <row r="71" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8792,37 +8792,37 @@
         <v/>
       </c>
       <c r="H71" s="49"/>
-      <c r="I71" s="235"/>
-      <c r="J71" s="235"/>
-      <c r="K71" s="236"/>
-      <c r="L71" s="236"/>
+      <c r="I71" s="263"/>
+      <c r="J71" s="263"/>
+      <c r="K71" s="260"/>
+      <c r="L71" s="260"/>
       <c r="M71" s="34"/>
-      <c r="N71" s="237" t="str">
+      <c r="N71" s="261" t="str">
         <f>IF(LEFT(E71,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E71,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O71" s="237"/>
-      <c r="P71" s="237"/>
+      <c r="O71" s="261"/>
+      <c r="P71" s="261"/>
       <c r="Q71" s="34"/>
-      <c r="R71" s="237" t="str">
+      <c r="R71" s="261" t="str">
         <f>IF(LEFT(E71,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E71,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S71" s="237"/>
-      <c r="T71" s="237"/>
+      <c r="S71" s="261"/>
+      <c r="T71" s="261"/>
       <c r="U71" s="34"/>
-      <c r="V71" s="237" t="str">
+      <c r="V71" s="261" t="str">
         <f>IF(LEFT(E71,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E71,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W71" s="237"/>
-      <c r="X71" s="237"/>
+      <c r="W71" s="261"/>
+      <c r="X71" s="261"/>
       <c r="Y71" s="34"/>
-      <c r="Z71" s="238" t="str">
+      <c r="Z71" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA71" s="238"/>
+      <c r="AA71" s="262"/>
       <c r="AB71" s="34"/>
     </row>
     <row r="72" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8850,37 +8850,37 @@
         <v/>
       </c>
       <c r="H72" s="49"/>
-      <c r="I72" s="235"/>
-      <c r="J72" s="235"/>
-      <c r="K72" s="236"/>
-      <c r="L72" s="236"/>
+      <c r="I72" s="263"/>
+      <c r="J72" s="263"/>
+      <c r="K72" s="260"/>
+      <c r="L72" s="260"/>
       <c r="M72" s="34"/>
-      <c r="N72" s="237" t="str">
+      <c r="N72" s="261" t="str">
         <f>IF(LEFT(E72,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E72,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O72" s="237"/>
-      <c r="P72" s="237"/>
+      <c r="O72" s="261"/>
+      <c r="P72" s="261"/>
       <c r="Q72" s="34"/>
-      <c r="R72" s="237" t="str">
+      <c r="R72" s="261" t="str">
         <f>IF(LEFT(E72,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E72,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S72" s="237"/>
-      <c r="T72" s="237"/>
+      <c r="S72" s="261"/>
+      <c r="T72" s="261"/>
       <c r="U72" s="34"/>
-      <c r="V72" s="237" t="str">
+      <c r="V72" s="261" t="str">
         <f>IF(LEFT(E72,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E72,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W72" s="237"/>
-      <c r="X72" s="237"/>
+      <c r="W72" s="261"/>
+      <c r="X72" s="261"/>
       <c r="Y72" s="34"/>
-      <c r="Z72" s="238" t="str">
+      <c r="Z72" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA72" s="238"/>
+      <c r="AA72" s="262"/>
       <c r="AB72" s="34"/>
     </row>
     <row r="73" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8908,37 +8908,37 @@
         <v/>
       </c>
       <c r="H73" s="49"/>
-      <c r="I73" s="235"/>
-      <c r="J73" s="235"/>
-      <c r="K73" s="236"/>
-      <c r="L73" s="236"/>
+      <c r="I73" s="263"/>
+      <c r="J73" s="263"/>
+      <c r="K73" s="260"/>
+      <c r="L73" s="260"/>
       <c r="M73" s="34"/>
-      <c r="N73" s="237" t="str">
+      <c r="N73" s="261" t="str">
         <f>IF(LEFT(E73,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E73,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O73" s="237"/>
-      <c r="P73" s="237"/>
+      <c r="O73" s="261"/>
+      <c r="P73" s="261"/>
       <c r="Q73" s="34"/>
-      <c r="R73" s="237" t="str">
+      <c r="R73" s="261" t="str">
         <f>IF(LEFT(E73,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E73,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S73" s="237"/>
-      <c r="T73" s="237"/>
+      <c r="S73" s="261"/>
+      <c r="T73" s="261"/>
       <c r="U73" s="34"/>
-      <c r="V73" s="237" t="str">
+      <c r="V73" s="261" t="str">
         <f>IF(LEFT(E73,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E73,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W73" s="237"/>
-      <c r="X73" s="237"/>
+      <c r="W73" s="261"/>
+      <c r="X73" s="261"/>
       <c r="Y73" s="34"/>
-      <c r="Z73" s="238" t="str">
+      <c r="Z73" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA73" s="238"/>
+      <c r="AA73" s="262"/>
       <c r="AB73" s="34"/>
     </row>
     <row r="74" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8966,37 +8966,37 @@
         <v/>
       </c>
       <c r="H74" s="49"/>
-      <c r="I74" s="235"/>
-      <c r="J74" s="235"/>
-      <c r="K74" s="236"/>
-      <c r="L74" s="236"/>
+      <c r="I74" s="263"/>
+      <c r="J74" s="263"/>
+      <c r="K74" s="260"/>
+      <c r="L74" s="260"/>
       <c r="M74" s="34"/>
-      <c r="N74" s="237" t="str">
+      <c r="N74" s="261" t="str">
         <f>IF(LEFT(E74,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E74,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O74" s="237"/>
-      <c r="P74" s="237"/>
+      <c r="O74" s="261"/>
+      <c r="P74" s="261"/>
       <c r="Q74" s="34"/>
-      <c r="R74" s="237" t="str">
+      <c r="R74" s="261" t="str">
         <f>IF(LEFT(E74,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E74,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S74" s="237"/>
-      <c r="T74" s="237"/>
+      <c r="S74" s="261"/>
+      <c r="T74" s="261"/>
       <c r="U74" s="34"/>
-      <c r="V74" s="237" t="str">
+      <c r="V74" s="261" t="str">
         <f>IF(LEFT(E74,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E74,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W74" s="237"/>
-      <c r="X74" s="237"/>
+      <c r="W74" s="261"/>
+      <c r="X74" s="261"/>
       <c r="Y74" s="34"/>
-      <c r="Z74" s="238" t="str">
+      <c r="Z74" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA74" s="238"/>
+      <c r="AA74" s="262"/>
       <c r="AB74" s="34"/>
     </row>
     <row r="75" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9024,82 +9024,82 @@
         <v/>
       </c>
       <c r="H75" s="49"/>
-      <c r="I75" s="235"/>
-      <c r="J75" s="235"/>
-      <c r="K75" s="236"/>
-      <c r="L75" s="236"/>
+      <c r="I75" s="263"/>
+      <c r="J75" s="263"/>
+      <c r="K75" s="260"/>
+      <c r="L75" s="260"/>
       <c r="M75" s="34"/>
-      <c r="N75" s="237" t="str">
+      <c r="N75" s="261" t="str">
         <f>IF(LEFT(E75,1)="P",SUMIF('III. Project implementation sup'!$B$4:$B$123,E75,'III. Project implementation sup'!$V$4:$V$123),"")</f>
         <v/>
       </c>
-      <c r="O75" s="237"/>
-      <c r="P75" s="237"/>
+      <c r="O75" s="261"/>
+      <c r="P75" s="261"/>
       <c r="Q75" s="34"/>
-      <c r="R75" s="237" t="str">
+      <c r="R75" s="261" t="str">
         <f>IF(LEFT(E75,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E75,'IV. Learning mobility-optional'!$I$12:$I$161),"")</f>
         <v/>
       </c>
-      <c r="S75" s="237"/>
-      <c r="T75" s="237"/>
+      <c r="S75" s="261"/>
+      <c r="T75" s="261"/>
       <c r="U75" s="34"/>
-      <c r="V75" s="237" t="str">
+      <c r="V75" s="261" t="str">
         <f>IF(LEFT(E75,1)="P",SUMIF('IV. Learning mobility-optional'!$B$12:$B$161,E75,'IV. Learning mobility-optional'!$M$12:$M$161),"")</f>
         <v/>
       </c>
-      <c r="W75" s="237"/>
-      <c r="X75" s="237"/>
+      <c r="W75" s="261"/>
+      <c r="X75" s="261"/>
       <c r="Y75" s="34"/>
-      <c r="Z75" s="238" t="str">
+      <c r="Z75" s="262" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AA75" s="238"/>
+      <c r="AA75" s="262"/>
       <c r="AB75" s="34"/>
     </row>
     <row r="76" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="232" t="str">
+      <c r="A76" s="264" t="str">
         <f>+Translation!A48</f>
         <v>Total</v>
       </c>
-      <c r="B76" s="232"/>
-      <c r="C76" s="232"/>
-      <c r="D76" s="232"/>
-      <c r="E76" s="232"/>
-      <c r="F76" s="232"/>
-      <c r="G76" s="232"/>
-      <c r="H76" s="232"/>
-      <c r="I76" s="232"/>
-      <c r="J76" s="232"/>
-      <c r="K76" s="232"/>
-      <c r="L76" s="232"/>
+      <c r="B76" s="264"/>
+      <c r="C76" s="264"/>
+      <c r="D76" s="264"/>
+      <c r="E76" s="264"/>
+      <c r="F76" s="264"/>
+      <c r="G76" s="264"/>
+      <c r="H76" s="264"/>
+      <c r="I76" s="264"/>
+      <c r="J76" s="264"/>
+      <c r="K76" s="264"/>
+      <c r="L76" s="264"/>
       <c r="M76" s="51"/>
-      <c r="N76" s="233">
+      <c r="N76" s="265">
         <f>SUM(N36:P75)</f>
         <v>936290</v>
       </c>
-      <c r="O76" s="233"/>
-      <c r="P76" s="233"/>
+      <c r="O76" s="265"/>
+      <c r="P76" s="265"/>
       <c r="Q76" s="51"/>
-      <c r="R76" s="233">
+      <c r="R76" s="265">
         <f>SUM(R36:T75)</f>
         <v>30250</v>
       </c>
-      <c r="S76" s="233"/>
-      <c r="T76" s="233"/>
+      <c r="S76" s="265"/>
+      <c r="T76" s="265"/>
       <c r="U76" s="51"/>
-      <c r="V76" s="233">
+      <c r="V76" s="265">
         <f>SUM(V36:X75)</f>
         <v>33000</v>
       </c>
-      <c r="W76" s="233"/>
-      <c r="X76" s="233"/>
+      <c r="W76" s="265"/>
+      <c r="X76" s="265"/>
       <c r="Y76" s="51"/>
-      <c r="Z76" s="234">
+      <c r="Z76" s="266">
         <f>SUM(Z36:AA75)</f>
         <v>999540</v>
       </c>
-      <c r="AA76" s="234"/>
+      <c r="AA76" s="266"/>
       <c r="AB76" s="34"/>
     </row>
     <row r="77" spans="1:28" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9134,282 +9134,6 @@
   </sheetData>
   <sheetProtection password="8100" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="293">
-    <mergeCell ref="A6:AA6"/>
-    <mergeCell ref="A7:AA7"/>
-    <mergeCell ref="A8:AA8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:AA10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:AA12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:AA13"/>
-    <mergeCell ref="K14:AA14"/>
-    <mergeCell ref="A17:AA17"/>
-    <mergeCell ref="K18:V18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="A20:AA20"/>
-    <mergeCell ref="A21:AA21"/>
-    <mergeCell ref="A22:J23"/>
-    <mergeCell ref="K22:N23"/>
-    <mergeCell ref="P22:R23"/>
-    <mergeCell ref="T22:V23"/>
-    <mergeCell ref="A24:AA24"/>
-    <mergeCell ref="A25:AA25"/>
-    <mergeCell ref="A26:J27"/>
-    <mergeCell ref="K26:N27"/>
-    <mergeCell ref="P26:R27"/>
-    <mergeCell ref="T26:V27"/>
-    <mergeCell ref="X26:AA27"/>
-    <mergeCell ref="A28:J29"/>
-    <mergeCell ref="K28:N29"/>
-    <mergeCell ref="P28:R29"/>
-    <mergeCell ref="T28:V29"/>
-    <mergeCell ref="X28:AA30"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="A32:AA32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="K34:L35"/>
-    <mergeCell ref="N34:P35"/>
-    <mergeCell ref="R34:T35"/>
-    <mergeCell ref="V34:X35"/>
-    <mergeCell ref="Z34:AA35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="R54:T54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="R56:T56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="R57:T57"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="R58:T58"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="R59:T59"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="Z59:AA59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="R60:T60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Z60:AA60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="R61:T61"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="Z61:AA61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="R62:T62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="R63:T63"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="R64:T64"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="R65:T65"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="R66:T66"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="R68:T68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="Z68:AA68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="R69:T69"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="Z69:AA69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="R70:T70"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="Z70:AA70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="R71:T71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="Z71:AA71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="R72:T72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="Z72:AA72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="R73:T73"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="Z73:AA73"/>
     <mergeCell ref="A76:L76"/>
     <mergeCell ref="N76:P76"/>
     <mergeCell ref="R76:T76"/>
@@ -9427,6 +9151,282 @@
     <mergeCell ref="R75:T75"/>
     <mergeCell ref="V75:X75"/>
     <mergeCell ref="Z75:AA75"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="R72:T72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="Z72:AA72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="R73:T73"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="R70:T70"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="Z70:AA70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="R71:T71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="Z71:AA71"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="R68:T68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="Z68:AA68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="R69:T69"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="Z69:AA69"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="R66:T66"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="R64:T64"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R65:T65"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="R62:T62"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="R63:T63"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="R60:T60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Z60:AA60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="R61:T61"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="R58:T58"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="R59:T59"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="R56:T56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="R57:T57"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="R54:T54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="A32:AA32"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="K34:L35"/>
+    <mergeCell ref="N34:P35"/>
+    <mergeCell ref="R34:T35"/>
+    <mergeCell ref="V34:X35"/>
+    <mergeCell ref="Z34:AA35"/>
+    <mergeCell ref="A28:J29"/>
+    <mergeCell ref="K28:N29"/>
+    <mergeCell ref="P28:R29"/>
+    <mergeCell ref="T28:V29"/>
+    <mergeCell ref="X28:AA30"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="A21:AA21"/>
+    <mergeCell ref="A22:J23"/>
+    <mergeCell ref="K22:N23"/>
+    <mergeCell ref="P22:R23"/>
+    <mergeCell ref="T22:V23"/>
+    <mergeCell ref="A24:AA24"/>
+    <mergeCell ref="A25:AA25"/>
+    <mergeCell ref="A26:J27"/>
+    <mergeCell ref="K26:N27"/>
+    <mergeCell ref="P26:R27"/>
+    <mergeCell ref="T26:V27"/>
+    <mergeCell ref="X26:AA27"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:AA13"/>
+    <mergeCell ref="K14:AA14"/>
+    <mergeCell ref="A17:AA17"/>
+    <mergeCell ref="K18:V18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="A20:AA20"/>
+    <mergeCell ref="A6:AA6"/>
+    <mergeCell ref="A7:AA7"/>
+    <mergeCell ref="A8:AA8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:AA10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:AA12"/>
   </mergeCells>
   <conditionalFormatting sqref="K19 P22 K22 N36 N34 A30 A28 A26 A22">
     <cfRule type="cellIs" dxfId="362" priority="2" operator="equal">
@@ -18894,8 +18894,8 @@
   </sheetPr>
   <dimension ref="A1:AMK163"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -18920,30 +18920,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="54" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="280" t="str">
+      <c r="A1" s="274" t="str">
         <f>+Translation!A63</f>
         <v>Part IV -</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="281" t="str">
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="275" t="str">
         <f>+Translation!A64</f>
         <v xml:space="preserve">Additional funding for learning mobility activities realised within an Alliance  </v>
       </c>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
-      <c r="N1" s="282" t="str">
+      <c r="E1" s="275"/>
+      <c r="F1" s="275"/>
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="275"/>
+      <c r="J1" s="275"/>
+      <c r="K1" s="275"/>
+      <c r="L1" s="275"/>
+      <c r="M1" s="275"/>
+      <c r="N1" s="276" t="str">
         <f>+Translation!A65</f>
         <v xml:space="preserve"> (OPTIONAL)</v>
       </c>
-      <c r="O1" s="282"/>
+      <c r="O1" s="276"/>
       <c r="P1" s="34"/>
       <c r="Q1" s="93"/>
       <c r="R1" s="93"/>
@@ -18973,50 +18973,50 @@
     <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="98"/>
       <c r="B3" s="34"/>
-      <c r="C3" s="283" t="str">
+      <c r="C3" s="277" t="str">
         <f>+Translation!A66</f>
         <v>Learning mobility - Travel costs</v>
       </c>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
       <c r="G3" s="34"/>
-      <c r="H3" s="284" t="str">
+      <c r="H3" s="278" t="str">
         <f>+Translation!A67</f>
         <v>Learning mobility - Subsistence costs</v>
       </c>
-      <c r="I3" s="284"/>
-      <c r="J3" s="284"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="284"/>
-      <c r="M3" s="284"/>
-      <c r="N3" s="284"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="278"/>
+      <c r="K3" s="278"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
       <c r="O3" s="99"/>
       <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:22" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="98"/>
       <c r="B4" s="34"/>
-      <c r="C4" s="285" t="str">
+      <c r="C4" s="279" t="str">
         <f>+Translation!A68</f>
         <v>Distance</v>
       </c>
-      <c r="D4" s="285"/>
-      <c r="E4" s="285"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279"/>
       <c r="F4" s="100" t="str">
         <f>+Translation!A69</f>
         <v>Unit cost per participant</v>
       </c>
       <c r="G4" s="34"/>
-      <c r="H4" s="286" t="str">
+      <c r="H4" s="280" t="str">
         <f>+Translation!A70</f>
         <v>Activity Type</v>
       </c>
-      <c r="I4" s="286"/>
-      <c r="J4" s="286"/>
-      <c r="K4" s="286"/>
-      <c r="L4" s="286"/>
-      <c r="M4" s="286"/>
+      <c r="I4" s="280"/>
+      <c r="J4" s="280"/>
+      <c r="K4" s="280"/>
+      <c r="L4" s="280"/>
+      <c r="M4" s="280"/>
       <c r="N4" s="101" t="str">
         <f>+Translation!A71</f>
         <v>Unit cost per participant</v>
@@ -19153,26 +19153,26 @@
     <row r="10" spans="1:22" s="59" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="125"/>
       <c r="B10" s="126"/>
-      <c r="C10" s="287" t="str">
+      <c r="C10" s="281" t="str">
         <f>+Translation!A76</f>
         <v>Partner</v>
       </c>
-      <c r="D10" s="287"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="289" t="str">
+      <c r="D10" s="281"/>
+      <c r="E10" s="282"/>
+      <c r="F10" s="283" t="str">
         <f>+C3</f>
         <v>Learning mobility - Travel costs</v>
       </c>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="289"/>
-      <c r="J10" s="290" t="str">
+      <c r="G10" s="283"/>
+      <c r="H10" s="283"/>
+      <c r="I10" s="283"/>
+      <c r="J10" s="284" t="str">
         <f>+H3</f>
         <v>Learning mobility - Subsistence costs</v>
       </c>
-      <c r="K10" s="290"/>
-      <c r="L10" s="290"/>
-      <c r="M10" s="290"/>
+      <c r="K10" s="284"/>
+      <c r="L10" s="284"/>
+      <c r="M10" s="284"/>
       <c r="N10" s="127"/>
       <c r="O10" s="128"/>
       <c r="P10" s="126"/>
@@ -19188,7 +19188,7 @@
         <f>+Translation!A78</f>
         <v>Country</v>
       </c>
-      <c r="E11" s="288"/>
+      <c r="E11" s="282"/>
       <c r="F11" s="131" t="str">
         <f>+Translation!A79</f>
         <v>Distance</v>
@@ -19222,11 +19222,11 @@
         <f>+Translation!A86</f>
         <v>Subsistence costs</v>
       </c>
-      <c r="N11" s="291" t="str">
+      <c r="N11" s="285" t="str">
         <f>+Translation!A87</f>
         <v>Work Package Number</v>
       </c>
-      <c r="O11" s="291"/>
+      <c r="O11" s="285"/>
       <c r="P11" s="126"/>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19277,10 +19277,10 @@
         <f t="shared" ref="M12:M43" si="4">IF(OR((K12-INT(K12))=0,(K12-INT(K12)=0.5)),IFERROR(ROUND(K12*L12,2)," "),0)</f>
         <v>3600</v>
       </c>
-      <c r="N12" s="279" t="s">
+      <c r="N12" s="286" t="s">
         <v>534</v>
       </c>
-      <c r="O12" s="279"/>
+      <c r="O12" s="286"/>
       <c r="P12" s="34"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -19331,10 +19331,10 @@
         <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="N13" s="279" t="s">
+      <c r="N13" s="286" t="s">
         <v>534</v>
       </c>
-      <c r="O13" s="279"/>
+      <c r="O13" s="286"/>
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -19385,10 +19385,10 @@
         <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="N14" s="279" t="s">
+      <c r="N14" s="286" t="s">
         <v>534</v>
       </c>
-      <c r="O14" s="279"/>
+      <c r="O14" s="286"/>
       <c r="P14" s="34"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -19415,7 +19415,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="146">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="147">
         <f t="shared" si="1"/>
@@ -19423,13 +19423,13 @@
       </c>
       <c r="I15" s="148">
         <f t="shared" si="2"/>
-        <v>4400</v>
+        <v>4125</v>
       </c>
       <c r="J15" s="149">
         <v>1</v>
       </c>
       <c r="K15" s="150">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L15" s="147">
         <f t="shared" si="3"/>
@@ -19437,12 +19437,12 @@
       </c>
       <c r="M15" s="148">
         <f t="shared" si="4"/>
-        <v>4800</v>
-      </c>
-      <c r="N15" s="279" t="s">
+        <v>4500</v>
+      </c>
+      <c r="N15" s="286" t="s">
         <v>534</v>
       </c>
-      <c r="O15" s="279"/>
+      <c r="O15" s="286"/>
       <c r="P15" s="34"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -19493,10 +19493,10 @@
         <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="N16" s="279" t="s">
+      <c r="N16" s="286" t="s">
         <v>534</v>
       </c>
-      <c r="O16" s="279"/>
+      <c r="O16" s="286"/>
       <c r="P16" s="34"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -19547,10 +19547,10 @@
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
-      <c r="N17" s="279" t="s">
+      <c r="N17" s="286" t="s">
         <v>534</v>
       </c>
-      <c r="O17" s="279"/>
+      <c r="O17" s="286"/>
       <c r="P17" s="34"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -19577,7 +19577,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="146">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H18" s="147">
         <f t="shared" si="1"/>
@@ -19585,13 +19585,13 @@
       </c>
       <c r="I18" s="148">
         <f t="shared" si="2"/>
-        <v>1650</v>
+        <v>1375</v>
       </c>
       <c r="J18" s="149">
         <v>1</v>
       </c>
       <c r="K18" s="150">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L18" s="147">
         <f t="shared" si="3"/>
@@ -19599,12 +19599,12 @@
       </c>
       <c r="M18" s="148">
         <f t="shared" si="4"/>
-        <v>1800</v>
-      </c>
-      <c r="N18" s="279" t="s">
+        <v>1500</v>
+      </c>
+      <c r="N18" s="286" t="s">
         <v>534</v>
       </c>
-      <c r="O18" s="279"/>
+      <c r="O18" s="286"/>
       <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -19631,7 +19631,7 @@
         <v>22</v>
       </c>
       <c r="G19" s="146">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19" s="147">
         <f t="shared" si="1"/>
@@ -19639,13 +19639,13 @@
       </c>
       <c r="I19" s="148">
         <f t="shared" si="2"/>
-        <v>1650</v>
+        <v>1375</v>
       </c>
       <c r="J19" s="149">
         <v>1</v>
       </c>
       <c r="K19" s="150">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L19" s="147">
         <f t="shared" si="3"/>
@@ -19653,12 +19653,12 @@
       </c>
       <c r="M19" s="148">
         <f t="shared" si="4"/>
-        <v>1800</v>
-      </c>
-      <c r="N19" s="279" t="s">
+        <v>1500</v>
+      </c>
+      <c r="N19" s="286" t="s">
         <v>534</v>
       </c>
-      <c r="O19" s="279"/>
+      <c r="O19" s="286"/>
       <c r="P19" s="34"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -19685,7 +19685,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="146">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" s="147">
         <f t="shared" si="1"/>
@@ -19693,13 +19693,13 @@
       </c>
       <c r="I20" s="148">
         <f t="shared" si="2"/>
-        <v>3850</v>
+        <v>4125</v>
       </c>
       <c r="J20" s="149">
         <v>1</v>
       </c>
       <c r="K20" s="150">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L20" s="147">
         <f t="shared" si="3"/>
@@ -19707,12 +19707,12 @@
       </c>
       <c r="M20" s="148">
         <f t="shared" si="4"/>
-        <v>4200</v>
-      </c>
-      <c r="N20" s="279" t="s">
+        <v>4500</v>
+      </c>
+      <c r="N20" s="286" t="s">
         <v>534</v>
       </c>
-      <c r="O20" s="279"/>
+      <c r="O20" s="286"/>
       <c r="P20" s="34"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -19739,7 +19739,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="146">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H21" s="147">
         <f t="shared" si="1"/>
@@ -19747,13 +19747,13 @@
       </c>
       <c r="I21" s="148">
         <f t="shared" si="2"/>
-        <v>4400</v>
+        <v>4950</v>
       </c>
       <c r="J21" s="149">
         <v>1</v>
       </c>
       <c r="K21" s="150">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L21" s="147">
         <f t="shared" si="3"/>
@@ -19761,12 +19761,12 @@
       </c>
       <c r="M21" s="148">
         <f t="shared" si="4"/>
-        <v>4800</v>
-      </c>
-      <c r="N21" s="279" t="s">
+        <v>5400</v>
+      </c>
+      <c r="N21" s="286" t="s">
         <v>534</v>
       </c>
-      <c r="O21" s="279"/>
+      <c r="O21" s="286"/>
       <c r="P21" s="34"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -19807,8 +19807,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N22" s="274"/>
-      <c r="O22" s="274"/>
+      <c r="N22" s="287"/>
+      <c r="O22" s="287"/>
       <c r="P22" s="34"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -19849,8 +19849,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N23" s="274"/>
-      <c r="O23" s="274"/>
+      <c r="N23" s="287"/>
+      <c r="O23" s="287"/>
       <c r="P23" s="34"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -19891,8 +19891,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N24" s="274"/>
-      <c r="O24" s="274"/>
+      <c r="N24" s="287"/>
+      <c r="O24" s="287"/>
       <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -19933,8 +19933,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N25" s="274"/>
-      <c r="O25" s="274"/>
+      <c r="N25" s="287"/>
+      <c r="O25" s="287"/>
       <c r="P25" s="34"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -19975,8 +19975,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N26" s="274"/>
-      <c r="O26" s="274"/>
+      <c r="N26" s="287"/>
+      <c r="O26" s="287"/>
       <c r="P26" s="34"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -20017,8 +20017,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N27" s="274"/>
-      <c r="O27" s="274"/>
+      <c r="N27" s="287"/>
+      <c r="O27" s="287"/>
       <c r="P27" s="34"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -20059,8 +20059,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N28" s="274"/>
-      <c r="O28" s="274"/>
+      <c r="N28" s="287"/>
+      <c r="O28" s="287"/>
       <c r="P28" s="34"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -20101,8 +20101,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N29" s="274"/>
-      <c r="O29" s="274"/>
+      <c r="N29" s="287"/>
+      <c r="O29" s="287"/>
       <c r="P29" s="34"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -20143,8 +20143,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N30" s="274"/>
-      <c r="O30" s="274"/>
+      <c r="N30" s="287"/>
+      <c r="O30" s="287"/>
       <c r="P30" s="34"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -20185,8 +20185,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N31" s="274"/>
-      <c r="O31" s="274"/>
+      <c r="N31" s="287"/>
+      <c r="O31" s="287"/>
       <c r="P31" s="34"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -20227,8 +20227,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N32" s="274"/>
-      <c r="O32" s="274"/>
+      <c r="N32" s="287"/>
+      <c r="O32" s="287"/>
       <c r="P32" s="34"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -20269,8 +20269,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N33" s="274"/>
-      <c r="O33" s="274"/>
+      <c r="N33" s="287"/>
+      <c r="O33" s="287"/>
       <c r="P33" s="34"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -20311,8 +20311,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N34" s="274"/>
-      <c r="O34" s="274"/>
+      <c r="N34" s="287"/>
+      <c r="O34" s="287"/>
       <c r="P34" s="34"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -20353,8 +20353,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N35" s="274"/>
-      <c r="O35" s="274"/>
+      <c r="N35" s="287"/>
+      <c r="O35" s="287"/>
       <c r="P35" s="34"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -20395,8 +20395,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N36" s="274"/>
-      <c r="O36" s="274"/>
+      <c r="N36" s="287"/>
+      <c r="O36" s="287"/>
       <c r="P36" s="34"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -20437,8 +20437,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N37" s="274"/>
-      <c r="O37" s="274"/>
+      <c r="N37" s="287"/>
+      <c r="O37" s="287"/>
       <c r="P37" s="34"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -20479,8 +20479,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N38" s="274"/>
-      <c r="O38" s="274"/>
+      <c r="N38" s="287"/>
+      <c r="O38" s="287"/>
       <c r="P38" s="34"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -20521,8 +20521,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N39" s="274"/>
-      <c r="O39" s="274"/>
+      <c r="N39" s="287"/>
+      <c r="O39" s="287"/>
       <c r="P39" s="34"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -20563,8 +20563,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N40" s="274"/>
-      <c r="O40" s="274"/>
+      <c r="N40" s="287"/>
+      <c r="O40" s="287"/>
       <c r="P40" s="34"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -20605,8 +20605,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N41" s="274"/>
-      <c r="O41" s="274"/>
+      <c r="N41" s="287"/>
+      <c r="O41" s="287"/>
       <c r="P41" s="34"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -20647,8 +20647,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N42" s="274"/>
-      <c r="O42" s="274"/>
+      <c r="N42" s="287"/>
+      <c r="O42" s="287"/>
       <c r="P42" s="34"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -20689,8 +20689,8 @@
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N43" s="274"/>
-      <c r="O43" s="274"/>
+      <c r="N43" s="287"/>
+      <c r="O43" s="287"/>
       <c r="P43" s="34"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -20731,8 +20731,8 @@
         <f t="shared" ref="M44:M75" si="9">IF(OR((K44-INT(K44))=0,(K44-INT(K44)=0.5)),IFERROR(ROUND(K44*L44,2)," "),0)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N44" s="274"/>
-      <c r="O44" s="274"/>
+      <c r="N44" s="287"/>
+      <c r="O44" s="287"/>
       <c r="P44" s="34"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -20773,8 +20773,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N45" s="274"/>
-      <c r="O45" s="274"/>
+      <c r="N45" s="287"/>
+      <c r="O45" s="287"/>
       <c r="P45" s="34"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -20815,8 +20815,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N46" s="274"/>
-      <c r="O46" s="274"/>
+      <c r="N46" s="287"/>
+      <c r="O46" s="287"/>
       <c r="P46" s="34"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -20857,8 +20857,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N47" s="274"/>
-      <c r="O47" s="274"/>
+      <c r="N47" s="287"/>
+      <c r="O47" s="287"/>
       <c r="P47" s="34"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -20899,8 +20899,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N48" s="274"/>
-      <c r="O48" s="274"/>
+      <c r="N48" s="287"/>
+      <c r="O48" s="287"/>
       <c r="P48" s="34"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -20941,8 +20941,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N49" s="274"/>
-      <c r="O49" s="274"/>
+      <c r="N49" s="287"/>
+      <c r="O49" s="287"/>
       <c r="P49" s="34"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -20983,8 +20983,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N50" s="274"/>
-      <c r="O50" s="274"/>
+      <c r="N50" s="287"/>
+      <c r="O50" s="287"/>
       <c r="P50" s="34"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -21025,8 +21025,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N51" s="274"/>
-      <c r="O51" s="274"/>
+      <c r="N51" s="287"/>
+      <c r="O51" s="287"/>
       <c r="P51" s="34"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -21067,8 +21067,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N52" s="274"/>
-      <c r="O52" s="274"/>
+      <c r="N52" s="287"/>
+      <c r="O52" s="287"/>
       <c r="P52" s="34"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -21109,8 +21109,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N53" s="274"/>
-      <c r="O53" s="274"/>
+      <c r="N53" s="287"/>
+      <c r="O53" s="287"/>
       <c r="P53" s="34"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -21151,8 +21151,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N54" s="274"/>
-      <c r="O54" s="274"/>
+      <c r="N54" s="287"/>
+      <c r="O54" s="287"/>
       <c r="P54" s="34"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -21193,8 +21193,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N55" s="274"/>
-      <c r="O55" s="274"/>
+      <c r="N55" s="287"/>
+      <c r="O55" s="287"/>
       <c r="P55" s="34"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -21235,8 +21235,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N56" s="274"/>
-      <c r="O56" s="274"/>
+      <c r="N56" s="287"/>
+      <c r="O56" s="287"/>
       <c r="P56" s="34"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -21277,8 +21277,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N57" s="274"/>
-      <c r="O57" s="274"/>
+      <c r="N57" s="287"/>
+      <c r="O57" s="287"/>
       <c r="P57" s="34"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -21319,8 +21319,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N58" s="274"/>
-      <c r="O58" s="274"/>
+      <c r="N58" s="287"/>
+      <c r="O58" s="287"/>
       <c r="P58" s="34"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -21361,8 +21361,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N59" s="274"/>
-      <c r="O59" s="274"/>
+      <c r="N59" s="287"/>
+      <c r="O59" s="287"/>
       <c r="P59" s="34"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -21403,8 +21403,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N60" s="274"/>
-      <c r="O60" s="274"/>
+      <c r="N60" s="287"/>
+      <c r="O60" s="287"/>
       <c r="P60" s="34"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -21445,8 +21445,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N61" s="274"/>
-      <c r="O61" s="274"/>
+      <c r="N61" s="287"/>
+      <c r="O61" s="287"/>
       <c r="P61" s="34"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -21487,8 +21487,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N62" s="274"/>
-      <c r="O62" s="274"/>
+      <c r="N62" s="287"/>
+      <c r="O62" s="287"/>
       <c r="P62" s="34"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -21529,8 +21529,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N63" s="274"/>
-      <c r="O63" s="274"/>
+      <c r="N63" s="287"/>
+      <c r="O63" s="287"/>
       <c r="P63" s="34"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -21571,8 +21571,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N64" s="274"/>
-      <c r="O64" s="274"/>
+      <c r="N64" s="287"/>
+      <c r="O64" s="287"/>
       <c r="P64" s="34"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -21613,8 +21613,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N65" s="274"/>
-      <c r="O65" s="274"/>
+      <c r="N65" s="287"/>
+      <c r="O65" s="287"/>
       <c r="P65" s="34"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -21655,8 +21655,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N66" s="274"/>
-      <c r="O66" s="274"/>
+      <c r="N66" s="287"/>
+      <c r="O66" s="287"/>
       <c r="P66" s="34"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -21697,8 +21697,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N67" s="274"/>
-      <c r="O67" s="274"/>
+      <c r="N67" s="287"/>
+      <c r="O67" s="287"/>
       <c r="P67" s="34"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -21739,8 +21739,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N68" s="274"/>
-      <c r="O68" s="274"/>
+      <c r="N68" s="287"/>
+      <c r="O68" s="287"/>
       <c r="P68" s="34"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -21781,8 +21781,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N69" s="274"/>
-      <c r="O69" s="274"/>
+      <c r="N69" s="287"/>
+      <c r="O69" s="287"/>
       <c r="P69" s="34"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -21823,8 +21823,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N70" s="274"/>
-      <c r="O70" s="274"/>
+      <c r="N70" s="287"/>
+      <c r="O70" s="287"/>
       <c r="P70" s="34"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -21865,8 +21865,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N71" s="274"/>
-      <c r="O71" s="274"/>
+      <c r="N71" s="287"/>
+      <c r="O71" s="287"/>
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -21907,8 +21907,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N72" s="274"/>
-      <c r="O72" s="274"/>
+      <c r="N72" s="287"/>
+      <c r="O72" s="287"/>
       <c r="P72" s="34"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -21949,8 +21949,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N73" s="274"/>
-      <c r="O73" s="274"/>
+      <c r="N73" s="287"/>
+      <c r="O73" s="287"/>
       <c r="P73" s="34"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -21991,8 +21991,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N74" s="274"/>
-      <c r="O74" s="274"/>
+      <c r="N74" s="287"/>
+      <c r="O74" s="287"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -22033,8 +22033,8 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N75" s="274"/>
-      <c r="O75" s="274"/>
+      <c r="N75" s="287"/>
+      <c r="O75" s="287"/>
       <c r="P75" s="34"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -22075,8 +22075,8 @@
         <f t="shared" ref="M76:M107" si="14">IF(OR((K76-INT(K76))=0,(K76-INT(K76)=0.5)),IFERROR(ROUND(K76*L76,2)," "),0)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N76" s="274"/>
-      <c r="O76" s="274"/>
+      <c r="N76" s="287"/>
+      <c r="O76" s="287"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -22117,8 +22117,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N77" s="274"/>
-      <c r="O77" s="274"/>
+      <c r="N77" s="287"/>
+      <c r="O77" s="287"/>
       <c r="P77" s="34"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -22159,8 +22159,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N78" s="274"/>
-      <c r="O78" s="274"/>
+      <c r="N78" s="287"/>
+      <c r="O78" s="287"/>
       <c r="P78" s="34"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -22201,8 +22201,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N79" s="274"/>
-      <c r="O79" s="274"/>
+      <c r="N79" s="287"/>
+      <c r="O79" s="287"/>
       <c r="P79" s="34"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -22243,8 +22243,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N80" s="274"/>
-      <c r="O80" s="274"/>
+      <c r="N80" s="287"/>
+      <c r="O80" s="287"/>
       <c r="P80" s="34"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -22285,8 +22285,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N81" s="274"/>
-      <c r="O81" s="274"/>
+      <c r="N81" s="287"/>
+      <c r="O81" s="287"/>
       <c r="P81" s="34"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
@@ -22327,8 +22327,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N82" s="274"/>
-      <c r="O82" s="274"/>
+      <c r="N82" s="287"/>
+      <c r="O82" s="287"/>
       <c r="P82" s="34"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -22369,8 +22369,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N83" s="274"/>
-      <c r="O83" s="274"/>
+      <c r="N83" s="287"/>
+      <c r="O83" s="287"/>
       <c r="P83" s="34"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -22411,8 +22411,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N84" s="274"/>
-      <c r="O84" s="274"/>
+      <c r="N84" s="287"/>
+      <c r="O84" s="287"/>
       <c r="P84" s="34"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -22453,8 +22453,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N85" s="274"/>
-      <c r="O85" s="274"/>
+      <c r="N85" s="287"/>
+      <c r="O85" s="287"/>
       <c r="P85" s="34"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -22495,8 +22495,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N86" s="274"/>
-      <c r="O86" s="274"/>
+      <c r="N86" s="287"/>
+      <c r="O86" s="287"/>
       <c r="P86" s="34"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -22537,8 +22537,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N87" s="274"/>
-      <c r="O87" s="274"/>
+      <c r="N87" s="287"/>
+      <c r="O87" s="287"/>
       <c r="P87" s="34"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -22579,8 +22579,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N88" s="274"/>
-      <c r="O88" s="274"/>
+      <c r="N88" s="287"/>
+      <c r="O88" s="287"/>
       <c r="P88" s="34"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -22621,8 +22621,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N89" s="274"/>
-      <c r="O89" s="274"/>
+      <c r="N89" s="287"/>
+      <c r="O89" s="287"/>
       <c r="P89" s="34"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -22663,8 +22663,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N90" s="274"/>
-      <c r="O90" s="274"/>
+      <c r="N90" s="287"/>
+      <c r="O90" s="287"/>
       <c r="P90" s="34"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -22705,8 +22705,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N91" s="274"/>
-      <c r="O91" s="274"/>
+      <c r="N91" s="287"/>
+      <c r="O91" s="287"/>
       <c r="P91" s="34"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -22747,8 +22747,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N92" s="274"/>
-      <c r="O92" s="274"/>
+      <c r="N92" s="287"/>
+      <c r="O92" s="287"/>
       <c r="P92" s="34"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
@@ -22789,8 +22789,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N93" s="274"/>
-      <c r="O93" s="274"/>
+      <c r="N93" s="287"/>
+      <c r="O93" s="287"/>
       <c r="P93" s="34"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -22831,8 +22831,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N94" s="274"/>
-      <c r="O94" s="274"/>
+      <c r="N94" s="287"/>
+      <c r="O94" s="287"/>
       <c r="P94" s="34"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -22873,8 +22873,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N95" s="274"/>
-      <c r="O95" s="274"/>
+      <c r="N95" s="287"/>
+      <c r="O95" s="287"/>
       <c r="P95" s="34"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -22915,8 +22915,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N96" s="274"/>
-      <c r="O96" s="274"/>
+      <c r="N96" s="287"/>
+      <c r="O96" s="287"/>
       <c r="P96" s="34"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
@@ -22957,8 +22957,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N97" s="274"/>
-      <c r="O97" s="274"/>
+      <c r="N97" s="287"/>
+      <c r="O97" s="287"/>
       <c r="P97" s="34"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -22999,8 +22999,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N98" s="274"/>
-      <c r="O98" s="274"/>
+      <c r="N98" s="287"/>
+      <c r="O98" s="287"/>
       <c r="P98" s="34"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -23041,8 +23041,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N99" s="274"/>
-      <c r="O99" s="274"/>
+      <c r="N99" s="287"/>
+      <c r="O99" s="287"/>
       <c r="P99" s="34"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -23083,8 +23083,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N100" s="274"/>
-      <c r="O100" s="274"/>
+      <c r="N100" s="287"/>
+      <c r="O100" s="287"/>
       <c r="P100" s="34"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -23125,8 +23125,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N101" s="274"/>
-      <c r="O101" s="274"/>
+      <c r="N101" s="287"/>
+      <c r="O101" s="287"/>
       <c r="P101" s="34"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -23167,8 +23167,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N102" s="274"/>
-      <c r="O102" s="274"/>
+      <c r="N102" s="287"/>
+      <c r="O102" s="287"/>
       <c r="P102" s="34"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -23209,8 +23209,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N103" s="274"/>
-      <c r="O103" s="274"/>
+      <c r="N103" s="287"/>
+      <c r="O103" s="287"/>
       <c r="P103" s="34"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -23251,8 +23251,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N104" s="274"/>
-      <c r="O104" s="274"/>
+      <c r="N104" s="287"/>
+      <c r="O104" s="287"/>
       <c r="P104" s="34"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -23293,8 +23293,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N105" s="274"/>
-      <c r="O105" s="274"/>
+      <c r="N105" s="287"/>
+      <c r="O105" s="287"/>
       <c r="P105" s="34"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -23335,8 +23335,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N106" s="274"/>
-      <c r="O106" s="274"/>
+      <c r="N106" s="287"/>
+      <c r="O106" s="287"/>
       <c r="P106" s="34"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -23377,8 +23377,8 @@
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N107" s="274"/>
-      <c r="O107" s="274"/>
+      <c r="N107" s="287"/>
+      <c r="O107" s="287"/>
       <c r="P107" s="34"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -23419,8 +23419,8 @@
         <f t="shared" ref="M108:M139" si="19">IF(OR((K108-INT(K108))=0,(K108-INT(K108)=0.5)),IFERROR(ROUND(K108*L108,2)," "),0)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N108" s="274"/>
-      <c r="O108" s="274"/>
+      <c r="N108" s="287"/>
+      <c r="O108" s="287"/>
       <c r="P108" s="34"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -23461,8 +23461,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N109" s="274"/>
-      <c r="O109" s="274"/>
+      <c r="N109" s="287"/>
+      <c r="O109" s="287"/>
       <c r="P109" s="34"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -23503,8 +23503,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N110" s="274"/>
-      <c r="O110" s="274"/>
+      <c r="N110" s="287"/>
+      <c r="O110" s="287"/>
       <c r="P110" s="34"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -23545,8 +23545,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N111" s="274"/>
-      <c r="O111" s="274"/>
+      <c r="N111" s="287"/>
+      <c r="O111" s="287"/>
       <c r="P111" s="34"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -23587,8 +23587,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N112" s="274"/>
-      <c r="O112" s="274"/>
+      <c r="N112" s="287"/>
+      <c r="O112" s="287"/>
       <c r="P112" s="34"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -23629,8 +23629,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N113" s="274"/>
-      <c r="O113" s="274"/>
+      <c r="N113" s="287"/>
+      <c r="O113" s="287"/>
       <c r="P113" s="34"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -23671,8 +23671,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N114" s="274"/>
-      <c r="O114" s="274"/>
+      <c r="N114" s="287"/>
+      <c r="O114" s="287"/>
       <c r="P114" s="34"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -23713,8 +23713,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N115" s="274"/>
-      <c r="O115" s="274"/>
+      <c r="N115" s="287"/>
+      <c r="O115" s="287"/>
       <c r="P115" s="34"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -23755,8 +23755,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N116" s="274"/>
-      <c r="O116" s="274"/>
+      <c r="N116" s="287"/>
+      <c r="O116" s="287"/>
       <c r="P116" s="34"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -23797,8 +23797,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N117" s="274"/>
-      <c r="O117" s="274"/>
+      <c r="N117" s="287"/>
+      <c r="O117" s="287"/>
       <c r="P117" s="34"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -23839,8 +23839,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N118" s="274"/>
-      <c r="O118" s="274"/>
+      <c r="N118" s="287"/>
+      <c r="O118" s="287"/>
       <c r="P118" s="34"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -23881,8 +23881,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N119" s="274"/>
-      <c r="O119" s="274"/>
+      <c r="N119" s="287"/>
+      <c r="O119" s="287"/>
       <c r="P119" s="34"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -23923,8 +23923,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N120" s="274"/>
-      <c r="O120" s="274"/>
+      <c r="N120" s="287"/>
+      <c r="O120" s="287"/>
       <c r="P120" s="34"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -23965,8 +23965,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N121" s="274"/>
-      <c r="O121" s="274"/>
+      <c r="N121" s="287"/>
+      <c r="O121" s="287"/>
       <c r="P121" s="34"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -24007,8 +24007,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N122" s="274"/>
-      <c r="O122" s="274"/>
+      <c r="N122" s="287"/>
+      <c r="O122" s="287"/>
       <c r="P122" s="34"/>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -24049,8 +24049,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N123" s="274"/>
-      <c r="O123" s="274"/>
+      <c r="N123" s="287"/>
+      <c r="O123" s="287"/>
       <c r="P123" s="34"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -24091,8 +24091,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N124" s="274"/>
-      <c r="O124" s="274"/>
+      <c r="N124" s="287"/>
+      <c r="O124" s="287"/>
       <c r="P124" s="34"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -24133,8 +24133,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N125" s="274"/>
-      <c r="O125" s="274"/>
+      <c r="N125" s="287"/>
+      <c r="O125" s="287"/>
       <c r="P125" s="34"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -24175,8 +24175,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N126" s="274"/>
-      <c r="O126" s="274"/>
+      <c r="N126" s="287"/>
+      <c r="O126" s="287"/>
       <c r="P126" s="34"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -24217,8 +24217,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N127" s="274"/>
-      <c r="O127" s="274"/>
+      <c r="N127" s="287"/>
+      <c r="O127" s="287"/>
       <c r="P127" s="34"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
@@ -24259,8 +24259,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N128" s="274"/>
-      <c r="O128" s="274"/>
+      <c r="N128" s="287"/>
+      <c r="O128" s="287"/>
       <c r="P128" s="34"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -24301,8 +24301,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N129" s="274"/>
-      <c r="O129" s="274"/>
+      <c r="N129" s="287"/>
+      <c r="O129" s="287"/>
       <c r="P129" s="34"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
@@ -24343,8 +24343,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N130" s="274"/>
-      <c r="O130" s="274"/>
+      <c r="N130" s="287"/>
+      <c r="O130" s="287"/>
       <c r="P130" s="34"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
@@ -24385,8 +24385,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N131" s="274"/>
-      <c r="O131" s="274"/>
+      <c r="N131" s="287"/>
+      <c r="O131" s="287"/>
       <c r="P131" s="34"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -24427,8 +24427,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N132" s="274"/>
-      <c r="O132" s="274"/>
+      <c r="N132" s="287"/>
+      <c r="O132" s="287"/>
       <c r="P132" s="34"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
@@ -24469,8 +24469,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N133" s="274"/>
-      <c r="O133" s="274"/>
+      <c r="N133" s="287"/>
+      <c r="O133" s="287"/>
       <c r="P133" s="34"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
@@ -24511,8 +24511,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N134" s="274"/>
-      <c r="O134" s="274"/>
+      <c r="N134" s="287"/>
+      <c r="O134" s="287"/>
       <c r="P134" s="34"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -24553,8 +24553,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N135" s="274"/>
-      <c r="O135" s="274"/>
+      <c r="N135" s="287"/>
+      <c r="O135" s="287"/>
       <c r="P135" s="34"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -24595,8 +24595,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N136" s="274"/>
-      <c r="O136" s="274"/>
+      <c r="N136" s="287"/>
+      <c r="O136" s="287"/>
       <c r="P136" s="34"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -24637,8 +24637,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N137" s="274"/>
-      <c r="O137" s="274"/>
+      <c r="N137" s="287"/>
+      <c r="O137" s="287"/>
       <c r="P137" s="34"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
@@ -24679,8 +24679,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N138" s="274"/>
-      <c r="O138" s="274"/>
+      <c r="N138" s="287"/>
+      <c r="O138" s="287"/>
       <c r="P138" s="34"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
@@ -24721,8 +24721,8 @@
         <f t="shared" si="19"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N139" s="274"/>
-      <c r="O139" s="274"/>
+      <c r="N139" s="287"/>
+      <c r="O139" s="287"/>
       <c r="P139" s="34"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
@@ -24763,8 +24763,8 @@
         <f t="shared" ref="M140:M161" si="24">IF(OR((K140-INT(K140))=0,(K140-INT(K140)=0.5)),IFERROR(ROUND(K140*L140,2)," "),0)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N140" s="274"/>
-      <c r="O140" s="274"/>
+      <c r="N140" s="287"/>
+      <c r="O140" s="287"/>
       <c r="P140" s="34"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
@@ -24805,8 +24805,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N141" s="274"/>
-      <c r="O141" s="274"/>
+      <c r="N141" s="287"/>
+      <c r="O141" s="287"/>
       <c r="P141" s="34"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
@@ -24847,8 +24847,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N142" s="274"/>
-      <c r="O142" s="274"/>
+      <c r="N142" s="287"/>
+      <c r="O142" s="287"/>
       <c r="P142" s="34"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -24889,8 +24889,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N143" s="274"/>
-      <c r="O143" s="274"/>
+      <c r="N143" s="287"/>
+      <c r="O143" s="287"/>
       <c r="P143" s="34"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
@@ -24931,8 +24931,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N144" s="274"/>
-      <c r="O144" s="274"/>
+      <c r="N144" s="287"/>
+      <c r="O144" s="287"/>
       <c r="P144" s="34"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
@@ -24973,8 +24973,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N145" s="274"/>
-      <c r="O145" s="274"/>
+      <c r="N145" s="287"/>
+      <c r="O145" s="287"/>
       <c r="P145" s="34"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
@@ -25015,8 +25015,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N146" s="274"/>
-      <c r="O146" s="274"/>
+      <c r="N146" s="287"/>
+      <c r="O146" s="287"/>
       <c r="P146" s="34"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
@@ -25057,8 +25057,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N147" s="274"/>
-      <c r="O147" s="274"/>
+      <c r="N147" s="287"/>
+      <c r="O147" s="287"/>
       <c r="P147" s="34"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
@@ -25099,8 +25099,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N148" s="274"/>
-      <c r="O148" s="274"/>
+      <c r="N148" s="287"/>
+      <c r="O148" s="287"/>
       <c r="P148" s="34"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
@@ -25141,8 +25141,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N149" s="274"/>
-      <c r="O149" s="274"/>
+      <c r="N149" s="287"/>
+      <c r="O149" s="287"/>
       <c r="P149" s="34"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
@@ -25183,8 +25183,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N150" s="274"/>
-      <c r="O150" s="274"/>
+      <c r="N150" s="287"/>
+      <c r="O150" s="287"/>
       <c r="P150" s="34"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
@@ -25225,8 +25225,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N151" s="274"/>
-      <c r="O151" s="274"/>
+      <c r="N151" s="287"/>
+      <c r="O151" s="287"/>
       <c r="P151" s="34"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
@@ -25267,8 +25267,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N152" s="274"/>
-      <c r="O152" s="274"/>
+      <c r="N152" s="287"/>
+      <c r="O152" s="287"/>
       <c r="P152" s="34"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
@@ -25309,8 +25309,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N153" s="274"/>
-      <c r="O153" s="274"/>
+      <c r="N153" s="287"/>
+      <c r="O153" s="287"/>
       <c r="P153" s="34"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
@@ -25351,8 +25351,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N154" s="274"/>
-      <c r="O154" s="274"/>
+      <c r="N154" s="287"/>
+      <c r="O154" s="287"/>
       <c r="P154" s="34"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
@@ -25393,8 +25393,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N155" s="274"/>
-      <c r="O155" s="274"/>
+      <c r="N155" s="287"/>
+      <c r="O155" s="287"/>
       <c r="P155" s="34"/>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
@@ -25435,8 +25435,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N156" s="274"/>
-      <c r="O156" s="274"/>
+      <c r="N156" s="287"/>
+      <c r="O156" s="287"/>
       <c r="P156" s="34"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
@@ -25477,8 +25477,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N157" s="274"/>
-      <c r="O157" s="274"/>
+      <c r="N157" s="287"/>
+      <c r="O157" s="287"/>
       <c r="P157" s="34"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
@@ -25519,8 +25519,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N158" s="274"/>
-      <c r="O158" s="274"/>
+      <c r="N158" s="287"/>
+      <c r="O158" s="287"/>
       <c r="P158" s="34"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
@@ -25561,8 +25561,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N159" s="274"/>
-      <c r="O159" s="274"/>
+      <c r="N159" s="287"/>
+      <c r="O159" s="287"/>
       <c r="P159" s="34"/>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
@@ -25603,8 +25603,8 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N160" s="274"/>
-      <c r="O160" s="274"/>
+      <c r="N160" s="287"/>
+      <c r="O160" s="287"/>
       <c r="P160" s="34"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
@@ -25645,41 +25645,195 @@
         <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N161" s="274"/>
-      <c r="O161" s="274"/>
+      <c r="N161" s="287"/>
+      <c r="O161" s="287"/>
       <c r="P161" s="34"/>
     </row>
     <row r="162" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="151"/>
       <c r="B162" s="152"/>
-      <c r="C162" s="275" t="str">
+      <c r="C162" s="288" t="str">
         <f>+Translation!A88</f>
         <v>Total Part IV</v>
       </c>
-      <c r="D162" s="275"/>
-      <c r="E162" s="275"/>
-      <c r="F162" s="276"/>
-      <c r="G162" s="276"/>
-      <c r="H162" s="276"/>
+      <c r="D162" s="288"/>
+      <c r="E162" s="288"/>
+      <c r="F162" s="289"/>
+      <c r="G162" s="289"/>
+      <c r="H162" s="289"/>
       <c r="I162" s="153">
         <f>SUM(I12:I161)</f>
         <v>30250</v>
       </c>
-      <c r="J162" s="277"/>
-      <c r="K162" s="277"/>
-      <c r="L162" s="277"/>
+      <c r="J162" s="290"/>
+      <c r="K162" s="290"/>
+      <c r="L162" s="290"/>
       <c r="M162" s="153">
         <f>SUM(M12:M161)</f>
         <v>33000</v>
       </c>
-      <c r="N162" s="278"/>
-      <c r="O162" s="278"/>
+      <c r="N162" s="291"/>
+      <c r="O162" s="291"/>
       <c r="P162" s="34"/>
     </row>
     <row r="163" spans="1:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection password="8100" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="166">
+    <mergeCell ref="N156:O156"/>
+    <mergeCell ref="N157:O157"/>
+    <mergeCell ref="N158:O158"/>
+    <mergeCell ref="N159:O159"/>
+    <mergeCell ref="N160:O160"/>
+    <mergeCell ref="N161:O161"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="J162:L162"/>
+    <mergeCell ref="N162:O162"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="N153:O153"/>
+    <mergeCell ref="N154:O154"/>
+    <mergeCell ref="N155:O155"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:M1"/>
     <mergeCell ref="N1:O1"/>
@@ -25692,160 +25846,6 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:M10"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="N98:O98"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="N108:O108"/>
-    <mergeCell ref="N109:O109"/>
-    <mergeCell ref="N110:O110"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="N114:O114"/>
-    <mergeCell ref="N115:O115"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="N118:O118"/>
-    <mergeCell ref="N119:O119"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="N124:O124"/>
-    <mergeCell ref="N125:O125"/>
-    <mergeCell ref="N126:O126"/>
-    <mergeCell ref="N127:O127"/>
-    <mergeCell ref="N128:O128"/>
-    <mergeCell ref="N129:O129"/>
-    <mergeCell ref="N130:O130"/>
-    <mergeCell ref="N131:O131"/>
-    <mergeCell ref="N132:O132"/>
-    <mergeCell ref="N133:O133"/>
-    <mergeCell ref="N134:O134"/>
-    <mergeCell ref="N135:O135"/>
-    <mergeCell ref="N136:O136"/>
-    <mergeCell ref="N137:O137"/>
-    <mergeCell ref="N138:O138"/>
-    <mergeCell ref="N139:O139"/>
-    <mergeCell ref="N140:O140"/>
-    <mergeCell ref="N141:O141"/>
-    <mergeCell ref="N142:O142"/>
-    <mergeCell ref="N143:O143"/>
-    <mergeCell ref="N144:O144"/>
-    <mergeCell ref="N145:O145"/>
-    <mergeCell ref="N146:O146"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="N154:O154"/>
-    <mergeCell ref="N155:O155"/>
-    <mergeCell ref="N156:O156"/>
-    <mergeCell ref="N157:O157"/>
-    <mergeCell ref="N158:O158"/>
-    <mergeCell ref="N159:O159"/>
-    <mergeCell ref="N160:O160"/>
-    <mergeCell ref="N161:O161"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="J162:L162"/>
-    <mergeCell ref="N162:O162"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:B1 V1">
     <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
@@ -25965,22 +25965,22 @@
       <c r="AA1" s="155"/>
       <c r="AB1" s="155"/>
       <c r="AC1" s="155"/>
-      <c r="AD1" s="297" t="str">
+      <c r="AD1" s="292" t="str">
         <f>+Translation!A93</f>
         <v>Preparation</v>
       </c>
-      <c r="AE1" s="297"/>
-      <c r="AF1" s="297"/>
-      <c r="AG1" s="297"/>
-      <c r="AH1" s="297"/>
-      <c r="AI1" s="297"/>
-      <c r="AJ1" s="297"/>
-      <c r="AK1" s="297" t="s">
+      <c r="AE1" s="292"/>
+      <c r="AF1" s="292"/>
+      <c r="AG1" s="292"/>
+      <c r="AH1" s="292"/>
+      <c r="AI1" s="292"/>
+      <c r="AJ1" s="292"/>
+      <c r="AK1" s="292" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="297"/>
-      <c r="AM1" s="297"/>
-      <c r="AN1" s="297"/>
+      <c r="AL1" s="292"/>
+      <c r="AM1" s="292"/>
+      <c r="AN1" s="292"/>
       <c r="AO1" s="158" t="s">
         <v>25</v>
       </c>
@@ -26016,128 +26016,128 @@
       <c r="AA2" s="155"/>
       <c r="AB2" s="155"/>
       <c r="AC2" s="155"/>
-      <c r="AD2" s="297" t="str">
+      <c r="AD2" s="292" t="str">
         <f>+Translation!A94</f>
         <v>Management</v>
       </c>
-      <c r="AE2" s="297"/>
-      <c r="AF2" s="297"/>
-      <c r="AG2" s="297"/>
-      <c r="AH2" s="297"/>
-      <c r="AI2" s="297"/>
-      <c r="AJ2" s="297"/>
-      <c r="AK2" s="297" t="s">
+      <c r="AE2" s="292"/>
+      <c r="AF2" s="292"/>
+      <c r="AG2" s="292"/>
+      <c r="AH2" s="292"/>
+      <c r="AI2" s="292"/>
+      <c r="AJ2" s="292"/>
+      <c r="AK2" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="297"/>
-      <c r="AM2" s="297"/>
-      <c r="AN2" s="297"/>
+      <c r="AL2" s="292"/>
+      <c r="AM2" s="292"/>
+      <c r="AN2" s="292"/>
       <c r="AO2" s="158"/>
       <c r="AP2" s="155"/>
     </row>
     <row r="3" spans="1:42" s="159" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="301" t="str">
+      <c r="A3" s="293" t="str">
         <f>+Translation!A91</f>
         <v xml:space="preserve">The information in this worksheet should be consistent with the information provided in the "Detailed project </v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="301"/>
-      <c r="Q3" s="301"/>
-      <c r="R3" s="301"/>
-      <c r="S3" s="301"/>
-      <c r="T3" s="301"/>
-      <c r="U3" s="301"/>
-      <c r="V3" s="301"/>
-      <c r="W3" s="301"/>
-      <c r="X3" s="301"/>
-      <c r="Y3" s="301"/>
-      <c r="Z3" s="301"/>
-      <c r="AA3" s="301"/>
-      <c r="AB3" s="301"/>
-      <c r="AC3" s="301"/>
-      <c r="AD3" s="297" t="str">
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
+      <c r="M3" s="293"/>
+      <c r="N3" s="293"/>
+      <c r="O3" s="293"/>
+      <c r="P3" s="293"/>
+      <c r="Q3" s="293"/>
+      <c r="R3" s="293"/>
+      <c r="S3" s="293"/>
+      <c r="T3" s="293"/>
+      <c r="U3" s="293"/>
+      <c r="V3" s="293"/>
+      <c r="W3" s="293"/>
+      <c r="X3" s="293"/>
+      <c r="Y3" s="293"/>
+      <c r="Z3" s="293"/>
+      <c r="AA3" s="293"/>
+      <c r="AB3" s="293"/>
+      <c r="AC3" s="293"/>
+      <c r="AD3" s="292" t="str">
         <f>+Translation!A95</f>
         <v>Implementation</v>
       </c>
-      <c r="AE3" s="297"/>
-      <c r="AF3" s="297"/>
-      <c r="AG3" s="297"/>
-      <c r="AH3" s="297"/>
-      <c r="AI3" s="297"/>
-      <c r="AJ3" s="297"/>
-      <c r="AK3" s="297" t="s">
+      <c r="AE3" s="292"/>
+      <c r="AF3" s="292"/>
+      <c r="AG3" s="292"/>
+      <c r="AH3" s="292"/>
+      <c r="AI3" s="292"/>
+      <c r="AJ3" s="292"/>
+      <c r="AK3" s="292" t="s">
         <v>27</v>
       </c>
-      <c r="AL3" s="297"/>
-      <c r="AM3" s="297"/>
-      <c r="AN3" s="297"/>
+      <c r="AL3" s="292"/>
+      <c r="AM3" s="292"/>
+      <c r="AN3" s="292"/>
       <c r="AO3" s="158" t="s">
         <v>28</v>
       </c>
       <c r="AP3" s="155"/>
     </row>
     <row r="4" spans="1:42" s="159" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="301" t="str">
+      <c r="A4" s="293" t="str">
         <f>+Translation!A92</f>
         <v>description" annexed to your eForm</v>
       </c>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
-      <c r="N4" s="301"/>
-      <c r="O4" s="301"/>
-      <c r="P4" s="301"/>
-      <c r="Q4" s="301"/>
-      <c r="R4" s="301"/>
-      <c r="S4" s="301"/>
-      <c r="T4" s="301"/>
-      <c r="U4" s="301"/>
-      <c r="V4" s="301"/>
-      <c r="W4" s="301"/>
-      <c r="X4" s="301"/>
-      <c r="Y4" s="301"/>
-      <c r="Z4" s="301"/>
-      <c r="AA4" s="301"/>
-      <c r="AB4" s="301"/>
-      <c r="AC4" s="301"/>
-      <c r="AD4" s="297" t="str">
+      <c r="B4" s="293"/>
+      <c r="C4" s="293"/>
+      <c r="D4" s="293"/>
+      <c r="E4" s="293"/>
+      <c r="F4" s="293"/>
+      <c r="G4" s="293"/>
+      <c r="H4" s="293"/>
+      <c r="I4" s="293"/>
+      <c r="J4" s="293"/>
+      <c r="K4" s="293"/>
+      <c r="L4" s="293"/>
+      <c r="M4" s="293"/>
+      <c r="N4" s="293"/>
+      <c r="O4" s="293"/>
+      <c r="P4" s="293"/>
+      <c r="Q4" s="293"/>
+      <c r="R4" s="293"/>
+      <c r="S4" s="293"/>
+      <c r="T4" s="293"/>
+      <c r="U4" s="293"/>
+      <c r="V4" s="293"/>
+      <c r="W4" s="293"/>
+      <c r="X4" s="293"/>
+      <c r="Y4" s="293"/>
+      <c r="Z4" s="293"/>
+      <c r="AA4" s="293"/>
+      <c r="AB4" s="293"/>
+      <c r="AC4" s="293"/>
+      <c r="AD4" s="292" t="str">
         <f>+Translation!A96</f>
         <v>Quality Assurance</v>
       </c>
-      <c r="AE4" s="297"/>
-      <c r="AF4" s="297"/>
-      <c r="AG4" s="297"/>
-      <c r="AH4" s="297"/>
-      <c r="AI4" s="297"/>
-      <c r="AJ4" s="297"/>
-      <c r="AK4" s="297" t="s">
+      <c r="AE4" s="292"/>
+      <c r="AF4" s="292"/>
+      <c r="AG4" s="292"/>
+      <c r="AH4" s="292"/>
+      <c r="AI4" s="292"/>
+      <c r="AJ4" s="292"/>
+      <c r="AK4" s="292" t="s">
         <v>29</v>
       </c>
-      <c r="AL4" s="297"/>
-      <c r="AM4" s="297"/>
-      <c r="AN4" s="297"/>
+      <c r="AL4" s="292"/>
+      <c r="AM4" s="292"/>
+      <c r="AN4" s="292"/>
       <c r="AO4" s="158" t="s">
         <v>30</v>
       </c>
@@ -26173,77 +26173,77 @@
       <c r="AA5" s="160"/>
       <c r="AB5" s="160"/>
       <c r="AC5" s="160"/>
-      <c r="AD5" s="297" t="str">
+      <c r="AD5" s="292" t="str">
         <f>+Translation!A97</f>
         <v>Evaluation</v>
       </c>
-      <c r="AE5" s="297"/>
-      <c r="AF5" s="297"/>
-      <c r="AG5" s="297"/>
-      <c r="AH5" s="297"/>
-      <c r="AI5" s="297"/>
-      <c r="AJ5" s="297"/>
-      <c r="AK5" s="297" t="s">
+      <c r="AE5" s="292"/>
+      <c r="AF5" s="292"/>
+      <c r="AG5" s="292"/>
+      <c r="AH5" s="292"/>
+      <c r="AI5" s="292"/>
+      <c r="AJ5" s="292"/>
+      <c r="AK5" s="292" t="s">
         <v>31</v>
       </c>
-      <c r="AL5" s="297"/>
-      <c r="AM5" s="297"/>
-      <c r="AN5" s="297"/>
+      <c r="AL5" s="292"/>
+      <c r="AM5" s="292"/>
+      <c r="AN5" s="292"/>
       <c r="AO5" s="158"/>
       <c r="AP5" s="155"/>
     </row>
     <row r="6" spans="1:42" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="161"/>
-      <c r="B6" s="295" t="str">
+      <c r="B6" s="294" t="str">
         <f>+Translation!A99</f>
         <v xml:space="preserve">Select an Action </v>
       </c>
-      <c r="C6" s="295"/>
-      <c r="D6" s="295"/>
-      <c r="E6" s="295"/>
-      <c r="F6" s="295"/>
-      <c r="G6" s="295"/>
-      <c r="H6" s="295"/>
-      <c r="I6" s="295"/>
-      <c r="J6" s="295"/>
-      <c r="K6" s="295"/>
+      <c r="C6" s="294"/>
+      <c r="D6" s="294"/>
+      <c r="E6" s="294"/>
+      <c r="F6" s="294"/>
+      <c r="G6" s="294"/>
+      <c r="H6" s="294"/>
+      <c r="I6" s="294"/>
+      <c r="J6" s="294"/>
+      <c r="K6" s="294"/>
       <c r="L6" s="157"/>
       <c r="M6" s="157"/>
       <c r="N6" s="157"/>
-      <c r="O6" s="295" t="str">
+      <c r="O6" s="294" t="str">
         <f>+Translation!A101</f>
         <v>Maximum project duration</v>
       </c>
-      <c r="P6" s="295"/>
-      <c r="Q6" s="295"/>
-      <c r="R6" s="295"/>
-      <c r="S6" s="295"/>
-      <c r="T6" s="295"/>
-      <c r="U6" s="295"/>
-      <c r="V6" s="295"/>
-      <c r="W6" s="295"/>
+      <c r="P6" s="294"/>
+      <c r="Q6" s="294"/>
+      <c r="R6" s="294"/>
+      <c r="S6" s="294"/>
+      <c r="T6" s="294"/>
+      <c r="U6" s="294"/>
+      <c r="V6" s="294"/>
+      <c r="W6" s="294"/>
       <c r="X6" s="157"/>
       <c r="Y6" s="157"/>
       <c r="Z6" s="157"/>
       <c r="AA6" s="155"/>
       <c r="AB6" s="155"/>
       <c r="AC6" s="155"/>
-      <c r="AD6" s="296" t="str">
+      <c r="AD6" s="295" t="str">
         <f>+Translation!A98</f>
         <v>Dissemination &amp; Exploitation</v>
       </c>
-      <c r="AE6" s="296"/>
-      <c r="AF6" s="296"/>
-      <c r="AG6" s="296"/>
-      <c r="AH6" s="296"/>
-      <c r="AI6" s="296"/>
-      <c r="AJ6" s="296"/>
-      <c r="AK6" s="297" t="s">
+      <c r="AE6" s="295"/>
+      <c r="AF6" s="295"/>
+      <c r="AG6" s="295"/>
+      <c r="AH6" s="295"/>
+      <c r="AI6" s="295"/>
+      <c r="AJ6" s="295"/>
+      <c r="AK6" s="292" t="s">
         <v>32</v>
       </c>
-      <c r="AL6" s="297"/>
-      <c r="AM6" s="297"/>
-      <c r="AN6" s="297"/>
+      <c r="AL6" s="292"/>
+      <c r="AM6" s="292"/>
+      <c r="AN6" s="292"/>
       <c r="AO6" s="158" t="s">
         <v>33</v>
       </c>
@@ -26251,57 +26251,57 @@
     </row>
     <row r="7" spans="1:42" s="159" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="161"/>
-      <c r="B7" s="298" t="str">
+      <c r="B7" s="296" t="str">
         <f>+Translation!A100</f>
         <v>Action</v>
       </c>
-      <c r="C7" s="298"/>
-      <c r="D7" s="298" t="str">
+      <c r="C7" s="296"/>
+      <c r="D7" s="296" t="str">
         <f>+'I and II. Overview'!M11</f>
         <v>Knowledge alliances</v>
       </c>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="298"/>
-      <c r="I7" s="298"/>
-      <c r="J7" s="298"/>
-      <c r="K7" s="298"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
+      <c r="G7" s="296"/>
+      <c r="H7" s="296"/>
+      <c r="I7" s="296"/>
+      <c r="J7" s="296"/>
+      <c r="K7" s="296"/>
       <c r="L7" s="157"/>
       <c r="M7" s="157"/>
       <c r="N7" s="157"/>
-      <c r="O7" s="299">
+      <c r="O7" s="297">
         <f>+'I and II. Overview'!K12</f>
         <v>36</v>
       </c>
-      <c r="P7" s="299"/>
-      <c r="Q7" s="299"/>
+      <c r="P7" s="297"/>
+      <c r="Q7" s="297"/>
       <c r="R7" s="162"/>
-      <c r="S7" s="300" t="str">
+      <c r="S7" s="298" t="str">
         <f>+Translation!A107</f>
         <v>MONTHS</v>
       </c>
-      <c r="T7" s="300"/>
-      <c r="U7" s="300"/>
-      <c r="V7" s="300"/>
-      <c r="W7" s="300"/>
+      <c r="T7" s="298"/>
+      <c r="U7" s="298"/>
+      <c r="V7" s="298"/>
+      <c r="W7" s="298"/>
       <c r="X7" s="157"/>
       <c r="Y7" s="157"/>
       <c r="Z7" s="157"/>
       <c r="AA7" s="155"/>
       <c r="AB7" s="155"/>
       <c r="AC7" s="155"/>
-      <c r="AD7" s="296"/>
-      <c r="AE7" s="296"/>
-      <c r="AF7" s="296"/>
-      <c r="AG7" s="296"/>
-      <c r="AH7" s="296"/>
-      <c r="AI7" s="296"/>
-      <c r="AJ7" s="296"/>
-      <c r="AK7" s="297"/>
-      <c r="AL7" s="297"/>
-      <c r="AM7" s="297"/>
-      <c r="AN7" s="297"/>
+      <c r="AD7" s="295"/>
+      <c r="AE7" s="295"/>
+      <c r="AF7" s="295"/>
+      <c r="AG7" s="295"/>
+      <c r="AH7" s="295"/>
+      <c r="AI7" s="295"/>
+      <c r="AJ7" s="295"/>
+      <c r="AK7" s="292"/>
+      <c r="AL7" s="292"/>
+      <c r="AM7" s="292"/>
+      <c r="AN7" s="292"/>
       <c r="AO7" s="155"/>
       <c r="AP7" s="155"/>
     </row>
@@ -26350,68 +26350,68 @@
       <c r="AP8" s="155"/>
     </row>
     <row r="9" spans="1:42" s="159" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="293" t="str">
+      <c r="A9" s="300" t="str">
         <f>+Translation!A103</f>
         <v>Work Package Number</v>
       </c>
-      <c r="B9" s="293" t="str">
+      <c r="B9" s="300" t="str">
         <f>+Translation!A104</f>
         <v>TYPE</v>
       </c>
-      <c r="C9" s="293" t="str">
+      <c r="C9" s="300" t="str">
         <f>+Translation!A105</f>
         <v>START</v>
       </c>
-      <c r="D9" s="293" t="str">
+      <c r="D9" s="300" t="str">
         <f>+Translation!A106</f>
         <v>DURATION</v>
       </c>
-      <c r="E9" s="294" t="str">
+      <c r="E9" s="301" t="str">
         <f>+Translation!A107</f>
         <v>MONTHS</v>
       </c>
-      <c r="F9" s="294"/>
-      <c r="G9" s="294"/>
-      <c r="H9" s="294"/>
-      <c r="I9" s="294"/>
-      <c r="J9" s="294"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="294"/>
-      <c r="M9" s="294"/>
-      <c r="N9" s="294"/>
-      <c r="O9" s="294"/>
-      <c r="P9" s="294"/>
-      <c r="Q9" s="294"/>
-      <c r="R9" s="294"/>
-      <c r="S9" s="294"/>
-      <c r="T9" s="294"/>
-      <c r="U9" s="294"/>
-      <c r="V9" s="294"/>
-      <c r="W9" s="294"/>
-      <c r="X9" s="294"/>
-      <c r="Y9" s="294"/>
-      <c r="Z9" s="294"/>
-      <c r="AA9" s="294"/>
-      <c r="AB9" s="294"/>
-      <c r="AC9" s="294"/>
-      <c r="AD9" s="294"/>
-      <c r="AE9" s="294"/>
-      <c r="AF9" s="294"/>
-      <c r="AG9" s="294"/>
-      <c r="AH9" s="294"/>
-      <c r="AI9" s="294"/>
-      <c r="AJ9" s="294"/>
-      <c r="AK9" s="294"/>
-      <c r="AL9" s="294"/>
-      <c r="AM9" s="294"/>
-      <c r="AN9" s="294"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="301"/>
+      <c r="I9" s="301"/>
+      <c r="J9" s="301"/>
+      <c r="K9" s="301"/>
+      <c r="L9" s="301"/>
+      <c r="M9" s="301"/>
+      <c r="N9" s="301"/>
+      <c r="O9" s="301"/>
+      <c r="P9" s="301"/>
+      <c r="Q9" s="301"/>
+      <c r="R9" s="301"/>
+      <c r="S9" s="301"/>
+      <c r="T9" s="301"/>
+      <c r="U9" s="301"/>
+      <c r="V9" s="301"/>
+      <c r="W9" s="301"/>
+      <c r="X9" s="301"/>
+      <c r="Y9" s="301"/>
+      <c r="Z9" s="301"/>
+      <c r="AA9" s="301"/>
+      <c r="AB9" s="301"/>
+      <c r="AC9" s="301"/>
+      <c r="AD9" s="301"/>
+      <c r="AE9" s="301"/>
+      <c r="AF9" s="301"/>
+      <c r="AG9" s="301"/>
+      <c r="AH9" s="301"/>
+      <c r="AI9" s="301"/>
+      <c r="AJ9" s="301"/>
+      <c r="AK9" s="301"/>
+      <c r="AL9" s="301"/>
+      <c r="AM9" s="301"/>
+      <c r="AN9" s="301"/>
       <c r="AP9" s="155"/>
     </row>
     <row r="10" spans="1:42" s="159" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="293"/>
-      <c r="B10" s="293"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
+      <c r="A10" s="300"/>
+      <c r="B10" s="300"/>
+      <c r="C10" s="300"/>
+      <c r="D10" s="300"/>
       <c r="E10" s="163">
         <v>1</v>
       </c>
@@ -28470,49 +28470,49 @@
       </c>
     </row>
     <row r="34" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="292" t="str">
+      <c r="A34" s="299" t="str">
         <f>+Translation!A108</f>
         <v>Please enter information on all Work  packages, Use their reference number as they appear in the "Detailed Project Description" - Colour the corresponding cells</v>
       </c>
-      <c r="B34" s="292"/>
-      <c r="C34" s="292"/>
-      <c r="D34" s="292"/>
-      <c r="E34" s="292"/>
-      <c r="F34" s="292"/>
-      <c r="G34" s="292"/>
-      <c r="H34" s="292"/>
-      <c r="I34" s="292"/>
-      <c r="J34" s="292"/>
-      <c r="K34" s="292"/>
-      <c r="L34" s="292"/>
-      <c r="M34" s="292"/>
-      <c r="N34" s="292"/>
-      <c r="O34" s="292"/>
-      <c r="P34" s="292"/>
-      <c r="Q34" s="292"/>
-      <c r="R34" s="292"/>
-      <c r="S34" s="292"/>
-      <c r="T34" s="292"/>
-      <c r="U34" s="292"/>
-      <c r="V34" s="292"/>
-      <c r="W34" s="292"/>
-      <c r="X34" s="292"/>
-      <c r="Y34" s="292"/>
-      <c r="Z34" s="292"/>
-      <c r="AA34" s="292"/>
-      <c r="AB34" s="292"/>
-      <c r="AC34" s="292"/>
-      <c r="AD34" s="292"/>
-      <c r="AE34" s="292"/>
-      <c r="AF34" s="292"/>
-      <c r="AG34" s="292"/>
-      <c r="AH34" s="292"/>
-      <c r="AI34" s="292"/>
-      <c r="AJ34" s="292"/>
-      <c r="AK34" s="292"/>
-      <c r="AL34" s="292"/>
-      <c r="AM34" s="292"/>
-      <c r="AN34" s="292"/>
+      <c r="B34" s="299"/>
+      <c r="C34" s="299"/>
+      <c r="D34" s="299"/>
+      <c r="E34" s="299"/>
+      <c r="F34" s="299"/>
+      <c r="G34" s="299"/>
+      <c r="H34" s="299"/>
+      <c r="I34" s="299"/>
+      <c r="J34" s="299"/>
+      <c r="K34" s="299"/>
+      <c r="L34" s="299"/>
+      <c r="M34" s="299"/>
+      <c r="N34" s="299"/>
+      <c r="O34" s="299"/>
+      <c r="P34" s="299"/>
+      <c r="Q34" s="299"/>
+      <c r="R34" s="299"/>
+      <c r="S34" s="299"/>
+      <c r="T34" s="299"/>
+      <c r="U34" s="299"/>
+      <c r="V34" s="299"/>
+      <c r="W34" s="299"/>
+      <c r="X34" s="299"/>
+      <c r="Y34" s="299"/>
+      <c r="Z34" s="299"/>
+      <c r="AA34" s="299"/>
+      <c r="AB34" s="299"/>
+      <c r="AC34" s="299"/>
+      <c r="AD34" s="299"/>
+      <c r="AE34" s="299"/>
+      <c r="AF34" s="299"/>
+      <c r="AG34" s="299"/>
+      <c r="AH34" s="299"/>
+      <c r="AI34" s="299"/>
+      <c r="AJ34" s="299"/>
+      <c r="AK34" s="299"/>
+      <c r="AL34" s="299"/>
+      <c r="AM34" s="299"/>
+      <c r="AN34" s="299"/>
     </row>
     <row r="35" spans="1:40" hidden="1" x14ac:dyDescent="0.25">
       <c r="E35" s="171" t="str">
@@ -29563,18 +29563,12 @@
   </sheetData>
   <sheetProtection password="8100" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="26">
-    <mergeCell ref="AD1:AJ1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AD2:AJ2"/>
-    <mergeCell ref="AK2:AN2"/>
-    <mergeCell ref="A3:AC3"/>
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="AK3:AN3"/>
-    <mergeCell ref="A4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="A34:AN34"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:AN9"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="O6:W6"/>
     <mergeCell ref="AD6:AJ7"/>
@@ -29583,12 +29577,18 @@
     <mergeCell ref="D7:K7"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="S7:W7"/>
-    <mergeCell ref="A34:AN34"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:AN9"/>
+    <mergeCell ref="A4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AD1:AJ1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="A3:AC3"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="AK3:AN3"/>
   </mergeCells>
   <conditionalFormatting sqref="E33:AN33 E35:AN40">
     <cfRule type="cellIs" dxfId="169" priority="2" operator="equal">
@@ -36572,7 +36572,7 @@
       </c>
       <c r="I5" s="225">
         <f>SUMIF('I and II. Overview'!$G$36:$G$75,H5,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H5,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>58728</v>
+        <v>58153</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -36614,7 +36614,7 @@
       </c>
       <c r="I8" s="225">
         <f>SUMIF('I and II. Overview'!$G$36:$G$75,H8,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H8,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>27094</v>
+        <v>26519</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -36628,7 +36628,7 @@
       </c>
       <c r="I9" s="225">
         <f>SUMIF('I and II. Overview'!$G$36:$G$75,H9,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H9,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>27094</v>
+        <v>26519</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -36642,7 +36642,7 @@
       </c>
       <c r="I10" s="225">
         <f>SUMIF('I and II. Overview'!$G$36:$G$75,H10,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H10,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>126804</v>
+        <v>127379</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -36656,7 +36656,7 @@
       </c>
       <c r="I11" s="225">
         <f>SUMIF('I and II. Overview'!$G$36:$G$75,H11,'I and II. Overview'!$Z$36:$AA$75)+SUMIF('I and II. Overview'!$H$36:$H$75,H11,'I and II. Overview'!$Z$36:$AA$75)</f>
-        <v>69780</v>
+        <v>70930</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
